--- a/code/shabdakala/resource/work/sbwords.xlsx
+++ b/code/shabdakala/resource/work/sbwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/github/shabdakala/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F54C13-0FDC-E748-8222-46672311602D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24367EE-5B6C-4642-8CB0-5C60A74DA2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="880" windowWidth="28040" windowHeight="17440" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="447">
   <si>
     <t>word0</t>
   </si>
@@ -260,9 +260,6 @@
     <t>संग्रहालय</t>
   </si>
   <si>
-    <t>कारावास</t>
-  </si>
-  <si>
     <t>आगा खान पॅलेस</t>
   </si>
   <si>
@@ -1170,6 +1167,213 @@
   </si>
   <si>
     <t>चीनचे प्राचीन शोध</t>
+  </si>
+  <si>
+    <t>स्थानबद्ध</t>
+  </si>
+  <si>
+    <t>मशाल</t>
+  </si>
+  <si>
+    <t>इंजिन</t>
+  </si>
+  <si>
+    <t>कमळ</t>
+  </si>
+  <si>
+    <t>घड्याळ</t>
+  </si>
+  <si>
+    <t>महाराष्ट्रातील पक्षांची निवडणूक चिन्हे</t>
+  </si>
+  <si>
+    <t>झोप</t>
+  </si>
+  <si>
+    <t>ठेच</t>
+  </si>
+  <si>
+    <t>बस</t>
+  </si>
+  <si>
+    <t>वाट</t>
+  </si>
+  <si>
+    <t>ही “लागते” :-)</t>
+  </si>
+  <si>
+    <t>संधी</t>
+  </si>
+  <si>
+    <t>जागा</t>
+  </si>
+  <si>
+    <t>ही “मिळते” :-)</t>
+  </si>
+  <si>
+    <t>तलफ</t>
+  </si>
+  <si>
+    <t>मंदी</t>
+  </si>
+  <si>
+    <t>जाग</t>
+  </si>
+  <si>
+    <t>शिंक</t>
+  </si>
+  <si>
+    <t>बहार</t>
+  </si>
+  <si>
+    <t>नंद</t>
+  </si>
+  <si>
+    <t>शिव</t>
+  </si>
+  <si>
+    <t>चार</t>
+  </si>
+  <si>
+    <t>दोन</t>
+  </si>
+  <si>
+    <t>तीन</t>
+  </si>
+  <si>
+    <t>पाच</t>
+  </si>
+  <si>
+    <t>सात</t>
+  </si>
+  <si>
+    <t>पहिल्या ४ मूळ संख्या</t>
+  </si>
+  <si>
+    <t>किरण</t>
+  </si>
+  <si>
+    <t>सुहास</t>
+  </si>
+  <si>
+    <t>चारु</t>
+  </si>
+  <si>
+    <t>शीतल</t>
+  </si>
+  <si>
+    <t>मराठी “यूनिसेक्स्” नावं</t>
+  </si>
+  <si>
+    <t>नंदा</t>
+  </si>
+  <si>
+    <t>नाथा</t>
+  </si>
+  <si>
+    <t>लखू</t>
+  </si>
+  <si>
+    <t>गजा</t>
+  </si>
+  <si>
+    <t>केदार</t>
+  </si>
+  <si>
+    <t>सारंग</t>
+  </si>
+  <si>
+    <t>कल्याण</t>
+  </si>
+  <si>
+    <t>मूळ</t>
+  </si>
+  <si>
+    <t>स्वाती</t>
+  </si>
+  <si>
+    <t>हस्त</t>
+  </si>
+  <si>
+    <t>चित्रा</t>
+  </si>
+  <si>
+    <t>नक्षत्रं</t>
+  </si>
+  <si>
+    <t>नंदी</t>
+  </si>
+  <si>
+    <t>रेडा</t>
+  </si>
+  <si>
+    <t>उंदीर</t>
+  </si>
+  <si>
+    <t>गरुड</t>
+  </si>
+  <si>
+    <t>भर</t>
+  </si>
+  <si>
+    <t>ओढ</t>
+  </si>
+  <si>
+    <t>ठेव</t>
+  </si>
+  <si>
+    <t>नामरुपे आणि क्रियेची आज्ञार्थ रुपे</t>
+  </si>
+  <si>
+    <t>उत्प्रेक्षा</t>
+  </si>
+  <si>
+    <t>यमक</t>
+  </si>
+  <si>
+    <t>रूपक</t>
+  </si>
+  <si>
+    <t>उपमा</t>
+  </si>
+  <si>
+    <t>'सदा' हा उपसर्ग लावून अर्थपूर्ण शब्द</t>
+  </si>
+  <si>
+    <t>नोकरी</t>
+  </si>
+  <si>
+    <t>सागरा धरणी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">व्यक्ती आणि वल्ली' मधील काही व्यक्तिरेखा </t>
+  </si>
+  <si>
+    <t>आसावरी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">काही देवांची वाहने </t>
+  </si>
+  <si>
+    <t>मराठी भाषालंकार</t>
+  </si>
+  <si>
+    <t>maths</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>काही राग</t>
+  </si>
+  <si>
+    <t>astro</t>
+  </si>
+  <si>
+    <t>mythology</t>
+  </si>
+  <si>
+    <t>ही “येते” :-)</t>
   </si>
 </sst>
 </file>
@@ -1688,7 +1892,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1696,6 +1900,7 @@
     <xf numFmtId="15" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="19" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1741,7 +1946,29 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2083,10 +2310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2127,13 +2354,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>356</v>
       </c>
       <c r="L1" s="4">
         <v>45626</v>
@@ -2141,25 +2368,25 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
         <v>107</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>109</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>110</v>
       </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H2">
         <f>INT(J2/3)</f>
@@ -2174,7 +2401,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45629</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2191,13 +2418,13 @@
         <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="1">INT(J3/3)</f>
@@ -2215,25 +2442,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
         <v>144</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>145</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>146</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>147</v>
       </c>
-      <c r="E4" t="s">
-        <v>148</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
@@ -2251,25 +2478,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" t="s">
         <v>268</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>269</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>270</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>271</v>
       </c>
-      <c r="E5" t="s">
-        <v>272</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -2287,25 +2514,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
         <v>82</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>83</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>84</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>85</v>
       </c>
-      <c r="E6" t="s">
-        <v>86</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -2323,25 +2550,25 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
         <v>122</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>123</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>124</v>
       </c>
-      <c r="E7" t="s">
-        <v>125</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -2359,25 +2586,25 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8" t="s">
         <v>347</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>348</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>349</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>350</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>351</v>
       </c>
-      <c r="F8" t="s">
-        <v>352</v>
-      </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -2394,32 +2621,32 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9" t="s">
         <v>337</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>338</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>339</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>340</v>
       </c>
-      <c r="E9" t="s">
-        <v>341</v>
-      </c>
       <c r="F9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" ref="I9:I71" si="3">$L$1+H9</f>
+        <f t="shared" ref="I9:I84" si="3">$L$1+H9</f>
         <v>45628</v>
       </c>
       <c r="J9">
@@ -2429,25 +2656,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B10" t="s">
         <v>342</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>343</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>344</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>345</v>
       </c>
-      <c r="E10" t="s">
-        <v>346</v>
-      </c>
       <c r="F10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -2464,25 +2691,25 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -2499,28 +2726,28 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>360</v>
+      </c>
+      <c r="B12" t="s">
         <v>361</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>368</v>
+      </c>
+      <c r="D12" t="s">
         <v>362</v>
       </c>
-      <c r="C12" t="s">
-        <v>369</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>363</v>
       </c>
-      <c r="E12" t="s">
-        <v>364</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:H74" si="5">INT(J12/3)</f>
+        <f t="shared" ref="H12:H87" si="5">INT(J12/3)</f>
         <v>3</v>
       </c>
       <c r="I12" s="3">
@@ -2528,31 +2755,31 @@
         <v>45629</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J74" si="6">J11+1</f>
+        <f t="shared" ref="J12:J87" si="6">J11+1</f>
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" t="s">
         <v>365</v>
       </c>
-      <c r="B13" t="s">
-        <v>238</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>366</v>
       </c>
-      <c r="D13" t="s">
-        <v>367</v>
-      </c>
       <c r="E13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H13">
         <f t="shared" si="5"/>
@@ -2569,25 +2796,25 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" t="s">
         <v>139</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>140</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>141</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>142</v>
       </c>
-      <c r="E14" t="s">
-        <v>143</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H14">
         <f t="shared" si="5"/>
@@ -2604,25 +2831,25 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
         <v>97</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>98</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>99</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>100</v>
       </c>
-      <c r="E15" t="s">
-        <v>101</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H15">
         <f t="shared" si="5"/>
@@ -2651,13 +2878,13 @@
         <v>67</v>
       </c>
       <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="H16">
         <f t="shared" si="5"/>
@@ -2686,10 +2913,10 @@
         <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>53</v>
@@ -2709,25 +2936,25 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" t="s">
         <v>126</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>127</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>128</v>
       </c>
-      <c r="E18" t="s">
-        <v>129</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H18">
         <f t="shared" si="5"/>
@@ -2759,7 +2986,7 @@
         <v>17</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>12</v>
@@ -2779,25 +3006,25 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" t="s">
         <v>165</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>166</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>167</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>168</v>
       </c>
-      <c r="E20" t="s">
-        <v>169</v>
-      </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
@@ -2814,25 +3041,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
         <v>109</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>110</v>
       </c>
-      <c r="E21" t="s">
-        <v>111</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H21">
         <f t="shared" si="5"/>
@@ -2849,25 +3076,25 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s">
         <v>144</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>145</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>146</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>147</v>
       </c>
-      <c r="E22" t="s">
-        <v>148</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H22">
         <f t="shared" ref="H22:H23" si="7">INT(J22/3)</f>
@@ -2899,17 +3126,17 @@
         <v>48</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H23">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H23:H86" si="9">INT(J23/3)</f>
         <v>7</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="I23:I86" si="10">$L$1+H23</f>
         <v>45633</v>
       </c>
       <c r="J23">
@@ -2934,17 +3161,17 @@
         <v>41</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45633</v>
       </c>
       <c r="J24">
@@ -2954,32 +3181,32 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>379</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>380</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>381</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>382</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>94</v>
+        <v>383</v>
+      </c>
+      <c r="F25" t="s">
+        <v>414</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="H25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45633</v>
       </c>
       <c r="J25">
@@ -2989,32 +3216,32 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>263</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>264</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>266</v>
+        <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="H26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45634</v>
       </c>
       <c r="J26">
@@ -3024,32 +3251,32 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>264</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>265</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>266</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="H27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45634</v>
       </c>
       <c r="J27">
@@ -3059,32 +3286,32 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>422</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>423</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>424</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>425</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>94</v>
+        <v>439</v>
+      </c>
+      <c r="F28" t="s">
+        <v>414</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>150</v>
+        <v>445</v>
       </c>
       <c r="H28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45634</v>
       </c>
       <c r="J28">
@@ -3094,32 +3321,32 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>277</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>278</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>280</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>281</v>
+        <v>105</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="H29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45635</v>
       </c>
       <c r="J29">
@@ -3129,32 +3356,32 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
-        <v>372</v>
+        <v>115</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="H30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45635</v>
       </c>
       <c r="J30">
@@ -3164,32 +3391,32 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>277</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>280</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>353</v>
+        <v>93</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45635</v>
       </c>
       <c r="J31">
@@ -3199,32 +3426,32 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>121</v>
+        <v>371</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="H32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45636</v>
       </c>
       <c r="J32">
@@ -3234,32 +3461,32 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>214</v>
+        <v>384</v>
       </c>
       <c r="B33" t="s">
-        <v>215</v>
+        <v>385</v>
       </c>
       <c r="C33" t="s">
-        <v>216</v>
+        <v>386</v>
       </c>
       <c r="D33" t="s">
-        <v>217</v>
+        <v>387</v>
       </c>
       <c r="E33" t="s">
-        <v>218</v>
+        <v>388</v>
       </c>
       <c r="F33" t="s">
-        <v>262</v>
+        <v>414</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>154</v>
+        <v>286</v>
       </c>
       <c r="H33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45636</v>
       </c>
       <c r="J33">
@@ -3269,32 +3496,32 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>94</v>
+        <v>352</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="H34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45636</v>
       </c>
       <c r="J34">
@@ -3304,32 +3531,32 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>206</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
       <c r="E35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F35" t="s">
-        <v>262</v>
+        <v>120</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="H35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45637</v>
       </c>
       <c r="J35">
@@ -3339,32 +3566,32 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>213</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>94</v>
+        <v>217</v>
+      </c>
+      <c r="F36" t="s">
+        <v>261</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="H36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45637</v>
       </c>
       <c r="J36">
@@ -3374,32 +3601,32 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>203</v>
-      </c>
-      <c r="F37" t="s">
-        <v>262</v>
+        <v>90</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45637</v>
       </c>
       <c r="J37">
@@ -3408,33 +3635,33 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>42.195</v>
+      <c r="A38" t="s">
+        <v>436</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>389</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>390</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>435</v>
       </c>
       <c r="E38" t="s">
-        <v>133</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>94</v>
+        <v>391</v>
+      </c>
+      <c r="F38" t="s">
+        <v>414</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>153</v>
+        <v>286</v>
       </c>
       <c r="H38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45638</v>
       </c>
       <c r="J38">
@@ -3444,32 +3671,32 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>353</v>
+        <v>207</v>
+      </c>
+      <c r="F39" t="s">
+        <v>261</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
       <c r="I39" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45638</v>
       </c>
       <c r="J39">
@@ -3479,32 +3706,32 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>178</v>
+        <v>378</v>
       </c>
       <c r="E40" t="s">
-        <v>179</v>
-      </c>
-      <c r="F40" t="s">
-        <v>195</v>
+        <v>75</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="H40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45638</v>
       </c>
       <c r="J40">
@@ -3514,32 +3741,32 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="B41" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C41" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="D41" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="F41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>288</v>
+        <v>95</v>
       </c>
       <c r="H41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45639</v>
       </c>
       <c r="J41">
@@ -3549,32 +3776,32 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>243</v>
+        <v>426</v>
       </c>
       <c r="B42" t="s">
-        <v>244</v>
+        <v>427</v>
       </c>
       <c r="C42" t="s">
-        <v>245</v>
+        <v>428</v>
       </c>
       <c r="D42" t="s">
-        <v>246</v>
+        <v>386</v>
       </c>
       <c r="E42" t="s">
-        <v>247</v>
+        <v>429</v>
       </c>
       <c r="F42" t="s">
-        <v>262</v>
+        <v>414</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>150</v>
+        <v>286</v>
       </c>
       <c r="H42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45639</v>
       </c>
       <c r="J42">
@@ -3583,33 +3810,33 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>35</v>
+      <c r="A43" s="2">
+        <v>42.195</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>353</v>
+        <v>93</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="H43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45639</v>
       </c>
       <c r="J43">
@@ -3619,32 +3846,32 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>219</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>222</v>
-      </c>
-      <c r="F44" t="s">
-        <v>262</v>
+        <v>46</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="H44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45640</v>
       </c>
       <c r="J44">
@@ -3654,32 +3881,32 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>322</v>
+        <v>174</v>
       </c>
       <c r="B45" t="s">
-        <v>323</v>
+        <v>175</v>
       </c>
       <c r="C45" t="s">
-        <v>324</v>
+        <v>176</v>
       </c>
       <c r="D45" t="s">
-        <v>325</v>
+        <v>177</v>
       </c>
       <c r="E45" t="s">
-        <v>330</v>
+        <v>178</v>
       </c>
       <c r="F45" t="s">
-        <v>331</v>
+        <v>194</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="H45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45640</v>
       </c>
       <c r="J45">
@@ -3689,32 +3916,32 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="D46" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="E46" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="F46" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="H46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45640</v>
       </c>
       <c r="J46">
@@ -3723,33 +3950,33 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>353</v>
+      <c r="A47" t="s">
+        <v>392</v>
+      </c>
+      <c r="B47" t="s">
+        <v>393</v>
+      </c>
+      <c r="C47" t="s">
+        <v>394</v>
+      </c>
+      <c r="D47" t="s">
+        <v>395</v>
+      </c>
+      <c r="E47" t="s">
+        <v>446</v>
+      </c>
+      <c r="F47" t="s">
+        <v>414</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="H47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45641</v>
       </c>
       <c r="J47">
@@ -3759,32 +3986,32 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B48" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C48" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D48" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F48" t="s">
         <v>261</v>
       </c>
-      <c r="F48" t="s">
-        <v>262</v>
-      </c>
       <c r="G48" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45641</v>
       </c>
       <c r="J48">
@@ -3794,32 +4021,32 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>290</v>
+        <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>291</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>292</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>293</v>
+        <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>330</v>
-      </c>
-      <c r="F49" t="s">
-        <v>331</v>
+        <v>37</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="H49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45641</v>
       </c>
       <c r="J49">
@@ -3829,32 +4056,32 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>305</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="C50" t="s">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="D50" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="E50" t="s">
-        <v>309</v>
+        <v>221</v>
       </c>
       <c r="F50" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="H50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45642</v>
       </c>
       <c r="J50">
@@ -3864,32 +4091,32 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="B51" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="C51" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="D51" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="E51" t="s">
+        <v>329</v>
+      </c>
+      <c r="F51" t="s">
         <v>330</v>
       </c>
-      <c r="F51" t="s">
-        <v>331</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="I51" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45642</v>
       </c>
       <c r="J51">
@@ -3899,32 +4126,32 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>332</v>
+        <v>159</v>
       </c>
       <c r="B52" t="s">
-        <v>333</v>
+        <v>160</v>
       </c>
       <c r="C52" t="s">
-        <v>334</v>
+        <v>161</v>
       </c>
       <c r="D52" t="s">
-        <v>335</v>
+        <v>162</v>
       </c>
       <c r="E52" t="s">
-        <v>336</v>
+        <v>163</v>
       </c>
       <c r="F52" t="s">
-        <v>331</v>
+        <v>194</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="H52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45642</v>
       </c>
       <c r="J52">
@@ -3934,32 +4161,32 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>396</v>
       </c>
       <c r="B53" t="s">
-        <v>294</v>
+        <v>397</v>
       </c>
       <c r="C53" t="s">
-        <v>295</v>
+        <v>398</v>
       </c>
       <c r="D53" t="s">
-        <v>296</v>
+        <v>399</v>
       </c>
       <c r="E53" t="s">
-        <v>330</v>
+        <v>434</v>
       </c>
       <c r="F53" t="s">
-        <v>331</v>
+        <v>414</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>149</v>
+        <v>286</v>
       </c>
       <c r="H53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45643</v>
       </c>
       <c r="J53">
@@ -3969,32 +4196,32 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>233</v>
+        <v>417</v>
       </c>
       <c r="B54" t="s">
-        <v>234</v>
+        <v>418</v>
       </c>
       <c r="C54" t="s">
-        <v>235</v>
+        <v>419</v>
       </c>
       <c r="D54" t="s">
-        <v>236</v>
+        <v>420</v>
       </c>
       <c r="E54" t="s">
-        <v>237</v>
+        <v>421</v>
       </c>
       <c r="F54" t="s">
-        <v>262</v>
+        <v>414</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>149</v>
+        <v>444</v>
       </c>
       <c r="H54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45643</v>
       </c>
       <c r="J54">
@@ -4003,33 +4230,33 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>326</v>
-      </c>
-      <c r="B55" t="s">
-        <v>327</v>
-      </c>
-      <c r="C55" t="s">
-        <v>328</v>
-      </c>
-      <c r="D55" t="s">
-        <v>329</v>
-      </c>
-      <c r="E55" t="s">
-        <v>330</v>
-      </c>
-      <c r="F55" t="s">
-        <v>331</v>
+      <c r="A55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="H55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45643</v>
       </c>
       <c r="J55">
@@ -4039,32 +4266,32 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>258</v>
       </c>
       <c r="D56" t="s">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="E56" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="F56" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="I56" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45644</v>
       </c>
       <c r="J56">
@@ -4074,32 +4301,32 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="B57" t="s">
-        <v>181</v>
+        <v>431</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>432</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
+        <v>433</v>
       </c>
       <c r="E57" t="s">
-        <v>184</v>
+        <v>440</v>
       </c>
       <c r="F57" t="s">
-        <v>195</v>
+        <v>414</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>149</v>
+        <v>286</v>
       </c>
       <c r="H57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45644</v>
       </c>
       <c r="J57">
@@ -4109,32 +4336,32 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="B58" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="C58" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="D58" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="E58" t="s">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="F58" t="s">
-        <v>262</v>
+        <v>330</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45644</v>
       </c>
       <c r="J58">
@@ -4144,32 +4371,32 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B59" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C59" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D59" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="E59" t="s">
+        <v>308</v>
+      </c>
+      <c r="F59" t="s">
         <v>330</v>
       </c>
-      <c r="F59" t="s">
-        <v>331</v>
-      </c>
       <c r="G59" s="1" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="H59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="I59" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45645</v>
       </c>
       <c r="J59">
@@ -4179,32 +4406,32 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>302</v>
       </c>
       <c r="D60" t="s">
-        <v>33</v>
+        <v>303</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>353</v>
+        <v>329</v>
+      </c>
+      <c r="F60" t="s">
+        <v>330</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="H60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45645</v>
       </c>
       <c r="J60">
@@ -4214,32 +4441,32 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>190</v>
+        <v>331</v>
       </c>
       <c r="B61" t="s">
-        <v>191</v>
+        <v>332</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>333</v>
       </c>
       <c r="D61" t="s">
-        <v>193</v>
+        <v>334</v>
       </c>
       <c r="E61" t="s">
-        <v>194</v>
+        <v>335</v>
       </c>
       <c r="F61" t="s">
-        <v>195</v>
+        <v>330</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="H61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="I61" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45645</v>
       </c>
       <c r="J61">
@@ -4252,29 +4479,29 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>293</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>294</v>
       </c>
       <c r="D62" t="s">
-        <v>59</v>
+        <v>295</v>
       </c>
       <c r="E62" t="s">
-        <v>60</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>94</v>
+        <v>329</v>
+      </c>
+      <c r="F62" t="s">
+        <v>330</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="H62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45646</v>
       </c>
       <c r="J62">
@@ -4284,32 +4511,32 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>238</v>
+        <v>400</v>
       </c>
       <c r="B63" t="s">
-        <v>239</v>
+        <v>401</v>
       </c>
       <c r="C63" t="s">
-        <v>240</v>
+        <v>402</v>
       </c>
       <c r="D63" t="s">
-        <v>241</v>
+        <v>403</v>
       </c>
       <c r="E63" t="s">
-        <v>242</v>
+        <v>404</v>
       </c>
       <c r="F63" t="s">
-        <v>262</v>
+        <v>414</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>289</v>
+        <v>441</v>
       </c>
       <c r="H63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="I63" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45646</v>
       </c>
       <c r="J63">
@@ -4319,32 +4546,32 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="C64" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="D64" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="E64" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="F64" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="H64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="I64" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45646</v>
       </c>
       <c r="J64">
@@ -4354,32 +4581,32 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="B65" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="C65" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="D65" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="E65" t="s">
-        <v>286</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>94</v>
+        <v>329</v>
+      </c>
+      <c r="F65" t="s">
+        <v>330</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="H65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45647</v>
       </c>
       <c r="J65">
@@ -4389,32 +4616,32 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c r="B66" t="s">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="C66" t="s">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="D66" t="s">
-        <v>251</v>
+        <v>172</v>
       </c>
       <c r="E66" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
       <c r="F66" t="s">
-        <v>262</v>
+        <v>194</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="H66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45647</v>
       </c>
       <c r="J66">
@@ -4424,32 +4651,32 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>318</v>
+        <v>179</v>
       </c>
       <c r="B67" t="s">
-        <v>319</v>
+        <v>180</v>
       </c>
       <c r="C67" t="s">
-        <v>320</v>
+        <v>181</v>
       </c>
       <c r="D67" t="s">
-        <v>321</v>
+        <v>182</v>
       </c>
       <c r="E67" t="s">
-        <v>330</v>
+        <v>183</v>
       </c>
       <c r="F67" t="s">
-        <v>331</v>
+        <v>194</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45647</v>
       </c>
       <c r="J67">
@@ -4459,32 +4686,32 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>373</v>
+        <v>208</v>
       </c>
       <c r="B68" t="s">
-        <v>374</v>
+        <v>209</v>
       </c>
       <c r="C68" t="s">
-        <v>297</v>
+        <v>210</v>
       </c>
       <c r="D68" t="s">
-        <v>298</v>
+        <v>211</v>
       </c>
       <c r="E68" t="s">
-        <v>330</v>
+        <v>212</v>
       </c>
       <c r="F68" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45648</v>
       </c>
       <c r="J68">
@@ -4494,32 +4721,32 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="B69" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="C69" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="D69" t="s">
-        <v>255</v>
+        <v>316</v>
       </c>
       <c r="E69" t="s">
-        <v>276</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>94</v>
+        <v>329</v>
+      </c>
+      <c r="F69" t="s">
+        <v>330</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45648</v>
       </c>
       <c r="J69">
@@ -4529,32 +4756,32 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>214</v>
+        <v>405</v>
       </c>
       <c r="B70" t="s">
-        <v>253</v>
+        <v>406</v>
       </c>
       <c r="C70" t="s">
-        <v>254</v>
+        <v>407</v>
       </c>
       <c r="D70" t="s">
-        <v>255</v>
+        <v>408</v>
       </c>
       <c r="E70" t="s">
-        <v>256</v>
+        <v>409</v>
       </c>
       <c r="F70" t="s">
-        <v>262</v>
+        <v>414</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>152</v>
+        <v>286</v>
       </c>
       <c r="H70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="I70" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45648</v>
       </c>
       <c r="J70">
@@ -4564,32 +4791,32 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>299</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>375</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="D71" t="s">
-        <v>376</v>
+        <v>33</v>
       </c>
       <c r="E71" t="s">
-        <v>330</v>
-      </c>
-      <c r="F71" t="s">
-        <v>331</v>
+        <v>34</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="H71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="I71" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45649</v>
       </c>
       <c r="J71">
@@ -4599,32 +4826,32 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>310</v>
+        <v>189</v>
       </c>
       <c r="B72" t="s">
-        <v>311</v>
+        <v>190</v>
       </c>
       <c r="C72" t="s">
-        <v>312</v>
+        <v>191</v>
       </c>
       <c r="D72" t="s">
-        <v>313</v>
+        <v>192</v>
       </c>
       <c r="E72" t="s">
-        <v>330</v>
+        <v>193</v>
       </c>
       <c r="F72" t="s">
-        <v>331</v>
+        <v>194</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="H72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="I72" s="3">
-        <f t="shared" ref="I72:I75" si="9">$L$1+H72</f>
+        <f t="shared" si="10"/>
         <v>45649</v>
       </c>
       <c r="J72">
@@ -4634,32 +4861,32 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>229</v>
+        <v>57</v>
       </c>
       <c r="C73" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="D73" t="s">
-        <v>231</v>
+        <v>59</v>
       </c>
       <c r="E73" t="s">
-        <v>232</v>
-      </c>
-      <c r="F73" t="s">
-        <v>262</v>
+        <v>60</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="H73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="I73" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45649</v>
       </c>
       <c r="J73">
@@ -4669,32 +4896,32 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>155</v>
+        <v>237</v>
       </c>
       <c r="B74" t="s">
-        <v>156</v>
+        <v>238</v>
       </c>
       <c r="C74" t="s">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="D74" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="E74" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="F74" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>196</v>
+        <v>288</v>
       </c>
       <c r="H74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="I74" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45650</v>
       </c>
       <c r="J74">
@@ -4704,46 +4931,509 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>184</v>
+      </c>
+      <c r="B75" t="s">
+        <v>185</v>
+      </c>
+      <c r="C75" t="s">
+        <v>186</v>
+      </c>
+      <c r="D75" t="s">
+        <v>187</v>
+      </c>
+      <c r="E75" t="s">
+        <v>188</v>
+      </c>
+      <c r="F75" t="s">
+        <v>194</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="I75" s="3">
+        <f t="shared" si="10"/>
+        <v>45650</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>410</v>
+      </c>
+      <c r="B76" t="s">
+        <v>411</v>
+      </c>
+      <c r="C76" t="s">
+        <v>412</v>
+      </c>
+      <c r="D76" t="s">
+        <v>413</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F76" t="s">
+        <v>414</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="I76" s="3">
+        <f t="shared" si="10"/>
+        <v>45650</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>281</v>
+      </c>
+      <c r="B77" t="s">
+        <v>282</v>
+      </c>
+      <c r="C77" t="s">
+        <v>283</v>
+      </c>
+      <c r="D77" t="s">
+        <v>284</v>
+      </c>
+      <c r="E77" t="s">
+        <v>285</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="I77" s="3">
+        <f t="shared" si="10"/>
+        <v>45651</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>247</v>
+      </c>
+      <c r="B78" t="s">
+        <v>248</v>
+      </c>
+      <c r="C78" t="s">
+        <v>249</v>
+      </c>
+      <c r="D78" t="s">
+        <v>250</v>
+      </c>
+      <c r="E78" t="s">
+        <v>251</v>
+      </c>
+      <c r="F78" t="s">
+        <v>261</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="I78" s="3">
+        <f t="shared" si="10"/>
+        <v>45651</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>317</v>
+      </c>
+      <c r="B79" t="s">
+        <v>318</v>
+      </c>
+      <c r="C79" t="s">
+        <v>319</v>
+      </c>
+      <c r="D79" t="s">
+        <v>320</v>
+      </c>
+      <c r="E79" t="s">
+        <v>329</v>
+      </c>
+      <c r="F79" t="s">
+        <v>330</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="I79" s="3">
+        <f t="shared" si="10"/>
+        <v>45651</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="6"/>
         <v>77</v>
       </c>
-      <c r="B75" t="s">
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>372</v>
+      </c>
+      <c r="B80" t="s">
+        <v>373</v>
+      </c>
+      <c r="C80" t="s">
+        <v>296</v>
+      </c>
+      <c r="D80" t="s">
+        <v>297</v>
+      </c>
+      <c r="E80" t="s">
+        <v>329</v>
+      </c>
+      <c r="F80" t="s">
+        <v>330</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="I80" s="3">
+        <f t="shared" si="10"/>
+        <v>45652</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="C75" t="s">
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>414</v>
+      </c>
+      <c r="B81" t="s">
+        <v>438</v>
+      </c>
+      <c r="C81" t="s">
+        <v>415</v>
+      </c>
+      <c r="D81" t="s">
+        <v>416</v>
+      </c>
+      <c r="E81" t="s">
+        <v>443</v>
+      </c>
+      <c r="F81" t="s">
+        <v>414</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="I81" s="3">
+        <f t="shared" si="10"/>
+        <v>45652</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
-      <c r="D75" t="s">
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>272</v>
+      </c>
+      <c r="B82" t="s">
+        <v>273</v>
+      </c>
+      <c r="C82" t="s">
+        <v>274</v>
+      </c>
+      <c r="D82" t="s">
+        <v>254</v>
+      </c>
+      <c r="E82" t="s">
+        <v>275</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="I82" s="3">
+        <f t="shared" si="10"/>
+        <v>45652</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="E75" t="s">
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>213</v>
+      </c>
+      <c r="B83" t="s">
+        <v>252</v>
+      </c>
+      <c r="C83" t="s">
+        <v>253</v>
+      </c>
+      <c r="D83" t="s">
+        <v>254</v>
+      </c>
+      <c r="E83" t="s">
+        <v>255</v>
+      </c>
+      <c r="F83" t="s">
+        <v>261</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="I83" s="3">
+        <f t="shared" si="10"/>
+        <v>45653</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H75">
-        <f t="shared" ref="H75" si="10">INT(J75/3)</f>
-        <v>24</v>
-      </c>
-      <c r="I75" s="3">
-        <f t="shared" si="9"/>
-        <v>45650</v>
-      </c>
-      <c r="J75">
-        <f t="shared" ref="J75" si="11">J74+1</f>
-        <v>73</v>
-      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>298</v>
+      </c>
+      <c r="B84" t="s">
+        <v>374</v>
+      </c>
+      <c r="C84" t="s">
+        <v>299</v>
+      </c>
+      <c r="D84" t="s">
+        <v>375</v>
+      </c>
+      <c r="E84" t="s">
+        <v>329</v>
+      </c>
+      <c r="F84" t="s">
+        <v>330</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="I84" s="3">
+        <f t="shared" si="10"/>
+        <v>45653</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>309</v>
+      </c>
+      <c r="B85" t="s">
+        <v>310</v>
+      </c>
+      <c r="C85" t="s">
+        <v>311</v>
+      </c>
+      <c r="D85" t="s">
+        <v>312</v>
+      </c>
+      <c r="E85" t="s">
+        <v>329</v>
+      </c>
+      <c r="F85" t="s">
+        <v>330</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="I85" s="3">
+        <f t="shared" si="10"/>
+        <v>45653</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>227</v>
+      </c>
+      <c r="B86" t="s">
+        <v>228</v>
+      </c>
+      <c r="C86" t="s">
+        <v>229</v>
+      </c>
+      <c r="D86" t="s">
+        <v>230</v>
+      </c>
+      <c r="E86" t="s">
+        <v>231</v>
+      </c>
+      <c r="F86" t="s">
+        <v>261</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="I86" s="3">
+        <f t="shared" si="10"/>
+        <v>45654</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" t="s">
+        <v>155</v>
+      </c>
+      <c r="C87" t="s">
+        <v>156</v>
+      </c>
+      <c r="D87" t="s">
+        <v>157</v>
+      </c>
+      <c r="E87" t="s">
+        <v>158</v>
+      </c>
+      <c r="F87" t="s">
+        <v>194</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H87">
+        <f t="shared" ref="H87:H88" si="11">INT(J87/3)</f>
+        <v>28</v>
+      </c>
+      <c r="I87" s="3">
+        <f t="shared" ref="I87:I88" si="12">$L$1+H87</f>
+        <v>45654</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" t="s">
+        <v>79</v>
+      </c>
+      <c r="E88" t="s">
+        <v>80</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="I88" s="3">
+        <f t="shared" si="12"/>
+        <v>45654</v>
+      </c>
+      <c r="J88">
+        <f t="shared" ref="J88" si="13">J87+1</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="I89" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H78">
-    <sortCondition ref="H8:H78"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H91">
+    <sortCondition ref="H8:H91"/>
   </sortState>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I99:I1048576 I1:I89">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+      <formula>$L$2+1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/code/shabdakala/resource/work/sbwords.xlsx
+++ b/code/shabdakala/resource/work/sbwords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/github/shabdakala/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24367EE-5B6C-4642-8CB0-5C60A74DA2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F760B97E-ECF7-6F48-8146-D04B1066D2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="880" windowWidth="28040" windowHeight="17440" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
   <sheets>
     <sheet name="sbwords" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="664">
   <si>
     <t>word0</t>
   </si>
@@ -56,21 +56,9 @@
     <t>category</t>
   </si>
   <si>
-    <t>दूध</t>
-  </si>
-  <si>
-    <t>बगळा</t>
-  </si>
-  <si>
     <t>मीठ</t>
   </si>
   <si>
-    <t>ढग</t>
-  </si>
-  <si>
-    <t>पांढऱ्या गोष्टी</t>
-  </si>
-  <si>
     <t>things</t>
   </si>
   <si>
@@ -1250,6 +1238,9 @@
     <t>पहिल्या ४ मूळ संख्या</t>
   </si>
   <si>
+    <t>यम</t>
+  </si>
+  <si>
     <t>किरण</t>
   </si>
   <si>
@@ -1374,6 +1365,666 @@
   </si>
   <si>
     <t>ही “येते” :-)</t>
+  </si>
+  <si>
+    <t>चाखणे</t>
+  </si>
+  <si>
+    <t>चावणे</t>
+  </si>
+  <si>
+    <t>गिळणे</t>
+  </si>
+  <si>
+    <t>खाणे</t>
+  </si>
+  <si>
+    <t>खाण्याशी संबंधित क्रिया</t>
+  </si>
+  <si>
+    <t>AI प्रणाली</t>
+  </si>
+  <si>
+    <t>मिरवणूक</t>
+  </si>
+  <si>
+    <t>भाद्रपद</t>
+  </si>
+  <si>
+    <t>आरती</t>
+  </si>
+  <si>
+    <t>गणेशोत्सव</t>
+  </si>
+  <si>
+    <t>HVN Unplugged</t>
+  </si>
+  <si>
+    <t>ग्वाल्हेर</t>
+  </si>
+  <si>
+    <t>जयपूर</t>
+  </si>
+  <si>
+    <t>मेवाती</t>
+  </si>
+  <si>
+    <t>भेंडी बाजार</t>
+  </si>
+  <si>
+    <t>हिंदुस्थानी शास्त्रीय संगीतातली घराणी</t>
+  </si>
+  <si>
+    <t>नांगरणी</t>
+  </si>
+  <si>
+    <t>रब्बी</t>
+  </si>
+  <si>
+    <t>खरीप</t>
+  </si>
+  <si>
+    <t>पेरणी</t>
+  </si>
+  <si>
+    <t>कृषीशी निगडित संज्ञा</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>बोट</t>
+  </si>
+  <si>
+    <t>माड</t>
+  </si>
+  <si>
+    <t>क्षितिज</t>
+  </si>
+  <si>
+    <t>शिंपला</t>
+  </si>
+  <si>
+    <t>समुद्र किनाऱ्यावर वर दिसणार्‍या गोष्टी</t>
+  </si>
+  <si>
+    <t>शह</t>
+  </si>
+  <si>
+    <t>मात</t>
+  </si>
+  <si>
+    <t>चाल</t>
+  </si>
+  <si>
+    <t>मारणे</t>
+  </si>
+  <si>
+    <t>बुद्धिबळाच्या चाली</t>
+  </si>
+  <si>
+    <t>मोहरा</t>
+  </si>
+  <si>
+    <t>राणी</t>
+  </si>
+  <si>
+    <t>घर</t>
+  </si>
+  <si>
+    <t>बुद्धिबळाच्या पटावर सापडणाऱ्या गोष्टी</t>
+  </si>
+  <si>
+    <t>बहर</t>
+  </si>
+  <si>
+    <t>पालवी</t>
+  </si>
+  <si>
+    <t>मोड</t>
+  </si>
+  <si>
+    <t>कळी</t>
+  </si>
+  <si>
+    <t>वनस्पतीं वर येणार्‍या नव्या गोष्टी</t>
+  </si>
+  <si>
+    <t>नाणी</t>
+  </si>
+  <si>
+    <t>सुटे</t>
+  </si>
+  <si>
+    <t>चिल्लर</t>
+  </si>
+  <si>
+    <t>आणे</t>
+  </si>
+  <si>
+    <t>सुट्या पैशांचे प्रकार</t>
+  </si>
+  <si>
+    <t>विकत</t>
+  </si>
+  <si>
+    <t>श्याम</t>
+  </si>
+  <si>
+    <t>कवडी</t>
+  </si>
+  <si>
+    <t>दाम</t>
+  </si>
+  <si>
+    <t>"विकत घेतला श्याम" गाण्यातले शब्द</t>
+  </si>
+  <si>
+    <t>देव</t>
+  </si>
+  <si>
+    <t>सराफ</t>
+  </si>
+  <si>
+    <t>फुले</t>
+  </si>
+  <si>
+    <t>लागु</t>
+  </si>
+  <si>
+    <t>जुन्या मराठी चित्रपटातल्या अभिनेत्यांची आडनावे</t>
+  </si>
+  <si>
+    <t>स्क्रीन</t>
+  </si>
+  <si>
+    <t>खिडकी</t>
+  </si>
+  <si>
+    <t>भिंगं</t>
+  </si>
+  <si>
+    <t>बाटली</t>
+  </si>
+  <si>
+    <t>काचेच्या वस्तु</t>
+  </si>
+  <si>
+    <t>विद्युत</t>
+  </si>
+  <si>
+    <t>संथ</t>
+  </si>
+  <si>
+    <t>फेस</t>
+  </si>
+  <si>
+    <t>तुषार</t>
+  </si>
+  <si>
+    <t>समुद्राच्या लाटां बाबत</t>
+  </si>
+  <si>
+    <t>तिरंगा</t>
+  </si>
+  <si>
+    <t>फडकणे</t>
+  </si>
+  <si>
+    <t>स्तंभ</t>
+  </si>
+  <si>
+    <t>वंदना</t>
+  </si>
+  <si>
+    <t>झेंड्या बाबत</t>
+  </si>
+  <si>
+    <t>भोवरा</t>
+  </si>
+  <si>
+    <t>आकाशगंगा</t>
+  </si>
+  <si>
+    <t>पंखा</t>
+  </si>
+  <si>
+    <t>वावटळ</t>
+  </si>
+  <si>
+    <t>फिरणाऱ्या गोष्टी</t>
+  </si>
+  <si>
+    <t>भूलभुलैया</t>
+  </si>
+  <si>
+    <t>माया</t>
+  </si>
+  <si>
+    <t>चकवा</t>
+  </si>
+  <si>
+    <t>शोभादर्शक</t>
+  </si>
+  <si>
+    <t>ज्यानी फसवणूक होते</t>
+  </si>
+  <si>
+    <t>कप</t>
+  </si>
+  <si>
+    <t>करंडक</t>
+  </si>
+  <si>
+    <t>मेडल</t>
+  </si>
+  <si>
+    <t>चक्र</t>
+  </si>
+  <si>
+    <t>पारितोषिके</t>
+  </si>
+  <si>
+    <t>काळजी</t>
+  </si>
+  <si>
+    <t>विश्रांती</t>
+  </si>
+  <si>
+    <t>झेप</t>
+  </si>
+  <si>
+    <t>श्वास</t>
+  </si>
+  <si>
+    <t>ज्या गोष्टी घेता येतात</t>
+  </si>
+  <si>
+    <t>चित्रं</t>
+  </si>
+  <si>
+    <t>काम</t>
+  </si>
+  <si>
+    <t>ज्या गोष्टी काढता येतात</t>
+  </si>
+  <si>
+    <t>शोध</t>
+  </si>
+  <si>
+    <t>ज्या गोष्टी लावता येतात</t>
+  </si>
+  <si>
+    <t>मेण</t>
+  </si>
+  <si>
+    <t>आइस्क्रीम</t>
+  </si>
+  <si>
+    <t>हृदय</t>
+  </si>
+  <si>
+    <t>परदेश</t>
+  </si>
+  <si>
+    <t>आनंद</t>
+  </si>
+  <si>
+    <t>माहेर</t>
+  </si>
+  <si>
+    <t>ज्याच्यात राहता येतं अश्या गोष्टी</t>
+  </si>
+  <si>
+    <t>नदी</t>
+  </si>
+  <si>
+    <t>वीज</t>
+  </si>
+  <si>
+    <t>वारा</t>
+  </si>
+  <si>
+    <t>नाव</t>
+  </si>
+  <si>
+    <t>वाहणार्‍या गोष्टी</t>
+  </si>
+  <si>
+    <t>काच</t>
+  </si>
+  <si>
+    <t>हवा</t>
+  </si>
+  <si>
+    <t>पोकळी</t>
+  </si>
+  <si>
+    <t>पारदर्शक गोष्टी</t>
+  </si>
+  <si>
+    <t>विविध</t>
+  </si>
+  <si>
+    <t>नाना</t>
+  </si>
+  <si>
+    <t>अनेक</t>
+  </si>
+  <si>
+    <t>निरनिराळे</t>
+  </si>
+  <si>
+    <t>बरेच, खूप या अर्थी</t>
+  </si>
+  <si>
+    <t>वाघ</t>
+  </si>
+  <si>
+    <t>देवतांची वाहने</t>
+  </si>
+  <si>
+    <t>तांबड</t>
+  </si>
+  <si>
+    <t>झुंजुमुंजु</t>
+  </si>
+  <si>
+    <t>किलबिल</t>
+  </si>
+  <si>
+    <t>भूपाळी</t>
+  </si>
+  <si>
+    <t>पहाट</t>
+  </si>
+  <si>
+    <t>मेघ</t>
+  </si>
+  <si>
+    <t>राम</t>
+  </si>
+  <si>
+    <t>ज्यांना "दूत" जोडलेले शब्द आहेत (मेघदूत, ...)</t>
+  </si>
+  <si>
+    <t>अशोक स्तंभ</t>
+  </si>
+  <si>
+    <t>तवा</t>
+  </si>
+  <si>
+    <t>ऐरण</t>
+  </si>
+  <si>
+    <t>घण</t>
+  </si>
+  <si>
+    <t>लोह</t>
+  </si>
+  <si>
+    <t>वीट</t>
+  </si>
+  <si>
+    <t>मडकं</t>
+  </si>
+  <si>
+    <t>देशी दारू</t>
+  </si>
+  <si>
+    <t>कोळसा</t>
+  </si>
+  <si>
+    <t>भट्टी</t>
+  </si>
+  <si>
+    <t>वानर</t>
+  </si>
+  <si>
+    <t>अस्वल</t>
+  </si>
+  <si>
+    <t>मृग</t>
+  </si>
+  <si>
+    <t>झेब्रा</t>
+  </si>
+  <si>
+    <t>जिराफ</t>
+  </si>
+  <si>
+    <t>चित्ता</t>
+  </si>
+  <si>
+    <t>तरस</t>
+  </si>
+  <si>
+    <t>आफ्रिकेतले प्राणी</t>
+  </si>
+  <si>
+    <t>मगर</t>
+  </si>
+  <si>
+    <t>कासव</t>
+  </si>
+  <si>
+    <t>हिप्पो</t>
+  </si>
+  <si>
+    <t>बेडूक</t>
+  </si>
+  <si>
+    <t>वरूण</t>
+  </si>
+  <si>
+    <t>कोसळणे</t>
+  </si>
+  <si>
+    <t>उल्का</t>
+  </si>
+  <si>
+    <t>गारा</t>
+  </si>
+  <si>
+    <t>आकाशातून पडणार्‍या गोष्टी</t>
+  </si>
+  <si>
+    <t>क्वार्टझ</t>
+  </si>
+  <si>
+    <t>स्विस</t>
+  </si>
+  <si>
+    <t>पट्टा</t>
+  </si>
+  <si>
+    <t>वॉच</t>
+  </si>
+  <si>
+    <t>हात</t>
+  </si>
+  <si>
+    <t>चौकट</t>
+  </si>
+  <si>
+    <t>पीस</t>
+  </si>
+  <si>
+    <t>विदुषक</t>
+  </si>
+  <si>
+    <t>पत्ते</t>
+  </si>
+  <si>
+    <t>गटणे</t>
+  </si>
+  <si>
+    <t>पौष्टिक</t>
+  </si>
+  <si>
+    <t>वरात</t>
+  </si>
+  <si>
+    <t>चक्राकार</t>
+  </si>
+  <si>
+    <t>खमंग</t>
+  </si>
+  <si>
+    <t>भाजणी</t>
+  </si>
+  <si>
+    <t>कुरकुरीत</t>
+  </si>
+  <si>
+    <t>चकली</t>
+  </si>
+  <si>
+    <t>गाऊन</t>
+  </si>
+  <si>
+    <t>तराजू</t>
+  </si>
+  <si>
+    <t>सर्वोच्च</t>
+  </si>
+  <si>
+    <t>कायदा</t>
+  </si>
+  <si>
+    <t>न्यायालय</t>
+  </si>
+  <si>
+    <t>साहेब</t>
+  </si>
+  <si>
+    <t>जी</t>
+  </si>
+  <si>
+    <t>राव</t>
+  </si>
+  <si>
+    <t>पंत</t>
+  </si>
+  <si>
+    <t>नावाला आदरार्थी जोडलेले</t>
+  </si>
+  <si>
+    <t>अंक</t>
+  </si>
+  <si>
+    <t>फराळ</t>
+  </si>
+  <si>
+    <t>उटणं</t>
+  </si>
+  <si>
+    <t>लक्ष्मी</t>
+  </si>
+  <si>
+    <t>दिवाळी</t>
+  </si>
+  <si>
+    <t>चातुर्दशी</t>
+  </si>
+  <si>
+    <t>बिज</t>
+  </si>
+  <si>
+    <t>बारस</t>
+  </si>
+  <si>
+    <t>पूजन</t>
+  </si>
+  <si>
+    <t>दिवाळीच्या दिवसांचे दुसरे शब्द</t>
+  </si>
+  <si>
+    <t>सकाळ</t>
+  </si>
+  <si>
+    <t>हिंदू</t>
+  </si>
+  <si>
+    <t>एक्सप्रेस</t>
+  </si>
+  <si>
+    <t>सामना</t>
+  </si>
+  <si>
+    <t>वृत्तपत्रे ज्यांच्या नावाचा दुसरा अर्थही होतो</t>
+  </si>
+  <si>
+    <t>दही</t>
+  </si>
+  <si>
+    <t>ताडी</t>
+  </si>
+  <si>
+    <t>पाव</t>
+  </si>
+  <si>
+    <t>इडली</t>
+  </si>
+  <si>
+    <t>आंबवलेले पदार्थ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">संदीप सोवनी </t>
+  </si>
+  <si>
+    <t xml:space="preserve">पु लं च्या लिखाणातून </t>
+  </si>
+  <si>
+    <t>कारणं</t>
+  </si>
+  <si>
+    <t>झाड</t>
+  </si>
+  <si>
+    <t>अर्थ</t>
+  </si>
+  <si>
+    <t>दव</t>
+  </si>
+  <si>
+    <t>भोजन</t>
+  </si>
+  <si>
+    <t>पानावर सापडणाऱ्या गोष्टी</t>
+  </si>
+  <si>
+    <t>विष</t>
+  </si>
+  <si>
+    <t>खवले</t>
+  </si>
+  <si>
+    <t>काटेरी जीभ</t>
+  </si>
+  <si>
+    <t>सापाच्या शरीराचे भाग</t>
+  </si>
+  <si>
+    <t>वर्तुळाकार</t>
+  </si>
+  <si>
+    <t>ब्राऊनिअन</t>
+  </si>
+  <si>
+    <t>गती/हालचाली चे प्रकार</t>
+  </si>
+  <si>
+    <t>तरंग</t>
+  </si>
+  <si>
+    <t>विरघळणार्या / पाघळणाऱ्या गोष्टी</t>
+  </si>
+  <si>
+    <t>उभयचर प्राणी</t>
+  </si>
+  <si>
+    <t>रामायणातील प्राणी</t>
   </si>
 </sst>
 </file>
@@ -2310,10 +2961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2354,39 +3005,39 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L1" s="4">
-        <v>45626</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" t="s">
-        <v>110</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H2">
         <f>INT(J2/3)</f>
@@ -2394,37 +3045,37 @@
       </c>
       <c r="I2" s="3">
         <f t="shared" ref="I2:I7" si="0">$L$1+H2</f>
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45631</v>
+        <v>45633</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="1">INT(J3/3)</f>
@@ -2432,7 +3083,7 @@
       </c>
       <c r="I3" s="3">
         <f t="shared" si="0"/>
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="J3">
         <f>J2+1</f>
@@ -2442,25 +3093,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" t="s">
         <v>143</v>
       </c>
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" t="s">
-        <v>147</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
@@ -2468,7 +3119,7 @@
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J10" si="2">J3+1</f>
@@ -2478,25 +3129,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" t="s">
         <v>267</v>
       </c>
-      <c r="B5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E5" t="s">
-        <v>271</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -2504,7 +3155,7 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="J5">
         <f t="shared" si="2"/>
@@ -2514,25 +3165,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -2540,7 +3191,7 @@
       </c>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="J6">
         <f t="shared" si="2"/>
@@ -2550,25 +3201,25 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -2576,7 +3227,7 @@
       </c>
       <c r="I7" s="3">
         <f t="shared" si="0"/>
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
@@ -2586,25 +3237,25 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" t="s">
         <v>346</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F8" t="s">
         <v>347</v>
       </c>
-      <c r="C8" t="s">
-        <v>348</v>
-      </c>
-      <c r="D8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E8" t="s">
-        <v>350</v>
-      </c>
-      <c r="F8" t="s">
-        <v>351</v>
-      </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -2612,7 +3263,7 @@
       </c>
       <c r="I8" s="3">
         <f>$L$1+H8</f>
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="J8">
         <f t="shared" si="2"/>
@@ -2621,33 +3272,33 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E9" t="s">
         <v>336</v>
       </c>
-      <c r="B9" t="s">
-        <v>337</v>
-      </c>
-      <c r="C9" t="s">
-        <v>338</v>
-      </c>
-      <c r="D9" t="s">
-        <v>339</v>
-      </c>
-      <c r="E9" t="s">
-        <v>340</v>
-      </c>
       <c r="F9" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" ref="I9:I84" si="3">$L$1+H9</f>
-        <v>45628</v>
+        <f t="shared" ref="I9:I21" si="3">$L$1+H9</f>
+        <v>45627</v>
       </c>
       <c r="J9">
         <f t="shared" si="2"/>
@@ -2656,25 +3307,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D10" t="s">
+        <v>340</v>
+      </c>
+      <c r="E10" t="s">
         <v>341</v>
       </c>
-      <c r="B10" t="s">
-        <v>342</v>
-      </c>
-      <c r="C10" t="s">
-        <v>343</v>
-      </c>
-      <c r="D10" t="s">
-        <v>344</v>
-      </c>
-      <c r="E10" t="s">
-        <v>345</v>
-      </c>
       <c r="F10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -2682,7 +3333,7 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="3"/>
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
@@ -2691,25 +3342,25 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B11" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D11" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E11" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -2717,7 +3368,7 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" si="3"/>
-        <v>45629</v>
+        <v>45628</v>
       </c>
       <c r="J11">
         <f t="shared" ref="J11" si="4">J10+1</f>
@@ -2726,60 +3377,60 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:H87" si="5">INT(J12/3)</f>
+        <f t="shared" ref="H12:H21" si="5">INT(J12/3)</f>
         <v>3</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="3"/>
-        <v>45629</v>
+        <v>45628</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J87" si="6">J11+1</f>
+        <f t="shared" ref="J12:J91" si="6">J11+1</f>
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B13" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C13" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D13" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E13" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H13">
         <f t="shared" si="5"/>
@@ -2787,7 +3438,7 @@
       </c>
       <c r="I13" s="3">
         <f t="shared" si="3"/>
-        <v>45629</v>
+        <v>45628</v>
       </c>
       <c r="J13">
         <f t="shared" si="6"/>
@@ -2796,25 +3447,25 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" t="s">
         <v>138</v>
       </c>
-      <c r="B14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" t="s">
-        <v>142</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H14">
         <f t="shared" si="5"/>
@@ -2822,7 +3473,7 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" si="3"/>
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="J14">
         <f t="shared" si="6"/>
@@ -2831,25 +3482,25 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
         <v>96</v>
       </c>
-      <c r="B15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" t="s">
-        <v>100</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H15">
         <f t="shared" si="5"/>
@@ -2857,7 +3508,7 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="3"/>
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="J15">
         <f t="shared" si="6"/>
@@ -2866,25 +3517,25 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H16">
         <f t="shared" si="5"/>
@@ -2892,7 +3543,7 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" si="3"/>
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="J16">
         <f t="shared" si="6"/>
@@ -2901,25 +3552,25 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>372</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>376</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H17">
         <f t="shared" si="5"/>
@@ -2927,7 +3578,7 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" si="3"/>
-        <v>45631</v>
+        <v>45630</v>
       </c>
       <c r="J17">
         <f t="shared" si="6"/>
@@ -2936,25 +3587,25 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H18">
         <f t="shared" si="5"/>
@@ -2962,7 +3613,7 @@
       </c>
       <c r="I18" s="3">
         <f t="shared" si="3"/>
-        <v>45631</v>
+        <v>45630</v>
       </c>
       <c r="J18">
         <f t="shared" si="6"/>
@@ -2971,25 +3622,25 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H19">
         <f t="shared" si="5"/>
@@ -2997,7 +3648,7 @@
       </c>
       <c r="I19" s="3">
         <f t="shared" si="3"/>
-        <v>45631</v>
+        <v>45630</v>
       </c>
       <c r="J19">
         <f t="shared" si="6"/>
@@ -3006,25 +3657,25 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" t="s">
         <v>164</v>
       </c>
-      <c r="B20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" t="s">
-        <v>168</v>
-      </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
@@ -3032,7 +3683,7 @@
       </c>
       <c r="I20" s="3">
         <f t="shared" si="3"/>
-        <v>45632</v>
+        <v>45631</v>
       </c>
       <c r="J20">
         <f t="shared" si="6"/>
@@ -3041,25 +3692,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>366</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" t="s">
         <v>106</v>
       </c>
-      <c r="B21" t="s">
-        <v>370</v>
-      </c>
-      <c r="C21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" t="s">
-        <v>110</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H21">
         <f t="shared" si="5"/>
@@ -3067,7 +3718,7 @@
       </c>
       <c r="I21" s="3">
         <f t="shared" si="3"/>
-        <v>45632</v>
+        <v>45631</v>
       </c>
       <c r="J21">
         <f t="shared" si="6"/>
@@ -3076,33 +3727,33 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" t="s">
         <v>143</v>
       </c>
-      <c r="B22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" t="s">
-        <v>147</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22:H23" si="7">INT(J22/3)</f>
+        <f t="shared" ref="H22" si="7">INT(J22/3)</f>
         <v>6</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" ref="I22:I23" si="8">$L$1+H22</f>
-        <v>45632</v>
+        <f t="shared" ref="I22" si="8">$L$1+H22</f>
+        <v>45631</v>
       </c>
       <c r="J22">
         <f t="shared" si="6"/>
@@ -3111,33 +3762,33 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:H86" si="9">INT(J23/3)</f>
+        <f t="shared" ref="H23:H29" si="9">INT(J23/3)</f>
         <v>7</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" ref="I23:I86" si="10">$L$1+H23</f>
-        <v>45633</v>
+        <f t="shared" ref="I23:I29" si="10">$L$1+H23</f>
+        <v>45632</v>
       </c>
       <c r="J23">
         <f t="shared" si="6"/>
@@ -3146,25 +3797,25 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H24">
         <f t="shared" si="9"/>
@@ -3172,7 +3823,7 @@
       </c>
       <c r="I24" s="3">
         <f t="shared" si="10"/>
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="J24">
         <f t="shared" si="6"/>
@@ -3181,25 +3832,25 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>375</v>
+      </c>
+      <c r="B25" t="s">
+        <v>376</v>
+      </c>
+      <c r="C25" t="s">
+        <v>377</v>
+      </c>
+      <c r="D25" t="s">
+        <v>378</v>
+      </c>
+      <c r="E25" t="s">
         <v>379</v>
       </c>
-      <c r="B25" t="s">
-        <v>380</v>
-      </c>
-      <c r="C25" t="s">
-        <v>381</v>
-      </c>
-      <c r="D25" t="s">
-        <v>382</v>
-      </c>
-      <c r="E25" t="s">
-        <v>383</v>
-      </c>
       <c r="F25" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H25">
         <f t="shared" si="9"/>
@@ -3207,7 +3858,7 @@
       </c>
       <c r="I25" s="3">
         <f t="shared" si="10"/>
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="J25">
         <f t="shared" si="6"/>
@@ -3216,25 +3867,25 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" t="s">
         <v>133</v>
       </c>
-      <c r="B26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" t="s">
-        <v>137</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H26">
         <f t="shared" si="9"/>
@@ -3242,7 +3893,7 @@
       </c>
       <c r="I26" s="3">
         <f t="shared" si="10"/>
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="J26">
         <f t="shared" si="6"/>
@@ -3251,25 +3902,25 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>258</v>
+      </c>
+      <c r="B27" t="s">
+        <v>259</v>
+      </c>
+      <c r="C27" t="s">
+        <v>260</v>
+      </c>
+      <c r="D27" t="s">
+        <v>261</v>
+      </c>
+      <c r="E27" t="s">
         <v>262</v>
       </c>
-      <c r="B27" t="s">
-        <v>263</v>
-      </c>
-      <c r="C27" t="s">
-        <v>264</v>
-      </c>
-      <c r="D27" t="s">
-        <v>265</v>
-      </c>
-      <c r="E27" t="s">
-        <v>266</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H27">
         <f t="shared" si="9"/>
@@ -3277,7 +3928,7 @@
       </c>
       <c r="I27" s="3">
         <f t="shared" si="10"/>
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="J27">
         <f t="shared" si="6"/>
@@ -3286,25 +3937,25 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>419</v>
+      </c>
+      <c r="B28" t="s">
+        <v>420</v>
+      </c>
+      <c r="C28" t="s">
+        <v>421</v>
+      </c>
+      <c r="D28" t="s">
         <v>422</v>
       </c>
-      <c r="B28" t="s">
-        <v>423</v>
-      </c>
-      <c r="C28" t="s">
-        <v>424</v>
-      </c>
-      <c r="D28" t="s">
-        <v>425</v>
-      </c>
       <c r="E28" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H28">
         <f t="shared" si="9"/>
@@ -3312,7 +3963,7 @@
       </c>
       <c r="I28" s="3">
         <f t="shared" si="10"/>
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="J28">
         <f t="shared" si="6"/>
@@ -3321,25 +3972,25 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
         <v>101</v>
       </c>
-      <c r="B29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" t="s">
-        <v>105</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H29">
         <f t="shared" si="9"/>
@@ -3347,7 +3998,7 @@
       </c>
       <c r="I29" s="3">
         <f t="shared" si="10"/>
-        <v>45635</v>
+        <v>45634</v>
       </c>
       <c r="J29">
         <f t="shared" si="6"/>
@@ -3356,33 +4007,33 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" t="s">
         <v>111</v>
       </c>
-      <c r="B30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" t="s">
-        <v>115</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H30">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H30:H93" si="11">INT(J30/3)</f>
         <v>9</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="10"/>
-        <v>45635</v>
+        <f t="shared" ref="I30:I93" si="12">$L$1+H30</f>
+        <v>45634</v>
       </c>
       <c r="J30">
         <f t="shared" si="6"/>
@@ -3391,33 +4042,33 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>272</v>
+      </c>
+      <c r="B31" t="s">
+        <v>273</v>
+      </c>
+      <c r="C31" t="s">
+        <v>274</v>
+      </c>
+      <c r="D31" t="s">
+        <v>275</v>
+      </c>
+      <c r="E31" t="s">
         <v>276</v>
       </c>
-      <c r="B31" t="s">
-        <v>277</v>
-      </c>
-      <c r="C31" t="s">
-        <v>278</v>
-      </c>
-      <c r="D31" t="s">
-        <v>279</v>
-      </c>
-      <c r="E31" t="s">
-        <v>280</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="10"/>
-        <v>45635</v>
+        <f t="shared" si="12"/>
+        <v>45634</v>
       </c>
       <c r="J31">
         <f t="shared" si="6"/>
@@ -3426,33 +4077,30 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>530</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>531</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>532</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>533</v>
       </c>
       <c r="E32" t="s">
-        <v>371</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>54</v>
+        <v>534</v>
+      </c>
+      <c r="F32" t="s">
+        <v>645</v>
       </c>
       <c r="H32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="10"/>
-        <v>45636</v>
+        <f t="shared" si="12"/>
+        <v>45635</v>
       </c>
       <c r="J32">
         <f t="shared" si="6"/>
@@ -3461,33 +4109,30 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>384</v>
+        <v>535</v>
       </c>
       <c r="B33" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C33" t="s">
-        <v>386</v>
+        <v>647</v>
       </c>
       <c r="D33" t="s">
-        <v>387</v>
+        <v>536</v>
       </c>
       <c r="E33" t="s">
-        <v>388</v>
+        <v>537</v>
       </c>
       <c r="F33" t="s">
-        <v>414</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>286</v>
+        <v>645</v>
       </c>
       <c r="H33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="10"/>
-        <v>45636</v>
+        <f t="shared" si="12"/>
+        <v>45635</v>
       </c>
       <c r="J33">
         <f t="shared" si="6"/>
@@ -3496,33 +4141,30 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>538</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>649</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>648</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>12</v>
+        <v>539</v>
+      </c>
+      <c r="F34" t="s">
+        <v>645</v>
       </c>
       <c r="H34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="10"/>
-        <v>45636</v>
+        <f t="shared" si="12"/>
+        <v>45635</v>
       </c>
       <c r="J34">
         <f t="shared" si="6"/>
@@ -3531,33 +4173,33 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="E35" t="s">
-        <v>120</v>
+        <v>367</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="H35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="10"/>
-        <v>45637</v>
+        <f t="shared" si="12"/>
+        <v>45636</v>
       </c>
       <c r="J35">
         <f t="shared" si="6"/>
@@ -3566,33 +4208,33 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>213</v>
+        <v>380</v>
       </c>
       <c r="B36" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="C36" t="s">
-        <v>215</v>
+        <v>382</v>
       </c>
       <c r="D36" t="s">
-        <v>216</v>
+        <v>383</v>
       </c>
       <c r="E36" t="s">
-        <v>217</v>
+        <v>384</v>
       </c>
       <c r="F36" t="s">
-        <v>261</v>
+        <v>411</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>153</v>
+        <v>282</v>
       </c>
       <c r="H36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="10"/>
-        <v>45637</v>
+        <f t="shared" si="12"/>
+        <v>45636</v>
       </c>
       <c r="J36">
         <f t="shared" si="6"/>
@@ -3601,33 +4243,33 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>93</v>
+        <v>348</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="H37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="10"/>
-        <v>45637</v>
+        <f t="shared" si="12"/>
+        <v>45636</v>
       </c>
       <c r="J37">
         <f t="shared" si="6"/>
@@ -3636,33 +4278,33 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>436</v>
+        <v>112</v>
       </c>
       <c r="B38" t="s">
-        <v>389</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>390</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>435</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
-        <v>391</v>
-      </c>
-      <c r="F38" t="s">
-        <v>414</v>
+        <v>116</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>286</v>
+        <v>147</v>
       </c>
       <c r="H38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="10"/>
-        <v>45638</v>
+        <f t="shared" si="12"/>
+        <v>45637</v>
       </c>
       <c r="J38">
         <f t="shared" si="6"/>
@@ -3671,33 +4313,30 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>203</v>
+        <v>525</v>
       </c>
       <c r="B39" t="s">
-        <v>204</v>
+        <v>526</v>
       </c>
       <c r="C39" t="s">
-        <v>205</v>
+        <v>527</v>
       </c>
       <c r="D39" t="s">
-        <v>206</v>
+        <v>528</v>
       </c>
       <c r="E39" t="s">
-        <v>207</v>
+        <v>529</v>
       </c>
       <c r="F39" t="s">
-        <v>261</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>53</v>
+        <v>645</v>
       </c>
       <c r="H39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="10"/>
-        <v>45638</v>
+        <f t="shared" si="12"/>
+        <v>45637</v>
       </c>
       <c r="J39">
         <f t="shared" si="6"/>
@@ -3706,33 +4345,30 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>540</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>541</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>378</v>
+        <v>542</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>54</v>
+        <v>661</v>
+      </c>
+      <c r="F40" t="s">
+        <v>645</v>
       </c>
       <c r="H40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="10"/>
-        <v>45638</v>
+        <f t="shared" si="12"/>
+        <v>45637</v>
       </c>
       <c r="J40">
         <f t="shared" si="6"/>
@@ -3741,33 +4377,33 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C41" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D41" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E41" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="F41" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="10"/>
-        <v>45639</v>
+        <f t="shared" si="12"/>
+        <v>45638</v>
       </c>
       <c r="J41">
         <f t="shared" si="6"/>
@@ -3776,33 +4412,33 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>426</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>427</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>428</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>386</v>
+        <v>85</v>
       </c>
       <c r="E42" t="s">
-        <v>429</v>
-      </c>
-      <c r="F42" t="s">
-        <v>414</v>
+        <v>86</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>286</v>
+        <v>91</v>
       </c>
       <c r="H42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="10"/>
-        <v>45639</v>
+        <f t="shared" si="12"/>
+        <v>45638</v>
       </c>
       <c r="J42">
         <f t="shared" si="6"/>
@@ -3810,34 +4446,31 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>42.195</v>
+      <c r="A43" t="s">
+        <v>602</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>603</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>604</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>605</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>152</v>
+        <v>606</v>
+      </c>
+      <c r="F43" t="s">
+        <v>645</v>
       </c>
       <c r="H43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="10"/>
-        <v>45639</v>
+        <f t="shared" si="12"/>
+        <v>45638</v>
       </c>
       <c r="J43">
         <f t="shared" si="6"/>
@@ -3846,33 +4479,30 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>615</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>616</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>617</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>618</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>12</v>
+        <v>619</v>
+      </c>
+      <c r="F44" t="s">
+        <v>645</v>
       </c>
       <c r="H44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="10"/>
-        <v>45640</v>
+        <f t="shared" si="12"/>
+        <v>45639</v>
       </c>
       <c r="J44">
         <f t="shared" si="6"/>
@@ -3881,33 +4511,33 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>174</v>
+        <v>433</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>385</v>
       </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>386</v>
       </c>
       <c r="D45" t="s">
-        <v>177</v>
+        <v>432</v>
       </c>
       <c r="E45" t="s">
-        <v>178</v>
+        <v>387</v>
       </c>
       <c r="F45" t="s">
-        <v>194</v>
+        <v>411</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>197</v>
+        <v>282</v>
       </c>
       <c r="H45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="10"/>
-        <v>45640</v>
+        <f t="shared" si="12"/>
+        <v>45639</v>
       </c>
       <c r="J45">
         <f t="shared" si="6"/>
@@ -3916,33 +4546,33 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="B46" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="C46" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="D46" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="E46" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F46" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>287</v>
+        <v>49</v>
       </c>
       <c r="H46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="10"/>
-        <v>45640</v>
+        <f t="shared" si="12"/>
+        <v>45639</v>
       </c>
       <c r="J46">
         <f t="shared" si="6"/>
@@ -3951,33 +4581,30 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>392</v>
+        <v>547</v>
       </c>
       <c r="B47" t="s">
-        <v>393</v>
+        <v>548</v>
       </c>
       <c r="C47" t="s">
-        <v>394</v>
+        <v>549</v>
       </c>
       <c r="D47" t="s">
-        <v>395</v>
+        <v>550</v>
       </c>
       <c r="E47" t="s">
-        <v>446</v>
+        <v>551</v>
       </c>
       <c r="F47" t="s">
-        <v>414</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>286</v>
+        <v>645</v>
       </c>
       <c r="H47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="10"/>
-        <v>45641</v>
+        <f t="shared" si="12"/>
+        <v>45640</v>
       </c>
       <c r="J47">
         <f t="shared" si="6"/>
@@ -3986,33 +4613,30 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B48" t="s">
-        <v>243</v>
+        <v>552</v>
       </c>
       <c r="C48" t="s">
-        <v>244</v>
+        <v>553</v>
       </c>
       <c r="D48" t="s">
-        <v>245</v>
+        <v>554</v>
       </c>
       <c r="E48" t="s">
-        <v>246</v>
+        <v>555</v>
       </c>
       <c r="F48" t="s">
-        <v>261</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>149</v>
+        <v>645</v>
       </c>
       <c r="H48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="10"/>
-        <v>45641</v>
+        <f t="shared" si="12"/>
+        <v>45640</v>
       </c>
       <c r="J48">
         <f t="shared" si="6"/>
@@ -4021,33 +4645,30 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>556</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>557</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>558</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>559</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>55</v>
+        <v>560</v>
+      </c>
+      <c r="F49" t="s">
+        <v>645</v>
       </c>
       <c r="H49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="10"/>
-        <v>45641</v>
+        <f t="shared" si="12"/>
+        <v>45640</v>
       </c>
       <c r="J49">
         <f t="shared" si="6"/>
@@ -4056,33 +4677,33 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="B50" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="C50" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="D50" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="E50" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="F50" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>286</v>
+        <v>91</v>
       </c>
       <c r="H50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="10"/>
-        <v>45642</v>
+        <f t="shared" si="12"/>
+        <v>45641</v>
       </c>
       <c r="J50">
         <f t="shared" si="6"/>
@@ -4091,68 +4712,68 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>321</v>
+        <v>423</v>
       </c>
       <c r="B51" t="s">
-        <v>322</v>
+        <v>424</v>
       </c>
       <c r="C51" t="s">
-        <v>323</v>
+        <v>425</v>
       </c>
       <c r="D51" t="s">
-        <v>324</v>
+        <v>382</v>
       </c>
       <c r="E51" t="s">
-        <v>329</v>
+        <v>426</v>
       </c>
       <c r="F51" t="s">
-        <v>330</v>
+        <v>411</v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="12"/>
+        <v>45641</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>42.195</v>
+      </c>
+      <c r="B52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H51">
-        <f t="shared" si="9"/>
+      <c r="H52">
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="I51" s="3">
-        <f t="shared" si="10"/>
-        <v>45642</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="6"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" t="s">
-        <v>161</v>
-      </c>
-      <c r="D52" t="s">
-        <v>162</v>
-      </c>
-      <c r="E52" t="s">
-        <v>163</v>
-      </c>
-      <c r="F52" t="s">
-        <v>194</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
       <c r="I52" s="3">
-        <f t="shared" si="10"/>
-        <v>45642</v>
+        <f t="shared" si="12"/>
+        <v>45641</v>
       </c>
       <c r="J52">
         <f t="shared" si="6"/>
@@ -4161,33 +4782,33 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>396</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>397</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>398</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>399</v>
+        <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>434</v>
-      </c>
-      <c r="F53" t="s">
-        <v>414</v>
+        <v>42</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>286</v>
+        <v>8</v>
       </c>
       <c r="H53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="10"/>
-        <v>45643</v>
+        <f t="shared" si="12"/>
+        <v>45642</v>
       </c>
       <c r="J53">
         <f t="shared" si="6"/>
@@ -4196,33 +4817,33 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>417</v>
+        <v>170</v>
       </c>
       <c r="B54" t="s">
-        <v>418</v>
+        <v>171</v>
       </c>
       <c r="C54" t="s">
-        <v>419</v>
+        <v>172</v>
       </c>
       <c r="D54" t="s">
-        <v>420</v>
+        <v>173</v>
       </c>
       <c r="E54" t="s">
-        <v>421</v>
+        <v>174</v>
       </c>
       <c r="F54" t="s">
-        <v>414</v>
+        <v>190</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>444</v>
+        <v>193</v>
       </c>
       <c r="H54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="10"/>
-        <v>45643</v>
+        <f t="shared" si="12"/>
+        <v>45642</v>
       </c>
       <c r="J54">
         <f t="shared" si="6"/>
@@ -4230,34 +4851,34 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>352</v>
+      <c r="A55" t="s">
+        <v>218</v>
+      </c>
+      <c r="B55" t="s">
+        <v>219</v>
+      </c>
+      <c r="C55" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" t="s">
+        <v>221</v>
+      </c>
+      <c r="E55" t="s">
+        <v>222</v>
+      </c>
+      <c r="F55" t="s">
+        <v>257</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="H55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="10"/>
-        <v>45643</v>
+        <f t="shared" si="12"/>
+        <v>45642</v>
       </c>
       <c r="J55">
         <f t="shared" si="6"/>
@@ -4266,33 +4887,33 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>256</v>
+        <v>388</v>
       </c>
       <c r="B56" t="s">
-        <v>257</v>
+        <v>389</v>
       </c>
       <c r="C56" t="s">
-        <v>258</v>
+        <v>390</v>
       </c>
       <c r="D56" t="s">
-        <v>259</v>
+        <v>391</v>
       </c>
       <c r="E56" t="s">
-        <v>260</v>
+        <v>443</v>
       </c>
       <c r="F56" t="s">
-        <v>261</v>
+        <v>411</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>151</v>
+        <v>282</v>
       </c>
       <c r="H56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="I56" s="3">
-        <f t="shared" si="10"/>
-        <v>45644</v>
+        <f t="shared" si="12"/>
+        <v>45643</v>
       </c>
       <c r="J56">
         <f t="shared" si="6"/>
@@ -4301,33 +4922,33 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>430</v>
+        <v>238</v>
       </c>
       <c r="B57" t="s">
-        <v>431</v>
+        <v>239</v>
       </c>
       <c r="C57" t="s">
-        <v>432</v>
+        <v>240</v>
       </c>
       <c r="D57" t="s">
-        <v>433</v>
+        <v>241</v>
       </c>
       <c r="E57" t="s">
-        <v>440</v>
+        <v>242</v>
       </c>
       <c r="F57" t="s">
-        <v>414</v>
+        <v>257</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>286</v>
+        <v>145</v>
       </c>
       <c r="H57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="10"/>
-        <v>45644</v>
+        <f t="shared" si="12"/>
+        <v>45643</v>
       </c>
       <c r="J57">
         <f t="shared" si="6"/>
@@ -4336,33 +4957,33 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>289</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>291</v>
+        <v>47</v>
       </c>
       <c r="D58" t="s">
-        <v>292</v>
+        <v>46</v>
       </c>
       <c r="E58" t="s">
-        <v>329</v>
-      </c>
-      <c r="F58" t="s">
-        <v>330</v>
+        <v>33</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="H58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="10"/>
-        <v>45644</v>
+        <f t="shared" si="12"/>
+        <v>45643</v>
       </c>
       <c r="J58">
         <f t="shared" si="6"/>
@@ -4371,33 +4992,30 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>304</v>
+        <v>480</v>
       </c>
       <c r="B59" t="s">
-        <v>305</v>
+        <v>481</v>
       </c>
       <c r="C59" t="s">
-        <v>306</v>
+        <v>482</v>
       </c>
       <c r="D59" t="s">
-        <v>307</v>
+        <v>483</v>
       </c>
       <c r="E59" t="s">
-        <v>308</v>
+        <v>484</v>
       </c>
       <c r="F59" t="s">
-        <v>330</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>53</v>
+        <v>645</v>
       </c>
       <c r="H59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="I59" s="3">
-        <f t="shared" si="10"/>
-        <v>45645</v>
+        <f t="shared" si="12"/>
+        <v>45644</v>
       </c>
       <c r="J59">
         <f t="shared" si="6"/>
@@ -4406,33 +5024,30 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>300</v>
+        <v>485</v>
       </c>
       <c r="B60" t="s">
-        <v>301</v>
+        <v>486</v>
       </c>
       <c r="C60" t="s">
-        <v>302</v>
+        <v>487</v>
       </c>
       <c r="D60" t="s">
-        <v>303</v>
+        <v>488</v>
       </c>
       <c r="E60" t="s">
-        <v>329</v>
+        <v>489</v>
       </c>
       <c r="F60" t="s">
-        <v>330</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>148</v>
+        <v>645</v>
       </c>
       <c r="H60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="10"/>
-        <v>45645</v>
+        <f t="shared" si="12"/>
+        <v>45644</v>
       </c>
       <c r="J60">
         <f t="shared" si="6"/>
@@ -4441,33 +5056,30 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>331</v>
+        <v>490</v>
       </c>
       <c r="B61" t="s">
-        <v>332</v>
+        <v>491</v>
       </c>
       <c r="C61" t="s">
-        <v>333</v>
+        <v>492</v>
       </c>
       <c r="D61" t="s">
-        <v>334</v>
+        <v>493</v>
       </c>
       <c r="E61" t="s">
-        <v>335</v>
+        <v>494</v>
       </c>
       <c r="F61" t="s">
-        <v>330</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>148</v>
+        <v>645</v>
       </c>
       <c r="H61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="I61" s="3">
-        <f t="shared" si="10"/>
-        <v>45645</v>
+        <f t="shared" si="12"/>
+        <v>45644</v>
       </c>
       <c r="J61">
         <f t="shared" si="6"/>
@@ -4476,33 +5088,33 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s">
-        <v>293</v>
+        <v>214</v>
       </c>
       <c r="C62" t="s">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="D62" t="s">
-        <v>295</v>
+        <v>216</v>
       </c>
       <c r="E62" t="s">
-        <v>329</v>
+        <v>217</v>
       </c>
       <c r="F62" t="s">
-        <v>330</v>
+        <v>257</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>148</v>
+        <v>282</v>
       </c>
       <c r="H62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="10"/>
-        <v>45646</v>
+        <f t="shared" si="12"/>
+        <v>45645</v>
       </c>
       <c r="J62">
         <f t="shared" si="6"/>
@@ -4511,33 +5123,33 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>400</v>
+        <v>317</v>
       </c>
       <c r="B63" t="s">
-        <v>401</v>
+        <v>318</v>
       </c>
       <c r="C63" t="s">
-        <v>402</v>
+        <v>319</v>
       </c>
       <c r="D63" t="s">
-        <v>403</v>
+        <v>320</v>
       </c>
       <c r="E63" t="s">
-        <v>404</v>
+        <v>325</v>
       </c>
       <c r="F63" t="s">
-        <v>414</v>
+        <v>326</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>441</v>
+        <v>144</v>
       </c>
       <c r="H63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="I63" s="3">
-        <f t="shared" si="10"/>
-        <v>45646</v>
+        <f t="shared" si="12"/>
+        <v>45645</v>
       </c>
       <c r="J63">
         <f t="shared" si="6"/>
@@ -4546,33 +5158,33 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="B64" t="s">
-        <v>233</v>
+        <v>156</v>
       </c>
       <c r="C64" t="s">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="D64" t="s">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="E64" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="F64" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="H64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="I64" s="3">
-        <f t="shared" si="10"/>
-        <v>45646</v>
+        <f t="shared" si="12"/>
+        <v>45645</v>
       </c>
       <c r="J64">
         <f t="shared" si="6"/>
@@ -4581,33 +5193,33 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>325</v>
+        <v>392</v>
       </c>
       <c r="B65" t="s">
-        <v>326</v>
+        <v>393</v>
       </c>
       <c r="C65" t="s">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="D65" t="s">
-        <v>328</v>
+        <v>395</v>
       </c>
       <c r="E65" t="s">
-        <v>329</v>
+        <v>431</v>
       </c>
       <c r="F65" t="s">
-        <v>330</v>
+        <v>411</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>148</v>
+        <v>282</v>
       </c>
       <c r="H65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="10"/>
-        <v>45647</v>
+        <f t="shared" si="12"/>
+        <v>45646</v>
       </c>
       <c r="J65">
         <f t="shared" si="6"/>
@@ -4616,33 +5228,33 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>169</v>
+        <v>414</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>415</v>
       </c>
       <c r="C66" t="s">
-        <v>171</v>
+        <v>416</v>
       </c>
       <c r="D66" t="s">
-        <v>172</v>
+        <v>417</v>
       </c>
       <c r="E66" t="s">
-        <v>173</v>
+        <v>418</v>
       </c>
       <c r="F66" t="s">
-        <v>194</v>
+        <v>411</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>153</v>
+        <v>441</v>
       </c>
       <c r="H66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" si="10"/>
-        <v>45647</v>
+        <f t="shared" si="12"/>
+        <v>45646</v>
       </c>
       <c r="J66">
         <f t="shared" si="6"/>
@@ -4651,33 +5263,30 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>179</v>
+        <v>476</v>
       </c>
       <c r="B67" t="s">
-        <v>180</v>
+        <v>477</v>
       </c>
       <c r="C67" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="D67" t="s">
-        <v>182</v>
+        <v>478</v>
       </c>
       <c r="E67" t="s">
-        <v>183</v>
+        <v>479</v>
       </c>
       <c r="F67" t="s">
-        <v>194</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>148</v>
+        <v>645</v>
       </c>
       <c r="H67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="10"/>
-        <v>45647</v>
+        <f t="shared" si="12"/>
+        <v>45646</v>
       </c>
       <c r="J67">
         <f t="shared" si="6"/>
@@ -4686,33 +5295,33 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="B68" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="C68" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="D68" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="E68" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="F68" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="10"/>
-        <v>45648</v>
+        <f t="shared" si="12"/>
+        <v>45647</v>
       </c>
       <c r="J68">
         <f t="shared" si="6"/>
@@ -4721,33 +5330,30 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>313</v>
+        <v>220</v>
       </c>
       <c r="B69" t="s">
-        <v>314</v>
+        <v>607</v>
       </c>
       <c r="C69" t="s">
-        <v>315</v>
+        <v>608</v>
       </c>
       <c r="D69" t="s">
-        <v>316</v>
+        <v>609</v>
       </c>
       <c r="E69" t="s">
-        <v>329</v>
+        <v>646</v>
       </c>
       <c r="F69" t="s">
-        <v>330</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>148</v>
+        <v>645</v>
       </c>
       <c r="H69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="10"/>
-        <v>45648</v>
+        <f t="shared" si="12"/>
+        <v>45647</v>
       </c>
       <c r="J69">
         <f t="shared" si="6"/>
@@ -4756,33 +5362,30 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>405</v>
+        <v>610</v>
       </c>
       <c r="B70" t="s">
-        <v>406</v>
+        <v>611</v>
       </c>
       <c r="C70" t="s">
-        <v>407</v>
+        <v>612</v>
       </c>
       <c r="D70" t="s">
-        <v>408</v>
+        <v>613</v>
       </c>
       <c r="E70" t="s">
-        <v>409</v>
+        <v>614</v>
       </c>
       <c r="F70" t="s">
-        <v>414</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>286</v>
+        <v>645</v>
       </c>
       <c r="H70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="I70" s="3">
-        <f t="shared" si="10"/>
-        <v>45648</v>
+        <f t="shared" si="12"/>
+        <v>45647</v>
       </c>
       <c r="J70">
         <f t="shared" si="6"/>
@@ -4791,33 +5394,33 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>30</v>
+        <v>427</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>428</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>429</v>
       </c>
       <c r="D71" t="s">
-        <v>33</v>
+        <v>430</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>352</v>
+        <v>437</v>
+      </c>
+      <c r="F71" t="s">
+        <v>411</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>54</v>
+        <v>282</v>
       </c>
       <c r="H71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="I71" s="3">
-        <f t="shared" si="10"/>
-        <v>45649</v>
+        <f t="shared" si="12"/>
+        <v>45648</v>
       </c>
       <c r="J71">
         <f t="shared" si="6"/>
@@ -4826,33 +5429,33 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>189</v>
+        <v>285</v>
       </c>
       <c r="B72" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>287</v>
       </c>
       <c r="D72" t="s">
-        <v>192</v>
+        <v>288</v>
       </c>
       <c r="E72" t="s">
-        <v>193</v>
+        <v>325</v>
       </c>
       <c r="F72" t="s">
-        <v>194</v>
+        <v>326</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="H72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="I72" s="3">
-        <f t="shared" si="10"/>
-        <v>45649</v>
+        <f t="shared" si="12"/>
+        <v>45648</v>
       </c>
       <c r="J72">
         <f t="shared" si="6"/>
@@ -4861,33 +5464,33 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>301</v>
       </c>
       <c r="C73" t="s">
-        <v>58</v>
+        <v>302</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>303</v>
       </c>
       <c r="E73" t="s">
-        <v>60</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>93</v>
+        <v>304</v>
+      </c>
+      <c r="F73" t="s">
+        <v>326</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="H73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="I73" s="3">
-        <f t="shared" si="10"/>
-        <v>45649</v>
+        <f t="shared" si="12"/>
+        <v>45648</v>
       </c>
       <c r="J73">
         <f t="shared" si="6"/>
@@ -4896,33 +5499,33 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="B74" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="C74" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="D74" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="E74" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="F74" t="s">
-        <v>261</v>
+        <v>326</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="H74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="I74" s="3">
-        <f t="shared" si="10"/>
-        <v>45650</v>
+        <f t="shared" si="12"/>
+        <v>45649</v>
       </c>
       <c r="J74">
         <f t="shared" si="6"/>
@@ -4931,33 +5534,30 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>184</v>
+        <v>505</v>
       </c>
       <c r="B75" t="s">
-        <v>185</v>
+        <v>506</v>
       </c>
       <c r="C75" t="s">
-        <v>186</v>
+        <v>657</v>
       </c>
       <c r="D75" t="s">
-        <v>187</v>
+        <v>658</v>
       </c>
       <c r="E75" t="s">
-        <v>188</v>
+        <v>659</v>
       </c>
       <c r="F75" t="s">
-        <v>194</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>195</v>
+        <v>645</v>
       </c>
       <c r="H75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="I75" s="3">
-        <f t="shared" si="10"/>
-        <v>45650</v>
+        <f t="shared" si="12"/>
+        <v>45649</v>
       </c>
       <c r="J75">
         <f t="shared" si="6"/>
@@ -4966,33 +5566,30 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>410</v>
+        <v>507</v>
       </c>
       <c r="B76" t="s">
-        <v>411</v>
+        <v>508</v>
       </c>
       <c r="C76" t="s">
-        <v>412</v>
+        <v>311</v>
       </c>
       <c r="D76" t="s">
-        <v>413</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>437</v>
+        <v>660</v>
+      </c>
+      <c r="E76" t="s">
+        <v>509</v>
       </c>
       <c r="F76" t="s">
-        <v>414</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>95</v>
+        <v>645</v>
       </c>
       <c r="H76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="I76" s="3">
-        <f t="shared" si="10"/>
-        <v>45650</v>
+        <f t="shared" si="12"/>
+        <v>45649</v>
       </c>
       <c r="J76">
         <f t="shared" si="6"/>
@@ -5001,33 +5598,33 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="B77" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="C77" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="D77" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="E77" t="s">
-        <v>285</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>93</v>
+        <v>331</v>
+      </c>
+      <c r="F77" t="s">
+        <v>326</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="H77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="I77" s="3">
-        <f t="shared" si="10"/>
-        <v>45651</v>
+        <f t="shared" si="12"/>
+        <v>45650</v>
       </c>
       <c r="J77">
         <f t="shared" si="6"/>
@@ -5036,33 +5633,33 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>247</v>
+        <v>52</v>
       </c>
       <c r="B78" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="C78" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="D78" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="E78" t="s">
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="F78" t="s">
-        <v>261</v>
+        <v>326</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="H78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="I78" s="3">
-        <f t="shared" si="10"/>
-        <v>45651</v>
+        <f t="shared" si="12"/>
+        <v>45650</v>
       </c>
       <c r="J78">
         <f t="shared" si="6"/>
@@ -5071,33 +5668,30 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>317</v>
+        <v>466</v>
       </c>
       <c r="B79" t="s">
-        <v>318</v>
+        <v>467</v>
       </c>
       <c r="C79" t="s">
-        <v>319</v>
+        <v>468</v>
       </c>
       <c r="D79" t="s">
-        <v>320</v>
+        <v>469</v>
       </c>
       <c r="E79" t="s">
-        <v>329</v>
+        <v>470</v>
       </c>
       <c r="F79" t="s">
-        <v>330</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>148</v>
+        <v>645</v>
       </c>
       <c r="H79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="I79" s="3">
-        <f t="shared" si="10"/>
-        <v>45651</v>
+        <f t="shared" si="12"/>
+        <v>45650</v>
       </c>
       <c r="J79">
         <f t="shared" si="6"/>
@@ -5106,33 +5700,30 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>372</v>
+        <v>471</v>
       </c>
       <c r="B80" t="s">
-        <v>373</v>
+        <v>472</v>
       </c>
       <c r="C80" t="s">
-        <v>296</v>
+        <v>473</v>
       </c>
       <c r="D80" t="s">
-        <v>297</v>
+        <v>474</v>
       </c>
       <c r="E80" t="s">
-        <v>329</v>
+        <v>475</v>
       </c>
       <c r="F80" t="s">
-        <v>330</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>148</v>
+        <v>645</v>
       </c>
       <c r="H80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="I80" s="3">
-        <f t="shared" si="10"/>
-        <v>45652</v>
+        <f t="shared" si="12"/>
+        <v>45651</v>
       </c>
       <c r="J80">
         <f t="shared" si="6"/>
@@ -5141,33 +5732,33 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="B81" t="s">
+        <v>397</v>
+      </c>
+      <c r="C81" t="s">
+        <v>398</v>
+      </c>
+      <c r="D81" t="s">
+        <v>399</v>
+      </c>
+      <c r="E81" t="s">
+        <v>400</v>
+      </c>
+      <c r="F81" t="s">
+        <v>411</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C81" t="s">
-        <v>415</v>
-      </c>
-      <c r="D81" t="s">
-        <v>416</v>
-      </c>
-      <c r="E81" t="s">
-        <v>443</v>
-      </c>
-      <c r="F81" t="s">
-        <v>414</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="H81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="I81" s="3">
-        <f t="shared" si="10"/>
-        <v>45652</v>
+        <f t="shared" si="12"/>
+        <v>45651</v>
       </c>
       <c r="J81">
         <f t="shared" si="6"/>
@@ -5176,33 +5767,33 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="B82" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="C82" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="D82" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="E82" t="s">
-        <v>275</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>93</v>
+        <v>232</v>
+      </c>
+      <c r="F82" t="s">
+        <v>257</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="I82" s="3">
-        <f t="shared" si="10"/>
-        <v>45652</v>
+        <f t="shared" si="12"/>
+        <v>45651</v>
       </c>
       <c r="J82">
         <f t="shared" si="6"/>
@@ -5211,33 +5802,30 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>213</v>
+        <v>495</v>
       </c>
       <c r="B83" t="s">
-        <v>252</v>
+        <v>496</v>
       </c>
       <c r="C83" t="s">
-        <v>253</v>
+        <v>497</v>
       </c>
       <c r="D83" t="s">
-        <v>254</v>
+        <v>498</v>
       </c>
       <c r="E83" t="s">
-        <v>255</v>
+        <v>499</v>
       </c>
       <c r="F83" t="s">
-        <v>261</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>151</v>
+        <v>645</v>
       </c>
       <c r="H83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="I83" s="3">
-        <f t="shared" si="10"/>
-        <v>45653</v>
+        <f t="shared" si="12"/>
+        <v>45652</v>
       </c>
       <c r="J83">
         <f t="shared" si="6"/>
@@ -5246,33 +5834,30 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>298</v>
+        <v>500</v>
       </c>
       <c r="B84" t="s">
-        <v>374</v>
+        <v>501</v>
       </c>
       <c r="C84" t="s">
-        <v>299</v>
+        <v>502</v>
       </c>
       <c r="D84" t="s">
-        <v>375</v>
+        <v>503</v>
       </c>
       <c r="E84" t="s">
-        <v>329</v>
+        <v>504</v>
       </c>
       <c r="F84" t="s">
-        <v>330</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>148</v>
+        <v>645</v>
       </c>
       <c r="H84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="I84" s="3">
-        <f t="shared" si="10"/>
-        <v>45653</v>
+        <f t="shared" si="12"/>
+        <v>45652</v>
       </c>
       <c r="J84">
         <f t="shared" si="6"/>
@@ -5281,33 +5866,33 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B85" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="C85" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="D85" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="E85" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F85" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="I85" s="3">
-        <f t="shared" si="10"/>
-        <v>45653</v>
+        <f t="shared" si="12"/>
+        <v>45652</v>
       </c>
       <c r="J85">
         <f t="shared" si="6"/>
@@ -5316,33 +5901,33 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="B86" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="C86" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="D86" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="E86" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="H86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" si="10"/>
-        <v>45654</v>
+        <f t="shared" si="12"/>
+        <v>45653</v>
       </c>
       <c r="J86">
         <f t="shared" si="6"/>
@@ -5351,33 +5936,30 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>154</v>
+        <v>510</v>
       </c>
       <c r="B87" t="s">
-        <v>155</v>
+        <v>511</v>
       </c>
       <c r="C87" t="s">
-        <v>156</v>
+        <v>512</v>
       </c>
       <c r="D87" t="s">
-        <v>157</v>
+        <v>513</v>
       </c>
       <c r="E87" t="s">
-        <v>158</v>
+        <v>514</v>
       </c>
       <c r="F87" t="s">
-        <v>194</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>195</v>
+        <v>645</v>
       </c>
       <c r="H87">
-        <f t="shared" ref="H87:H88" si="11">INT(J87/3)</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="I87" s="3">
-        <f t="shared" ref="I87:I88" si="12">$L$1+H87</f>
-        <v>45654</v>
+        <f t="shared" si="12"/>
+        <v>45653</v>
       </c>
       <c r="J87">
         <f t="shared" si="6"/>
@@ -5386,25 +5968,22 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>76</v>
+        <v>515</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>516</v>
       </c>
       <c r="C88" t="s">
-        <v>78</v>
+        <v>517</v>
       </c>
       <c r="D88" t="s">
-        <v>79</v>
+        <v>518</v>
       </c>
       <c r="E88" t="s">
-        <v>80</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>95</v>
+        <v>519</v>
+      </c>
+      <c r="F88" t="s">
+        <v>645</v>
       </c>
       <c r="H88">
         <f t="shared" si="11"/>
@@ -5412,28 +5991,1605 @@
       </c>
       <c r="I88" s="3">
         <f t="shared" si="12"/>
+        <v>45653</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>520</v>
+      </c>
+      <c r="B89" t="s">
+        <v>521</v>
+      </c>
+      <c r="C89" t="s">
+        <v>522</v>
+      </c>
+      <c r="D89" t="s">
+        <v>523</v>
+      </c>
+      <c r="E89" t="s">
+        <v>524</v>
+      </c>
+      <c r="F89" t="s">
+        <v>645</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="I89" s="3">
+        <f t="shared" si="12"/>
         <v>45654</v>
       </c>
-      <c r="J88">
-        <f t="shared" ref="J88" si="13">J87+1</f>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="I89" s="3"/>
+      <c r="J89">
+        <f t="shared" si="6"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" t="s">
+        <v>176</v>
+      </c>
+      <c r="C90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D90" t="s">
+        <v>178</v>
+      </c>
+      <c r="E90" t="s">
+        <v>179</v>
+      </c>
+      <c r="F90" t="s">
+        <v>190</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="I90" s="3">
+        <f t="shared" si="12"/>
+        <v>45654</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>204</v>
+      </c>
+      <c r="B91" t="s">
+        <v>205</v>
+      </c>
+      <c r="C91" t="s">
+        <v>206</v>
+      </c>
+      <c r="D91" t="s">
+        <v>207</v>
+      </c>
+      <c r="E91" t="s">
+        <v>208</v>
+      </c>
+      <c r="F91" t="s">
+        <v>257</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="I91" s="3">
+        <f t="shared" si="12"/>
+        <v>45654</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="6"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>309</v>
+      </c>
+      <c r="B92" t="s">
+        <v>310</v>
+      </c>
+      <c r="C92" t="s">
+        <v>311</v>
+      </c>
+      <c r="D92" t="s">
+        <v>312</v>
+      </c>
+      <c r="E92" t="s">
+        <v>325</v>
+      </c>
+      <c r="F92" t="s">
+        <v>326</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="I92" s="3">
+        <f t="shared" si="12"/>
+        <v>45655</v>
+      </c>
+      <c r="J92">
+        <f t="shared" ref="J92:J135" si="13">J91+1</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>593</v>
+      </c>
+      <c r="B93" t="s">
+        <v>594</v>
+      </c>
+      <c r="C93" t="s">
+        <v>568</v>
+      </c>
+      <c r="D93" t="s">
+        <v>548</v>
+      </c>
+      <c r="E93" t="s">
+        <v>168</v>
+      </c>
+      <c r="F93" t="s">
+        <v>645</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="I93" s="3">
+        <f t="shared" si="12"/>
+        <v>45655</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="13"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>168</v>
+      </c>
+      <c r="B94" t="s">
+        <v>548</v>
+      </c>
+      <c r="C94" t="s">
+        <v>595</v>
+      </c>
+      <c r="D94" t="s">
+        <v>596</v>
+      </c>
+      <c r="E94" t="s">
+        <v>597</v>
+      </c>
+      <c r="F94" t="s">
+        <v>645</v>
+      </c>
+      <c r="H94">
+        <f t="shared" ref="H94:H135" si="14">INT(J94/3)</f>
+        <v>30</v>
+      </c>
+      <c r="I94" s="3">
+        <f t="shared" ref="I94:I135" si="15">$L$1+H94</f>
+        <v>45655</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="13"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>598</v>
+      </c>
+      <c r="B95" t="s">
+        <v>599</v>
+      </c>
+      <c r="C95" t="s">
+        <v>600</v>
+      </c>
+      <c r="D95" t="s">
+        <v>157</v>
+      </c>
+      <c r="E95" t="s">
+        <v>601</v>
+      </c>
+      <c r="F95" t="s">
+        <v>645</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="14"/>
+        <v>31</v>
+      </c>
+      <c r="I95" s="3">
+        <f t="shared" si="15"/>
+        <v>45656</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="13"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>402</v>
+      </c>
+      <c r="B96" t="s">
+        <v>403</v>
+      </c>
+      <c r="C96" t="s">
+        <v>404</v>
+      </c>
+      <c r="D96" t="s">
+        <v>405</v>
+      </c>
+      <c r="E96" t="s">
+        <v>406</v>
+      </c>
+      <c r="F96" t="s">
+        <v>411</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="14"/>
+        <v>31</v>
+      </c>
+      <c r="I96" s="3">
+        <f t="shared" si="15"/>
+        <v>45656</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="13"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97" t="s">
+        <v>30</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="14"/>
+        <v>31</v>
+      </c>
+      <c r="I97" s="3">
+        <f t="shared" si="15"/>
+        <v>45656</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="13"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B98" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" t="s">
+        <v>70</v>
+      </c>
+      <c r="D98" t="s">
+        <v>374</v>
+      </c>
+      <c r="E98" t="s">
+        <v>71</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="14"/>
+        <v>32</v>
+      </c>
+      <c r="I98" s="3">
+        <f t="shared" si="15"/>
+        <v>45657</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="13"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>421</v>
+      </c>
+      <c r="B99" t="s">
+        <v>561</v>
+      </c>
+      <c r="C99" t="s">
+        <v>420</v>
+      </c>
+      <c r="D99" t="s">
+        <v>422</v>
+      </c>
+      <c r="E99" t="s">
+        <v>562</v>
+      </c>
+      <c r="F99" t="s">
+        <v>645</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="14"/>
+        <v>32</v>
+      </c>
+      <c r="I99" s="3">
+        <f t="shared" si="15"/>
+        <v>45657</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="13"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>563</v>
+      </c>
+      <c r="B100" t="s">
+        <v>564</v>
+      </c>
+      <c r="C100" t="s">
+        <v>565</v>
+      </c>
+      <c r="D100" t="s">
+        <v>566</v>
+      </c>
+      <c r="E100" t="s">
+        <v>567</v>
+      </c>
+      <c r="F100" t="s">
+        <v>645</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="14"/>
+        <v>32</v>
+      </c>
+      <c r="I100" s="3">
+        <f t="shared" si="15"/>
+        <v>45657</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="13"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>495</v>
+      </c>
+      <c r="B101" t="s">
+        <v>401</v>
+      </c>
+      <c r="C101" t="s">
+        <v>568</v>
+      </c>
+      <c r="D101" t="s">
+        <v>569</v>
+      </c>
+      <c r="E101" t="s">
+        <v>570</v>
+      </c>
+      <c r="F101" t="s">
+        <v>645</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="14"/>
+        <v>33</v>
+      </c>
+      <c r="I101" s="3">
+        <f t="shared" si="15"/>
+        <v>45658</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="13"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>571</v>
+      </c>
+      <c r="B102" t="s">
+        <v>572</v>
+      </c>
+      <c r="C102" t="s">
+        <v>573</v>
+      </c>
+      <c r="D102" t="s">
+        <v>574</v>
+      </c>
+      <c r="E102" t="s">
+        <v>575</v>
+      </c>
+      <c r="F102" t="s">
+        <v>645</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="14"/>
+        <v>33</v>
+      </c>
+      <c r="I102" s="3">
+        <f t="shared" si="15"/>
+        <v>45658</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>576</v>
+      </c>
+      <c r="B103" t="s">
+        <v>577</v>
+      </c>
+      <c r="C103" t="s">
+        <v>578</v>
+      </c>
+      <c r="D103" t="s">
+        <v>579</v>
+      </c>
+      <c r="E103" t="s">
+        <v>580</v>
+      </c>
+      <c r="F103" t="s">
+        <v>645</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="14"/>
+        <v>33</v>
+      </c>
+      <c r="I103" s="3">
+        <f t="shared" si="15"/>
+        <v>45658</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="13"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>185</v>
+      </c>
+      <c r="B104" t="s">
+        <v>186</v>
+      </c>
+      <c r="C104" t="s">
+        <v>187</v>
+      </c>
+      <c r="D104" t="s">
+        <v>188</v>
+      </c>
+      <c r="E104" t="s">
+        <v>189</v>
+      </c>
+      <c r="F104" t="s">
+        <v>190</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="14"/>
+        <v>34</v>
+      </c>
+      <c r="I104" s="3">
+        <f t="shared" si="15"/>
+        <v>45659</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="13"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" t="s">
+        <v>54</v>
+      </c>
+      <c r="D105" t="s">
+        <v>55</v>
+      </c>
+      <c r="E105" t="s">
+        <v>56</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="14"/>
+        <v>34</v>
+      </c>
+      <c r="I105" s="3">
+        <f t="shared" si="15"/>
+        <v>45659</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="13"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>233</v>
+      </c>
+      <c r="B106" t="s">
+        <v>234</v>
+      </c>
+      <c r="C106" t="s">
+        <v>235</v>
+      </c>
+      <c r="D106" t="s">
+        <v>236</v>
+      </c>
+      <c r="E106" t="s">
+        <v>237</v>
+      </c>
+      <c r="F106" t="s">
+        <v>257</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="14"/>
+        <v>34</v>
+      </c>
+      <c r="I106" s="3">
+        <f t="shared" si="15"/>
+        <v>45659</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="13"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>180</v>
+      </c>
+      <c r="B107" t="s">
+        <v>181</v>
+      </c>
+      <c r="C107" t="s">
+        <v>182</v>
+      </c>
+      <c r="D107" t="s">
+        <v>183</v>
+      </c>
+      <c r="E107" t="s">
+        <v>184</v>
+      </c>
+      <c r="F107" t="s">
+        <v>190</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="I107" s="3">
+        <f t="shared" si="15"/>
+        <v>45660</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="13"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>635</v>
+      </c>
+      <c r="B108" t="s">
+        <v>636</v>
+      </c>
+      <c r="C108" t="s">
+        <v>637</v>
+      </c>
+      <c r="D108" t="s">
+        <v>638</v>
+      </c>
+      <c r="E108" t="s">
+        <v>639</v>
+      </c>
+      <c r="F108" t="s">
+        <v>645</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="I108" s="3">
+        <f t="shared" si="15"/>
+        <v>45660</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="13"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>543</v>
+      </c>
+      <c r="B109" t="s">
+        <v>478</v>
+      </c>
+      <c r="C109" t="s">
+        <v>544</v>
+      </c>
+      <c r="D109" t="s">
+        <v>545</v>
+      </c>
+      <c r="E109" t="s">
+        <v>546</v>
+      </c>
+      <c r="F109" t="s">
+        <v>645</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="I109" s="3">
+        <f t="shared" si="15"/>
+        <v>45660</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="13"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>640</v>
+      </c>
+      <c r="B110" t="s">
+        <v>641</v>
+      </c>
+      <c r="C110" t="s">
+        <v>642</v>
+      </c>
+      <c r="D110" t="s">
+        <v>643</v>
+      </c>
+      <c r="E110" t="s">
+        <v>644</v>
+      </c>
+      <c r="F110" t="s">
+        <v>645</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="I110" s="3">
+        <f t="shared" si="15"/>
+        <v>45661</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="13"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>407</v>
+      </c>
+      <c r="B111" t="s">
+        <v>408</v>
+      </c>
+      <c r="C111" t="s">
+        <v>409</v>
+      </c>
+      <c r="D111" t="s">
+        <v>410</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F111" t="s">
+        <v>411</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="I111" s="3">
+        <f t="shared" si="15"/>
+        <v>45661</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="13"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>581</v>
+      </c>
+      <c r="B112" t="s">
+        <v>582</v>
+      </c>
+      <c r="C112" t="s">
+        <v>422</v>
+      </c>
+      <c r="D112" t="s">
+        <v>583</v>
+      </c>
+      <c r="E112" t="s">
+        <v>663</v>
+      </c>
+      <c r="F112" t="s">
+        <v>645</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="I112" s="3">
+        <f t="shared" si="15"/>
+        <v>45661</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="13"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>584</v>
+      </c>
+      <c r="B113" t="s">
+        <v>585</v>
+      </c>
+      <c r="C113" t="s">
+        <v>586</v>
+      </c>
+      <c r="D113" t="s">
+        <v>587</v>
+      </c>
+      <c r="E113" t="s">
+        <v>588</v>
+      </c>
+      <c r="F113" t="s">
+        <v>645</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="14"/>
+        <v>37</v>
+      </c>
+      <c r="I113" s="3">
+        <f t="shared" si="15"/>
+        <v>45662</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="13"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>589</v>
+      </c>
+      <c r="B114" t="s">
+        <v>590</v>
+      </c>
+      <c r="C114" t="s">
+        <v>591</v>
+      </c>
+      <c r="D114" t="s">
+        <v>592</v>
+      </c>
+      <c r="E114" t="s">
+        <v>662</v>
+      </c>
+      <c r="F114" t="s">
+        <v>645</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="14"/>
+        <v>37</v>
+      </c>
+      <c r="I114" s="3">
+        <f t="shared" si="15"/>
+        <v>45662</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="13"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>277</v>
+      </c>
+      <c r="B115" t="s">
+        <v>278</v>
+      </c>
+      <c r="C115" t="s">
+        <v>279</v>
+      </c>
+      <c r="D115" t="s">
+        <v>280</v>
+      </c>
+      <c r="E115" t="s">
+        <v>281</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="14"/>
+        <v>37</v>
+      </c>
+      <c r="I115" s="3">
+        <f t="shared" si="15"/>
+        <v>45662</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="13"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>243</v>
+      </c>
+      <c r="B116" t="s">
+        <v>244</v>
+      </c>
+      <c r="C116" t="s">
+        <v>245</v>
+      </c>
+      <c r="D116" t="s">
+        <v>246</v>
+      </c>
+      <c r="E116" t="s">
+        <v>247</v>
+      </c>
+      <c r="F116" t="s">
+        <v>257</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="14"/>
+        <v>38</v>
+      </c>
+      <c r="I116" s="3">
+        <f t="shared" si="15"/>
+        <v>45663</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="13"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>313</v>
+      </c>
+      <c r="B117" t="s">
+        <v>314</v>
+      </c>
+      <c r="C117" t="s">
+        <v>315</v>
+      </c>
+      <c r="D117" t="s">
+        <v>316</v>
+      </c>
+      <c r="E117" t="s">
+        <v>325</v>
+      </c>
+      <c r="F117" t="s">
+        <v>326</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="14"/>
+        <v>38</v>
+      </c>
+      <c r="I117" s="3">
+        <f t="shared" si="15"/>
+        <v>45663</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="13"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>620</v>
+      </c>
+      <c r="B118" t="s">
+        <v>621</v>
+      </c>
+      <c r="C118" t="s">
+        <v>622</v>
+      </c>
+      <c r="D118" t="s">
+        <v>623</v>
+      </c>
+      <c r="E118" t="s">
+        <v>624</v>
+      </c>
+      <c r="F118" t="s">
+        <v>645</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="14"/>
+        <v>38</v>
+      </c>
+      <c r="I118" s="3">
+        <f t="shared" si="15"/>
+        <v>45663</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="13"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>625</v>
+      </c>
+      <c r="B119" t="s">
+        <v>626</v>
+      </c>
+      <c r="C119" t="s">
+        <v>627</v>
+      </c>
+      <c r="D119" t="s">
+        <v>628</v>
+      </c>
+      <c r="E119" t="s">
+        <v>629</v>
+      </c>
+      <c r="F119" t="s">
+        <v>645</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="14"/>
+        <v>39</v>
+      </c>
+      <c r="I119" s="3">
+        <f t="shared" si="15"/>
+        <v>45664</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="13"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>368</v>
+      </c>
+      <c r="B120" t="s">
+        <v>369</v>
+      </c>
+      <c r="C120" t="s">
+        <v>292</v>
+      </c>
+      <c r="D120" t="s">
+        <v>293</v>
+      </c>
+      <c r="E120" t="s">
+        <v>325</v>
+      </c>
+      <c r="F120" t="s">
+        <v>326</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="14"/>
+        <v>39</v>
+      </c>
+      <c r="I120" s="3">
+        <f t="shared" si="15"/>
+        <v>45664</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="13"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>411</v>
+      </c>
+      <c r="B121" t="s">
+        <v>435</v>
+      </c>
+      <c r="C121" t="s">
+        <v>412</v>
+      </c>
+      <c r="D121" t="s">
+        <v>413</v>
+      </c>
+      <c r="E121" t="s">
+        <v>440</v>
+      </c>
+      <c r="F121" t="s">
+        <v>411</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="14"/>
+        <v>39</v>
+      </c>
+      <c r="I121" s="3">
+        <f t="shared" si="15"/>
+        <v>45664</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="13"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>268</v>
+      </c>
+      <c r="B122" t="s">
+        <v>269</v>
+      </c>
+      <c r="C122" t="s">
+        <v>270</v>
+      </c>
+      <c r="D122" t="s">
+        <v>250</v>
+      </c>
+      <c r="E122" t="s">
+        <v>271</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="I122" s="3">
+        <f t="shared" si="15"/>
+        <v>45665</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>209</v>
+      </c>
+      <c r="B123" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" t="s">
+        <v>249</v>
+      </c>
+      <c r="D123" t="s">
+        <v>250</v>
+      </c>
+      <c r="E123" t="s">
+        <v>251</v>
+      </c>
+      <c r="F123" t="s">
+        <v>257</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="I123" s="3">
+        <f t="shared" si="15"/>
+        <v>45665</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="13"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>630</v>
+      </c>
+      <c r="B124" t="s">
+        <v>631</v>
+      </c>
+      <c r="C124" t="s">
+        <v>632</v>
+      </c>
+      <c r="D124" t="s">
+        <v>633</v>
+      </c>
+      <c r="E124" t="s">
+        <v>634</v>
+      </c>
+      <c r="F124" t="s">
+        <v>645</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="I124" s="3">
+        <f t="shared" si="15"/>
+        <v>45665</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="13"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>294</v>
+      </c>
+      <c r="B125" t="s">
+        <v>370</v>
+      </c>
+      <c r="C125" t="s">
+        <v>295</v>
+      </c>
+      <c r="D125" t="s">
+        <v>371</v>
+      </c>
+      <c r="E125" t="s">
+        <v>325</v>
+      </c>
+      <c r="F125" t="s">
+        <v>326</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="14"/>
+        <v>41</v>
+      </c>
+      <c r="I125" s="3">
+        <f t="shared" si="15"/>
+        <v>45666</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="13"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>305</v>
+      </c>
+      <c r="B126" t="s">
+        <v>306</v>
+      </c>
+      <c r="C126" t="s">
+        <v>307</v>
+      </c>
+      <c r="D126" t="s">
+        <v>308</v>
+      </c>
+      <c r="E126" t="s">
+        <v>325</v>
+      </c>
+      <c r="F126" t="s">
+        <v>326</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="14"/>
+        <v>41</v>
+      </c>
+      <c r="I126" s="3">
+        <f t="shared" si="15"/>
+        <v>45666</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="13"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>223</v>
+      </c>
+      <c r="B127" t="s">
+        <v>224</v>
+      </c>
+      <c r="C127" t="s">
+        <v>225</v>
+      </c>
+      <c r="D127" t="s">
+        <v>226</v>
+      </c>
+      <c r="E127" t="s">
+        <v>227</v>
+      </c>
+      <c r="F127" t="s">
+        <v>257</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="14"/>
+        <v>41</v>
+      </c>
+      <c r="I127" s="3">
+        <f t="shared" si="15"/>
+        <v>45666</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="13"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" t="s">
+        <v>151</v>
+      </c>
+      <c r="C128" t="s">
+        <v>152</v>
+      </c>
+      <c r="D128" t="s">
+        <v>153</v>
+      </c>
+      <c r="E128" t="s">
+        <v>154</v>
+      </c>
+      <c r="F128" t="s">
+        <v>190</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="14"/>
+        <v>42</v>
+      </c>
+      <c r="I128" s="3">
+        <f t="shared" si="15"/>
+        <v>45667</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="13"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>72</v>
+      </c>
+      <c r="B129" t="s">
+        <v>73</v>
+      </c>
+      <c r="C129" t="s">
+        <v>74</v>
+      </c>
+      <c r="D129" t="s">
+        <v>75</v>
+      </c>
+      <c r="E129" t="s">
+        <v>76</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="14"/>
+        <v>42</v>
+      </c>
+      <c r="I129" s="3">
+        <f t="shared" si="15"/>
+        <v>45667</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="13"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>444</v>
+      </c>
+      <c r="B130" t="s">
+        <v>445</v>
+      </c>
+      <c r="C130" t="s">
+        <v>446</v>
+      </c>
+      <c r="D130" t="s">
+        <v>447</v>
+      </c>
+      <c r="E130" t="s">
+        <v>448</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="14"/>
+        <v>42</v>
+      </c>
+      <c r="I130" s="3">
+        <f t="shared" si="15"/>
+        <v>45667</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="13"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>204</v>
+      </c>
+      <c r="B131" t="s">
+        <v>450</v>
+      </c>
+      <c r="C131" t="s">
+        <v>451</v>
+      </c>
+      <c r="D131" t="s">
+        <v>452</v>
+      </c>
+      <c r="E131" t="s">
+        <v>453</v>
+      </c>
+      <c r="F131" t="s">
+        <v>454</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="14"/>
+        <v>43</v>
+      </c>
+      <c r="I131" s="3">
+        <f t="shared" si="15"/>
+        <v>45668</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="13"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>455</v>
+      </c>
+      <c r="B132" t="s">
+        <v>456</v>
+      </c>
+      <c r="C132" t="s">
+        <v>457</v>
+      </c>
+      <c r="D132" t="s">
+        <v>458</v>
+      </c>
+      <c r="E132" t="s">
+        <v>459</v>
+      </c>
+      <c r="F132" t="s">
+        <v>454</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="14"/>
+        <v>43</v>
+      </c>
+      <c r="I132" s="3">
+        <f t="shared" si="15"/>
+        <v>45668</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="13"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>460</v>
+      </c>
+      <c r="B133" t="s">
+        <v>461</v>
+      </c>
+      <c r="C133" t="s">
+        <v>462</v>
+      </c>
+      <c r="D133" t="s">
+        <v>463</v>
+      </c>
+      <c r="E133" t="s">
+        <v>464</v>
+      </c>
+      <c r="F133" t="s">
+        <v>449</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="14"/>
+        <v>43</v>
+      </c>
+      <c r="I133" s="3">
+        <f t="shared" si="15"/>
+        <v>45668</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="13"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>650</v>
+      </c>
+      <c r="B134" t="s">
+        <v>239</v>
+      </c>
+      <c r="C134" t="s">
+        <v>651</v>
+      </c>
+      <c r="D134" t="s">
+        <v>238</v>
+      </c>
+      <c r="E134" t="s">
+        <v>652</v>
+      </c>
+      <c r="F134" t="s">
+        <v>645</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="I134" s="3">
+        <f t="shared" si="15"/>
+        <v>45669</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="13"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>240</v>
+      </c>
+      <c r="B135" t="s">
+        <v>653</v>
+      </c>
+      <c r="C135" t="s">
+        <v>654</v>
+      </c>
+      <c r="D135" t="s">
+        <v>655</v>
+      </c>
+      <c r="E135" t="s">
+        <v>656</v>
+      </c>
+      <c r="F135" t="s">
+        <v>645</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="I135" s="3">
+        <f t="shared" si="15"/>
+        <v>45669</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="13"/>
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H91">
-    <sortCondition ref="H8:H91"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H132">
+    <sortCondition ref="H8:H132"/>
   </sortState>
-  <conditionalFormatting sqref="I99:I1048576 I1:I89">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
-      <formula>$L$2+1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/code/shabdakala/resource/work/sbwords.xlsx
+++ b/code/shabdakala/resource/work/sbwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/github/shabdakala/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F760B97E-ECF7-6F48-8146-D04B1066D2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E7B66F-4B50-024A-83AC-D815008F3D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="663">
   <si>
     <t>word0</t>
   </si>
@@ -140,9 +140,6 @@
     <t xml:space="preserve"> सफरचंद</t>
   </si>
   <si>
-    <t>लाल वस्तू</t>
-  </si>
-  <si>
     <t xml:space="preserve"> बंदर</t>
   </si>
   <si>
@@ -383,9 +380,6 @@
     <t xml:space="preserve"> हॉकी</t>
   </si>
   <si>
-    <t xml:space="preserve"> पंजाब आणि पंजाबी</t>
-  </si>
-  <si>
     <t xml:space="preserve"> गरबा</t>
   </si>
   <si>
@@ -1268,9 +1262,6 @@
     <t>गजा</t>
   </si>
   <si>
-    <t>केदार</t>
-  </si>
-  <si>
     <t>सारंग</t>
   </si>
   <si>
@@ -1610,9 +1601,6 @@
     <t>ज्यानी फसवणूक होते</t>
   </si>
   <si>
-    <t>कप</t>
-  </si>
-  <si>
     <t>करंडक</t>
   </si>
   <si>
@@ -1643,9 +1631,6 @@
     <t>चित्रं</t>
   </si>
   <si>
-    <t>काम</t>
-  </si>
-  <si>
     <t>ज्या गोष्टी काढता येतात</t>
   </si>
   <si>
@@ -1847,9 +1832,6 @@
     <t>चौकट</t>
   </si>
   <si>
-    <t>पीस</t>
-  </si>
-  <si>
     <t>विदुषक</t>
   </si>
   <si>
@@ -1976,15 +1958,9 @@
     <t xml:space="preserve">पु लं च्या लिखाणातून </t>
   </si>
   <si>
-    <t>कारणं</t>
-  </si>
-  <si>
     <t>झाड</t>
   </si>
   <si>
-    <t>अर्थ</t>
-  </si>
-  <si>
     <t>दव</t>
   </si>
   <si>
@@ -2025,6 +2001,27 @@
   </si>
   <si>
     <t>रामायणातील प्राणी</t>
+  </si>
+  <si>
+    <t>खोडी</t>
+  </si>
+  <si>
+    <t>विरजण</t>
+  </si>
+  <si>
+    <t>लाल रंगाच्या वस्तू</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> पंजाबशी संबंधित </t>
+  </si>
+  <si>
+    <t>ढाल</t>
+  </si>
+  <si>
+    <t>हुकूम</t>
+  </si>
+  <si>
+    <t>केदार म्हसवडे</t>
   </si>
 </sst>
 </file>
@@ -2597,7 +2594,17 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2605,7 +2612,121 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2963,8 +3084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3005,13 +3126,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>351</v>
       </c>
       <c r="L1" s="4">
         <v>45625</v>
@@ -3019,25 +3140,25 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
         <v>102</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>103</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>104</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>105</v>
       </c>
-      <c r="E2" t="s">
-        <v>106</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H2">
         <f>INT(J2/3)</f>
@@ -3052,30 +3173,30 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45633</v>
+        <v>45634</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="1">INT(J3/3)</f>
@@ -3093,25 +3214,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
         <v>139</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>140</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>141</v>
       </c>
-      <c r="D4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" t="s">
-        <v>143</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
@@ -3129,25 +3250,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" t="s">
         <v>263</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>264</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>265</v>
       </c>
-      <c r="D5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E5" t="s">
-        <v>267</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -3165,25 +3286,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
         <v>77</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>78</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>80</v>
       </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -3201,25 +3322,25 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" t="s">
         <v>117</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>118</v>
       </c>
-      <c r="D7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" t="s">
-        <v>120</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -3237,25 +3358,25 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" t="s">
         <v>342</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>343</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>344</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>345</v>
       </c>
-      <c r="E8" t="s">
-        <v>346</v>
-      </c>
-      <c r="F8" t="s">
-        <v>347</v>
-      </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -3272,25 +3393,25 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" t="s">
         <v>332</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>333</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>334</v>
       </c>
-      <c r="D9" t="s">
-        <v>335</v>
-      </c>
-      <c r="E9" t="s">
-        <v>336</v>
-      </c>
       <c r="F9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -3307,25 +3428,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C10" t="s">
         <v>337</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>338</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>339</v>
       </c>
-      <c r="D10" t="s">
-        <v>340</v>
-      </c>
-      <c r="E10" t="s">
-        <v>341</v>
-      </c>
       <c r="F10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -3342,25 +3463,25 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -3377,25 +3498,25 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>354</v>
+      </c>
+      <c r="B12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" t="s">
         <v>356</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>357</v>
       </c>
-      <c r="C12" t="s">
-        <v>364</v>
-      </c>
-      <c r="D12" t="s">
-        <v>358</v>
-      </c>
-      <c r="E12" t="s">
-        <v>359</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H12">
         <f t="shared" ref="H12:H21" si="5">INT(J12/3)</f>
@@ -3412,25 +3533,25 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>358</v>
+      </c>
+      <c r="B13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D13" t="s">
         <v>360</v>
       </c>
-      <c r="B13" t="s">
-        <v>233</v>
-      </c>
-      <c r="C13" t="s">
-        <v>361</v>
-      </c>
-      <c r="D13" t="s">
-        <v>362</v>
-      </c>
       <c r="E13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H13">
         <f t="shared" si="5"/>
@@ -3447,25 +3568,25 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" t="s">
         <v>134</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>135</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>136</v>
       </c>
-      <c r="D14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" t="s">
-        <v>138</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H14">
         <f t="shared" si="5"/>
@@ -3482,25 +3603,25 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
         <v>92</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>93</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>94</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>95</v>
       </c>
-      <c r="E15" t="s">
-        <v>96</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H15">
         <f t="shared" si="5"/>
@@ -3517,25 +3638,25 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
-        <v>63</v>
-      </c>
       <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="H16">
         <f t="shared" si="5"/>
@@ -3561,16 +3682,16 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17">
         <f t="shared" si="5"/>
@@ -3587,25 +3708,25 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
         <v>121</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>122</v>
       </c>
-      <c r="D18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" t="s">
-        <v>124</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H18">
         <f t="shared" si="5"/>
@@ -3637,7 +3758,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>8</v>
@@ -3657,25 +3778,25 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
         <v>160</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>161</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>162</v>
       </c>
-      <c r="D20" t="s">
-        <v>163</v>
-      </c>
-      <c r="E20" t="s">
-        <v>164</v>
-      </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
@@ -3692,25 +3813,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" t="s">
         <v>104</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>105</v>
       </c>
-      <c r="E21" t="s">
-        <v>106</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H21">
         <f t="shared" si="5"/>
@@ -3727,25 +3848,25 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
         <v>139</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>140</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>141</v>
       </c>
-      <c r="D22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" t="s">
-        <v>143</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H22">
         <f t="shared" ref="H22" si="7">INT(J22/3)</f>
@@ -3771,13 +3892,13 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
         <v>43</v>
       </c>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
@@ -3806,16 +3927,16 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
         <v>36</v>
       </c>
-      <c r="E24" t="s">
-        <v>37</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24">
         <f t="shared" si="9"/>
@@ -3832,25 +3953,25 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>373</v>
+      </c>
+      <c r="B25" t="s">
+        <v>374</v>
+      </c>
+      <c r="C25" t="s">
         <v>375</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>376</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>377</v>
       </c>
-      <c r="D25" t="s">
-        <v>378</v>
-      </c>
-      <c r="E25" t="s">
-        <v>379</v>
-      </c>
       <c r="F25" t="s">
-        <v>411</v>
+        <v>662</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H25">
         <f t="shared" si="9"/>
@@ -3867,25 +3988,25 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
         <v>129</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>130</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>131</v>
       </c>
-      <c r="D26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" t="s">
-        <v>133</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H26">
         <f t="shared" si="9"/>
@@ -3902,22 +4023,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>256</v>
+      </c>
+      <c r="B27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" t="s">
         <v>258</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>259</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>260</v>
       </c>
-      <c r="D27" t="s">
-        <v>261</v>
-      </c>
-      <c r="E27" t="s">
-        <v>262</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>8</v>
@@ -3937,32 +4058,32 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>416</v>
+      </c>
+      <c r="B28" t="s">
+        <v>417</v>
+      </c>
+      <c r="C28" t="s">
+        <v>418</v>
+      </c>
+      <c r="D28" t="s">
         <v>419</v>
       </c>
-      <c r="B28" t="s">
-        <v>420</v>
-      </c>
-      <c r="C28" t="s">
-        <v>421</v>
-      </c>
-      <c r="D28" t="s">
-        <v>422</v>
-      </c>
       <c r="E28" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F28" t="s">
-        <v>411</v>
+        <v>662</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H28">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H28:H91" si="11">INT(J28/3)</f>
         <v>8</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I28:I91" si="12">$L$1+H28</f>
         <v>45633</v>
       </c>
       <c r="J28">
@@ -3972,32 +4093,32 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" t="s">
         <v>97</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>98</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>99</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>100</v>
       </c>
-      <c r="E29" t="s">
-        <v>101</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>45634</v>
       </c>
       <c r="J29">
@@ -4007,32 +4128,32 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" t="s">
         <v>107</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>108</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>109</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>110</v>
       </c>
-      <c r="E30" t="s">
-        <v>111</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H93" si="11">INT(J30/3)</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" ref="I30:I93" si="12">$L$1+H30</f>
+        <f t="shared" si="12"/>
         <v>45634</v>
       </c>
       <c r="J30">
@@ -4042,22 +4163,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>270</v>
+      </c>
+      <c r="B31" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" t="s">
         <v>272</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>273</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>274</v>
       </c>
-      <c r="D31" t="s">
-        <v>275</v>
-      </c>
-      <c r="E31" t="s">
-        <v>276</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>8</v>
@@ -4077,22 +4198,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>526</v>
+      </c>
+      <c r="B32" t="s">
+        <v>527</v>
+      </c>
+      <c r="C32" t="s">
+        <v>528</v>
+      </c>
+      <c r="D32" t="s">
+        <v>529</v>
+      </c>
+      <c r="E32" t="s">
         <v>530</v>
       </c>
-      <c r="B32" t="s">
-        <v>531</v>
-      </c>
-      <c r="C32" t="s">
-        <v>532</v>
-      </c>
-      <c r="D32" t="s">
-        <v>533</v>
-      </c>
-      <c r="E32" t="s">
-        <v>534</v>
-      </c>
       <c r="F32" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H32">
         <f t="shared" si="11"/>
@@ -4109,22 +4230,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B33" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C33" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="D33" t="s">
-        <v>536</v>
+        <v>233</v>
       </c>
       <c r="E33" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F33" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H33">
         <f t="shared" si="11"/>
@@ -4141,22 +4262,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B34" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="C34" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F34" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H34">
         <f t="shared" si="11"/>
@@ -4173,25 +4294,25 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
         <v>64</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>65</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>66</v>
       </c>
-      <c r="D35" t="s">
-        <v>67</v>
-      </c>
       <c r="E35" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H35">
         <f t="shared" si="11"/>
@@ -4208,25 +4329,25 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>380</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>381</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>382</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>383</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>384</v>
-      </c>
-      <c r="F36" t="s">
-        <v>411</v>
+        <v>658</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>282</v>
+        <v>8</v>
       </c>
       <c r="H36">
         <f t="shared" si="11"/>
@@ -4243,25 +4364,25 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>659</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>348</v>
+        <v>88</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="H37">
         <f t="shared" si="11"/>
@@ -4278,25 +4399,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>660</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>522</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>523</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>524</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>147</v>
+        <v>525</v>
+      </c>
+      <c r="F38" t="s">
+        <v>639</v>
       </c>
       <c r="H38">
         <f t="shared" si="11"/>
@@ -4313,22 +4431,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="B39" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="C39" t="s">
-        <v>527</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="E39" t="s">
-        <v>529</v>
+        <v>653</v>
       </c>
       <c r="F39" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H39">
         <f t="shared" si="11"/>
@@ -4345,22 +4463,25 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>540</v>
+        <v>207</v>
       </c>
       <c r="B40" t="s">
-        <v>541</v>
+        <v>208</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="D40" t="s">
-        <v>542</v>
+        <v>210</v>
       </c>
       <c r="E40" t="s">
-        <v>661</v>
+        <v>211</v>
       </c>
       <c r="F40" t="s">
-        <v>645</v>
+        <v>255</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="H40">
         <f t="shared" si="11"/>
@@ -4377,25 +4498,25 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>212</v>
+        <v>84</v>
       </c>
       <c r="E41" t="s">
-        <v>213</v>
-      </c>
-      <c r="F41" t="s">
-        <v>257</v>
+        <v>85</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="H41">
         <f t="shared" si="11"/>
@@ -4412,25 +4533,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>597</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>598</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>661</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>599</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>91</v>
+        <v>600</v>
+      </c>
+      <c r="F42" t="s">
+        <v>639</v>
       </c>
       <c r="H42">
         <f t="shared" si="11"/>
@@ -4447,22 +4565,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="B43" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="C43" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="D43" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="E43" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="F43" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H43">
         <f t="shared" si="11"/>
@@ -4479,22 +4597,25 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>615</v>
+        <v>430</v>
       </c>
       <c r="B44" t="s">
-        <v>616</v>
+        <v>383</v>
       </c>
       <c r="C44" t="s">
-        <v>617</v>
+        <v>384</v>
       </c>
       <c r="D44" t="s">
-        <v>618</v>
+        <v>429</v>
       </c>
       <c r="E44" t="s">
-        <v>619</v>
+        <v>385</v>
       </c>
       <c r="F44" t="s">
-        <v>645</v>
+        <v>662</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="H44">
         <f t="shared" si="11"/>
@@ -4511,25 +4632,25 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>433</v>
+        <v>197</v>
       </c>
       <c r="B45" t="s">
-        <v>385</v>
+        <v>198</v>
       </c>
       <c r="C45" t="s">
-        <v>386</v>
+        <v>199</v>
       </c>
       <c r="D45" t="s">
-        <v>432</v>
+        <v>200</v>
       </c>
       <c r="E45" t="s">
-        <v>387</v>
+        <v>201</v>
       </c>
       <c r="F45" t="s">
-        <v>411</v>
+        <v>255</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>282</v>
+        <v>48</v>
       </c>
       <c r="H45">
         <f t="shared" si="11"/>
@@ -4546,25 +4667,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>199</v>
+        <v>542</v>
       </c>
       <c r="B46" t="s">
-        <v>200</v>
+        <v>543</v>
       </c>
       <c r="C46" t="s">
-        <v>201</v>
+        <v>544</v>
       </c>
       <c r="D46" t="s">
-        <v>202</v>
+        <v>545</v>
       </c>
       <c r="E46" t="s">
-        <v>203</v>
+        <v>546</v>
       </c>
       <c r="F46" t="s">
-        <v>257</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>49</v>
+        <v>639</v>
       </c>
       <c r="H46">
         <f t="shared" si="11"/>
@@ -4581,22 +4699,22 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>233</v>
+      </c>
+      <c r="B47" t="s">
         <v>547</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>548</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>549</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>550</v>
       </c>
-      <c r="E47" t="s">
-        <v>551</v>
-      </c>
       <c r="F47" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H47">
         <f t="shared" si="11"/>
@@ -4613,7 +4731,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>235</v>
+        <v>551</v>
       </c>
       <c r="B48" t="s">
         <v>552</v>
@@ -4628,7 +4746,7 @@
         <v>555</v>
       </c>
       <c r="F48" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H48">
         <f t="shared" si="11"/>
@@ -4645,22 +4763,25 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>556</v>
+        <v>192</v>
       </c>
       <c r="B49" t="s">
-        <v>557</v>
+        <v>193</v>
       </c>
       <c r="C49" t="s">
-        <v>558</v>
+        <v>194</v>
       </c>
       <c r="D49" t="s">
-        <v>559</v>
+        <v>195</v>
       </c>
       <c r="E49" t="s">
-        <v>560</v>
+        <v>196</v>
       </c>
       <c r="F49" t="s">
-        <v>645</v>
+        <v>255</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="H49">
         <f t="shared" si="11"/>
@@ -4677,25 +4798,25 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>194</v>
+        <v>420</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>421</v>
       </c>
       <c r="C50" t="s">
-        <v>196</v>
+        <v>422</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
+        <v>380</v>
       </c>
       <c r="E50" t="s">
-        <v>198</v>
+        <v>423</v>
       </c>
       <c r="F50" t="s">
-        <v>257</v>
+        <v>662</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>91</v>
+        <v>280</v>
       </c>
       <c r="H50">
         <f t="shared" si="11"/>
@@ -4711,26 +4832,26 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>423</v>
+      <c r="A51" s="2">
+        <v>42.195</v>
       </c>
       <c r="B51" t="s">
-        <v>424</v>
+        <v>123</v>
       </c>
       <c r="C51" t="s">
-        <v>425</v>
+        <v>124</v>
       </c>
       <c r="D51" t="s">
-        <v>382</v>
+        <v>125</v>
       </c>
       <c r="E51" t="s">
-        <v>426</v>
-      </c>
-      <c r="F51" t="s">
-        <v>411</v>
+        <v>126</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="H51">
         <f t="shared" si="11"/>
@@ -4746,26 +4867,26 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>42.195</v>
+      <c r="A52" t="s">
+        <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="E52" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>454</v>
+        <v>346</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="H52">
         <f t="shared" si="11"/>
@@ -4782,25 +4903,25 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>348</v>
+        <v>172</v>
+      </c>
+      <c r="F53" t="s">
+        <v>188</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>8</v>
+        <v>191</v>
       </c>
       <c r="H53">
         <f t="shared" si="11"/>
@@ -4817,25 +4938,25 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="B54" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="C54" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="D54" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="E54" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="F54" t="s">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>193</v>
+        <v>281</v>
       </c>
       <c r="H54">
         <f t="shared" si="11"/>
@@ -4852,25 +4973,25 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>218</v>
+        <v>386</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>387</v>
       </c>
       <c r="C55" t="s">
-        <v>220</v>
+        <v>388</v>
       </c>
       <c r="D55" t="s">
-        <v>221</v>
+        <v>389</v>
       </c>
       <c r="E55" t="s">
-        <v>222</v>
+        <v>440</v>
       </c>
       <c r="F55" t="s">
-        <v>257</v>
+        <v>662</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H55">
         <f t="shared" si="11"/>
@@ -4887,25 +5008,25 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>388</v>
+        <v>236</v>
       </c>
       <c r="B56" t="s">
-        <v>389</v>
+        <v>237</v>
       </c>
       <c r="C56" t="s">
-        <v>390</v>
+        <v>238</v>
       </c>
       <c r="D56" t="s">
-        <v>391</v>
+        <v>239</v>
       </c>
       <c r="E56" t="s">
-        <v>443</v>
+        <v>240</v>
       </c>
       <c r="F56" t="s">
-        <v>411</v>
+        <v>255</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>282</v>
+        <v>143</v>
       </c>
       <c r="H56">
         <f t="shared" si="11"/>
@@ -4922,25 +5043,25 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="C57" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="D57" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>242</v>
-      </c>
-      <c r="F57" t="s">
-        <v>257</v>
+        <v>33</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="H57">
         <f t="shared" si="11"/>
@@ -4957,25 +5078,22 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>477</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>478</v>
       </c>
       <c r="C58" t="s">
-        <v>47</v>
+        <v>479</v>
       </c>
       <c r="D58" t="s">
-        <v>46</v>
+        <v>480</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>51</v>
+        <v>481</v>
+      </c>
+      <c r="F58" t="s">
+        <v>639</v>
       </c>
       <c r="H58">
         <f t="shared" si="11"/>
@@ -4992,22 +5110,22 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B59" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C59" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D59" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E59" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F59" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H59">
         <f t="shared" si="11"/>
@@ -5024,22 +5142,22 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B60" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C60" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D60" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E60" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F60" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H60">
         <f t="shared" si="11"/>
@@ -5056,22 +5174,25 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>490</v>
+        <v>378</v>
       </c>
       <c r="B61" t="s">
-        <v>491</v>
+        <v>379</v>
       </c>
       <c r="C61" t="s">
-        <v>492</v>
+        <v>380</v>
       </c>
       <c r="D61" t="s">
-        <v>493</v>
+        <v>381</v>
       </c>
       <c r="E61" t="s">
-        <v>494</v>
+        <v>382</v>
       </c>
       <c r="F61" t="s">
-        <v>645</v>
+        <v>662</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="H61">
         <f t="shared" si="11"/>
@@ -5088,25 +5209,25 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B62" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" t="s">
         <v>214</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E62" t="s">
         <v>215</v>
       </c>
-      <c r="D62" t="s">
-        <v>216</v>
-      </c>
-      <c r="E62" t="s">
-        <v>217</v>
-      </c>
       <c r="F62" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H62">
         <f t="shared" si="11"/>
@@ -5123,25 +5244,25 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>315</v>
+      </c>
+      <c r="B63" t="s">
+        <v>316</v>
+      </c>
+      <c r="C63" t="s">
         <v>317</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
         <v>318</v>
       </c>
-      <c r="C63" t="s">
-        <v>319</v>
-      </c>
-      <c r="D63" t="s">
-        <v>320</v>
-      </c>
       <c r="E63" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F63" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H63">
         <f t="shared" si="11"/>
@@ -5158,25 +5279,25 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" t="s">
         <v>155</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D64" t="s">
         <v>156</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
         <v>157</v>
       </c>
-      <c r="D64" t="s">
-        <v>158</v>
-      </c>
-      <c r="E64" t="s">
-        <v>159</v>
-      </c>
       <c r="F64" t="s">
+        <v>188</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="H64">
         <f t="shared" si="11"/>
@@ -5193,25 +5314,25 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>390</v>
+      </c>
+      <c r="B65" t="s">
+        <v>391</v>
+      </c>
+      <c r="C65" t="s">
         <v>392</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D65" t="s">
         <v>393</v>
       </c>
-      <c r="C65" t="s">
-        <v>394</v>
-      </c>
-      <c r="D65" t="s">
-        <v>395</v>
-      </c>
       <c r="E65" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F65" t="s">
-        <v>411</v>
+        <v>662</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H65">
         <f t="shared" si="11"/>
@@ -5228,25 +5349,25 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>411</v>
+      </c>
+      <c r="B66" t="s">
+        <v>412</v>
+      </c>
+      <c r="C66" t="s">
+        <v>413</v>
+      </c>
+      <c r="D66" t="s">
         <v>414</v>
       </c>
-      <c r="B66" t="s">
+      <c r="E66" t="s">
         <v>415</v>
       </c>
-      <c r="C66" t="s">
-        <v>416</v>
-      </c>
-      <c r="D66" t="s">
-        <v>417</v>
-      </c>
-      <c r="E66" t="s">
-        <v>418</v>
-      </c>
       <c r="F66" t="s">
-        <v>411</v>
+        <v>662</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H66">
         <f t="shared" si="11"/>
@@ -5263,22 +5384,22 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>473</v>
+      </c>
+      <c r="B67" t="s">
+        <v>474</v>
+      </c>
+      <c r="C67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" t="s">
+        <v>475</v>
+      </c>
+      <c r="E67" t="s">
         <v>476</v>
       </c>
-      <c r="B67" t="s">
-        <v>477</v>
-      </c>
-      <c r="C67" t="s">
-        <v>216</v>
-      </c>
-      <c r="D67" t="s">
-        <v>478</v>
-      </c>
-      <c r="E67" t="s">
-        <v>479</v>
-      </c>
       <c r="F67" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H67">
         <f t="shared" si="11"/>
@@ -5295,25 +5416,25 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>250</v>
+      </c>
+      <c r="B68" t="s">
+        <v>251</v>
+      </c>
+      <c r="C68" t="s">
         <v>252</v>
       </c>
-      <c r="B68" t="s">
+      <c r="D68" t="s">
         <v>253</v>
       </c>
-      <c r="C68" t="s">
+      <c r="E68" t="s">
         <v>254</v>
       </c>
-      <c r="D68" t="s">
+      <c r="F68" t="s">
         <v>255</v>
       </c>
-      <c r="E68" t="s">
-        <v>256</v>
-      </c>
-      <c r="F68" t="s">
-        <v>257</v>
-      </c>
       <c r="G68" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H68">
         <f t="shared" si="11"/>
@@ -5330,22 +5451,22 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B69" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C69" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D69" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E69" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="F69" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H69">
         <f t="shared" si="11"/>
@@ -5362,22 +5483,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B70" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C70" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D70" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="E70" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F70" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H70">
         <f t="shared" si="11"/>
@@ -5394,25 +5515,25 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>424</v>
+      </c>
+      <c r="B71" t="s">
+        <v>425</v>
+      </c>
+      <c r="C71" t="s">
+        <v>426</v>
+      </c>
+      <c r="D71" t="s">
         <v>427</v>
       </c>
-      <c r="B71" t="s">
-        <v>428</v>
-      </c>
-      <c r="C71" t="s">
-        <v>429</v>
-      </c>
-      <c r="D71" t="s">
-        <v>430</v>
-      </c>
       <c r="E71" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F71" t="s">
-        <v>411</v>
+        <v>662</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H71">
         <f t="shared" si="11"/>
@@ -5429,25 +5550,25 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>283</v>
+      </c>
+      <c r="B72" t="s">
+        <v>284</v>
+      </c>
+      <c r="C72" t="s">
         <v>285</v>
       </c>
-      <c r="B72" t="s">
+      <c r="D72" t="s">
         <v>286</v>
       </c>
-      <c r="C72" t="s">
-        <v>287</v>
-      </c>
-      <c r="D72" t="s">
-        <v>288</v>
-      </c>
       <c r="E72" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F72" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H72">
         <f t="shared" si="11"/>
@@ -5464,25 +5585,25 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>298</v>
+      </c>
+      <c r="B73" t="s">
+        <v>299</v>
+      </c>
+      <c r="C73" t="s">
         <v>300</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73" t="s">
         <v>301</v>
       </c>
-      <c r="C73" t="s">
+      <c r="E73" t="s">
         <v>302</v>
       </c>
-      <c r="D73" t="s">
-        <v>303</v>
-      </c>
-      <c r="E73" t="s">
-        <v>304</v>
-      </c>
       <c r="F73" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H73">
         <f t="shared" si="11"/>
@@ -5499,25 +5620,25 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>294</v>
+      </c>
+      <c r="B74" t="s">
+        <v>295</v>
+      </c>
+      <c r="C74" t="s">
         <v>296</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D74" t="s">
         <v>297</v>
       </c>
-      <c r="C74" t="s">
-        <v>298</v>
-      </c>
-      <c r="D74" t="s">
-        <v>299</v>
-      </c>
       <c r="E74" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F74" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H74">
         <f t="shared" si="11"/>
@@ -5534,22 +5655,22 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B75" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C75" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D75" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="E75" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F75" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H75">
         <f t="shared" si="11"/>
@@ -5566,22 +5687,22 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B76" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C76" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D76" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E76" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F76" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H76">
         <f t="shared" si="11"/>
@@ -5598,25 +5719,25 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>325</v>
+      </c>
+      <c r="B77" t="s">
+        <v>326</v>
+      </c>
+      <c r="C77" t="s">
         <v>327</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D77" t="s">
         <v>328</v>
       </c>
-      <c r="C77" t="s">
+      <c r="E77" t="s">
         <v>329</v>
       </c>
-      <c r="D77" t="s">
-        <v>330</v>
-      </c>
-      <c r="E77" t="s">
-        <v>331</v>
-      </c>
       <c r="F77" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H77">
         <f t="shared" si="11"/>
@@ -5633,25 +5754,25 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B78" t="s">
+        <v>287</v>
+      </c>
+      <c r="C78" t="s">
+        <v>288</v>
+      </c>
+      <c r="D78" t="s">
         <v>289</v>
       </c>
-      <c r="C78" t="s">
-        <v>290</v>
-      </c>
-      <c r="D78" t="s">
-        <v>291</v>
-      </c>
       <c r="E78" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F78" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H78">
         <f t="shared" si="11"/>
@@ -5668,22 +5789,22 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>463</v>
+      </c>
+      <c r="B79" t="s">
+        <v>464</v>
+      </c>
+      <c r="C79" t="s">
+        <v>465</v>
+      </c>
+      <c r="D79" t="s">
         <v>466</v>
       </c>
-      <c r="B79" t="s">
+      <c r="E79" t="s">
         <v>467</v>
       </c>
-      <c r="C79" t="s">
-        <v>468</v>
-      </c>
-      <c r="D79" t="s">
-        <v>469</v>
-      </c>
-      <c r="E79" t="s">
-        <v>470</v>
-      </c>
       <c r="F79" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H79">
         <f t="shared" si="11"/>
@@ -5700,22 +5821,22 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" t="s">
+        <v>469</v>
+      </c>
+      <c r="C80" t="s">
+        <v>470</v>
+      </c>
+      <c r="D80" t="s">
         <v>471</v>
       </c>
-      <c r="B80" t="s">
+      <c r="E80" t="s">
         <v>472</v>
       </c>
-      <c r="C80" t="s">
-        <v>473</v>
-      </c>
-      <c r="D80" t="s">
-        <v>474</v>
-      </c>
-      <c r="E80" t="s">
-        <v>475</v>
-      </c>
       <c r="F80" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H80">
         <f t="shared" si="11"/>
@@ -5732,25 +5853,25 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>394</v>
+      </c>
+      <c r="B81" t="s">
+        <v>395</v>
+      </c>
+      <c r="C81" t="s">
         <v>396</v>
       </c>
-      <c r="B81" t="s">
+      <c r="D81" t="s">
         <v>397</v>
       </c>
-      <c r="C81" t="s">
+      <c r="E81" t="s">
         <v>398</v>
       </c>
-      <c r="D81" t="s">
-        <v>399</v>
-      </c>
-      <c r="E81" t="s">
-        <v>400</v>
-      </c>
       <c r="F81" t="s">
-        <v>411</v>
+        <v>662</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H81">
         <f t="shared" si="11"/>
@@ -5767,25 +5888,25 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>226</v>
+      </c>
+      <c r="B82" t="s">
+        <v>227</v>
+      </c>
+      <c r="C82" t="s">
         <v>228</v>
       </c>
-      <c r="B82" t="s">
+      <c r="D82" t="s">
         <v>229</v>
       </c>
-      <c r="C82" t="s">
+      <c r="E82" t="s">
         <v>230</v>
       </c>
-      <c r="D82" t="s">
-        <v>231</v>
-      </c>
-      <c r="E82" t="s">
-        <v>232</v>
-      </c>
       <c r="F82" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H82">
         <f t="shared" si="11"/>
@@ -5802,22 +5923,22 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>492</v>
+      </c>
+      <c r="B83" t="s">
+        <v>493</v>
+      </c>
+      <c r="C83" t="s">
+        <v>494</v>
+      </c>
+      <c r="D83" t="s">
         <v>495</v>
       </c>
-      <c r="B83" t="s">
+      <c r="E83" t="s">
         <v>496</v>
       </c>
-      <c r="C83" t="s">
-        <v>497</v>
-      </c>
-      <c r="D83" t="s">
-        <v>498</v>
-      </c>
-      <c r="E83" t="s">
-        <v>499</v>
-      </c>
       <c r="F83" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H83">
         <f t="shared" si="11"/>
@@ -5834,22 +5955,22 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>497</v>
+      </c>
+      <c r="B84" t="s">
+        <v>498</v>
+      </c>
+      <c r="C84" t="s">
+        <v>499</v>
+      </c>
+      <c r="D84" t="s">
         <v>500</v>
       </c>
-      <c r="B84" t="s">
+      <c r="E84" t="s">
         <v>501</v>
       </c>
-      <c r="C84" t="s">
-        <v>502</v>
-      </c>
-      <c r="D84" t="s">
-        <v>503</v>
-      </c>
-      <c r="E84" t="s">
-        <v>504</v>
-      </c>
       <c r="F84" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H84">
         <f t="shared" si="11"/>
@@ -5866,25 +5987,25 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>319</v>
+      </c>
+      <c r="B85" t="s">
+        <v>320</v>
+      </c>
+      <c r="C85" t="s">
         <v>321</v>
       </c>
-      <c r="B85" t="s">
+      <c r="D85" t="s">
         <v>322</v>
       </c>
-      <c r="C85" t="s">
+      <c r="E85" t="s">
         <v>323</v>
       </c>
-      <c r="D85" t="s">
+      <c r="F85" t="s">
         <v>324</v>
       </c>
-      <c r="E85" t="s">
-        <v>325</v>
-      </c>
-      <c r="F85" t="s">
-        <v>326</v>
-      </c>
       <c r="G85" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H85">
         <f t="shared" si="11"/>
@@ -5901,25 +6022,25 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" t="s">
         <v>165</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D86" t="s">
         <v>166</v>
       </c>
-      <c r="C86" t="s">
+      <c r="E86" t="s">
         <v>167</v>
       </c>
-      <c r="D86" t="s">
-        <v>168</v>
-      </c>
-      <c r="E86" t="s">
-        <v>169</v>
-      </c>
       <c r="F86" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H86">
         <f t="shared" si="11"/>
@@ -5936,22 +6057,22 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>507</v>
+      </c>
+      <c r="B87" t="s">
+        <v>508</v>
+      </c>
+      <c r="C87" t="s">
+        <v>509</v>
+      </c>
+      <c r="D87" t="s">
         <v>510</v>
       </c>
-      <c r="B87" t="s">
+      <c r="E87" t="s">
         <v>511</v>
       </c>
-      <c r="C87" t="s">
-        <v>512</v>
-      </c>
-      <c r="D87" t="s">
-        <v>513</v>
-      </c>
-      <c r="E87" t="s">
-        <v>514</v>
-      </c>
       <c r="F87" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H87">
         <f t="shared" si="11"/>
@@ -5968,22 +6089,22 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>512</v>
+      </c>
+      <c r="B88" t="s">
+        <v>513</v>
+      </c>
+      <c r="C88" t="s">
+        <v>514</v>
+      </c>
+      <c r="D88" t="s">
         <v>515</v>
       </c>
-      <c r="B88" t="s">
+      <c r="E88" t="s">
         <v>516</v>
       </c>
-      <c r="C88" t="s">
-        <v>517</v>
-      </c>
-      <c r="D88" t="s">
-        <v>518</v>
-      </c>
-      <c r="E88" t="s">
-        <v>519</v>
-      </c>
       <c r="F88" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H88">
         <f t="shared" si="11"/>
@@ -6000,22 +6121,22 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>517</v>
+      </c>
+      <c r="B89" t="s">
+        <v>518</v>
+      </c>
+      <c r="C89" t="s">
+        <v>519</v>
+      </c>
+      <c r="D89" t="s">
         <v>520</v>
       </c>
-      <c r="B89" t="s">
+      <c r="E89" t="s">
         <v>521</v>
       </c>
-      <c r="C89" t="s">
-        <v>522</v>
-      </c>
-      <c r="D89" t="s">
-        <v>523</v>
-      </c>
-      <c r="E89" t="s">
-        <v>524</v>
-      </c>
       <c r="F89" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H89">
         <f t="shared" si="11"/>
@@ -6032,25 +6153,25 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>173</v>
+      </c>
+      <c r="B90" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" t="s">
         <v>175</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D90" t="s">
         <v>176</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E90" t="s">
         <v>177</v>
       </c>
-      <c r="D90" t="s">
-        <v>178</v>
-      </c>
-      <c r="E90" t="s">
-        <v>179</v>
-      </c>
       <c r="F90" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H90">
         <f t="shared" si="11"/>
@@ -6067,25 +6188,25 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>202</v>
+      </c>
+      <c r="B91" t="s">
+        <v>203</v>
+      </c>
+      <c r="C91" t="s">
         <v>204</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
         <v>205</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
         <v>206</v>
       </c>
-      <c r="D91" t="s">
-        <v>207</v>
-      </c>
-      <c r="E91" t="s">
-        <v>208</v>
-      </c>
       <c r="F91" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H91">
         <f t="shared" si="11"/>
@@ -6102,167 +6223,167 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>307</v>
+      </c>
+      <c r="B92" t="s">
+        <v>308</v>
+      </c>
+      <c r="C92" t="s">
         <v>309</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D92" t="s">
         <v>310</v>
       </c>
-      <c r="C92" t="s">
-        <v>311</v>
-      </c>
-      <c r="D92" t="s">
-        <v>312</v>
-      </c>
       <c r="E92" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F92" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H92">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H92:H135" si="13">INT(J92/3)</f>
         <v>30</v>
       </c>
       <c r="I92" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="I92:I135" si="14">$L$1+H92</f>
         <v>45655</v>
       </c>
       <c r="J92">
-        <f t="shared" ref="J92:J135" si="13">J91+1</f>
+        <f t="shared" ref="J92:J135" si="15">J91+1</f>
         <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B93" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C93" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D93" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E93" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F93" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="I93" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45655</v>
       </c>
       <c r="J93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B94" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C94" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D94" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="E94" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F94" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H94">
-        <f t="shared" ref="H94:H135" si="14">INT(J94/3)</f>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="I94" s="3">
-        <f t="shared" ref="I94:I135" si="15">$L$1+H94</f>
+        <f t="shared" si="14"/>
         <v>45655</v>
       </c>
       <c r="J94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B95" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C95" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D95" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E95" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F95" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H95">
+        <f t="shared" si="13"/>
+        <v>31</v>
+      </c>
+      <c r="I95" s="3">
         <f t="shared" si="14"/>
-        <v>31</v>
-      </c>
-      <c r="I95" s="3">
+        <v>45656</v>
+      </c>
+      <c r="J95">
         <f t="shared" si="15"/>
-        <v>45656</v>
-      </c>
-      <c r="J95">
-        <f t="shared" si="13"/>
         <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>400</v>
+      </c>
+      <c r="B96" t="s">
+        <v>401</v>
+      </c>
+      <c r="C96" t="s">
         <v>402</v>
       </c>
-      <c r="B96" t="s">
+      <c r="D96" t="s">
         <v>403</v>
       </c>
-      <c r="C96" t="s">
+      <c r="E96" t="s">
         <v>404</v>
       </c>
-      <c r="D96" t="s">
-        <v>405</v>
-      </c>
-      <c r="E96" t="s">
-        <v>406</v>
-      </c>
       <c r="F96" t="s">
-        <v>411</v>
+        <v>662</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H96">
+        <f t="shared" si="13"/>
+        <v>31</v>
+      </c>
+      <c r="I96" s="3">
         <f t="shared" si="14"/>
-        <v>31</v>
-      </c>
-      <c r="I96" s="3">
+        <v>45656</v>
+      </c>
+      <c r="J96">
         <f t="shared" si="15"/>
-        <v>45656</v>
-      </c>
-      <c r="J96">
-        <f t="shared" si="13"/>
         <v>94</v>
       </c>
     </row>
@@ -6283,1303 +6404,1303 @@
         <v>30</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H97">
+        <f t="shared" si="13"/>
+        <v>31</v>
+      </c>
+      <c r="I97" s="3">
         <f t="shared" si="14"/>
-        <v>31</v>
-      </c>
-      <c r="I97" s="3">
+        <v>45656</v>
+      </c>
+      <c r="J97">
         <f t="shared" si="15"/>
-        <v>45656</v>
-      </c>
-      <c r="J97">
-        <f t="shared" si="13"/>
         <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>67</v>
+      </c>
+      <c r="B98" t="s">
         <v>68</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>69</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>372</v>
+      </c>
+      <c r="E98" t="s">
         <v>70</v>
       </c>
-      <c r="D98" t="s">
-        <v>374</v>
-      </c>
-      <c r="E98" t="s">
-        <v>71</v>
-      </c>
       <c r="F98" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H98">
+        <f t="shared" si="13"/>
+        <v>32</v>
+      </c>
+      <c r="I98" s="3">
         <f t="shared" si="14"/>
-        <v>32</v>
-      </c>
-      <c r="I98" s="3">
+        <v>45657</v>
+      </c>
+      <c r="J98">
         <f t="shared" si="15"/>
-        <v>45657</v>
-      </c>
-      <c r="J98">
-        <f t="shared" si="13"/>
         <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B99" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C99" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D99" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E99" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F99" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H99">
+        <f t="shared" si="13"/>
+        <v>32</v>
+      </c>
+      <c r="I99" s="3">
         <f t="shared" si="14"/>
-        <v>32</v>
-      </c>
-      <c r="I99" s="3">
+        <v>45657</v>
+      </c>
+      <c r="J99">
         <f t="shared" si="15"/>
-        <v>45657</v>
-      </c>
-      <c r="J99">
-        <f t="shared" si="13"/>
         <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B100" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C100" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D100" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E100" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F100" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H100">
+        <f t="shared" si="13"/>
+        <v>32</v>
+      </c>
+      <c r="I100" s="3">
         <f t="shared" si="14"/>
-        <v>32</v>
-      </c>
-      <c r="I100" s="3">
+        <v>45657</v>
+      </c>
+      <c r="J100">
         <f t="shared" si="15"/>
-        <v>45657</v>
-      </c>
-      <c r="J100">
-        <f t="shared" si="13"/>
         <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B101" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C101" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D101" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E101" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F101" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H101">
+        <f t="shared" si="13"/>
+        <v>33</v>
+      </c>
+      <c r="I101" s="3">
         <f t="shared" si="14"/>
-        <v>33</v>
-      </c>
-      <c r="I101" s="3">
+        <v>45658</v>
+      </c>
+      <c r="J101">
         <f t="shared" si="15"/>
-        <v>45658</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="13"/>
         <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B102" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C102" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D102" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E102" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F102" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H102">
+        <f t="shared" si="13"/>
+        <v>33</v>
+      </c>
+      <c r="I102" s="3">
         <f t="shared" si="14"/>
-        <v>33</v>
-      </c>
-      <c r="I102" s="3">
+        <v>45658</v>
+      </c>
+      <c r="J102">
         <f t="shared" si="15"/>
-        <v>45658</v>
-      </c>
-      <c r="J102">
-        <f t="shared" si="13"/>
         <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B103" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C103" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D103" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E103" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="F103" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H103">
+        <f t="shared" si="13"/>
+        <v>33</v>
+      </c>
+      <c r="I103" s="3">
         <f t="shared" si="14"/>
-        <v>33</v>
-      </c>
-      <c r="I103" s="3">
+        <v>45658</v>
+      </c>
+      <c r="J103">
         <f t="shared" si="15"/>
-        <v>45658</v>
-      </c>
-      <c r="J103">
-        <f t="shared" si="13"/>
         <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>183</v>
+      </c>
+      <c r="B104" t="s">
+        <v>184</v>
+      </c>
+      <c r="C104" t="s">
         <v>185</v>
       </c>
-      <c r="B104" t="s">
+      <c r="D104" t="s">
         <v>186</v>
       </c>
-      <c r="C104" t="s">
+      <c r="E104" t="s">
         <v>187</v>
       </c>
-      <c r="D104" t="s">
+      <c r="F104" t="s">
         <v>188</v>
       </c>
-      <c r="E104" t="s">
+      <c r="G104" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F104" t="s">
-        <v>190</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="H104">
+        <f t="shared" si="13"/>
+        <v>34</v>
+      </c>
+      <c r="I104" s="3">
         <f t="shared" si="14"/>
-        <v>34</v>
-      </c>
-      <c r="I104" s="3">
+        <v>45659</v>
+      </c>
+      <c r="J104">
         <f t="shared" si="15"/>
-        <v>45659</v>
-      </c>
-      <c r="J104">
-        <f t="shared" si="13"/>
         <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>51</v>
+      </c>
+      <c r="B105" t="s">
         <v>52</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>53</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>54</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>55</v>
       </c>
-      <c r="E105" t="s">
-        <v>56</v>
-      </c>
       <c r="F105" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="H105">
+        <f t="shared" si="13"/>
+        <v>34</v>
+      </c>
+      <c r="I105" s="3">
         <f t="shared" si="14"/>
-        <v>34</v>
-      </c>
-      <c r="I105" s="3">
+        <v>45659</v>
+      </c>
+      <c r="J105">
         <f t="shared" si="15"/>
-        <v>45659</v>
-      </c>
-      <c r="J105">
-        <f t="shared" si="13"/>
         <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>231</v>
+      </c>
+      <c r="B106" t="s">
+        <v>232</v>
+      </c>
+      <c r="C106" t="s">
         <v>233</v>
       </c>
-      <c r="B106" t="s">
+      <c r="D106" t="s">
         <v>234</v>
       </c>
-      <c r="C106" t="s">
+      <c r="E106" t="s">
         <v>235</v>
       </c>
-      <c r="D106" t="s">
-        <v>236</v>
-      </c>
-      <c r="E106" t="s">
-        <v>237</v>
-      </c>
       <c r="F106" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H106">
+        <f t="shared" si="13"/>
+        <v>34</v>
+      </c>
+      <c r="I106" s="3">
         <f t="shared" si="14"/>
-        <v>34</v>
-      </c>
-      <c r="I106" s="3">
+        <v>45659</v>
+      </c>
+      <c r="J106">
         <f t="shared" si="15"/>
-        <v>45659</v>
-      </c>
-      <c r="J106">
-        <f t="shared" si="13"/>
         <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" t="s">
+        <v>179</v>
+      </c>
+      <c r="C107" t="s">
         <v>180</v>
       </c>
-      <c r="B107" t="s">
+      <c r="D107" t="s">
         <v>181</v>
       </c>
-      <c r="C107" t="s">
+      <c r="E107" t="s">
         <v>182</v>
       </c>
-      <c r="D107" t="s">
-        <v>183</v>
-      </c>
-      <c r="E107" t="s">
-        <v>184</v>
-      </c>
       <c r="F107" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H107">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="I107" s="3">
         <f t="shared" si="14"/>
-        <v>35</v>
-      </c>
-      <c r="I107" s="3">
+        <v>45660</v>
+      </c>
+      <c r="J107">
         <f t="shared" si="15"/>
-        <v>45660</v>
-      </c>
-      <c r="J107">
-        <f t="shared" si="13"/>
         <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B108" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C108" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D108" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E108" t="s">
+        <v>633</v>
+      </c>
+      <c r="F108" t="s">
         <v>639</v>
       </c>
-      <c r="F108" t="s">
-        <v>645</v>
-      </c>
       <c r="H108">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="I108" s="3">
         <f t="shared" si="14"/>
-        <v>35</v>
-      </c>
-      <c r="I108" s="3">
+        <v>45660</v>
+      </c>
+      <c r="J108">
         <f t="shared" si="15"/>
-        <v>45660</v>
-      </c>
-      <c r="J108">
-        <f t="shared" si="13"/>
         <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B109" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C109" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D109" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E109" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F109" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H109">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="I109" s="3">
         <f t="shared" si="14"/>
-        <v>35</v>
-      </c>
-      <c r="I109" s="3">
+        <v>45660</v>
+      </c>
+      <c r="J109">
         <f t="shared" si="15"/>
-        <v>45660</v>
-      </c>
-      <c r="J109">
-        <f t="shared" si="13"/>
         <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B110" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C110" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D110" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="E110" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="F110" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H110">
+        <f t="shared" si="13"/>
+        <v>36</v>
+      </c>
+      <c r="I110" s="3">
         <f t="shared" si="14"/>
-        <v>36</v>
-      </c>
-      <c r="I110" s="3">
+        <v>45661</v>
+      </c>
+      <c r="J110">
         <f t="shared" si="15"/>
-        <v>45661</v>
-      </c>
-      <c r="J110">
-        <f t="shared" si="13"/>
         <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>405</v>
+      </c>
+      <c r="B111" t="s">
+        <v>406</v>
+      </c>
+      <c r="C111" t="s">
         <v>407</v>
       </c>
-      <c r="B111" t="s">
+      <c r="D111" t="s">
         <v>408</v>
       </c>
-      <c r="C111" t="s">
-        <v>409</v>
-      </c>
-      <c r="D111" t="s">
-        <v>410</v>
-      </c>
       <c r="E111" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F111" t="s">
-        <v>411</v>
+        <v>662</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H111">
+        <f t="shared" si="13"/>
+        <v>36</v>
+      </c>
+      <c r="I111" s="3">
         <f t="shared" si="14"/>
-        <v>36</v>
-      </c>
-      <c r="I111" s="3">
+        <v>45661</v>
+      </c>
+      <c r="J111">
         <f t="shared" si="15"/>
-        <v>45661</v>
-      </c>
-      <c r="J111">
-        <f t="shared" si="13"/>
         <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B112" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C112" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D112" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="E112" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F112" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H112">
+        <f t="shared" si="13"/>
+        <v>36</v>
+      </c>
+      <c r="I112" s="3">
         <f t="shared" si="14"/>
-        <v>36</v>
-      </c>
-      <c r="I112" s="3">
+        <v>45661</v>
+      </c>
+      <c r="J112">
         <f t="shared" si="15"/>
-        <v>45661</v>
-      </c>
-      <c r="J112">
-        <f t="shared" si="13"/>
         <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B113" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C113" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D113" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E113" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F113" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H113">
+        <f t="shared" si="13"/>
+        <v>37</v>
+      </c>
+      <c r="I113" s="3">
         <f t="shared" si="14"/>
-        <v>37</v>
-      </c>
-      <c r="I113" s="3">
+        <v>45662</v>
+      </c>
+      <c r="J113">
         <f t="shared" si="15"/>
-        <v>45662</v>
-      </c>
-      <c r="J113">
-        <f t="shared" si="13"/>
         <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B114" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C114" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D114" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="E114" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="F114" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H114">
+        <f t="shared" si="13"/>
+        <v>37</v>
+      </c>
+      <c r="I114" s="3">
         <f t="shared" si="14"/>
-        <v>37</v>
-      </c>
-      <c r="I114" s="3">
+        <v>45662</v>
+      </c>
+      <c r="J114">
         <f t="shared" si="15"/>
-        <v>45662</v>
-      </c>
-      <c r="J114">
-        <f t="shared" si="13"/>
         <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>275</v>
+      </c>
+      <c r="B115" t="s">
+        <v>276</v>
+      </c>
+      <c r="C115" t="s">
         <v>277</v>
       </c>
-      <c r="B115" t="s">
+      <c r="D115" t="s">
         <v>278</v>
       </c>
-      <c r="C115" t="s">
+      <c r="E115" t="s">
         <v>279</v>
       </c>
-      <c r="D115" t="s">
-        <v>280</v>
-      </c>
-      <c r="E115" t="s">
-        <v>281</v>
-      </c>
       <c r="F115" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H115">
+        <f t="shared" si="13"/>
+        <v>37</v>
+      </c>
+      <c r="I115" s="3">
         <f t="shared" si="14"/>
-        <v>37</v>
-      </c>
-      <c r="I115" s="3">
+        <v>45662</v>
+      </c>
+      <c r="J115">
         <f t="shared" si="15"/>
-        <v>45662</v>
-      </c>
-      <c r="J115">
-        <f t="shared" si="13"/>
         <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>241</v>
+      </c>
+      <c r="B116" t="s">
+        <v>242</v>
+      </c>
+      <c r="C116" t="s">
         <v>243</v>
       </c>
-      <c r="B116" t="s">
+      <c r="D116" t="s">
         <v>244</v>
       </c>
-      <c r="C116" t="s">
+      <c r="E116" t="s">
         <v>245</v>
       </c>
-      <c r="D116" t="s">
-        <v>246</v>
-      </c>
-      <c r="E116" t="s">
-        <v>247</v>
-      </c>
       <c r="F116" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H116">
+        <f t="shared" si="13"/>
+        <v>38</v>
+      </c>
+      <c r="I116" s="3">
         <f t="shared" si="14"/>
-        <v>38</v>
-      </c>
-      <c r="I116" s="3">
+        <v>45663</v>
+      </c>
+      <c r="J116">
         <f t="shared" si="15"/>
-        <v>45663</v>
-      </c>
-      <c r="J116">
-        <f t="shared" si="13"/>
         <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>311</v>
+      </c>
+      <c r="B117" t="s">
+        <v>312</v>
+      </c>
+      <c r="C117" t="s">
         <v>313</v>
       </c>
-      <c r="B117" t="s">
+      <c r="D117" t="s">
         <v>314</v>
       </c>
-      <c r="C117" t="s">
-        <v>315</v>
-      </c>
-      <c r="D117" t="s">
-        <v>316</v>
-      </c>
       <c r="E117" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F117" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H117">
+        <f t="shared" si="13"/>
+        <v>38</v>
+      </c>
+      <c r="I117" s="3">
         <f t="shared" si="14"/>
-        <v>38</v>
-      </c>
-      <c r="I117" s="3">
+        <v>45663</v>
+      </c>
+      <c r="J117">
         <f t="shared" si="15"/>
-        <v>45663</v>
-      </c>
-      <c r="J117">
-        <f t="shared" si="13"/>
         <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B118" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C118" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D118" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E118" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="F118" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H118">
+        <f t="shared" si="13"/>
+        <v>38</v>
+      </c>
+      <c r="I118" s="3">
         <f t="shared" si="14"/>
-        <v>38</v>
-      </c>
-      <c r="I118" s="3">
+        <v>45663</v>
+      </c>
+      <c r="J118">
         <f t="shared" si="15"/>
-        <v>45663</v>
-      </c>
-      <c r="J118">
-        <f t="shared" si="13"/>
         <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B119" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="C119" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D119" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E119" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F119" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H119">
+        <f t="shared" si="13"/>
+        <v>39</v>
+      </c>
+      <c r="I119" s="3">
         <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-      <c r="I119" s="3">
+        <v>45664</v>
+      </c>
+      <c r="J119">
         <f t="shared" si="15"/>
-        <v>45664</v>
-      </c>
-      <c r="J119">
-        <f t="shared" si="13"/>
         <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B120" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C120" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D120" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E120" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F120" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H120">
+        <f t="shared" si="13"/>
+        <v>39</v>
+      </c>
+      <c r="I120" s="3">
         <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-      <c r="I120" s="3">
+        <v>45664</v>
+      </c>
+      <c r="J120">
         <f t="shared" si="15"/>
-        <v>45664</v>
-      </c>
-      <c r="J120">
-        <f t="shared" si="13"/>
         <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>411</v>
+        <v>662</v>
       </c>
       <c r="B121" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C121" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D121" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E121" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F121" t="s">
-        <v>411</v>
+        <v>662</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H121">
+        <f t="shared" si="13"/>
+        <v>39</v>
+      </c>
+      <c r="I121" s="3">
         <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-      <c r="I121" s="3">
+        <v>45664</v>
+      </c>
+      <c r="J121">
         <f t="shared" si="15"/>
-        <v>45664</v>
-      </c>
-      <c r="J121">
-        <f t="shared" si="13"/>
         <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>266</v>
+      </c>
+      <c r="B122" t="s">
+        <v>267</v>
+      </c>
+      <c r="C122" t="s">
         <v>268</v>
       </c>
-      <c r="B122" t="s">
+      <c r="D122" t="s">
+        <v>248</v>
+      </c>
+      <c r="E122" t="s">
         <v>269</v>
       </c>
-      <c r="C122" t="s">
-        <v>270</v>
-      </c>
-      <c r="D122" t="s">
-        <v>250</v>
-      </c>
-      <c r="E122" t="s">
-        <v>271</v>
-      </c>
       <c r="F122" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H122">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="I122" s="3">
         <f t="shared" si="14"/>
-        <v>40</v>
-      </c>
-      <c r="I122" s="3">
+        <v>45665</v>
+      </c>
+      <c r="J122">
         <f t="shared" si="15"/>
-        <v>45665</v>
-      </c>
-      <c r="J122">
-        <f t="shared" si="13"/>
         <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B123" t="s">
+        <v>246</v>
+      </c>
+      <c r="C123" t="s">
+        <v>247</v>
+      </c>
+      <c r="D123" t="s">
         <v>248</v>
       </c>
-      <c r="C123" t="s">
+      <c r="E123" t="s">
         <v>249</v>
       </c>
-      <c r="D123" t="s">
-        <v>250</v>
-      </c>
-      <c r="E123" t="s">
-        <v>251</v>
-      </c>
       <c r="F123" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H123">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="I123" s="3">
         <f t="shared" si="14"/>
-        <v>40</v>
-      </c>
-      <c r="I123" s="3">
+        <v>45665</v>
+      </c>
+      <c r="J123">
         <f t="shared" si="15"/>
-        <v>45665</v>
-      </c>
-      <c r="J123">
-        <f t="shared" si="13"/>
         <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B124" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C124" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D124" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E124" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="F124" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H124">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="I124" s="3">
         <f t="shared" si="14"/>
-        <v>40</v>
-      </c>
-      <c r="I124" s="3">
+        <v>45665</v>
+      </c>
+      <c r="J124">
         <f t="shared" si="15"/>
-        <v>45665</v>
-      </c>
-      <c r="J124">
-        <f t="shared" si="13"/>
         <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B125" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C125" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D125" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E125" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F125" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H125">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="I125" s="3">
         <f t="shared" si="14"/>
-        <v>41</v>
-      </c>
-      <c r="I125" s="3">
+        <v>45666</v>
+      </c>
+      <c r="J125">
         <f t="shared" si="15"/>
-        <v>45666</v>
-      </c>
-      <c r="J125">
-        <f t="shared" si="13"/>
         <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>303</v>
+      </c>
+      <c r="B126" t="s">
+        <v>304</v>
+      </c>
+      <c r="C126" t="s">
         <v>305</v>
       </c>
-      <c r="B126" t="s">
+      <c r="D126" t="s">
         <v>306</v>
       </c>
-      <c r="C126" t="s">
-        <v>307</v>
-      </c>
-      <c r="D126" t="s">
-        <v>308</v>
-      </c>
       <c r="E126" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F126" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H126">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="I126" s="3">
         <f t="shared" si="14"/>
-        <v>41</v>
-      </c>
-      <c r="I126" s="3">
+        <v>45666</v>
+      </c>
+      <c r="J126">
         <f t="shared" si="15"/>
-        <v>45666</v>
-      </c>
-      <c r="J126">
-        <f t="shared" si="13"/>
         <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>221</v>
+      </c>
+      <c r="B127" t="s">
+        <v>222</v>
+      </c>
+      <c r="C127" t="s">
         <v>223</v>
       </c>
-      <c r="B127" t="s">
+      <c r="D127" t="s">
         <v>224</v>
       </c>
-      <c r="C127" t="s">
+      <c r="E127" t="s">
         <v>225</v>
       </c>
-      <c r="D127" t="s">
-        <v>226</v>
-      </c>
-      <c r="E127" t="s">
-        <v>227</v>
-      </c>
       <c r="F127" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H127">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="I127" s="3">
         <f t="shared" si="14"/>
-        <v>41</v>
-      </c>
-      <c r="I127" s="3">
+        <v>45666</v>
+      </c>
+      <c r="J127">
         <f t="shared" si="15"/>
-        <v>45666</v>
-      </c>
-      <c r="J127">
-        <f t="shared" si="13"/>
         <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>148</v>
+      </c>
+      <c r="B128" t="s">
+        <v>149</v>
+      </c>
+      <c r="C128" t="s">
         <v>150</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D128" t="s">
         <v>151</v>
       </c>
-      <c r="C128" t="s">
+      <c r="E128" t="s">
         <v>152</v>
       </c>
-      <c r="D128" t="s">
-        <v>153</v>
-      </c>
-      <c r="E128" t="s">
-        <v>154</v>
-      </c>
       <c r="F128" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H128">
+        <f t="shared" si="13"/>
+        <v>42</v>
+      </c>
+      <c r="I128" s="3">
         <f t="shared" si="14"/>
-        <v>42</v>
-      </c>
-      <c r="I128" s="3">
+        <v>45667</v>
+      </c>
+      <c r="J128">
         <f t="shared" si="15"/>
-        <v>45667</v>
-      </c>
-      <c r="J128">
-        <f t="shared" si="13"/>
         <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>71</v>
+      </c>
+      <c r="B129" t="s">
         <v>72</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>73</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>74</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>75</v>
       </c>
-      <c r="E129" t="s">
-        <v>76</v>
-      </c>
       <c r="F129" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H129">
+        <f t="shared" si="13"/>
+        <v>42</v>
+      </c>
+      <c r="I129" s="3">
         <f t="shared" si="14"/>
-        <v>42</v>
-      </c>
-      <c r="I129" s="3">
+        <v>45667</v>
+      </c>
+      <c r="J129">
         <f t="shared" si="15"/>
-        <v>45667</v>
-      </c>
-      <c r="J129">
-        <f t="shared" si="13"/>
         <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>441</v>
+      </c>
+      <c r="B130" t="s">
+        <v>442</v>
+      </c>
+      <c r="C130" t="s">
+        <v>443</v>
+      </c>
+      <c r="D130" t="s">
         <v>444</v>
       </c>
-      <c r="B130" t="s">
+      <c r="E130" t="s">
         <v>445</v>
       </c>
-      <c r="C130" t="s">
+      <c r="F130" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D130" t="s">
-        <v>447</v>
-      </c>
-      <c r="E130" t="s">
-        <v>448</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="G130" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H130">
+        <f t="shared" si="13"/>
+        <v>42</v>
+      </c>
+      <c r="I130" s="3">
         <f t="shared" si="14"/>
-        <v>42</v>
-      </c>
-      <c r="I130" s="3">
+        <v>45667</v>
+      </c>
+      <c r="J130">
         <f t="shared" si="15"/>
-        <v>45667</v>
-      </c>
-      <c r="J130">
-        <f t="shared" si="13"/>
         <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B131" t="s">
+        <v>447</v>
+      </c>
+      <c r="C131" t="s">
+        <v>448</v>
+      </c>
+      <c r="D131" t="s">
+        <v>449</v>
+      </c>
+      <c r="E131" t="s">
         <v>450</v>
       </c>
-      <c r="C131" t="s">
+      <c r="F131" t="s">
         <v>451</v>
       </c>
-      <c r="D131" t="s">
-        <v>452</v>
-      </c>
-      <c r="E131" t="s">
-        <v>453</v>
-      </c>
-      <c r="F131" t="s">
-        <v>454</v>
-      </c>
       <c r="G131" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H131">
+        <f t="shared" si="13"/>
+        <v>43</v>
+      </c>
+      <c r="I131" s="3">
         <f t="shared" si="14"/>
-        <v>43</v>
-      </c>
-      <c r="I131" s="3">
+        <v>45668</v>
+      </c>
+      <c r="J131">
         <f t="shared" si="15"/>
-        <v>45668</v>
-      </c>
-      <c r="J131">
-        <f t="shared" si="13"/>
         <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>452</v>
+      </c>
+      <c r="B132" t="s">
+        <v>453</v>
+      </c>
+      <c r="C132" t="s">
+        <v>454</v>
+      </c>
+      <c r="D132" t="s">
         <v>455</v>
       </c>
-      <c r="B132" t="s">
+      <c r="E132" t="s">
         <v>456</v>
       </c>
-      <c r="C132" t="s">
-        <v>457</v>
-      </c>
-      <c r="D132" t="s">
-        <v>458</v>
-      </c>
-      <c r="E132" t="s">
-        <v>459</v>
-      </c>
       <c r="F132" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H132">
+        <f t="shared" si="13"/>
+        <v>43</v>
+      </c>
+      <c r="I132" s="3">
         <f t="shared" si="14"/>
-        <v>43</v>
-      </c>
-      <c r="I132" s="3">
+        <v>45668</v>
+      </c>
+      <c r="J132">
         <f t="shared" si="15"/>
-        <v>45668</v>
-      </c>
-      <c r="J132">
-        <f t="shared" si="13"/>
         <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>457</v>
+      </c>
+      <c r="B133" t="s">
+        <v>458</v>
+      </c>
+      <c r="C133" t="s">
+        <v>459</v>
+      </c>
+      <c r="D133" t="s">
         <v>460</v>
       </c>
-      <c r="B133" t="s">
+      <c r="E133" t="s">
         <v>461</v>
       </c>
-      <c r="C133" t="s">
+      <c r="F133" t="s">
+        <v>446</v>
+      </c>
+      <c r="G133" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D133" t="s">
-        <v>463</v>
-      </c>
-      <c r="E133" t="s">
-        <v>464</v>
-      </c>
-      <c r="F133" t="s">
-        <v>449</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>465</v>
-      </c>
       <c r="H133">
+        <f t="shared" si="13"/>
+        <v>43</v>
+      </c>
+      <c r="I133" s="3">
         <f t="shared" si="14"/>
-        <v>43</v>
-      </c>
-      <c r="I133" s="3">
+        <v>45668</v>
+      </c>
+      <c r="J133">
         <f t="shared" si="15"/>
-        <v>45668</v>
-      </c>
-      <c r="J133">
-        <f t="shared" si="13"/>
         <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="B134" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C134" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="D134" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E134" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="F134" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H134">
+        <f t="shared" si="13"/>
+        <v>44</v>
+      </c>
+      <c r="I134" s="3">
         <f t="shared" si="14"/>
-        <v>44</v>
-      </c>
-      <c r="I134" s="3">
+        <v>45669</v>
+      </c>
+      <c r="J134">
         <f t="shared" si="15"/>
-        <v>45669</v>
-      </c>
-      <c r="J134">
-        <f t="shared" si="13"/>
         <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B135" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="C135" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="D135" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="E135" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="F135" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H135">
+        <f t="shared" si="13"/>
+        <v>44</v>
+      </c>
+      <c r="I135" s="3">
         <f t="shared" si="14"/>
-        <v>44</v>
-      </c>
-      <c r="I135" s="3">
+        <v>45669</v>
+      </c>
+      <c r="J135">
         <f t="shared" si="15"/>
-        <v>45669</v>
-      </c>
-      <c r="J135">
-        <f t="shared" si="13"/>
         <v>133</v>
       </c>
     </row>
@@ -7588,8 +7709,13 @@
     <sortCondition ref="H8:H132"/>
   </sortState>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>$L$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(H1,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/code/shabdakala/resource/work/sbwords.xlsx
+++ b/code/shabdakala/resource/work/sbwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/github/shabdakala/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E7B66F-4B50-024A-83AC-D815008F3D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3144147D-7A04-F74F-8A87-68483379358F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -1604,9 +1604,6 @@
     <t>करंडक</t>
   </si>
   <si>
-    <t>मेडल</t>
-  </si>
-  <si>
     <t>चक्र</t>
   </si>
   <si>
@@ -2022,6 +2019,9 @@
   </si>
   <si>
     <t>केदार म्हसवडे</t>
+  </si>
+  <si>
+    <t>पदक</t>
   </si>
 </sst>
 </file>
@@ -2594,17 +2594,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -2623,132 +2613,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3084,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3173,7 +3037,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45634</v>
+        <v>45636</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3904,11 +3768,11 @@
         <v>8</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:H29" si="9">INT(J23/3)</f>
+        <f t="shared" ref="H23:H27" si="9">INT(J23/3)</f>
         <v>7</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" ref="I23:I29" si="10">$L$1+H23</f>
+        <f t="shared" ref="I23:I27" si="10">$L$1+H23</f>
         <v>45632</v>
       </c>
       <c r="J23">
@@ -3968,7 +3832,7 @@
         <v>377</v>
       </c>
       <c r="F25" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>189</v>
@@ -4073,7 +3937,7 @@
         <v>433</v>
       </c>
       <c r="F28" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>439</v>
@@ -4198,22 +4062,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>525</v>
+      </c>
+      <c r="B32" t="s">
         <v>526</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>527</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>528</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>529</v>
       </c>
-      <c r="E32" t="s">
-        <v>530</v>
-      </c>
       <c r="F32" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H32">
         <f t="shared" si="11"/>
@@ -4230,22 +4094,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B33" t="s">
         <v>378</v>
       </c>
       <c r="C33" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D33" t="s">
         <v>233</v>
       </c>
       <c r="E33" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F33" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H33">
         <f t="shared" si="11"/>
@@ -4262,22 +4126,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B34" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C34" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D34" t="s">
         <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F34" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H34">
         <f t="shared" si="11"/>
@@ -4341,7 +4205,7 @@
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>346</v>
@@ -4376,7 +4240,7 @@
         <v>114</v>
       </c>
       <c r="E37" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>88</v>
@@ -4399,22 +4263,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B38" t="s">
         <v>522</v>
       </c>
       <c r="C38" t="s">
+        <v>662</v>
+      </c>
+      <c r="D38" t="s">
         <v>523</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>524</v>
       </c>
-      <c r="E38" t="s">
-        <v>525</v>
-      </c>
       <c r="F38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H38">
         <f t="shared" si="11"/>
@@ -4431,22 +4295,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>534</v>
+      </c>
+      <c r="B39" t="s">
         <v>535</v>
-      </c>
-      <c r="B39" t="s">
-        <v>536</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E39" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F39" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H39">
         <f t="shared" si="11"/>
@@ -4533,22 +4397,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>596</v>
+      </c>
+      <c r="B42" t="s">
         <v>597</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>660</v>
+      </c>
+      <c r="D42" t="s">
         <v>598</v>
       </c>
-      <c r="C42" t="s">
-        <v>661</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>599</v>
       </c>
-      <c r="E42" t="s">
-        <v>600</v>
-      </c>
       <c r="F42" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H42">
         <f t="shared" si="11"/>
@@ -4565,22 +4429,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>608</v>
+      </c>
+      <c r="B43" t="s">
         <v>609</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>610</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>611</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>612</v>
       </c>
-      <c r="E43" t="s">
-        <v>613</v>
-      </c>
       <c r="F43" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H43">
         <f t="shared" si="11"/>
@@ -4612,7 +4476,7 @@
         <v>385</v>
       </c>
       <c r="F44" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>280</v>
@@ -4667,22 +4531,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>541</v>
+      </c>
+      <c r="B46" t="s">
         <v>542</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>543</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>544</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>545</v>
       </c>
-      <c r="E46" t="s">
-        <v>546</v>
-      </c>
       <c r="F46" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H46">
         <f t="shared" si="11"/>
@@ -4702,19 +4566,19 @@
         <v>233</v>
       </c>
       <c r="B47" t="s">
+        <v>546</v>
+      </c>
+      <c r="C47" t="s">
         <v>547</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>548</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>549</v>
       </c>
-      <c r="E47" t="s">
-        <v>550</v>
-      </c>
       <c r="F47" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H47">
         <f t="shared" si="11"/>
@@ -4731,22 +4595,22 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>550</v>
+      </c>
+      <c r="B48" t="s">
         <v>551</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>552</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>553</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>554</v>
       </c>
-      <c r="E48" t="s">
-        <v>555</v>
-      </c>
       <c r="F48" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H48">
         <f t="shared" si="11"/>
@@ -4813,7 +4677,7 @@
         <v>423</v>
       </c>
       <c r="F50" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>280</v>
@@ -4988,7 +4852,7 @@
         <v>440</v>
       </c>
       <c r="F55" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>280</v>
@@ -5093,7 +4957,7 @@
         <v>481</v>
       </c>
       <c r="F58" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H58">
         <f t="shared" si="11"/>
@@ -5125,7 +4989,7 @@
         <v>486</v>
       </c>
       <c r="F59" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H59">
         <f t="shared" si="11"/>
@@ -5157,7 +5021,7 @@
         <v>491</v>
       </c>
       <c r="F60" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H60">
         <f t="shared" si="11"/>
@@ -5189,7 +5053,7 @@
         <v>382</v>
       </c>
       <c r="F61" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>280</v>
@@ -5329,7 +5193,7 @@
         <v>428</v>
       </c>
       <c r="F65" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>280</v>
@@ -5364,7 +5228,7 @@
         <v>415</v>
       </c>
       <c r="F66" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>438</v>
@@ -5399,7 +5263,7 @@
         <v>476</v>
       </c>
       <c r="F67" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H67">
         <f t="shared" si="11"/>
@@ -5454,19 +5318,19 @@
         <v>218</v>
       </c>
       <c r="B69" t="s">
+        <v>600</v>
+      </c>
+      <c r="C69" t="s">
         <v>601</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>602</v>
       </c>
-      <c r="D69" t="s">
-        <v>603</v>
-      </c>
       <c r="E69" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F69" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H69">
         <f t="shared" si="11"/>
@@ -5483,22 +5347,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>603</v>
+      </c>
+      <c r="B70" t="s">
         <v>604</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>605</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>606</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>607</v>
       </c>
-      <c r="E70" t="s">
-        <v>608</v>
-      </c>
       <c r="F70" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H70">
         <f t="shared" si="11"/>
@@ -5530,7 +5394,7 @@
         <v>434</v>
       </c>
       <c r="F71" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>280</v>
@@ -5661,16 +5525,16 @@
         <v>503</v>
       </c>
       <c r="C75" t="s">
+        <v>648</v>
+      </c>
+      <c r="D75" t="s">
         <v>649</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>650</v>
       </c>
-      <c r="E75" t="s">
-        <v>651</v>
-      </c>
       <c r="F75" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H75">
         <f t="shared" si="11"/>
@@ -5696,13 +5560,13 @@
         <v>309</v>
       </c>
       <c r="D76" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E76" t="s">
         <v>506</v>
       </c>
       <c r="F76" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H76">
         <f t="shared" si="11"/>
@@ -5804,7 +5668,7 @@
         <v>467</v>
       </c>
       <c r="F79" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H79">
         <f t="shared" si="11"/>
@@ -5836,7 +5700,7 @@
         <v>472</v>
       </c>
       <c r="F80" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H80">
         <f t="shared" si="11"/>
@@ -5868,7 +5732,7 @@
         <v>398</v>
       </c>
       <c r="F81" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>435</v>
@@ -5938,7 +5802,7 @@
         <v>496</v>
       </c>
       <c r="F83" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H83">
         <f t="shared" si="11"/>
@@ -5970,7 +5834,7 @@
         <v>501</v>
       </c>
       <c r="F84" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H84">
         <f t="shared" si="11"/>
@@ -6072,7 +5936,7 @@
         <v>511</v>
       </c>
       <c r="F87" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H87">
         <f t="shared" si="11"/>
@@ -6104,7 +5968,7 @@
         <v>516</v>
       </c>
       <c r="F88" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H88">
         <f t="shared" si="11"/>
@@ -6136,7 +6000,7 @@
         <v>521</v>
       </c>
       <c r="F89" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H89">
         <f t="shared" si="11"/>
@@ -6258,22 +6122,22 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>587</v>
+      </c>
+      <c r="B93" t="s">
         <v>588</v>
       </c>
-      <c r="B93" t="s">
-        <v>589</v>
-      </c>
       <c r="C93" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D93" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E93" t="s">
         <v>166</v>
       </c>
       <c r="F93" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H93">
         <f t="shared" si="13"/>
@@ -6293,19 +6157,19 @@
         <v>166</v>
       </c>
       <c r="B94" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C94" t="s">
+        <v>589</v>
+      </c>
+      <c r="D94" t="s">
         <v>590</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>591</v>
       </c>
-      <c r="E94" t="s">
-        <v>592</v>
-      </c>
       <c r="F94" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H94">
         <f t="shared" si="13"/>
@@ -6322,22 +6186,22 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>592</v>
+      </c>
+      <c r="B95" t="s">
         <v>593</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>594</v>
-      </c>
-      <c r="C95" t="s">
-        <v>595</v>
       </c>
       <c r="D95" t="s">
         <v>155</v>
       </c>
       <c r="E95" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F95" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H95">
         <f t="shared" si="13"/>
@@ -6369,7 +6233,7 @@
         <v>404</v>
       </c>
       <c r="F96" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>280</v>
@@ -6462,7 +6326,7 @@
         <v>418</v>
       </c>
       <c r="B99" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C99" t="s">
         <v>417</v>
@@ -6471,10 +6335,10 @@
         <v>419</v>
       </c>
       <c r="E99" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F99" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H99">
         <f t="shared" si="13"/>
@@ -6491,22 +6355,22 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>557</v>
+      </c>
+      <c r="B100" t="s">
         <v>558</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>559</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>560</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>561</v>
       </c>
-      <c r="E100" t="s">
-        <v>562</v>
-      </c>
       <c r="F100" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H100">
         <f t="shared" si="13"/>
@@ -6529,16 +6393,16 @@
         <v>399</v>
       </c>
       <c r="C101" t="s">
+        <v>562</v>
+      </c>
+      <c r="D101" t="s">
         <v>563</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>564</v>
       </c>
-      <c r="E101" t="s">
-        <v>565</v>
-      </c>
       <c r="F101" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H101">
         <f t="shared" si="13"/>
@@ -6555,22 +6419,22 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>565</v>
+      </c>
+      <c r="B102" t="s">
         <v>566</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>567</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>568</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>569</v>
       </c>
-      <c r="E102" t="s">
-        <v>570</v>
-      </c>
       <c r="F102" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H102">
         <f t="shared" si="13"/>
@@ -6587,22 +6451,22 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>570</v>
+      </c>
+      <c r="B103" t="s">
         <v>571</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>572</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>573</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>574</v>
       </c>
-      <c r="E103" t="s">
-        <v>575</v>
-      </c>
       <c r="F103" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H103">
         <f t="shared" si="13"/>
@@ -6759,22 +6623,22 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>628</v>
+      </c>
+      <c r="B108" t="s">
         <v>629</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>630</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>631</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>632</v>
       </c>
-      <c r="E108" t="s">
-        <v>633</v>
-      </c>
       <c r="F108" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H108">
         <f t="shared" si="13"/>
@@ -6791,22 +6655,22 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B109" t="s">
         <v>475</v>
       </c>
       <c r="C109" t="s">
+        <v>538</v>
+      </c>
+      <c r="D109" t="s">
         <v>539</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>540</v>
       </c>
-      <c r="E109" t="s">
-        <v>541</v>
-      </c>
       <c r="F109" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H109">
         <f t="shared" si="13"/>
@@ -6823,22 +6687,22 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>633</v>
+      </c>
+      <c r="B110" t="s">
         <v>634</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>635</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>636</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>637</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>638</v>
-      </c>
-      <c r="F110" t="s">
-        <v>639</v>
       </c>
       <c r="H110">
         <f t="shared" si="13"/>
@@ -6870,7 +6734,7 @@
         <v>431</v>
       </c>
       <c r="F111" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>90</v>
@@ -6890,22 +6754,22 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>575</v>
+      </c>
+      <c r="B112" t="s">
         <v>576</v>
-      </c>
-      <c r="B112" t="s">
-        <v>577</v>
       </c>
       <c r="C112" t="s">
         <v>419</v>
       </c>
       <c r="D112" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E112" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F112" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H112">
         <f t="shared" si="13"/>
@@ -6922,22 +6786,22 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>578</v>
+      </c>
+      <c r="B113" t="s">
         <v>579</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>580</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>581</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>582</v>
       </c>
-      <c r="E113" t="s">
-        <v>583</v>
-      </c>
       <c r="F113" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H113">
         <f t="shared" si="13"/>
@@ -6954,22 +6818,22 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>583</v>
+      </c>
+      <c r="B114" t="s">
         <v>584</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>585</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>586</v>
       </c>
-      <c r="D114" t="s">
-        <v>587</v>
-      </c>
       <c r="E114" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F114" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H114">
         <f t="shared" si="13"/>
@@ -7091,22 +6955,22 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>613</v>
+      </c>
+      <c r="B118" t="s">
         <v>614</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>615</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>616</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>617</v>
       </c>
-      <c r="E118" t="s">
-        <v>618</v>
-      </c>
       <c r="F118" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H118">
         <f t="shared" si="13"/>
@@ -7123,22 +6987,22 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>618</v>
+      </c>
+      <c r="B119" t="s">
         <v>619</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>620</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>621</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>622</v>
       </c>
-      <c r="E119" t="s">
-        <v>623</v>
-      </c>
       <c r="F119" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H119">
         <f t="shared" si="13"/>
@@ -7190,7 +7054,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B121" t="s">
         <v>432</v>
@@ -7205,7 +7069,7 @@
         <v>437</v>
       </c>
       <c r="F121" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>436</v>
@@ -7295,22 +7159,22 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>623</v>
+      </c>
+      <c r="B124" t="s">
         <v>624</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>625</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>626</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>627</v>
       </c>
-      <c r="E124" t="s">
-        <v>628</v>
-      </c>
       <c r="F124" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H124">
         <f t="shared" si="13"/>
@@ -7642,22 +7506,22 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B134" t="s">
         <v>237</v>
       </c>
       <c r="C134" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D134" t="s">
         <v>236</v>
       </c>
       <c r="E134" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F134" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H134">
         <f t="shared" si="13"/>
@@ -7677,19 +7541,19 @@
         <v>238</v>
       </c>
       <c r="B135" t="s">
+        <v>644</v>
+      </c>
+      <c r="C135" t="s">
         <v>645</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>646</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>647</v>
       </c>
-      <c r="E135" t="s">
-        <v>648</v>
-      </c>
       <c r="F135" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H135">
         <f t="shared" si="13"/>
@@ -7708,14 +7572,14 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H132">
     <sortCondition ref="H8:H132"/>
   </sortState>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
-      <formula>$L$2</formula>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(H1,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(H1,2)=0</formula>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+      <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/code/shabdakala/resource/work/sbwords.xlsx
+++ b/code/shabdakala/resource/work/sbwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/github/shabdakala/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3144147D-7A04-F74F-8A87-68483379358F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD68B72C-FD4A-144E-BDA5-D17FB9AFD52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -1667,9 +1667,6 @@
     <t>वारा</t>
   </si>
   <si>
-    <t>नाव</t>
-  </si>
-  <si>
     <t>वाहणार्‍या गोष्टी</t>
   </si>
   <si>
@@ -2022,6 +2019,9 @@
   </si>
   <si>
     <t>पदक</t>
+  </si>
+  <si>
+    <t>रस्ता</t>
   </si>
 </sst>
 </file>
@@ -2948,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45636</v>
+        <v>45638</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3832,7 +3832,7 @@
         <v>377</v>
       </c>
       <c r="F25" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>189</v>
@@ -3937,7 +3937,7 @@
         <v>433</v>
       </c>
       <c r="F28" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>439</v>
@@ -4077,7 +4077,7 @@
         <v>529</v>
       </c>
       <c r="F32" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H32">
         <f t="shared" si="11"/>
@@ -4100,7 +4100,7 @@
         <v>378</v>
       </c>
       <c r="C33" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D33" t="s">
         <v>233</v>
@@ -4109,7 +4109,7 @@
         <v>531</v>
       </c>
       <c r="F33" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H33">
         <f t="shared" si="11"/>
@@ -4129,10 +4129,10 @@
         <v>532</v>
       </c>
       <c r="B34" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C34" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D34" t="s">
         <v>51</v>
@@ -4141,7 +4141,7 @@
         <v>533</v>
       </c>
       <c r="F34" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H34">
         <f t="shared" si="11"/>
@@ -4205,7 +4205,7 @@
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>346</v>
@@ -4240,7 +4240,7 @@
         <v>114</v>
       </c>
       <c r="E37" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>88</v>
@@ -4263,13 +4263,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B38" t="s">
         <v>522</v>
       </c>
       <c r="C38" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D38" t="s">
         <v>523</v>
@@ -4278,7 +4278,7 @@
         <v>524</v>
       </c>
       <c r="F38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H38">
         <f t="shared" si="11"/>
@@ -4307,10 +4307,10 @@
         <v>536</v>
       </c>
       <c r="E39" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F39" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H39">
         <f t="shared" si="11"/>
@@ -4397,22 +4397,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>595</v>
+      </c>
+      <c r="B42" t="s">
         <v>596</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>659</v>
+      </c>
+      <c r="D42" t="s">
         <v>597</v>
       </c>
-      <c r="C42" t="s">
-        <v>660</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>598</v>
       </c>
-      <c r="E42" t="s">
-        <v>599</v>
-      </c>
       <c r="F42" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H42">
         <f t="shared" si="11"/>
@@ -4429,22 +4429,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>607</v>
+      </c>
+      <c r="B43" t="s">
         <v>608</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>609</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>610</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>611</v>
       </c>
-      <c r="E43" t="s">
-        <v>612</v>
-      </c>
       <c r="F43" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H43">
         <f t="shared" si="11"/>
@@ -4476,7 +4476,7 @@
         <v>385</v>
       </c>
       <c r="F44" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>280</v>
@@ -4540,13 +4540,13 @@
         <v>543</v>
       </c>
       <c r="D46" t="s">
+        <v>662</v>
+      </c>
+      <c r="E46" t="s">
         <v>544</v>
       </c>
-      <c r="E46" t="s">
-        <v>545</v>
-      </c>
       <c r="F46" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H46">
         <f t="shared" si="11"/>
@@ -4566,19 +4566,19 @@
         <v>233</v>
       </c>
       <c r="B47" t="s">
+        <v>545</v>
+      </c>
+      <c r="C47" t="s">
         <v>546</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>547</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>548</v>
       </c>
-      <c r="E47" t="s">
-        <v>549</v>
-      </c>
       <c r="F47" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H47">
         <f t="shared" si="11"/>
@@ -4595,22 +4595,22 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>549</v>
+      </c>
+      <c r="B48" t="s">
         <v>550</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>551</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>552</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>553</v>
       </c>
-      <c r="E48" t="s">
-        <v>554</v>
-      </c>
       <c r="F48" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H48">
         <f t="shared" si="11"/>
@@ -4677,7 +4677,7 @@
         <v>423</v>
       </c>
       <c r="F50" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>280</v>
@@ -4852,7 +4852,7 @@
         <v>440</v>
       </c>
       <c r="F55" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>280</v>
@@ -4957,7 +4957,7 @@
         <v>481</v>
       </c>
       <c r="F58" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H58">
         <f t="shared" si="11"/>
@@ -4989,7 +4989,7 @@
         <v>486</v>
       </c>
       <c r="F59" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H59">
         <f t="shared" si="11"/>
@@ -5021,7 +5021,7 @@
         <v>491</v>
       </c>
       <c r="F60" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H60">
         <f t="shared" si="11"/>
@@ -5053,7 +5053,7 @@
         <v>382</v>
       </c>
       <c r="F61" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>280</v>
@@ -5193,7 +5193,7 @@
         <v>428</v>
       </c>
       <c r="F65" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>280</v>
@@ -5228,7 +5228,7 @@
         <v>415</v>
       </c>
       <c r="F66" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>438</v>
@@ -5263,7 +5263,7 @@
         <v>476</v>
       </c>
       <c r="F67" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H67">
         <f t="shared" si="11"/>
@@ -5318,19 +5318,19 @@
         <v>218</v>
       </c>
       <c r="B69" t="s">
+        <v>599</v>
+      </c>
+      <c r="C69" t="s">
         <v>600</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>601</v>
       </c>
-      <c r="D69" t="s">
-        <v>602</v>
-      </c>
       <c r="E69" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F69" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H69">
         <f t="shared" si="11"/>
@@ -5347,22 +5347,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>602</v>
+      </c>
+      <c r="B70" t="s">
         <v>603</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>604</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>605</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>606</v>
       </c>
-      <c r="E70" t="s">
-        <v>607</v>
-      </c>
       <c r="F70" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H70">
         <f t="shared" si="11"/>
@@ -5394,7 +5394,7 @@
         <v>434</v>
       </c>
       <c r="F71" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>280</v>
@@ -5525,16 +5525,16 @@
         <v>503</v>
       </c>
       <c r="C75" t="s">
+        <v>647</v>
+      </c>
+      <c r="D75" t="s">
         <v>648</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>649</v>
       </c>
-      <c r="E75" t="s">
-        <v>650</v>
-      </c>
       <c r="F75" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H75">
         <f t="shared" si="11"/>
@@ -5560,13 +5560,13 @@
         <v>309</v>
       </c>
       <c r="D76" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E76" t="s">
         <v>506</v>
       </c>
       <c r="F76" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H76">
         <f t="shared" si="11"/>
@@ -5668,7 +5668,7 @@
         <v>467</v>
       </c>
       <c r="F79" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H79">
         <f t="shared" si="11"/>
@@ -5700,7 +5700,7 @@
         <v>472</v>
       </c>
       <c r="F80" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H80">
         <f t="shared" si="11"/>
@@ -5732,7 +5732,7 @@
         <v>398</v>
       </c>
       <c r="F81" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>435</v>
@@ -5802,7 +5802,7 @@
         <v>496</v>
       </c>
       <c r="F83" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H83">
         <f t="shared" si="11"/>
@@ -5834,7 +5834,7 @@
         <v>501</v>
       </c>
       <c r="F84" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H84">
         <f t="shared" si="11"/>
@@ -5936,7 +5936,7 @@
         <v>511</v>
       </c>
       <c r="F87" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H87">
         <f t="shared" si="11"/>
@@ -5968,7 +5968,7 @@
         <v>516</v>
       </c>
       <c r="F88" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H88">
         <f t="shared" si="11"/>
@@ -6000,7 +6000,7 @@
         <v>521</v>
       </c>
       <c r="F89" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H89">
         <f t="shared" si="11"/>
@@ -6122,13 +6122,13 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>586</v>
+      </c>
+      <c r="B93" t="s">
         <v>587</v>
       </c>
-      <c r="B93" t="s">
-        <v>588</v>
-      </c>
       <c r="C93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D93" t="s">
         <v>542</v>
@@ -6137,7 +6137,7 @@
         <v>166</v>
       </c>
       <c r="F93" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H93">
         <f t="shared" si="13"/>
@@ -6160,16 +6160,16 @@
         <v>542</v>
       </c>
       <c r="C94" t="s">
+        <v>588</v>
+      </c>
+      <c r="D94" t="s">
         <v>589</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>590</v>
       </c>
-      <c r="E94" t="s">
-        <v>591</v>
-      </c>
       <c r="F94" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H94">
         <f t="shared" si="13"/>
@@ -6186,22 +6186,22 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>591</v>
+      </c>
+      <c r="B95" t="s">
         <v>592</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>593</v>
-      </c>
-      <c r="C95" t="s">
-        <v>594</v>
       </c>
       <c r="D95" t="s">
         <v>155</v>
       </c>
       <c r="E95" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F95" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H95">
         <f t="shared" si="13"/>
@@ -6233,7 +6233,7 @@
         <v>404</v>
       </c>
       <c r="F96" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>280</v>
@@ -6326,7 +6326,7 @@
         <v>418</v>
       </c>
       <c r="B99" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C99" t="s">
         <v>417</v>
@@ -6335,10 +6335,10 @@
         <v>419</v>
       </c>
       <c r="E99" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F99" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H99">
         <f t="shared" si="13"/>
@@ -6355,22 +6355,22 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>556</v>
+      </c>
+      <c r="B100" t="s">
         <v>557</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>558</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>559</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>560</v>
       </c>
-      <c r="E100" t="s">
-        <v>561</v>
-      </c>
       <c r="F100" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H100">
         <f t="shared" si="13"/>
@@ -6393,16 +6393,16 @@
         <v>399</v>
       </c>
       <c r="C101" t="s">
+        <v>561</v>
+      </c>
+      <c r="D101" t="s">
         <v>562</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>563</v>
       </c>
-      <c r="E101" t="s">
-        <v>564</v>
-      </c>
       <c r="F101" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H101">
         <f t="shared" si="13"/>
@@ -6419,22 +6419,22 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>564</v>
+      </c>
+      <c r="B102" t="s">
         <v>565</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>566</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>567</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>568</v>
       </c>
-      <c r="E102" t="s">
-        <v>569</v>
-      </c>
       <c r="F102" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H102">
         <f t="shared" si="13"/>
@@ -6451,22 +6451,22 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>569</v>
+      </c>
+      <c r="B103" t="s">
         <v>570</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>571</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>572</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>573</v>
       </c>
-      <c r="E103" t="s">
-        <v>574</v>
-      </c>
       <c r="F103" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H103">
         <f t="shared" si="13"/>
@@ -6623,22 +6623,22 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>627</v>
+      </c>
+      <c r="B108" t="s">
         <v>628</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>629</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>630</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>631</v>
       </c>
-      <c r="E108" t="s">
-        <v>632</v>
-      </c>
       <c r="F108" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H108">
         <f t="shared" si="13"/>
@@ -6670,7 +6670,7 @@
         <v>540</v>
       </c>
       <c r="F109" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H109">
         <f t="shared" si="13"/>
@@ -6687,22 +6687,22 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>632</v>
+      </c>
+      <c r="B110" t="s">
         <v>633</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>634</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>635</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>636</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>637</v>
-      </c>
-      <c r="F110" t="s">
-        <v>638</v>
       </c>
       <c r="H110">
         <f t="shared" si="13"/>
@@ -6734,7 +6734,7 @@
         <v>431</v>
       </c>
       <c r="F111" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>90</v>
@@ -6754,22 +6754,22 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>574</v>
+      </c>
+      <c r="B112" t="s">
         <v>575</v>
-      </c>
-      <c r="B112" t="s">
-        <v>576</v>
       </c>
       <c r="C112" t="s">
         <v>419</v>
       </c>
       <c r="D112" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E112" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F112" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H112">
         <f t="shared" si="13"/>
@@ -6786,22 +6786,22 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>577</v>
+      </c>
+      <c r="B113" t="s">
         <v>578</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>579</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>580</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>581</v>
       </c>
-      <c r="E113" t="s">
-        <v>582</v>
-      </c>
       <c r="F113" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H113">
         <f t="shared" si="13"/>
@@ -6818,22 +6818,22 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>582</v>
+      </c>
+      <c r="B114" t="s">
         <v>583</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>584</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>585</v>
       </c>
-      <c r="D114" t="s">
-        <v>586</v>
-      </c>
       <c r="E114" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F114" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H114">
         <f t="shared" si="13"/>
@@ -6955,22 +6955,22 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>612</v>
+      </c>
+      <c r="B118" t="s">
         <v>613</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>614</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>615</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>616</v>
       </c>
-      <c r="E118" t="s">
-        <v>617</v>
-      </c>
       <c r="F118" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H118">
         <f t="shared" si="13"/>
@@ -6987,22 +6987,22 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>617</v>
+      </c>
+      <c r="B119" t="s">
         <v>618</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>619</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>620</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>621</v>
       </c>
-      <c r="E119" t="s">
-        <v>622</v>
-      </c>
       <c r="F119" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H119">
         <f t="shared" si="13"/>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B121" t="s">
         <v>432</v>
@@ -7069,7 +7069,7 @@
         <v>437</v>
       </c>
       <c r="F121" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>436</v>
@@ -7159,22 +7159,22 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>622</v>
+      </c>
+      <c r="B124" t="s">
         <v>623</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>624</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>625</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>626</v>
       </c>
-      <c r="E124" t="s">
-        <v>627</v>
-      </c>
       <c r="F124" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H124">
         <f t="shared" si="13"/>
@@ -7506,22 +7506,22 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B134" t="s">
         <v>237</v>
       </c>
       <c r="C134" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D134" t="s">
         <v>236</v>
       </c>
       <c r="E134" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F134" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H134">
         <f t="shared" si="13"/>
@@ -7541,19 +7541,19 @@
         <v>238</v>
       </c>
       <c r="B135" t="s">
+        <v>643</v>
+      </c>
+      <c r="C135" t="s">
         <v>644</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>645</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>646</v>
       </c>
-      <c r="E135" t="s">
-        <v>647</v>
-      </c>
       <c r="F135" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H135">
         <f t="shared" si="13"/>

--- a/code/shabdakala/resource/work/sbwords.xlsx
+++ b/code/shabdakala/resource/work/sbwords.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/github/shabdakala/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD68B72C-FD4A-144E-BDA5-D17FB9AFD52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FB145A-9BAA-C64C-85BA-EDF72D9798A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -146,9 +146,6 @@
     <t>मुंबई</t>
   </si>
   <si>
-    <t>दोरी</t>
-  </si>
-  <si>
     <t xml:space="preserve"> सुळका</t>
   </si>
   <si>
@@ -407,9 +404,6 @@
     <t xml:space="preserve"> अथेन्स</t>
   </si>
   <si>
-    <t xml:space="preserve"> धावक</t>
-  </si>
-  <si>
     <t>कीपटूम</t>
   </si>
   <si>
@@ -686,9 +680,6 @@
     <t>अमूल</t>
   </si>
   <si>
-    <t>कात्रज</t>
-  </si>
-  <si>
     <t>म्हैस</t>
   </si>
   <si>
@@ -2022,6 +2013,15 @@
   </si>
   <si>
     <t>रस्ता</t>
+  </si>
+  <si>
+    <t>केनिया</t>
+  </si>
+  <si>
+    <t>दोर</t>
+  </si>
+  <si>
+    <t>गवळी</t>
   </si>
 </sst>
 </file>
@@ -2948,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2990,13 +2990,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L1" s="4">
         <v>45625</v>
@@ -3004,25 +3004,25 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>102</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>103</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>104</v>
       </c>
-      <c r="E2" t="s">
-        <v>105</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2">
         <f>INT(J2/3)</f>
@@ -3037,30 +3037,30 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45638</v>
+        <v>45640</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
         <v>56</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s">
-        <v>59</v>
-      </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="1">INT(J3/3)</f>
@@ -3078,25 +3078,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
         <v>137</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>138</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>139</v>
       </c>
-      <c r="D4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" t="s">
-        <v>141</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
@@ -3114,25 +3114,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" t="s">
         <v>261</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>262</v>
       </c>
-      <c r="C5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E5" t="s">
-        <v>265</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -3150,25 +3150,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
         <v>76</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>78</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>79</v>
       </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -3186,25 +3186,25 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s">
         <v>115</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>116</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>117</v>
       </c>
-      <c r="E7" t="s">
-        <v>118</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -3222,25 +3222,25 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" t="s">
         <v>340</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>341</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>342</v>
       </c>
-      <c r="D8" t="s">
-        <v>343</v>
-      </c>
-      <c r="E8" t="s">
-        <v>344</v>
-      </c>
-      <c r="F8" t="s">
-        <v>345</v>
-      </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -3257,25 +3257,25 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" t="s">
         <v>330</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>331</v>
       </c>
-      <c r="C9" t="s">
-        <v>332</v>
-      </c>
-      <c r="D9" t="s">
-        <v>333</v>
-      </c>
-      <c r="E9" t="s">
-        <v>334</v>
-      </c>
       <c r="F9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -3292,25 +3292,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D10" t="s">
         <v>335</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>336</v>
       </c>
-      <c r="C10" t="s">
-        <v>337</v>
-      </c>
-      <c r="D10" t="s">
-        <v>338</v>
-      </c>
-      <c r="E10" t="s">
-        <v>339</v>
-      </c>
       <c r="F10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -3327,25 +3327,25 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B11" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C11" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D11" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E11" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -3362,25 +3362,25 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D12" t="s">
+        <v>353</v>
+      </c>
+      <c r="E12" t="s">
         <v>354</v>
       </c>
-      <c r="B12" t="s">
-        <v>355</v>
-      </c>
-      <c r="C12" t="s">
-        <v>362</v>
-      </c>
-      <c r="D12" t="s">
-        <v>356</v>
-      </c>
-      <c r="E12" t="s">
-        <v>357</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H12">
         <f t="shared" ref="H12:H21" si="5">INT(J12/3)</f>
@@ -3397,25 +3397,25 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E13" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H13">
         <f t="shared" si="5"/>
@@ -3432,25 +3432,25 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
         <v>132</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>133</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>134</v>
       </c>
-      <c r="D14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" t="s">
-        <v>136</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H14">
         <f t="shared" si="5"/>
@@ -3467,25 +3467,25 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
         <v>91</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>92</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>93</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>94</v>
       </c>
-      <c r="E15" t="s">
-        <v>95</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H15">
         <f t="shared" si="5"/>
@@ -3502,25 +3502,25 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>61</v>
       </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
       <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="H16">
         <f t="shared" si="5"/>
@@ -3546,16 +3546,16 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17">
         <f t="shared" si="5"/>
@@ -3572,25 +3572,25 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" t="s">
         <v>119</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>120</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>121</v>
       </c>
-      <c r="E18" t="s">
-        <v>122</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H18">
         <f t="shared" si="5"/>
@@ -3622,7 +3622,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>8</v>
@@ -3642,25 +3642,25 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" t="s">
         <v>158</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>159</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>160</v>
       </c>
-      <c r="D20" t="s">
-        <v>161</v>
-      </c>
-      <c r="E20" t="s">
-        <v>162</v>
-      </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
@@ -3677,25 +3677,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
         <v>103</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>104</v>
       </c>
-      <c r="E21" t="s">
-        <v>105</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H21">
         <f t="shared" si="5"/>
@@ -3712,25 +3712,25 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" t="s">
         <v>137</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>138</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>139</v>
       </c>
-      <c r="D22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" t="s">
-        <v>141</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H22">
         <f t="shared" ref="H22" si="7">INT(J22/3)</f>
@@ -3756,13 +3756,13 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
         <v>42</v>
       </c>
-      <c r="E23" t="s">
-        <v>43</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
@@ -3797,10 +3797,10 @@
         <v>36</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24">
         <f t="shared" si="9"/>
@@ -3817,25 +3817,25 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>370</v>
+      </c>
+      <c r="B25" t="s">
+        <v>371</v>
+      </c>
+      <c r="C25" t="s">
+        <v>372</v>
+      </c>
+      <c r="D25" t="s">
         <v>373</v>
       </c>
-      <c r="B25" t="s">
+      <c r="E25" t="s">
         <v>374</v>
       </c>
-      <c r="C25" t="s">
-        <v>375</v>
-      </c>
-      <c r="D25" t="s">
-        <v>376</v>
-      </c>
-      <c r="E25" t="s">
-        <v>377</v>
-      </c>
       <c r="F25" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H25">
         <f t="shared" si="9"/>
@@ -3852,25 +3852,25 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
         <v>127</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>128</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>129</v>
       </c>
-      <c r="D26" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" t="s">
-        <v>131</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H26">
         <f t="shared" si="9"/>
@@ -3887,22 +3887,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>253</v>
+      </c>
+      <c r="B27" t="s">
+        <v>254</v>
+      </c>
+      <c r="C27" t="s">
+        <v>255</v>
+      </c>
+      <c r="D27" t="s">
         <v>256</v>
       </c>
-      <c r="B27" t="s">
+      <c r="E27" t="s">
         <v>257</v>
       </c>
-      <c r="C27" t="s">
-        <v>258</v>
-      </c>
-      <c r="D27" t="s">
-        <v>259</v>
-      </c>
-      <c r="E27" t="s">
-        <v>260</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>8</v>
@@ -3922,25 +3922,25 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>413</v>
+      </c>
+      <c r="B28" t="s">
+        <v>414</v>
+      </c>
+      <c r="C28" t="s">
+        <v>415</v>
+      </c>
+      <c r="D28" t="s">
         <v>416</v>
       </c>
-      <c r="B28" t="s">
-        <v>417</v>
-      </c>
-      <c r="C28" t="s">
-        <v>418</v>
-      </c>
-      <c r="D28" t="s">
-        <v>419</v>
-      </c>
       <c r="E28" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F28" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H28">
         <f t="shared" ref="H28:H91" si="11">INT(J28/3)</f>
@@ -3957,25 +3957,25 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
         <v>96</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>97</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>98</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>99</v>
       </c>
-      <c r="E29" t="s">
-        <v>100</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H29">
         <f t="shared" si="11"/>
@@ -3992,25 +3992,25 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
         <v>106</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>107</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>108</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>109</v>
       </c>
-      <c r="E30" t="s">
-        <v>110</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H30">
         <f t="shared" si="11"/>
@@ -4027,22 +4027,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>267</v>
+      </c>
+      <c r="B31" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" t="s">
         <v>270</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E31" t="s">
         <v>271</v>
       </c>
-      <c r="C31" t="s">
-        <v>272</v>
-      </c>
-      <c r="D31" t="s">
-        <v>273</v>
-      </c>
-      <c r="E31" t="s">
-        <v>274</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>8</v>
@@ -4062,22 +4062,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>522</v>
+      </c>
+      <c r="B32" t="s">
+        <v>523</v>
+      </c>
+      <c r="C32" t="s">
+        <v>524</v>
+      </c>
+      <c r="D32" t="s">
         <v>525</v>
       </c>
-      <c r="B32" t="s">
+      <c r="E32" t="s">
         <v>526</v>
       </c>
-      <c r="C32" t="s">
-        <v>527</v>
-      </c>
-      <c r="D32" t="s">
-        <v>528</v>
-      </c>
-      <c r="E32" t="s">
-        <v>529</v>
-      </c>
       <c r="F32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H32">
         <f t="shared" si="11"/>
@@ -4094,22 +4094,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B33" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C33" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D33" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E33" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F33" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H33">
         <f t="shared" si="11"/>
@@ -4126,22 +4126,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B34" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C34" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F34" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H34">
         <f t="shared" si="11"/>
@@ -4158,25 +4158,25 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
         <v>63</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>64</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>65</v>
       </c>
-      <c r="D35" t="s">
-        <v>66</v>
-      </c>
       <c r="E35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H35">
         <f t="shared" si="11"/>
@@ -4205,10 +4205,10 @@
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>8</v>
@@ -4228,25 +4228,25 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" t="s">
         <v>111</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>112</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>113</v>
       </c>
-      <c r="D37" t="s">
-        <v>114</v>
-      </c>
       <c r="E37" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H37">
         <f t="shared" si="11"/>
@@ -4263,22 +4263,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>655</v>
+      </c>
+      <c r="B38" t="s">
+        <v>519</v>
+      </c>
+      <c r="C38" t="s">
         <v>658</v>
       </c>
-      <c r="B38" t="s">
-        <v>522</v>
-      </c>
-      <c r="C38" t="s">
-        <v>661</v>
-      </c>
       <c r="D38" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E38" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F38" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H38">
         <f t="shared" si="11"/>
@@ -4295,22 +4295,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B39" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E39" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F39" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H39">
         <f t="shared" si="11"/>
@@ -4327,25 +4327,25 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>205</v>
+      </c>
+      <c r="B40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" t="s">
         <v>207</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>208</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>209</v>
       </c>
-      <c r="D40" t="s">
-        <v>210</v>
-      </c>
-      <c r="E40" t="s">
-        <v>211</v>
-      </c>
       <c r="F40" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H40">
         <f t="shared" si="11"/>
@@ -4362,25 +4362,25 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
         <v>81</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>82</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>83</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>84</v>
       </c>
-      <c r="E41" t="s">
-        <v>85</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H41">
         <f t="shared" si="11"/>
@@ -4397,22 +4397,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>592</v>
+      </c>
+      <c r="B42" t="s">
+        <v>593</v>
+      </c>
+      <c r="C42" t="s">
+        <v>656</v>
+      </c>
+      <c r="D42" t="s">
+        <v>594</v>
+      </c>
+      <c r="E42" t="s">
         <v>595</v>
       </c>
-      <c r="B42" t="s">
-        <v>596</v>
-      </c>
-      <c r="C42" t="s">
-        <v>659</v>
-      </c>
-      <c r="D42" t="s">
-        <v>597</v>
-      </c>
-      <c r="E42" t="s">
-        <v>598</v>
-      </c>
       <c r="F42" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H42">
         <f t="shared" si="11"/>
@@ -4429,22 +4429,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>604</v>
+      </c>
+      <c r="B43" t="s">
+        <v>605</v>
+      </c>
+      <c r="C43" t="s">
+        <v>606</v>
+      </c>
+      <c r="D43" t="s">
         <v>607</v>
       </c>
-      <c r="B43" t="s">
+      <c r="E43" t="s">
         <v>608</v>
       </c>
-      <c r="C43" t="s">
-        <v>609</v>
-      </c>
-      <c r="D43" t="s">
-        <v>610</v>
-      </c>
-      <c r="E43" t="s">
-        <v>611</v>
-      </c>
       <c r="F43" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H43">
         <f t="shared" si="11"/>
@@ -4461,25 +4461,25 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B44" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C44" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D44" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E44" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F44" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H44">
         <f t="shared" si="11"/>
@@ -4496,25 +4496,25 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" t="s">
         <v>197</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>198</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>199</v>
       </c>
-      <c r="D45" t="s">
-        <v>200</v>
-      </c>
-      <c r="E45" t="s">
-        <v>201</v>
-      </c>
       <c r="F45" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H45">
         <f t="shared" si="11"/>
@@ -4531,22 +4531,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>538</v>
+      </c>
+      <c r="B46" t="s">
+        <v>539</v>
+      </c>
+      <c r="C46" t="s">
+        <v>540</v>
+      </c>
+      <c r="D46" t="s">
+        <v>659</v>
+      </c>
+      <c r="E46" t="s">
         <v>541</v>
       </c>
-      <c r="B46" t="s">
-        <v>542</v>
-      </c>
-      <c r="C46" t="s">
-        <v>543</v>
-      </c>
-      <c r="D46" t="s">
-        <v>662</v>
-      </c>
-      <c r="E46" t="s">
-        <v>544</v>
-      </c>
       <c r="F46" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H46">
         <f t="shared" si="11"/>
@@ -4563,22 +4563,22 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B47" t="s">
+        <v>542</v>
+      </c>
+      <c r="C47" t="s">
+        <v>543</v>
+      </c>
+      <c r="D47" t="s">
+        <v>544</v>
+      </c>
+      <c r="E47" t="s">
         <v>545</v>
       </c>
-      <c r="C47" t="s">
-        <v>546</v>
-      </c>
-      <c r="D47" t="s">
-        <v>547</v>
-      </c>
-      <c r="E47" t="s">
-        <v>548</v>
-      </c>
       <c r="F47" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H47">
         <f t="shared" si="11"/>
@@ -4595,22 +4595,22 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>546</v>
+      </c>
+      <c r="B48" t="s">
+        <v>547</v>
+      </c>
+      <c r="C48" t="s">
+        <v>548</v>
+      </c>
+      <c r="D48" t="s">
         <v>549</v>
       </c>
-      <c r="B48" t="s">
+      <c r="E48" t="s">
         <v>550</v>
       </c>
-      <c r="C48" t="s">
-        <v>551</v>
-      </c>
-      <c r="D48" t="s">
-        <v>552</v>
-      </c>
-      <c r="E48" t="s">
-        <v>553</v>
-      </c>
       <c r="F48" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H48">
         <f t="shared" si="11"/>
@@ -4627,25 +4627,25 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" t="s">
         <v>192</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>193</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>194</v>
       </c>
-      <c r="D49" t="s">
-        <v>195</v>
-      </c>
-      <c r="E49" t="s">
-        <v>196</v>
-      </c>
       <c r="F49" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H49">
         <f t="shared" si="11"/>
@@ -4662,25 +4662,25 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>417</v>
+      </c>
+      <c r="B50" t="s">
+        <v>418</v>
+      </c>
+      <c r="C50" t="s">
+        <v>419</v>
+      </c>
+      <c r="D50" t="s">
+        <v>377</v>
+      </c>
+      <c r="E50" t="s">
         <v>420</v>
       </c>
-      <c r="B50" t="s">
-        <v>421</v>
-      </c>
-      <c r="C50" t="s">
-        <v>422</v>
-      </c>
-      <c r="D50" t="s">
-        <v>380</v>
-      </c>
-      <c r="E50" t="s">
-        <v>423</v>
-      </c>
       <c r="F50" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H50">
         <f t="shared" si="11"/>
@@ -4700,22 +4700,22 @@
         <v>42.195</v>
       </c>
       <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" t="s">
+        <v>660</v>
+      </c>
+      <c r="D51" t="s">
         <v>123</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
         <v>124</v>
       </c>
-      <c r="D51" t="s">
-        <v>125</v>
-      </c>
-      <c r="E51" t="s">
-        <v>126</v>
-      </c>
       <c r="F51" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H51">
         <f t="shared" si="11"/>
@@ -4732,22 +4732,22 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>661</v>
+      </c>
+      <c r="B52" t="s">
         <v>37</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>38</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>39</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>40</v>
       </c>
-      <c r="E52" t="s">
-        <v>41</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>8</v>
@@ -4767,25 +4767,25 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" t="s">
         <v>168</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
         <v>169</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>170</v>
       </c>
-      <c r="D53" t="s">
-        <v>171</v>
-      </c>
-      <c r="E53" t="s">
-        <v>172</v>
-      </c>
       <c r="F53" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H53">
         <f t="shared" si="11"/>
@@ -4802,25 +4802,25 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>214</v>
+      </c>
+      <c r="B54" t="s">
+        <v>662</v>
+      </c>
+      <c r="C54" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" t="s">
         <v>216</v>
       </c>
-      <c r="B54" t="s">
+      <c r="E54" t="s">
         <v>217</v>
       </c>
-      <c r="C54" t="s">
-        <v>218</v>
-      </c>
-      <c r="D54" t="s">
-        <v>219</v>
-      </c>
-      <c r="E54" t="s">
-        <v>220</v>
-      </c>
       <c r="F54" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H54">
         <f t="shared" si="11"/>
@@ -4837,25 +4837,25 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>383</v>
+      </c>
+      <c r="B55" t="s">
+        <v>384</v>
+      </c>
+      <c r="C55" t="s">
+        <v>385</v>
+      </c>
+      <c r="D55" t="s">
         <v>386</v>
       </c>
-      <c r="B55" t="s">
-        <v>387</v>
-      </c>
-      <c r="C55" t="s">
-        <v>388</v>
-      </c>
-      <c r="D55" t="s">
-        <v>389</v>
-      </c>
       <c r="E55" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F55" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H55">
         <f t="shared" si="11"/>
@@ -4872,25 +4872,25 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>233</v>
+      </c>
+      <c r="B56" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" t="s">
+        <v>235</v>
+      </c>
+      <c r="D56" t="s">
         <v>236</v>
       </c>
-      <c r="B56" t="s">
+      <c r="E56" t="s">
         <v>237</v>
       </c>
-      <c r="C56" t="s">
-        <v>238</v>
-      </c>
-      <c r="D56" t="s">
-        <v>239</v>
-      </c>
-      <c r="E56" t="s">
-        <v>240</v>
-      </c>
       <c r="F56" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H56">
         <f t="shared" si="11"/>
@@ -4913,19 +4913,19 @@
         <v>32</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E57" t="s">
         <v>33</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H57">
         <f t="shared" si="11"/>
@@ -4942,22 +4942,22 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>474</v>
+      </c>
+      <c r="B58" t="s">
+        <v>475</v>
+      </c>
+      <c r="C58" t="s">
+        <v>476</v>
+      </c>
+      <c r="D58" t="s">
         <v>477</v>
       </c>
-      <c r="B58" t="s">
+      <c r="E58" t="s">
         <v>478</v>
       </c>
-      <c r="C58" t="s">
-        <v>479</v>
-      </c>
-      <c r="D58" t="s">
-        <v>480</v>
-      </c>
-      <c r="E58" t="s">
-        <v>481</v>
-      </c>
       <c r="F58" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H58">
         <f t="shared" si="11"/>
@@ -4974,22 +4974,22 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>479</v>
+      </c>
+      <c r="B59" t="s">
+        <v>480</v>
+      </c>
+      <c r="C59" t="s">
+        <v>481</v>
+      </c>
+      <c r="D59" t="s">
         <v>482</v>
       </c>
-      <c r="B59" t="s">
+      <c r="E59" t="s">
         <v>483</v>
       </c>
-      <c r="C59" t="s">
-        <v>484</v>
-      </c>
-      <c r="D59" t="s">
-        <v>485</v>
-      </c>
-      <c r="E59" t="s">
-        <v>486</v>
-      </c>
       <c r="F59" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H59">
         <f t="shared" si="11"/>
@@ -5006,22 +5006,22 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>484</v>
+      </c>
+      <c r="B60" t="s">
+        <v>485</v>
+      </c>
+      <c r="C60" t="s">
+        <v>486</v>
+      </c>
+      <c r="D60" t="s">
         <v>487</v>
       </c>
-      <c r="B60" t="s">
+      <c r="E60" t="s">
         <v>488</v>
       </c>
-      <c r="C60" t="s">
-        <v>489</v>
-      </c>
-      <c r="D60" t="s">
-        <v>490</v>
-      </c>
-      <c r="E60" t="s">
-        <v>491</v>
-      </c>
       <c r="F60" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H60">
         <f t="shared" si="11"/>
@@ -5038,25 +5038,25 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>375</v>
+      </c>
+      <c r="B61" t="s">
+        <v>376</v>
+      </c>
+      <c r="C61" t="s">
+        <v>377</v>
+      </c>
+      <c r="D61" t="s">
         <v>378</v>
       </c>
-      <c r="B61" t="s">
+      <c r="E61" t="s">
         <v>379</v>
       </c>
-      <c r="C61" t="s">
-        <v>380</v>
-      </c>
-      <c r="D61" t="s">
-        <v>381</v>
-      </c>
-      <c r="E61" t="s">
-        <v>382</v>
-      </c>
       <c r="F61" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H61">
         <f t="shared" si="11"/>
@@ -5073,25 +5073,25 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
+        <v>210</v>
+      </c>
+      <c r="C62" t="s">
+        <v>211</v>
+      </c>
+      <c r="D62" t="s">
         <v>212</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E62" t="s">
         <v>213</v>
       </c>
-      <c r="D62" t="s">
-        <v>214</v>
-      </c>
-      <c r="E62" t="s">
-        <v>215</v>
-      </c>
       <c r="F62" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H62">
         <f t="shared" si="11"/>
@@ -5108,25 +5108,25 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>312</v>
+      </c>
+      <c r="B63" t="s">
+        <v>313</v>
+      </c>
+      <c r="C63" t="s">
+        <v>314</v>
+      </c>
+      <c r="D63" t="s">
         <v>315</v>
       </c>
-      <c r="B63" t="s">
-        <v>316</v>
-      </c>
-      <c r="C63" t="s">
-        <v>317</v>
-      </c>
-      <c r="D63" t="s">
-        <v>318</v>
-      </c>
       <c r="E63" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F63" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H63">
         <f t="shared" si="11"/>
@@ -5143,25 +5143,25 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" t="s">
         <v>153</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D64" t="s">
         <v>154</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
         <v>155</v>
       </c>
-      <c r="D64" t="s">
-        <v>156</v>
-      </c>
-      <c r="E64" t="s">
-        <v>157</v>
-      </c>
       <c r="F64" t="s">
+        <v>186</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="H64">
         <f t="shared" si="11"/>
@@ -5178,25 +5178,25 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>387</v>
+      </c>
+      <c r="B65" t="s">
+        <v>388</v>
+      </c>
+      <c r="C65" t="s">
+        <v>389</v>
+      </c>
+      <c r="D65" t="s">
         <v>390</v>
       </c>
-      <c r="B65" t="s">
-        <v>391</v>
-      </c>
-      <c r="C65" t="s">
-        <v>392</v>
-      </c>
-      <c r="D65" t="s">
-        <v>393</v>
-      </c>
       <c r="E65" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F65" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H65">
         <f t="shared" si="11"/>
@@ -5213,25 +5213,25 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>408</v>
+      </c>
+      <c r="B66" t="s">
+        <v>409</v>
+      </c>
+      <c r="C66" t="s">
+        <v>410</v>
+      </c>
+      <c r="D66" t="s">
         <v>411</v>
       </c>
-      <c r="B66" t="s">
+      <c r="E66" t="s">
         <v>412</v>
       </c>
-      <c r="C66" t="s">
-        <v>413</v>
-      </c>
-      <c r="D66" t="s">
-        <v>414</v>
-      </c>
-      <c r="E66" t="s">
-        <v>415</v>
-      </c>
       <c r="F66" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H66">
         <f t="shared" si="11"/>
@@ -5248,22 +5248,22 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>470</v>
+      </c>
+      <c r="B67" t="s">
+        <v>471</v>
+      </c>
+      <c r="C67" t="s">
+        <v>212</v>
+      </c>
+      <c r="D67" t="s">
+        <v>472</v>
+      </c>
+      <c r="E67" t="s">
         <v>473</v>
       </c>
-      <c r="B67" t="s">
-        <v>474</v>
-      </c>
-      <c r="C67" t="s">
-        <v>214</v>
-      </c>
-      <c r="D67" t="s">
-        <v>475</v>
-      </c>
-      <c r="E67" t="s">
-        <v>476</v>
-      </c>
       <c r="F67" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H67">
         <f t="shared" si="11"/>
@@ -5280,25 +5280,25 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>247</v>
+      </c>
+      <c r="B68" t="s">
+        <v>248</v>
+      </c>
+      <c r="C68" t="s">
+        <v>249</v>
+      </c>
+      <c r="D68" t="s">
         <v>250</v>
       </c>
-      <c r="B68" t="s">
+      <c r="E68" t="s">
         <v>251</v>
       </c>
-      <c r="C68" t="s">
+      <c r="F68" t="s">
         <v>252</v>
       </c>
-      <c r="D68" t="s">
-        <v>253</v>
-      </c>
-      <c r="E68" t="s">
-        <v>254</v>
-      </c>
-      <c r="F68" t="s">
-        <v>255</v>
-      </c>
       <c r="G68" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H68">
         <f t="shared" si="11"/>
@@ -5315,22 +5315,22 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B69" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C69" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D69" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E69" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F69" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H69">
         <f t="shared" si="11"/>
@@ -5347,22 +5347,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>599</v>
+      </c>
+      <c r="B70" t="s">
+        <v>600</v>
+      </c>
+      <c r="C70" t="s">
+        <v>601</v>
+      </c>
+      <c r="D70" t="s">
         <v>602</v>
       </c>
-      <c r="B70" t="s">
+      <c r="E70" t="s">
         <v>603</v>
       </c>
-      <c r="C70" t="s">
-        <v>604</v>
-      </c>
-      <c r="D70" t="s">
-        <v>605</v>
-      </c>
-      <c r="E70" t="s">
-        <v>606</v>
-      </c>
       <c r="F70" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H70">
         <f t="shared" si="11"/>
@@ -5379,25 +5379,25 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>421</v>
+      </c>
+      <c r="B71" t="s">
+        <v>422</v>
+      </c>
+      <c r="C71" t="s">
+        <v>423</v>
+      </c>
+      <c r="D71" t="s">
         <v>424</v>
       </c>
-      <c r="B71" t="s">
-        <v>425</v>
-      </c>
-      <c r="C71" t="s">
-        <v>426</v>
-      </c>
-      <c r="D71" t="s">
-        <v>427</v>
-      </c>
       <c r="E71" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F71" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H71">
         <f t="shared" si="11"/>
@@ -5414,25 +5414,25 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>280</v>
+      </c>
+      <c r="B72" t="s">
+        <v>281</v>
+      </c>
+      <c r="C72" t="s">
+        <v>282</v>
+      </c>
+      <c r="D72" t="s">
         <v>283</v>
       </c>
-      <c r="B72" t="s">
-        <v>284</v>
-      </c>
-      <c r="C72" t="s">
-        <v>285</v>
-      </c>
-      <c r="D72" t="s">
-        <v>286</v>
-      </c>
       <c r="E72" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F72" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H72">
         <f t="shared" si="11"/>
@@ -5449,25 +5449,25 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>295</v>
+      </c>
+      <c r="B73" t="s">
+        <v>296</v>
+      </c>
+      <c r="C73" t="s">
+        <v>297</v>
+      </c>
+      <c r="D73" t="s">
         <v>298</v>
       </c>
-      <c r="B73" t="s">
+      <c r="E73" t="s">
         <v>299</v>
       </c>
-      <c r="C73" t="s">
-        <v>300</v>
-      </c>
-      <c r="D73" t="s">
-        <v>301</v>
-      </c>
-      <c r="E73" t="s">
-        <v>302</v>
-      </c>
       <c r="F73" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H73">
         <f t="shared" si="11"/>
@@ -5484,25 +5484,25 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>291</v>
+      </c>
+      <c r="B74" t="s">
+        <v>292</v>
+      </c>
+      <c r="C74" t="s">
+        <v>293</v>
+      </c>
+      <c r="D74" t="s">
         <v>294</v>
       </c>
-      <c r="B74" t="s">
-        <v>295</v>
-      </c>
-      <c r="C74" t="s">
-        <v>296</v>
-      </c>
-      <c r="D74" t="s">
-        <v>297</v>
-      </c>
       <c r="E74" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F74" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H74">
         <f t="shared" si="11"/>
@@ -5519,22 +5519,22 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B75" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C75" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D75" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E75" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F75" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H75">
         <f t="shared" si="11"/>
@@ -5551,22 +5551,22 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B76" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C76" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D76" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E76" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F76" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H76">
         <f t="shared" si="11"/>
@@ -5583,25 +5583,25 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>322</v>
+      </c>
+      <c r="B77" t="s">
+        <v>323</v>
+      </c>
+      <c r="C77" t="s">
+        <v>324</v>
+      </c>
+      <c r="D77" t="s">
         <v>325</v>
       </c>
-      <c r="B77" t="s">
+      <c r="E77" t="s">
         <v>326</v>
       </c>
-      <c r="C77" t="s">
-        <v>327</v>
-      </c>
-      <c r="D77" t="s">
-        <v>328</v>
-      </c>
-      <c r="E77" t="s">
-        <v>329</v>
-      </c>
       <c r="F77" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H77">
         <f t="shared" si="11"/>
@@ -5618,25 +5618,25 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B78" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C78" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D78" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E78" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F78" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H78">
         <f t="shared" si="11"/>
@@ -5653,22 +5653,22 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>460</v>
+      </c>
+      <c r="B79" t="s">
+        <v>461</v>
+      </c>
+      <c r="C79" t="s">
+        <v>462</v>
+      </c>
+      <c r="D79" t="s">
         <v>463</v>
       </c>
-      <c r="B79" t="s">
+      <c r="E79" t="s">
         <v>464</v>
       </c>
-      <c r="C79" t="s">
-        <v>465</v>
-      </c>
-      <c r="D79" t="s">
-        <v>466</v>
-      </c>
-      <c r="E79" t="s">
-        <v>467</v>
-      </c>
       <c r="F79" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H79">
         <f t="shared" si="11"/>
@@ -5685,22 +5685,22 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>465</v>
+      </c>
+      <c r="B80" t="s">
+        <v>466</v>
+      </c>
+      <c r="C80" t="s">
+        <v>467</v>
+      </c>
+      <c r="D80" t="s">
         <v>468</v>
       </c>
-      <c r="B80" t="s">
+      <c r="E80" t="s">
         <v>469</v>
       </c>
-      <c r="C80" t="s">
-        <v>470</v>
-      </c>
-      <c r="D80" t="s">
-        <v>471</v>
-      </c>
-      <c r="E80" t="s">
-        <v>472</v>
-      </c>
       <c r="F80" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H80">
         <f t="shared" si="11"/>
@@ -5717,25 +5717,25 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>391</v>
+      </c>
+      <c r="B81" t="s">
+        <v>392</v>
+      </c>
+      <c r="C81" t="s">
+        <v>393</v>
+      </c>
+      <c r="D81" t="s">
         <v>394</v>
       </c>
-      <c r="B81" t="s">
+      <c r="E81" t="s">
         <v>395</v>
       </c>
-      <c r="C81" t="s">
-        <v>396</v>
-      </c>
-      <c r="D81" t="s">
-        <v>397</v>
-      </c>
-      <c r="E81" t="s">
-        <v>398</v>
-      </c>
       <c r="F81" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H81">
         <f t="shared" si="11"/>
@@ -5752,25 +5752,25 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>223</v>
+      </c>
+      <c r="B82" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" t="s">
+        <v>225</v>
+      </c>
+      <c r="D82" t="s">
         <v>226</v>
       </c>
-      <c r="B82" t="s">
+      <c r="E82" t="s">
         <v>227</v>
       </c>
-      <c r="C82" t="s">
-        <v>228</v>
-      </c>
-      <c r="D82" t="s">
-        <v>229</v>
-      </c>
-      <c r="E82" t="s">
-        <v>230</v>
-      </c>
       <c r="F82" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H82">
         <f t="shared" si="11"/>
@@ -5787,22 +5787,22 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>489</v>
+      </c>
+      <c r="B83" t="s">
+        <v>490</v>
+      </c>
+      <c r="C83" t="s">
+        <v>491</v>
+      </c>
+      <c r="D83" t="s">
         <v>492</v>
       </c>
-      <c r="B83" t="s">
+      <c r="E83" t="s">
         <v>493</v>
       </c>
-      <c r="C83" t="s">
-        <v>494</v>
-      </c>
-      <c r="D83" t="s">
-        <v>495</v>
-      </c>
-      <c r="E83" t="s">
-        <v>496</v>
-      </c>
       <c r="F83" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H83">
         <f t="shared" si="11"/>
@@ -5819,22 +5819,22 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>494</v>
+      </c>
+      <c r="B84" t="s">
+        <v>495</v>
+      </c>
+      <c r="C84" t="s">
+        <v>496</v>
+      </c>
+      <c r="D84" t="s">
         <v>497</v>
       </c>
-      <c r="B84" t="s">
+      <c r="E84" t="s">
         <v>498</v>
       </c>
-      <c r="C84" t="s">
-        <v>499</v>
-      </c>
-      <c r="D84" t="s">
-        <v>500</v>
-      </c>
-      <c r="E84" t="s">
-        <v>501</v>
-      </c>
       <c r="F84" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H84">
         <f t="shared" si="11"/>
@@ -5851,25 +5851,25 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>316</v>
+      </c>
+      <c r="B85" t="s">
+        <v>317</v>
+      </c>
+      <c r="C85" t="s">
+        <v>318</v>
+      </c>
+      <c r="D85" t="s">
         <v>319</v>
       </c>
-      <c r="B85" t="s">
+      <c r="E85" t="s">
         <v>320</v>
       </c>
-      <c r="C85" t="s">
+      <c r="F85" t="s">
         <v>321</v>
       </c>
-      <c r="D85" t="s">
-        <v>322</v>
-      </c>
-      <c r="E85" t="s">
-        <v>323</v>
-      </c>
-      <c r="F85" t="s">
-        <v>324</v>
-      </c>
       <c r="G85" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H85">
         <f t="shared" si="11"/>
@@ -5886,25 +5886,25 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" t="s">
+        <v>162</v>
+      </c>
+      <c r="C86" t="s">
         <v>163</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D86" t="s">
         <v>164</v>
       </c>
-      <c r="C86" t="s">
+      <c r="E86" t="s">
         <v>165</v>
       </c>
-      <c r="D86" t="s">
-        <v>166</v>
-      </c>
-      <c r="E86" t="s">
-        <v>167</v>
-      </c>
       <c r="F86" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H86">
         <f t="shared" si="11"/>
@@ -5921,22 +5921,22 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>504</v>
+      </c>
+      <c r="B87" t="s">
+        <v>505</v>
+      </c>
+      <c r="C87" t="s">
+        <v>506</v>
+      </c>
+      <c r="D87" t="s">
         <v>507</v>
       </c>
-      <c r="B87" t="s">
+      <c r="E87" t="s">
         <v>508</v>
       </c>
-      <c r="C87" t="s">
-        <v>509</v>
-      </c>
-      <c r="D87" t="s">
-        <v>510</v>
-      </c>
-      <c r="E87" t="s">
-        <v>511</v>
-      </c>
       <c r="F87" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H87">
         <f t="shared" si="11"/>
@@ -5953,22 +5953,22 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>509</v>
+      </c>
+      <c r="B88" t="s">
+        <v>510</v>
+      </c>
+      <c r="C88" t="s">
+        <v>511</v>
+      </c>
+      <c r="D88" t="s">
         <v>512</v>
       </c>
-      <c r="B88" t="s">
+      <c r="E88" t="s">
         <v>513</v>
       </c>
-      <c r="C88" t="s">
-        <v>514</v>
-      </c>
-      <c r="D88" t="s">
-        <v>515</v>
-      </c>
-      <c r="E88" t="s">
-        <v>516</v>
-      </c>
       <c r="F88" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H88">
         <f t="shared" si="11"/>
@@ -5985,22 +5985,22 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>514</v>
+      </c>
+      <c r="B89" t="s">
+        <v>515</v>
+      </c>
+      <c r="C89" t="s">
+        <v>516</v>
+      </c>
+      <c r="D89" t="s">
         <v>517</v>
       </c>
-      <c r="B89" t="s">
+      <c r="E89" t="s">
         <v>518</v>
       </c>
-      <c r="C89" t="s">
-        <v>519</v>
-      </c>
-      <c r="D89" t="s">
-        <v>520</v>
-      </c>
-      <c r="E89" t="s">
-        <v>521</v>
-      </c>
       <c r="F89" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H89">
         <f t="shared" si="11"/>
@@ -6017,25 +6017,25 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" t="s">
         <v>173</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D90" t="s">
         <v>174</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E90" t="s">
         <v>175</v>
       </c>
-      <c r="D90" t="s">
-        <v>176</v>
-      </c>
-      <c r="E90" t="s">
-        <v>177</v>
-      </c>
       <c r="F90" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H90">
         <f t="shared" si="11"/>
@@ -6052,25 +6052,25 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>200</v>
+      </c>
+      <c r="B91" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" t="s">
         <v>202</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
         <v>203</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
         <v>204</v>
       </c>
-      <c r="D91" t="s">
-        <v>205</v>
-      </c>
-      <c r="E91" t="s">
-        <v>206</v>
-      </c>
       <c r="F91" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H91">
         <f t="shared" si="11"/>
@@ -6087,25 +6087,25 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>304</v>
+      </c>
+      <c r="B92" t="s">
+        <v>305</v>
+      </c>
+      <c r="C92" t="s">
+        <v>306</v>
+      </c>
+      <c r="D92" t="s">
         <v>307</v>
       </c>
-      <c r="B92" t="s">
-        <v>308</v>
-      </c>
-      <c r="C92" t="s">
-        <v>309</v>
-      </c>
-      <c r="D92" t="s">
-        <v>310</v>
-      </c>
       <c r="E92" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F92" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H92">
         <f t="shared" ref="H92:H135" si="13">INT(J92/3)</f>
@@ -6122,22 +6122,22 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B93" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C93" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D93" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E93" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F93" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H93">
         <f t="shared" si="13"/>
@@ -6154,22 +6154,22 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B94" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C94" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D94" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E94" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F94" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H94">
         <f t="shared" si="13"/>
@@ -6186,22 +6186,22 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>588</v>
+      </c>
+      <c r="B95" t="s">
+        <v>589</v>
+      </c>
+      <c r="C95" t="s">
+        <v>590</v>
+      </c>
+      <c r="D95" t="s">
+        <v>153</v>
+      </c>
+      <c r="E95" t="s">
         <v>591</v>
       </c>
-      <c r="B95" t="s">
-        <v>592</v>
-      </c>
-      <c r="C95" t="s">
-        <v>593</v>
-      </c>
-      <c r="D95" t="s">
-        <v>155</v>
-      </c>
-      <c r="E95" t="s">
-        <v>594</v>
-      </c>
       <c r="F95" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H95">
         <f t="shared" si="13"/>
@@ -6218,25 +6218,25 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>397</v>
+      </c>
+      <c r="B96" t="s">
+        <v>398</v>
+      </c>
+      <c r="C96" t="s">
+        <v>399</v>
+      </c>
+      <c r="D96" t="s">
         <v>400</v>
       </c>
-      <c r="B96" t="s">
+      <c r="E96" t="s">
         <v>401</v>
       </c>
-      <c r="C96" t="s">
-        <v>402</v>
-      </c>
-      <c r="D96" t="s">
-        <v>403</v>
-      </c>
-      <c r="E96" t="s">
-        <v>404</v>
-      </c>
       <c r="F96" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H96">
         <f t="shared" si="13"/>
@@ -6268,10 +6268,10 @@
         <v>30</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H97">
         <f t="shared" si="13"/>
@@ -6288,25 +6288,25 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>66</v>
+      </c>
+      <c r="B98" t="s">
         <v>67</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>68</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>369</v>
+      </c>
+      <c r="E98" t="s">
         <v>69</v>
       </c>
-      <c r="D98" t="s">
-        <v>372</v>
-      </c>
-      <c r="E98" t="s">
-        <v>70</v>
-      </c>
       <c r="F98" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H98">
         <f t="shared" si="13"/>
@@ -6323,22 +6323,22 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B99" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C99" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D99" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E99" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F99" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H99">
         <f t="shared" si="13"/>
@@ -6355,22 +6355,22 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>553</v>
+      </c>
+      <c r="B100" t="s">
+        <v>554</v>
+      </c>
+      <c r="C100" t="s">
+        <v>555</v>
+      </c>
+      <c r="D100" t="s">
         <v>556</v>
       </c>
-      <c r="B100" t="s">
+      <c r="E100" t="s">
         <v>557</v>
       </c>
-      <c r="C100" t="s">
-        <v>558</v>
-      </c>
-      <c r="D100" t="s">
-        <v>559</v>
-      </c>
-      <c r="E100" t="s">
-        <v>560</v>
-      </c>
       <c r="F100" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H100">
         <f t="shared" si="13"/>
@@ -6387,22 +6387,22 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B101" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C101" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D101" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E101" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F101" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H101">
         <f t="shared" si="13"/>
@@ -6419,22 +6419,22 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>561</v>
+      </c>
+      <c r="B102" t="s">
+        <v>562</v>
+      </c>
+      <c r="C102" t="s">
+        <v>563</v>
+      </c>
+      <c r="D102" t="s">
         <v>564</v>
       </c>
-      <c r="B102" t="s">
+      <c r="E102" t="s">
         <v>565</v>
       </c>
-      <c r="C102" t="s">
-        <v>566</v>
-      </c>
-      <c r="D102" t="s">
-        <v>567</v>
-      </c>
-      <c r="E102" t="s">
-        <v>568</v>
-      </c>
       <c r="F102" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H102">
         <f t="shared" si="13"/>
@@ -6451,22 +6451,22 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>566</v>
+      </c>
+      <c r="B103" t="s">
+        <v>567</v>
+      </c>
+      <c r="C103" t="s">
+        <v>568</v>
+      </c>
+      <c r="D103" t="s">
         <v>569</v>
       </c>
-      <c r="B103" t="s">
+      <c r="E103" t="s">
         <v>570</v>
       </c>
-      <c r="C103" t="s">
-        <v>571</v>
-      </c>
-      <c r="D103" t="s">
-        <v>572</v>
-      </c>
-      <c r="E103" t="s">
-        <v>573</v>
-      </c>
       <c r="F103" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H103">
         <f t="shared" si="13"/>
@@ -6483,25 +6483,25 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>181</v>
+      </c>
+      <c r="B104" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" t="s">
         <v>183</v>
       </c>
-      <c r="B104" t="s">
+      <c r="D104" t="s">
         <v>184</v>
       </c>
-      <c r="C104" t="s">
+      <c r="E104" t="s">
         <v>185</v>
       </c>
-      <c r="D104" t="s">
+      <c r="F104" t="s">
         <v>186</v>
       </c>
-      <c r="E104" t="s">
+      <c r="G104" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="F104" t="s">
-        <v>188</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="H104">
         <f t="shared" si="13"/>
@@ -6518,25 +6518,25 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>50</v>
+      </c>
+      <c r="B105" t="s">
         <v>51</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>52</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>53</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>54</v>
       </c>
-      <c r="E105" t="s">
-        <v>55</v>
-      </c>
       <c r="F105" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="H105">
         <f t="shared" si="13"/>
@@ -6553,25 +6553,25 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>228</v>
+      </c>
+      <c r="B106" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" t="s">
+        <v>230</v>
+      </c>
+      <c r="D106" t="s">
         <v>231</v>
       </c>
-      <c r="B106" t="s">
+      <c r="E106" t="s">
         <v>232</v>
       </c>
-      <c r="C106" t="s">
-        <v>233</v>
-      </c>
-      <c r="D106" t="s">
-        <v>234</v>
-      </c>
-      <c r="E106" t="s">
-        <v>235</v>
-      </c>
       <c r="F106" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H106">
         <f t="shared" si="13"/>
@@ -6588,25 +6588,25 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>176</v>
+      </c>
+      <c r="B107" t="s">
+        <v>177</v>
+      </c>
+      <c r="C107" t="s">
         <v>178</v>
       </c>
-      <c r="B107" t="s">
+      <c r="D107" t="s">
         <v>179</v>
       </c>
-      <c r="C107" t="s">
+      <c r="E107" t="s">
         <v>180</v>
       </c>
-      <c r="D107" t="s">
-        <v>181</v>
-      </c>
-      <c r="E107" t="s">
-        <v>182</v>
-      </c>
       <c r="F107" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H107">
         <f t="shared" si="13"/>
@@ -6623,22 +6623,22 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>624</v>
+      </c>
+      <c r="B108" t="s">
+        <v>625</v>
+      </c>
+      <c r="C108" t="s">
+        <v>626</v>
+      </c>
+      <c r="D108" t="s">
         <v>627</v>
       </c>
-      <c r="B108" t="s">
+      <c r="E108" t="s">
         <v>628</v>
       </c>
-      <c r="C108" t="s">
-        <v>629</v>
-      </c>
-      <c r="D108" t="s">
-        <v>630</v>
-      </c>
-      <c r="E108" t="s">
-        <v>631</v>
-      </c>
       <c r="F108" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H108">
         <f t="shared" si="13"/>
@@ -6655,22 +6655,22 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>534</v>
+      </c>
+      <c r="B109" t="s">
+        <v>472</v>
+      </c>
+      <c r="C109" t="s">
+        <v>535</v>
+      </c>
+      <c r="D109" t="s">
+        <v>536</v>
+      </c>
+      <c r="E109" t="s">
         <v>537</v>
       </c>
-      <c r="B109" t="s">
-        <v>475</v>
-      </c>
-      <c r="C109" t="s">
-        <v>538</v>
-      </c>
-      <c r="D109" t="s">
-        <v>539</v>
-      </c>
-      <c r="E109" t="s">
-        <v>540</v>
-      </c>
       <c r="F109" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H109">
         <f t="shared" si="13"/>
@@ -6687,22 +6687,22 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>629</v>
+      </c>
+      <c r="B110" t="s">
+        <v>630</v>
+      </c>
+      <c r="C110" t="s">
+        <v>631</v>
+      </c>
+      <c r="D110" t="s">
         <v>632</v>
       </c>
-      <c r="B110" t="s">
+      <c r="E110" t="s">
         <v>633</v>
       </c>
-      <c r="C110" t="s">
+      <c r="F110" t="s">
         <v>634</v>
-      </c>
-      <c r="D110" t="s">
-        <v>635</v>
-      </c>
-      <c r="E110" t="s">
-        <v>636</v>
-      </c>
-      <c r="F110" t="s">
-        <v>637</v>
       </c>
       <c r="H110">
         <f t="shared" si="13"/>
@@ -6719,25 +6719,25 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>402</v>
+      </c>
+      <c r="B111" t="s">
+        <v>403</v>
+      </c>
+      <c r="C111" t="s">
+        <v>404</v>
+      </c>
+      <c r="D111" t="s">
         <v>405</v>
       </c>
-      <c r="B111" t="s">
-        <v>406</v>
-      </c>
-      <c r="C111" t="s">
-        <v>407</v>
-      </c>
-      <c r="D111" t="s">
-        <v>408</v>
-      </c>
       <c r="E111" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F111" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H111">
         <f t="shared" si="13"/>
@@ -6754,22 +6754,22 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B112" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C112" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D112" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E112" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F112" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H112">
         <f t="shared" si="13"/>
@@ -6786,22 +6786,22 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>574</v>
+      </c>
+      <c r="B113" t="s">
+        <v>575</v>
+      </c>
+      <c r="C113" t="s">
+        <v>576</v>
+      </c>
+      <c r="D113" t="s">
         <v>577</v>
       </c>
-      <c r="B113" t="s">
+      <c r="E113" t="s">
         <v>578</v>
       </c>
-      <c r="C113" t="s">
-        <v>579</v>
-      </c>
-      <c r="D113" t="s">
-        <v>580</v>
-      </c>
-      <c r="E113" t="s">
-        <v>581</v>
-      </c>
       <c r="F113" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H113">
         <f t="shared" si="13"/>
@@ -6818,22 +6818,22 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>579</v>
+      </c>
+      <c r="B114" t="s">
+        <v>580</v>
+      </c>
+      <c r="C114" t="s">
+        <v>581</v>
+      </c>
+      <c r="D114" t="s">
         <v>582</v>
       </c>
-      <c r="B114" t="s">
-        <v>583</v>
-      </c>
-      <c r="C114" t="s">
-        <v>584</v>
-      </c>
-      <c r="D114" t="s">
-        <v>585</v>
-      </c>
       <c r="E114" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F114" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H114">
         <f t="shared" si="13"/>
@@ -6850,22 +6850,22 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>272</v>
+      </c>
+      <c r="B115" t="s">
+        <v>273</v>
+      </c>
+      <c r="C115" t="s">
+        <v>274</v>
+      </c>
+      <c r="D115" t="s">
         <v>275</v>
       </c>
-      <c r="B115" t="s">
+      <c r="E115" t="s">
         <v>276</v>
       </c>
-      <c r="C115" t="s">
-        <v>277</v>
-      </c>
-      <c r="D115" t="s">
-        <v>278</v>
-      </c>
-      <c r="E115" t="s">
-        <v>279</v>
-      </c>
       <c r="F115" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>8</v>
@@ -6885,22 +6885,22 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" t="s">
+        <v>239</v>
+      </c>
+      <c r="C116" t="s">
+        <v>240</v>
+      </c>
+      <c r="D116" t="s">
         <v>241</v>
       </c>
-      <c r="B116" t="s">
+      <c r="E116" t="s">
         <v>242</v>
       </c>
-      <c r="C116" t="s">
-        <v>243</v>
-      </c>
-      <c r="D116" t="s">
-        <v>244</v>
-      </c>
-      <c r="E116" t="s">
-        <v>245</v>
-      </c>
       <c r="F116" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>8</v>
@@ -6920,25 +6920,25 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>308</v>
+      </c>
+      <c r="B117" t="s">
+        <v>309</v>
+      </c>
+      <c r="C117" t="s">
+        <v>310</v>
+      </c>
+      <c r="D117" t="s">
         <v>311</v>
       </c>
-      <c r="B117" t="s">
-        <v>312</v>
-      </c>
-      <c r="C117" t="s">
-        <v>313</v>
-      </c>
-      <c r="D117" t="s">
-        <v>314</v>
-      </c>
       <c r="E117" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F117" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H117">
         <f t="shared" si="13"/>
@@ -6955,22 +6955,22 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>609</v>
+      </c>
+      <c r="B118" t="s">
+        <v>610</v>
+      </c>
+      <c r="C118" t="s">
+        <v>611</v>
+      </c>
+      <c r="D118" t="s">
         <v>612</v>
       </c>
-      <c r="B118" t="s">
+      <c r="E118" t="s">
         <v>613</v>
       </c>
-      <c r="C118" t="s">
-        <v>614</v>
-      </c>
-      <c r="D118" t="s">
-        <v>615</v>
-      </c>
-      <c r="E118" t="s">
-        <v>616</v>
-      </c>
       <c r="F118" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H118">
         <f t="shared" si="13"/>
@@ -6987,22 +6987,22 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>614</v>
+      </c>
+      <c r="B119" t="s">
+        <v>615</v>
+      </c>
+      <c r="C119" t="s">
+        <v>616</v>
+      </c>
+      <c r="D119" t="s">
         <v>617</v>
       </c>
-      <c r="B119" t="s">
+      <c r="E119" t="s">
         <v>618</v>
       </c>
-      <c r="C119" t="s">
-        <v>619</v>
-      </c>
-      <c r="D119" t="s">
-        <v>620</v>
-      </c>
-      <c r="E119" t="s">
-        <v>621</v>
-      </c>
       <c r="F119" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H119">
         <f t="shared" si="13"/>
@@ -7019,25 +7019,25 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B120" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C120" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D120" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E120" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F120" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H120">
         <f t="shared" si="13"/>
@@ -7054,25 +7054,25 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B121" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C121" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D121" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E121" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F121" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H121">
         <f t="shared" si="13"/>
@@ -7089,25 +7089,25 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>263</v>
+      </c>
+      <c r="B122" t="s">
+        <v>264</v>
+      </c>
+      <c r="C122" t="s">
+        <v>265</v>
+      </c>
+      <c r="D122" t="s">
+        <v>245</v>
+      </c>
+      <c r="E122" t="s">
         <v>266</v>
       </c>
-      <c r="B122" t="s">
-        <v>267</v>
-      </c>
-      <c r="C122" t="s">
-        <v>268</v>
-      </c>
-      <c r="D122" t="s">
-        <v>248</v>
-      </c>
-      <c r="E122" t="s">
-        <v>269</v>
-      </c>
       <c r="F122" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H122">
         <f t="shared" si="13"/>
@@ -7124,25 +7124,25 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B123" t="s">
+        <v>243</v>
+      </c>
+      <c r="C123" t="s">
+        <v>244</v>
+      </c>
+      <c r="D123" t="s">
+        <v>245</v>
+      </c>
+      <c r="E123" t="s">
         <v>246</v>
       </c>
-      <c r="C123" t="s">
-        <v>247</v>
-      </c>
-      <c r="D123" t="s">
-        <v>248</v>
-      </c>
-      <c r="E123" t="s">
-        <v>249</v>
-      </c>
       <c r="F123" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H123">
         <f t="shared" si="13"/>
@@ -7159,22 +7159,22 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>619</v>
+      </c>
+      <c r="B124" t="s">
+        <v>620</v>
+      </c>
+      <c r="C124" t="s">
+        <v>621</v>
+      </c>
+      <c r="D124" t="s">
         <v>622</v>
       </c>
-      <c r="B124" t="s">
+      <c r="E124" t="s">
         <v>623</v>
       </c>
-      <c r="C124" t="s">
-        <v>624</v>
-      </c>
-      <c r="D124" t="s">
-        <v>625</v>
-      </c>
-      <c r="E124" t="s">
-        <v>626</v>
-      </c>
       <c r="F124" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H124">
         <f t="shared" si="13"/>
@@ -7191,25 +7191,25 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B125" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C125" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D125" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E125" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F125" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H125">
         <f t="shared" si="13"/>
@@ -7226,25 +7226,25 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>300</v>
+      </c>
+      <c r="B126" t="s">
+        <v>301</v>
+      </c>
+      <c r="C126" t="s">
+        <v>302</v>
+      </c>
+      <c r="D126" t="s">
         <v>303</v>
       </c>
-      <c r="B126" t="s">
-        <v>304</v>
-      </c>
-      <c r="C126" t="s">
-        <v>305</v>
-      </c>
-      <c r="D126" t="s">
-        <v>306</v>
-      </c>
       <c r="E126" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F126" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H126">
         <f t="shared" si="13"/>
@@ -7261,22 +7261,22 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>218</v>
+      </c>
+      <c r="B127" t="s">
+        <v>219</v>
+      </c>
+      <c r="C127" t="s">
+        <v>220</v>
+      </c>
+      <c r="D127" t="s">
         <v>221</v>
       </c>
-      <c r="B127" t="s">
+      <c r="E127" t="s">
         <v>222</v>
       </c>
-      <c r="C127" t="s">
-        <v>223</v>
-      </c>
-      <c r="D127" t="s">
-        <v>224</v>
-      </c>
-      <c r="E127" t="s">
-        <v>225</v>
-      </c>
       <c r="F127" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>8</v>
@@ -7296,25 +7296,25 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>146</v>
+      </c>
+      <c r="B128" t="s">
+        <v>147</v>
+      </c>
+      <c r="C128" t="s">
         <v>148</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D128" t="s">
         <v>149</v>
       </c>
-      <c r="C128" t="s">
+      <c r="E128" t="s">
         <v>150</v>
       </c>
-      <c r="D128" t="s">
-        <v>151</v>
-      </c>
-      <c r="E128" t="s">
-        <v>152</v>
-      </c>
       <c r="F128" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H128">
         <f t="shared" si="13"/>
@@ -7331,25 +7331,25 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>70</v>
+      </c>
+      <c r="B129" t="s">
         <v>71</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>72</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>73</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>74</v>
       </c>
-      <c r="E129" t="s">
-        <v>75</v>
-      </c>
       <c r="F129" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H129">
         <f t="shared" si="13"/>
@@ -7366,25 +7366,25 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>438</v>
+      </c>
+      <c r="B130" t="s">
+        <v>439</v>
+      </c>
+      <c r="C130" t="s">
+        <v>440</v>
+      </c>
+      <c r="D130" t="s">
         <v>441</v>
       </c>
-      <c r="B130" t="s">
+      <c r="E130" t="s">
         <v>442</v>
       </c>
-      <c r="C130" t="s">
+      <c r="F130" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D130" t="s">
-        <v>444</v>
-      </c>
-      <c r="E130" t="s">
-        <v>445</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="G130" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H130">
         <f t="shared" si="13"/>
@@ -7401,25 +7401,25 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B131" t="s">
+        <v>444</v>
+      </c>
+      <c r="C131" t="s">
+        <v>445</v>
+      </c>
+      <c r="D131" t="s">
+        <v>446</v>
+      </c>
+      <c r="E131" t="s">
         <v>447</v>
       </c>
-      <c r="C131" t="s">
+      <c r="F131" t="s">
         <v>448</v>
       </c>
-      <c r="D131" t="s">
-        <v>449</v>
-      </c>
-      <c r="E131" t="s">
-        <v>450</v>
-      </c>
-      <c r="F131" t="s">
-        <v>451</v>
-      </c>
       <c r="G131" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H131">
         <f t="shared" si="13"/>
@@ -7436,25 +7436,25 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>449</v>
+      </c>
+      <c r="B132" t="s">
+        <v>450</v>
+      </c>
+      <c r="C132" t="s">
+        <v>451</v>
+      </c>
+      <c r="D132" t="s">
         <v>452</v>
       </c>
-      <c r="B132" t="s">
+      <c r="E132" t="s">
         <v>453</v>
       </c>
-      <c r="C132" t="s">
-        <v>454</v>
-      </c>
-      <c r="D132" t="s">
-        <v>455</v>
-      </c>
-      <c r="E132" t="s">
-        <v>456</v>
-      </c>
       <c r="F132" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H132">
         <f t="shared" si="13"/>
@@ -7471,25 +7471,25 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>454</v>
+      </c>
+      <c r="B133" t="s">
+        <v>455</v>
+      </c>
+      <c r="C133" t="s">
+        <v>456</v>
+      </c>
+      <c r="D133" t="s">
         <v>457</v>
       </c>
-      <c r="B133" t="s">
+      <c r="E133" t="s">
         <v>458</v>
       </c>
-      <c r="C133" t="s">
+      <c r="F133" t="s">
+        <v>443</v>
+      </c>
+      <c r="G133" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="D133" t="s">
-        <v>460</v>
-      </c>
-      <c r="E133" t="s">
-        <v>461</v>
-      </c>
-      <c r="F133" t="s">
-        <v>446</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="H133">
         <f t="shared" si="13"/>
@@ -7506,22 +7506,22 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B134" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C134" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D134" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E134" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F134" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H134">
         <f t="shared" si="13"/>
@@ -7538,22 +7538,22 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B135" t="s">
+        <v>640</v>
+      </c>
+      <c r="C135" t="s">
+        <v>641</v>
+      </c>
+      <c r="D135" t="s">
+        <v>642</v>
+      </c>
+      <c r="E135" t="s">
         <v>643</v>
       </c>
-      <c r="C135" t="s">
-        <v>644</v>
-      </c>
-      <c r="D135" t="s">
-        <v>645</v>
-      </c>
-      <c r="E135" t="s">
-        <v>646</v>
-      </c>
       <c r="F135" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H135">
         <f t="shared" si="13"/>

--- a/code/shabdakala/resource/work/sbwords.xlsx
+++ b/code/shabdakala/resource/work/sbwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/github/shabdakala/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FB145A-9BAA-C64C-85BA-EDF72D9798A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CC53C5-8045-6E45-B7C7-D2898CCAEA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="673">
   <si>
     <t>word0</t>
   </si>
@@ -134,9 +134,6 @@
     <t>ममता</t>
   </si>
   <si>
-    <t xml:space="preserve">पांढरी वस्त्रे परिधान करणारे लोक </t>
-  </si>
-  <si>
     <t xml:space="preserve"> सफरचंद</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>गुलजार</t>
   </si>
   <si>
-    <t>अब्बास-मस्तान</t>
-  </si>
-  <si>
     <t>town</t>
   </si>
   <si>
@@ -1469,9 +1463,6 @@
     <t>कळी</t>
   </si>
   <si>
-    <t>वनस्पतीं वर येणार्‍या नव्या गोष्टी</t>
-  </si>
-  <si>
     <t>नाणी</t>
   </si>
   <si>
@@ -1955,18 +1946,12 @@
     <t>पानावर सापडणाऱ्या गोष्टी</t>
   </si>
   <si>
-    <t>विष</t>
-  </si>
-  <si>
     <t>खवले</t>
   </si>
   <si>
     <t>काटेरी जीभ</t>
   </si>
   <si>
-    <t>सापाच्या शरीराचे भाग</t>
-  </si>
-  <si>
     <t>वर्तुळाकार</t>
   </si>
   <si>
@@ -2022,6 +2007,51 @@
   </si>
   <si>
     <t>गवळी</t>
+  </si>
+  <si>
+    <t>फणा</t>
+  </si>
+  <si>
+    <t>पंचमी</t>
+  </si>
+  <si>
+    <t>पुंगी</t>
+  </si>
+  <si>
+    <t>गारुडी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'नाग' या विषयाचा शब्दबंध </t>
+  </si>
+  <si>
+    <t>वासुकी</t>
+  </si>
+  <si>
+    <t>तक्षक</t>
+  </si>
+  <si>
+    <t>कालिया</t>
+  </si>
+  <si>
+    <t>कर्कोटक</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पुराणातील काही नागांची नावे </t>
+  </si>
+  <si>
+    <t xml:space="preserve">वनस्पतींच्या जीवनातील आनंददायक घटना </t>
+  </si>
+  <si>
+    <t xml:space="preserve">नेहेमी पांढरी वस्त्रे परिधान करणारे लोक </t>
+  </si>
+  <si>
+    <t>बडीशेप</t>
+  </si>
+  <si>
+    <t>शिडी</t>
+  </si>
+  <si>
+    <t>'साप' या विषयाचा शब्दबंध</t>
   </si>
 </sst>
 </file>
@@ -2946,10 +2976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
-  <dimension ref="A1:L135"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2990,13 +3020,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>346</v>
       </c>
       <c r="L1" s="4">
         <v>45625</v>
@@ -3004,25 +3034,25 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>102</v>
       </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" t="s">
-        <v>104</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H2">
         <f>INT(J2/3)</f>
@@ -3037,30 +3067,30 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45640</v>
+        <v>45642</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
       <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="1">INT(J3/3)</f>
@@ -3078,25 +3108,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
         <v>135</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>136</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>137</v>
       </c>
-      <c r="D4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" t="s">
-        <v>139</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
@@ -3114,25 +3144,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" t="s">
         <v>258</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>259</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>260</v>
       </c>
-      <c r="D5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E5" t="s">
-        <v>262</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -3150,25 +3180,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
         <v>75</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>76</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" t="s">
-        <v>79</v>
-      </c>
       <c r="F6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -3186,25 +3216,25 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
         <v>114</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>115</v>
       </c>
-      <c r="D7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" t="s">
-        <v>117</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -3222,25 +3252,25 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" t="s">
         <v>337</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>338</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>339</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>340</v>
       </c>
-      <c r="E8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F8" t="s">
-        <v>342</v>
-      </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -3257,25 +3287,25 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" t="s">
         <v>327</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>328</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>329</v>
       </c>
-      <c r="D9" t="s">
-        <v>330</v>
-      </c>
-      <c r="E9" t="s">
-        <v>331</v>
-      </c>
       <c r="F9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -3292,25 +3322,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" t="s">
         <v>332</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>333</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>334</v>
       </c>
-      <c r="D10" t="s">
-        <v>335</v>
-      </c>
-      <c r="E10" t="s">
-        <v>336</v>
-      </c>
       <c r="F10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -3327,25 +3357,25 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -3362,25 +3392,25 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D12" t="s">
         <v>351</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>352</v>
       </c>
-      <c r="C12" t="s">
-        <v>359</v>
-      </c>
-      <c r="D12" t="s">
-        <v>353</v>
-      </c>
-      <c r="E12" t="s">
-        <v>354</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H12">
         <f t="shared" ref="H12:H21" si="5">INT(J12/3)</f>
@@ -3391,31 +3421,31 @@
         <v>45628</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J91" si="6">J11+1</f>
+        <f t="shared" ref="J12:J93" si="6">J11+1</f>
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D13" t="s">
         <v>355</v>
       </c>
-      <c r="B13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" t="s">
-        <v>356</v>
-      </c>
-      <c r="D13" t="s">
-        <v>357</v>
-      </c>
       <c r="E13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H13">
         <f t="shared" si="5"/>
@@ -3432,25 +3462,25 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
         <v>130</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>131</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>132</v>
       </c>
-      <c r="D14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" t="s">
-        <v>134</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H14">
         <f t="shared" si="5"/>
@@ -3467,25 +3497,25 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
         <v>90</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>91</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>92</v>
       </c>
-      <c r="D15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" t="s">
-        <v>94</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H15">
         <f t="shared" si="5"/>
@@ -3502,25 +3532,25 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
       <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="H16">
         <f t="shared" si="5"/>
@@ -3546,16 +3576,16 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H17">
         <f t="shared" si="5"/>
@@ -3572,25 +3602,25 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" t="s">
         <v>118</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>119</v>
       </c>
-      <c r="D18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" t="s">
-        <v>121</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H18">
         <f t="shared" si="5"/>
@@ -3622,7 +3652,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>8</v>
@@ -3642,25 +3672,25 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" t="s">
         <v>156</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>157</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>158</v>
       </c>
-      <c r="D20" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20" t="s">
-        <v>160</v>
-      </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
@@ -3677,25 +3707,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>359</v>
+      </c>
+      <c r="C21" t="s">
         <v>100</v>
       </c>
-      <c r="B21" t="s">
-        <v>361</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" t="s">
         <v>102</v>
       </c>
-      <c r="D21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" t="s">
-        <v>104</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H21">
         <f t="shared" si="5"/>
@@ -3712,25 +3742,25 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" t="s">
         <v>135</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>136</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>137</v>
       </c>
-      <c r="D22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" t="s">
-        <v>139</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H22">
         <f t="shared" ref="H22" si="7">INT(J22/3)</f>
@@ -3756,13 +3786,13 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
         <v>41</v>
       </c>
-      <c r="E23" t="s">
-        <v>42</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
@@ -3791,16 +3821,16 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
         <v>35</v>
       </c>
-      <c r="E24" t="s">
-        <v>36</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H24">
         <f t="shared" si="9"/>
@@ -3817,25 +3847,25 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>368</v>
+      </c>
+      <c r="B25" t="s">
+        <v>369</v>
+      </c>
+      <c r="C25" t="s">
         <v>370</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>371</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>372</v>
       </c>
-      <c r="D25" t="s">
-        <v>373</v>
-      </c>
-      <c r="E25" t="s">
-        <v>374</v>
-      </c>
       <c r="F25" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H25">
         <f t="shared" si="9"/>
@@ -3852,25 +3882,25 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>126</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>127</v>
       </c>
-      <c r="D26" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" t="s">
-        <v>129</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H26">
         <f t="shared" si="9"/>
@@ -3887,22 +3917,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" t="s">
         <v>253</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>254</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>255</v>
       </c>
-      <c r="D27" t="s">
-        <v>256</v>
-      </c>
-      <c r="E27" t="s">
-        <v>257</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>8</v>
@@ -3922,32 +3952,32 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>411</v>
+      </c>
+      <c r="B28" t="s">
+        <v>412</v>
+      </c>
+      <c r="C28" t="s">
         <v>413</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>414</v>
       </c>
-      <c r="C28" t="s">
-        <v>415</v>
-      </c>
-      <c r="D28" t="s">
-        <v>416</v>
-      </c>
       <c r="E28" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F28" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H28">
-        <f t="shared" ref="H28:H91" si="11">INT(J28/3)</f>
+        <f t="shared" ref="H28:H52" si="11">INT(J28/3)</f>
         <v>8</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" ref="I28:I91" si="12">$L$1+H28</f>
+        <f t="shared" ref="I28:I52" si="12">$L$1+H28</f>
         <v>45633</v>
       </c>
       <c r="J28">
@@ -3957,25 +3987,25 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
         <v>95</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>96</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>97</v>
       </c>
-      <c r="D29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" t="s">
-        <v>99</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H29">
         <f t="shared" si="11"/>
@@ -3992,25 +4022,25 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s">
         <v>105</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>106</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>107</v>
       </c>
-      <c r="D30" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" t="s">
-        <v>109</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H30">
         <f t="shared" si="11"/>
@@ -4027,22 +4057,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" t="s">
         <v>267</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>268</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>269</v>
       </c>
-      <c r="D31" t="s">
-        <v>270</v>
-      </c>
-      <c r="E31" t="s">
-        <v>271</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>8</v>
@@ -4062,22 +4092,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>519</v>
+      </c>
+      <c r="B32" t="s">
+        <v>520</v>
+      </c>
+      <c r="C32" t="s">
+        <v>521</v>
+      </c>
+      <c r="D32" t="s">
         <v>522</v>
       </c>
-      <c r="B32" t="s">
+      <c r="E32" t="s">
         <v>523</v>
       </c>
-      <c r="C32" t="s">
-        <v>524</v>
-      </c>
-      <c r="D32" t="s">
-        <v>525</v>
-      </c>
-      <c r="E32" t="s">
-        <v>526</v>
-      </c>
       <c r="F32" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H32">
         <f t="shared" si="11"/>
@@ -4094,22 +4124,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B33" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C33" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E33" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F33" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H33">
         <f t="shared" si="11"/>
@@ -4126,22 +4156,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B34" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C34" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F34" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H34">
         <f t="shared" si="11"/>
@@ -4158,25 +4188,25 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
         <v>62</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>63</v>
       </c>
-      <c r="C35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" t="s">
-        <v>65</v>
-      </c>
       <c r="E35" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H35">
         <f t="shared" si="11"/>
@@ -4202,13 +4232,13 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>8</v>
@@ -4228,25 +4258,25 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
         <v>110</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>111</v>
       </c>
-      <c r="C37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" t="s">
-        <v>113</v>
-      </c>
       <c r="E37" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H37">
         <f t="shared" si="11"/>
@@ -4263,22 +4293,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B38" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C38" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D38" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E38" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F38" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H38">
         <f t="shared" si="11"/>
@@ -4295,22 +4325,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B39" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E39" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="F39" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H39">
         <f t="shared" si="11"/>
@@ -4327,25 +4357,25 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" t="s">
         <v>205</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>206</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>207</v>
       </c>
-      <c r="D40" t="s">
-        <v>208</v>
-      </c>
-      <c r="E40" t="s">
-        <v>209</v>
-      </c>
       <c r="F40" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H40">
         <f t="shared" si="11"/>
@@ -4362,25 +4392,25 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
         <v>80</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>81</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>82</v>
       </c>
-      <c r="D41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" t="s">
-        <v>84</v>
-      </c>
       <c r="F41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="H41">
         <f t="shared" si="11"/>
@@ -4397,22 +4427,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>589</v>
+      </c>
+      <c r="B42" t="s">
+        <v>590</v>
+      </c>
+      <c r="C42" t="s">
+        <v>651</v>
+      </c>
+      <c r="D42" t="s">
+        <v>591</v>
+      </c>
+      <c r="E42" t="s">
         <v>592</v>
       </c>
-      <c r="B42" t="s">
-        <v>593</v>
-      </c>
-      <c r="C42" t="s">
-        <v>656</v>
-      </c>
-      <c r="D42" t="s">
-        <v>594</v>
-      </c>
-      <c r="E42" t="s">
-        <v>595</v>
-      </c>
       <c r="F42" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H42">
         <f t="shared" si="11"/>
@@ -4429,22 +4459,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>601</v>
+      </c>
+      <c r="B43" t="s">
+        <v>602</v>
+      </c>
+      <c r="C43" t="s">
+        <v>603</v>
+      </c>
+      <c r="D43" t="s">
         <v>604</v>
       </c>
-      <c r="B43" t="s">
+      <c r="E43" t="s">
         <v>605</v>
       </c>
-      <c r="C43" t="s">
-        <v>606</v>
-      </c>
-      <c r="D43" t="s">
-        <v>607</v>
-      </c>
-      <c r="E43" t="s">
-        <v>608</v>
-      </c>
       <c r="F43" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H43">
         <f t="shared" si="11"/>
@@ -4461,25 +4491,25 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B44" t="s">
+        <v>378</v>
+      </c>
+      <c r="C44" t="s">
+        <v>379</v>
+      </c>
+      <c r="D44" t="s">
+        <v>424</v>
+      </c>
+      <c r="E44" t="s">
         <v>380</v>
       </c>
-      <c r="C44" t="s">
-        <v>381</v>
-      </c>
-      <c r="D44" t="s">
-        <v>426</v>
-      </c>
-      <c r="E44" t="s">
-        <v>382</v>
-      </c>
       <c r="F44" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H44">
         <f t="shared" si="11"/>
@@ -4496,25 +4526,25 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" t="s">
         <v>195</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>196</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>197</v>
       </c>
-      <c r="D45" t="s">
-        <v>198</v>
-      </c>
-      <c r="E45" t="s">
-        <v>199</v>
-      </c>
       <c r="F45" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H45">
         <f t="shared" si="11"/>
@@ -4531,22 +4561,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>535</v>
+      </c>
+      <c r="B46" t="s">
+        <v>536</v>
+      </c>
+      <c r="C46" t="s">
+        <v>537</v>
+      </c>
+      <c r="D46" t="s">
+        <v>654</v>
+      </c>
+      <c r="E46" t="s">
         <v>538</v>
       </c>
-      <c r="B46" t="s">
-        <v>539</v>
-      </c>
-      <c r="C46" t="s">
-        <v>540</v>
-      </c>
-      <c r="D46" t="s">
-        <v>659</v>
-      </c>
-      <c r="E46" t="s">
-        <v>541</v>
-      </c>
       <c r="F46" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H46">
         <f t="shared" si="11"/>
@@ -4563,22 +4593,22 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B47" t="s">
+        <v>539</v>
+      </c>
+      <c r="C47" t="s">
+        <v>540</v>
+      </c>
+      <c r="D47" t="s">
+        <v>541</v>
+      </c>
+      <c r="E47" t="s">
         <v>542</v>
       </c>
-      <c r="C47" t="s">
-        <v>543</v>
-      </c>
-      <c r="D47" t="s">
-        <v>544</v>
-      </c>
-      <c r="E47" t="s">
-        <v>545</v>
-      </c>
       <c r="F47" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H47">
         <f t="shared" si="11"/>
@@ -4595,22 +4625,22 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>543</v>
+      </c>
+      <c r="B48" t="s">
+        <v>544</v>
+      </c>
+      <c r="C48" t="s">
+        <v>545</v>
+      </c>
+      <c r="D48" t="s">
         <v>546</v>
       </c>
-      <c r="B48" t="s">
+      <c r="E48" t="s">
         <v>547</v>
       </c>
-      <c r="C48" t="s">
-        <v>548</v>
-      </c>
-      <c r="D48" t="s">
-        <v>549</v>
-      </c>
-      <c r="E48" t="s">
-        <v>550</v>
-      </c>
       <c r="F48" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H48">
         <f t="shared" si="11"/>
@@ -4627,25 +4657,25 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" t="s">
         <v>190</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>191</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>192</v>
       </c>
-      <c r="D49" t="s">
-        <v>193</v>
-      </c>
-      <c r="E49" t="s">
-        <v>194</v>
-      </c>
       <c r="F49" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H49">
         <f t="shared" si="11"/>
@@ -4662,25 +4692,25 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>415</v>
+      </c>
+      <c r="B50" t="s">
+        <v>416</v>
+      </c>
+      <c r="C50" t="s">
         <v>417</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
+        <v>375</v>
+      </c>
+      <c r="E50" t="s">
         <v>418</v>
       </c>
-      <c r="C50" t="s">
-        <v>419</v>
-      </c>
-      <c r="D50" t="s">
-        <v>377</v>
-      </c>
-      <c r="E50" t="s">
-        <v>420</v>
-      </c>
       <c r="F50" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H50">
         <f t="shared" si="11"/>
@@ -4700,22 +4730,22 @@
         <v>42.195</v>
       </c>
       <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" t="s">
+        <v>655</v>
+      </c>
+      <c r="D51" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" t="s">
         <v>122</v>
       </c>
-      <c r="C51" t="s">
-        <v>660</v>
-      </c>
-      <c r="D51" t="s">
-        <v>123</v>
-      </c>
-      <c r="E51" t="s">
-        <v>124</v>
-      </c>
       <c r="F51" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H51">
         <f t="shared" si="11"/>
@@ -4732,22 +4762,22 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" t="s">
         <v>37</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>38</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>39</v>
       </c>
-      <c r="E52" t="s">
-        <v>40</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>8</v>
@@ -4767,32 +4797,32 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" t="s">
         <v>166</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
         <v>167</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>168</v>
       </c>
-      <c r="D53" t="s">
-        <v>169</v>
-      </c>
-      <c r="E53" t="s">
-        <v>170</v>
-      </c>
       <c r="F53" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H53">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H53:H66" si="13">INT(J53/3)</f>
         <v>17</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="I53:I66" si="14">$L$1+H53</f>
         <v>45642</v>
       </c>
       <c r="J53">
@@ -4802,32 +4832,32 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>212</v>
+      </c>
+      <c r="B54" t="s">
+        <v>657</v>
+      </c>
+      <c r="C54" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" t="s">
         <v>214</v>
       </c>
-      <c r="B54" t="s">
-        <v>662</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>215</v>
       </c>
-      <c r="D54" t="s">
-        <v>216</v>
-      </c>
-      <c r="E54" t="s">
-        <v>217</v>
-      </c>
       <c r="F54" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45642</v>
       </c>
       <c r="J54">
@@ -4837,32 +4867,32 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>381</v>
+      </c>
+      <c r="B55" t="s">
+        <v>382</v>
+      </c>
+      <c r="C55" t="s">
         <v>383</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" t="s">
         <v>384</v>
       </c>
-      <c r="C55" t="s">
-        <v>385</v>
-      </c>
-      <c r="D55" t="s">
-        <v>386</v>
-      </c>
       <c r="E55" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F55" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45642</v>
       </c>
       <c r="J55">
@@ -4875,29 +4905,26 @@
         <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>234</v>
+        <v>671</v>
       </c>
       <c r="C56" t="s">
-        <v>235</v>
+        <v>637</v>
       </c>
       <c r="D56" t="s">
-        <v>236</v>
+        <v>638</v>
       </c>
       <c r="E56" t="s">
-        <v>237</v>
+        <v>672</v>
       </c>
       <c r="F56" t="s">
-        <v>252</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>141</v>
+        <v>631</v>
       </c>
       <c r="H56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="I56" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45643</v>
       </c>
       <c r="J56">
@@ -4907,32 +4934,32 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>231</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>232</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>670</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>234</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>343</v>
+        <v>235</v>
+      </c>
+      <c r="F57" t="s">
+        <v>250</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="H57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45643</v>
       </c>
       <c r="J57">
@@ -4942,29 +4969,29 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>474</v>
+        <v>663</v>
       </c>
       <c r="B58" t="s">
-        <v>475</v>
+        <v>664</v>
       </c>
       <c r="C58" t="s">
-        <v>476</v>
+        <v>665</v>
       </c>
       <c r="D58" t="s">
-        <v>477</v>
+        <v>666</v>
       </c>
       <c r="E58" t="s">
-        <v>478</v>
+        <v>667</v>
       </c>
       <c r="F58" t="s">
-        <v>634</v>
+        <v>446</v>
       </c>
       <c r="H58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45643</v>
       </c>
       <c r="J58">
@@ -4974,29 +5001,30 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>479</v>
+        <v>661</v>
       </c>
       <c r="B59" t="s">
-        <v>480</v>
+        <v>658</v>
       </c>
       <c r="C59" t="s">
-        <v>481</v>
+        <v>659</v>
       </c>
       <c r="D59" t="s">
-        <v>482</v>
+        <v>660</v>
       </c>
       <c r="E59" t="s">
-        <v>483</v>
-      </c>
-      <c r="F59" t="s">
-        <v>634</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G59" s="1"/>
       <c r="H59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="I59" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45644</v>
       </c>
       <c r="J59">
@@ -5006,29 +5034,29 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B60" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="C60" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D60" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="E60" t="s">
-        <v>488</v>
+        <v>668</v>
       </c>
       <c r="F60" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45644</v>
       </c>
       <c r="J60">
@@ -5038,32 +5066,29 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>375</v>
+        <v>476</v>
       </c>
       <c r="B61" t="s">
-        <v>376</v>
+        <v>477</v>
       </c>
       <c r="C61" t="s">
-        <v>377</v>
+        <v>478</v>
       </c>
       <c r="D61" t="s">
-        <v>378</v>
+        <v>479</v>
       </c>
       <c r="E61" t="s">
-        <v>379</v>
+        <v>480</v>
       </c>
       <c r="F61" t="s">
-        <v>657</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>277</v>
+        <v>631</v>
       </c>
       <c r="H61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="I61" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45644</v>
       </c>
       <c r="J61">
@@ -5073,32 +5098,29 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>481</v>
       </c>
       <c r="B62" t="s">
-        <v>210</v>
+        <v>482</v>
       </c>
       <c r="C62" t="s">
-        <v>211</v>
+        <v>483</v>
       </c>
       <c r="D62" t="s">
-        <v>212</v>
+        <v>484</v>
       </c>
       <c r="E62" t="s">
-        <v>213</v>
+        <v>485</v>
       </c>
       <c r="F62" t="s">
-        <v>252</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>277</v>
+        <v>631</v>
       </c>
       <c r="H62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45645</v>
       </c>
       <c r="J62">
@@ -5108,32 +5130,32 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>312</v>
+        <v>373</v>
       </c>
       <c r="B63" t="s">
-        <v>313</v>
+        <v>374</v>
       </c>
       <c r="C63" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="D63" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
       <c r="E63" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="F63" t="s">
-        <v>321</v>
+        <v>652</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="H63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="I63" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45645</v>
       </c>
       <c r="J63">
@@ -5143,32 +5165,32 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="C64" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="D64" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="E64" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="F64" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="H64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="I64" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45645</v>
       </c>
       <c r="J64">
@@ -5178,32 +5200,32 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="B65" t="s">
-        <v>388</v>
+        <v>311</v>
       </c>
       <c r="C65" t="s">
-        <v>389</v>
+        <v>312</v>
       </c>
       <c r="D65" t="s">
-        <v>390</v>
+        <v>313</v>
       </c>
       <c r="E65" t="s">
-        <v>425</v>
+        <v>318</v>
       </c>
       <c r="F65" t="s">
-        <v>657</v>
+        <v>319</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>277</v>
+        <v>138</v>
       </c>
       <c r="H65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45646</v>
       </c>
       <c r="J65">
@@ -5213,32 +5235,32 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>408</v>
+        <v>149</v>
       </c>
       <c r="B66" t="s">
-        <v>409</v>
+        <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>410</v>
+        <v>151</v>
       </c>
       <c r="D66" t="s">
-        <v>411</v>
+        <v>152</v>
       </c>
       <c r="E66" t="s">
-        <v>412</v>
+        <v>153</v>
       </c>
       <c r="F66" t="s">
-        <v>657</v>
+        <v>184</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>435</v>
+        <v>186</v>
       </c>
       <c r="H66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45646</v>
       </c>
       <c r="J66">
@@ -5248,29 +5270,32 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>470</v>
+        <v>385</v>
       </c>
       <c r="B67" t="s">
-        <v>471</v>
+        <v>386</v>
       </c>
       <c r="C67" t="s">
-        <v>212</v>
+        <v>387</v>
       </c>
       <c r="D67" t="s">
-        <v>472</v>
+        <v>388</v>
       </c>
       <c r="E67" t="s">
-        <v>473</v>
+        <v>423</v>
       </c>
       <c r="F67" t="s">
-        <v>634</v>
+        <v>652</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="H67">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H55:H118" si="15">INT(J67/3)</f>
         <v>21</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="I55:I118" si="16">$L$1+H67</f>
         <v>45646</v>
       </c>
       <c r="J67">
@@ -5280,32 +5305,32 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>247</v>
+        <v>406</v>
       </c>
       <c r="B68" t="s">
-        <v>248</v>
+        <v>407</v>
       </c>
       <c r="C68" t="s">
-        <v>249</v>
+        <v>408</v>
       </c>
       <c r="D68" t="s">
-        <v>250</v>
+        <v>409</v>
       </c>
       <c r="E68" t="s">
-        <v>251</v>
+        <v>410</v>
       </c>
       <c r="F68" t="s">
-        <v>252</v>
+        <v>652</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>143</v>
+        <v>433</v>
       </c>
       <c r="H68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45647</v>
       </c>
       <c r="J68">
@@ -5315,29 +5340,29 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>215</v>
+        <v>468</v>
       </c>
       <c r="B69" t="s">
-        <v>596</v>
+        <v>469</v>
       </c>
       <c r="C69" t="s">
-        <v>597</v>
+        <v>210</v>
       </c>
       <c r="D69" t="s">
-        <v>598</v>
+        <v>470</v>
       </c>
       <c r="E69" t="s">
-        <v>635</v>
+        <v>471</v>
       </c>
       <c r="F69" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45647</v>
       </c>
       <c r="J69">
@@ -5347,29 +5372,32 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>599</v>
+        <v>245</v>
       </c>
       <c r="B70" t="s">
-        <v>600</v>
+        <v>246</v>
       </c>
       <c r="C70" t="s">
-        <v>601</v>
+        <v>247</v>
       </c>
       <c r="D70" t="s">
-        <v>602</v>
+        <v>248</v>
       </c>
       <c r="E70" t="s">
-        <v>603</v>
+        <v>249</v>
       </c>
       <c r="F70" t="s">
-        <v>634</v>
+        <v>250</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="H70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
       <c r="I70" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45647</v>
       </c>
       <c r="J70">
@@ -5379,32 +5407,29 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>421</v>
+        <v>213</v>
       </c>
       <c r="B71" t="s">
-        <v>422</v>
+        <v>593</v>
       </c>
       <c r="C71" t="s">
-        <v>423</v>
+        <v>594</v>
       </c>
       <c r="D71" t="s">
-        <v>424</v>
+        <v>595</v>
       </c>
       <c r="E71" t="s">
-        <v>431</v>
+        <v>632</v>
       </c>
       <c r="F71" t="s">
-        <v>657</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>277</v>
+        <v>631</v>
       </c>
       <c r="H71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="I71" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45648</v>
       </c>
       <c r="J71">
@@ -5414,32 +5439,29 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>280</v>
+        <v>596</v>
       </c>
       <c r="B72" t="s">
-        <v>281</v>
+        <v>597</v>
       </c>
       <c r="C72" t="s">
-        <v>282</v>
+        <v>598</v>
       </c>
       <c r="D72" t="s">
-        <v>283</v>
+        <v>599</v>
       </c>
       <c r="E72" t="s">
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="F72" t="s">
-        <v>321</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>140</v>
+        <v>631</v>
       </c>
       <c r="H72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="I72" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45648</v>
       </c>
       <c r="J72">
@@ -5449,32 +5471,32 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="B73" t="s">
-        <v>296</v>
+        <v>420</v>
       </c>
       <c r="C73" t="s">
-        <v>297</v>
+        <v>421</v>
       </c>
       <c r="D73" t="s">
-        <v>298</v>
+        <v>422</v>
       </c>
       <c r="E73" t="s">
-        <v>299</v>
+        <v>429</v>
       </c>
       <c r="F73" t="s">
-        <v>321</v>
+        <v>652</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>47</v>
+        <v>275</v>
       </c>
       <c r="H73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="I73" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45648</v>
       </c>
       <c r="J73">
@@ -5484,32 +5506,32 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B74" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C74" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D74" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="E74" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F74" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="I74" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45649</v>
       </c>
       <c r="J74">
@@ -5519,29 +5541,32 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>499</v>
+        <v>293</v>
       </c>
       <c r="B75" t="s">
-        <v>500</v>
+        <v>294</v>
       </c>
       <c r="C75" t="s">
-        <v>644</v>
+        <v>295</v>
       </c>
       <c r="D75" t="s">
-        <v>645</v>
+        <v>296</v>
       </c>
       <c r="E75" t="s">
-        <v>646</v>
+        <v>297</v>
       </c>
       <c r="F75" t="s">
-        <v>634</v>
+        <v>319</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="I75" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45649</v>
       </c>
       <c r="J75">
@@ -5551,29 +5576,32 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>501</v>
+        <v>289</v>
       </c>
       <c r="B76" t="s">
-        <v>502</v>
+        <v>290</v>
       </c>
       <c r="C76" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D76" t="s">
-        <v>647</v>
+        <v>292</v>
       </c>
       <c r="E76" t="s">
-        <v>503</v>
+        <v>318</v>
       </c>
       <c r="F76" t="s">
-        <v>634</v>
+        <v>319</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="I76" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45649</v>
       </c>
       <c r="J76">
@@ -5583,32 +5611,29 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>322</v>
+        <v>496</v>
       </c>
       <c r="B77" t="s">
-        <v>323</v>
+        <v>497</v>
       </c>
       <c r="C77" t="s">
-        <v>324</v>
+        <v>639</v>
       </c>
       <c r="D77" t="s">
-        <v>325</v>
+        <v>640</v>
       </c>
       <c r="E77" t="s">
-        <v>326</v>
+        <v>641</v>
       </c>
       <c r="F77" t="s">
-        <v>321</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>140</v>
+        <v>631</v>
       </c>
       <c r="H77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="I77" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45650</v>
       </c>
       <c r="J77">
@@ -5618,32 +5643,29 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>498</v>
       </c>
       <c r="B78" t="s">
-        <v>284</v>
+        <v>499</v>
       </c>
       <c r="C78" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="D78" t="s">
-        <v>286</v>
+        <v>642</v>
       </c>
       <c r="E78" t="s">
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="F78" t="s">
-        <v>321</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>140</v>
+        <v>631</v>
       </c>
       <c r="H78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="I78" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45650</v>
       </c>
       <c r="J78">
@@ -5653,29 +5675,32 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>460</v>
+        <v>320</v>
       </c>
       <c r="B79" t="s">
-        <v>461</v>
+        <v>321</v>
       </c>
       <c r="C79" t="s">
-        <v>462</v>
+        <v>322</v>
       </c>
       <c r="D79" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
       <c r="E79" t="s">
-        <v>464</v>
+        <v>324</v>
       </c>
       <c r="F79" t="s">
-        <v>634</v>
+        <v>319</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="I79" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45650</v>
       </c>
       <c r="J79">
@@ -5685,29 +5710,32 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>465</v>
+        <v>48</v>
       </c>
       <c r="B80" t="s">
-        <v>466</v>
+        <v>282</v>
       </c>
       <c r="C80" t="s">
-        <v>467</v>
+        <v>283</v>
       </c>
       <c r="D80" t="s">
-        <v>468</v>
+        <v>284</v>
       </c>
       <c r="E80" t="s">
-        <v>469</v>
+        <v>318</v>
       </c>
       <c r="F80" t="s">
-        <v>634</v>
+        <v>319</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
       <c r="I80" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45651</v>
       </c>
       <c r="J80">
@@ -5717,32 +5745,29 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>391</v>
+        <v>458</v>
       </c>
       <c r="B81" t="s">
-        <v>392</v>
+        <v>459</v>
       </c>
       <c r="C81" t="s">
-        <v>393</v>
+        <v>460</v>
       </c>
       <c r="D81" t="s">
-        <v>394</v>
+        <v>461</v>
       </c>
       <c r="E81" t="s">
-        <v>395</v>
+        <v>462</v>
       </c>
       <c r="F81" t="s">
-        <v>657</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>432</v>
+        <v>631</v>
       </c>
       <c r="H81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
       <c r="I81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45651</v>
       </c>
       <c r="J81">
@@ -5752,32 +5777,29 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>223</v>
+        <v>463</v>
       </c>
       <c r="B82" t="s">
-        <v>224</v>
+        <v>464</v>
       </c>
       <c r="C82" t="s">
-        <v>225</v>
+        <v>465</v>
       </c>
       <c r="D82" t="s">
-        <v>226</v>
+        <v>466</v>
       </c>
       <c r="E82" t="s">
-        <v>227</v>
+        <v>467</v>
       </c>
       <c r="F82" t="s">
-        <v>252</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>140</v>
+        <v>631</v>
       </c>
       <c r="H82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
       <c r="I82" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45651</v>
       </c>
       <c r="J82">
@@ -5787,29 +5809,32 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>489</v>
+        <v>389</v>
       </c>
       <c r="B83" t="s">
-        <v>490</v>
+        <v>390</v>
       </c>
       <c r="C83" t="s">
-        <v>491</v>
+        <v>391</v>
       </c>
       <c r="D83" t="s">
-        <v>492</v>
+        <v>392</v>
       </c>
       <c r="E83" t="s">
-        <v>493</v>
+        <v>393</v>
       </c>
       <c r="F83" t="s">
-        <v>634</v>
+        <v>652</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="H83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="I83" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45652</v>
       </c>
       <c r="J83">
@@ -5819,29 +5844,32 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>494</v>
+        <v>221</v>
       </c>
       <c r="B84" t="s">
-        <v>495</v>
+        <v>222</v>
       </c>
       <c r="C84" t="s">
-        <v>496</v>
+        <v>223</v>
       </c>
       <c r="D84" t="s">
-        <v>497</v>
+        <v>224</v>
       </c>
       <c r="E84" t="s">
-        <v>498</v>
+        <v>225</v>
       </c>
       <c r="F84" t="s">
-        <v>634</v>
+        <v>250</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="I84" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45652</v>
       </c>
       <c r="J84">
@@ -5851,32 +5879,29 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>316</v>
+        <v>486</v>
       </c>
       <c r="B85" t="s">
-        <v>317</v>
+        <v>487</v>
       </c>
       <c r="C85" t="s">
-        <v>318</v>
+        <v>488</v>
       </c>
       <c r="D85" t="s">
-        <v>319</v>
+        <v>489</v>
       </c>
       <c r="E85" t="s">
-        <v>320</v>
+        <v>490</v>
       </c>
       <c r="F85" t="s">
-        <v>321</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>140</v>
+        <v>631</v>
       </c>
       <c r="H85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="I85" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45652</v>
       </c>
       <c r="J85">
@@ -5886,32 +5911,29 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>491</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>492</v>
       </c>
       <c r="C86" t="s">
-        <v>163</v>
+        <v>493</v>
       </c>
       <c r="D86" t="s">
-        <v>164</v>
+        <v>494</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>495</v>
       </c>
       <c r="F86" t="s">
-        <v>186</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>145</v>
+        <v>631</v>
       </c>
       <c r="H86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45653</v>
       </c>
       <c r="J86">
@@ -5921,29 +5943,32 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>504</v>
+        <v>314</v>
       </c>
       <c r="B87" t="s">
-        <v>505</v>
+        <v>315</v>
       </c>
       <c r="C87" t="s">
-        <v>506</v>
+        <v>316</v>
       </c>
       <c r="D87" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="E87" t="s">
-        <v>508</v>
+        <v>318</v>
       </c>
       <c r="F87" t="s">
-        <v>634</v>
+        <v>319</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="I87" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45653</v>
       </c>
       <c r="J87">
@@ -5953,29 +5978,32 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>509</v>
+        <v>159</v>
       </c>
       <c r="B88" t="s">
-        <v>510</v>
+        <v>160</v>
       </c>
       <c r="C88" t="s">
-        <v>511</v>
+        <v>161</v>
       </c>
       <c r="D88" t="s">
-        <v>512</v>
+        <v>162</v>
       </c>
       <c r="E88" t="s">
-        <v>513</v>
+        <v>163</v>
       </c>
       <c r="F88" t="s">
-        <v>634</v>
+        <v>184</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="H88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="I88" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45653</v>
       </c>
       <c r="J88">
@@ -5985,29 +6013,29 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="B89" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="C89" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="D89" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="E89" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="F89" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>29</v>
       </c>
       <c r="I89" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45654</v>
       </c>
       <c r="J89">
@@ -6017,32 +6045,29 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>171</v>
+        <v>506</v>
       </c>
       <c r="B90" t="s">
-        <v>172</v>
+        <v>507</v>
       </c>
       <c r="C90" t="s">
-        <v>173</v>
+        <v>508</v>
       </c>
       <c r="D90" t="s">
-        <v>174</v>
+        <v>509</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>510</v>
       </c>
       <c r="F90" t="s">
-        <v>186</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>140</v>
+        <v>631</v>
       </c>
       <c r="H90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>29</v>
       </c>
       <c r="I90" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45654</v>
       </c>
       <c r="J90">
@@ -6052,32 +6077,29 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>200</v>
+        <v>511</v>
       </c>
       <c r="B91" t="s">
-        <v>201</v>
+        <v>512</v>
       </c>
       <c r="C91" t="s">
-        <v>202</v>
+        <v>513</v>
       </c>
       <c r="D91" t="s">
-        <v>203</v>
+        <v>514</v>
       </c>
       <c r="E91" t="s">
-        <v>204</v>
+        <v>515</v>
       </c>
       <c r="F91" t="s">
-        <v>252</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>140</v>
+        <v>631</v>
       </c>
       <c r="H91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>29</v>
       </c>
       <c r="I91" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45654</v>
       </c>
       <c r="J91">
@@ -6087,1490 +6109,1563 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>304</v>
+        <v>169</v>
       </c>
       <c r="B92" t="s">
-        <v>305</v>
+        <v>170</v>
       </c>
       <c r="C92" t="s">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="D92" t="s">
-        <v>307</v>
+        <v>172</v>
       </c>
       <c r="E92" t="s">
-        <v>320</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H92">
-        <f t="shared" ref="H92:H135" si="13">INT(J92/3)</f>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="I92" s="3">
-        <f t="shared" ref="I92:I135" si="14">$L$1+H92</f>
+        <f t="shared" si="16"/>
         <v>45655</v>
       </c>
       <c r="J92">
-        <f t="shared" ref="J92:J135" si="15">J91+1</f>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>583</v>
+        <v>198</v>
       </c>
       <c r="B93" t="s">
-        <v>584</v>
+        <v>199</v>
       </c>
       <c r="C93" t="s">
-        <v>558</v>
+        <v>200</v>
       </c>
       <c r="D93" t="s">
-        <v>539</v>
+        <v>201</v>
       </c>
       <c r="E93" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="F93" t="s">
-        <v>634</v>
+        <v>250</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="I93" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45655</v>
       </c>
       <c r="J93">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>164</v>
+        <v>302</v>
       </c>
       <c r="B94" t="s">
-        <v>539</v>
+        <v>303</v>
       </c>
       <c r="C94" t="s">
-        <v>585</v>
+        <v>304</v>
       </c>
       <c r="D94" t="s">
-        <v>586</v>
+        <v>305</v>
       </c>
       <c r="E94" t="s">
-        <v>587</v>
+        <v>318</v>
       </c>
       <c r="F94" t="s">
-        <v>634</v>
+        <v>319</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="I94" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45655</v>
       </c>
       <c r="J94">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="J94:J137" si="17">J93+1</f>
         <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B95" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C95" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="D95" t="s">
-        <v>153</v>
+        <v>536</v>
       </c>
       <c r="E95" t="s">
-        <v>591</v>
+        <v>162</v>
       </c>
       <c r="F95" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="I95" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45656</v>
       </c>
       <c r="J95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>397</v>
+        <v>162</v>
       </c>
       <c r="B96" t="s">
-        <v>398</v>
+        <v>536</v>
       </c>
       <c r="C96" t="s">
-        <v>399</v>
+        <v>582</v>
       </c>
       <c r="D96" t="s">
-        <v>400</v>
+        <v>583</v>
       </c>
       <c r="E96" t="s">
-        <v>401</v>
+        <v>584</v>
       </c>
       <c r="F96" t="s">
-        <v>657</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>277</v>
+        <v>631</v>
       </c>
       <c r="H96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="I96" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45656</v>
       </c>
       <c r="J96">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>26</v>
+        <v>585</v>
       </c>
       <c r="B97" t="s">
-        <v>27</v>
+        <v>586</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>587</v>
       </c>
       <c r="D97" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="E97" t="s">
-        <v>30</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>48</v>
+        <v>588</v>
+      </c>
+      <c r="F97" t="s">
+        <v>631</v>
       </c>
       <c r="H97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="I97" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45656</v>
       </c>
       <c r="J97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>66</v>
+        <v>395</v>
       </c>
       <c r="B98" t="s">
-        <v>67</v>
+        <v>396</v>
       </c>
       <c r="C98" t="s">
-        <v>68</v>
+        <v>397</v>
       </c>
       <c r="D98" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="E98" t="s">
-        <v>69</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>87</v>
+        <v>399</v>
+      </c>
+      <c r="F98" t="s">
+        <v>652</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>48</v>
+        <v>275</v>
       </c>
       <c r="H98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="I98" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45657</v>
       </c>
       <c r="J98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>415</v>
+        <v>26</v>
       </c>
       <c r="B99" t="s">
-        <v>551</v>
+        <v>27</v>
       </c>
       <c r="C99" t="s">
-        <v>414</v>
+        <v>28</v>
       </c>
       <c r="D99" t="s">
-        <v>416</v>
+        <v>29</v>
       </c>
       <c r="E99" t="s">
-        <v>552</v>
-      </c>
-      <c r="F99" t="s">
-        <v>634</v>
+        <v>30</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="H99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="I99" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45657</v>
       </c>
       <c r="J99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>553</v>
+        <v>64</v>
       </c>
       <c r="B100" t="s">
-        <v>554</v>
+        <v>65</v>
       </c>
       <c r="C100" t="s">
-        <v>555</v>
+        <v>66</v>
       </c>
       <c r="D100" t="s">
-        <v>556</v>
+        <v>367</v>
       </c>
       <c r="E100" t="s">
-        <v>557</v>
-      </c>
-      <c r="F100" t="s">
-        <v>634</v>
+        <v>67</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="H100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="I100" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45657</v>
       </c>
       <c r="J100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>489</v>
+        <v>413</v>
       </c>
       <c r="B101" t="s">
-        <v>396</v>
+        <v>548</v>
       </c>
       <c r="C101" t="s">
-        <v>558</v>
+        <v>412</v>
       </c>
       <c r="D101" t="s">
-        <v>559</v>
+        <v>414</v>
       </c>
       <c r="E101" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="F101" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>33</v>
       </c>
       <c r="I101" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45658</v>
       </c>
       <c r="J101">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="B102" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="C102" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="D102" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="E102" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="F102" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>33</v>
       </c>
       <c r="I102" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45658</v>
       </c>
       <c r="J102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>566</v>
+        <v>486</v>
       </c>
       <c r="B103" t="s">
-        <v>567</v>
+        <v>394</v>
       </c>
       <c r="C103" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="D103" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="E103" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="F103" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>33</v>
       </c>
       <c r="I103" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45658</v>
       </c>
       <c r="J103">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>181</v>
+        <v>558</v>
       </c>
       <c r="B104" t="s">
-        <v>182</v>
+        <v>559</v>
       </c>
       <c r="C104" t="s">
-        <v>183</v>
+        <v>560</v>
       </c>
       <c r="D104" t="s">
-        <v>184</v>
+        <v>561</v>
       </c>
       <c r="E104" t="s">
-        <v>185</v>
+        <v>562</v>
       </c>
       <c r="F104" t="s">
-        <v>186</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>187</v>
+        <v>631</v>
       </c>
       <c r="H104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>34</v>
       </c>
       <c r="I104" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45659</v>
       </c>
       <c r="J104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>50</v>
+        <v>563</v>
       </c>
       <c r="B105" t="s">
-        <v>51</v>
+        <v>564</v>
       </c>
       <c r="C105" t="s">
-        <v>52</v>
+        <v>565</v>
       </c>
       <c r="D105" t="s">
-        <v>53</v>
+        <v>566</v>
       </c>
       <c r="E105" t="s">
-        <v>54</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>88</v>
+        <v>567</v>
+      </c>
+      <c r="F105" t="s">
+        <v>631</v>
       </c>
       <c r="H105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>34</v>
       </c>
       <c r="I105" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45659</v>
       </c>
       <c r="J105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="B106" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="C106" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="D106" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="E106" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="F106" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="H106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>34</v>
       </c>
       <c r="I106" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45659</v>
       </c>
       <c r="J106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="B107" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="C107" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="D107" t="s">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="E107" t="s">
-        <v>180</v>
-      </c>
-      <c r="F107" t="s">
-        <v>186</v>
+        <v>52</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="H107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
       <c r="I107" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45660</v>
       </c>
       <c r="J107">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>624</v>
+        <v>226</v>
       </c>
       <c r="B108" t="s">
-        <v>625</v>
+        <v>227</v>
       </c>
       <c r="C108" t="s">
-        <v>626</v>
+        <v>228</v>
       </c>
       <c r="D108" t="s">
-        <v>627</v>
+        <v>229</v>
       </c>
       <c r="E108" t="s">
-        <v>628</v>
+        <v>230</v>
       </c>
       <c r="F108" t="s">
-        <v>634</v>
+        <v>250</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="H108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
       <c r="I108" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45660</v>
       </c>
       <c r="J108">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>534</v>
+        <v>174</v>
       </c>
       <c r="B109" t="s">
-        <v>472</v>
+        <v>175</v>
       </c>
       <c r="C109" t="s">
-        <v>535</v>
+        <v>176</v>
       </c>
       <c r="D109" t="s">
-        <v>536</v>
+        <v>177</v>
       </c>
       <c r="E109" t="s">
-        <v>537</v>
+        <v>178</v>
       </c>
       <c r="F109" t="s">
-        <v>634</v>
+        <v>184</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="H109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
       <c r="I109" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45660</v>
       </c>
       <c r="J109">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="B110" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="C110" t="s">
+        <v>623</v>
+      </c>
+      <c r="D110" t="s">
+        <v>624</v>
+      </c>
+      <c r="E110" t="s">
+        <v>625</v>
+      </c>
+      <c r="F110" t="s">
         <v>631</v>
       </c>
-      <c r="D110" t="s">
-        <v>632</v>
-      </c>
-      <c r="E110" t="s">
-        <v>633</v>
-      </c>
-      <c r="F110" t="s">
-        <v>634</v>
-      </c>
       <c r="H110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>36</v>
       </c>
       <c r="I110" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45661</v>
       </c>
       <c r="J110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>402</v>
+        <v>531</v>
       </c>
       <c r="B111" t="s">
-        <v>403</v>
+        <v>470</v>
       </c>
       <c r="C111" t="s">
-        <v>404</v>
+        <v>532</v>
       </c>
       <c r="D111" t="s">
-        <v>405</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>428</v>
+        <v>533</v>
+      </c>
+      <c r="E111" t="s">
+        <v>534</v>
       </c>
       <c r="F111" t="s">
-        <v>657</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>89</v>
+        <v>631</v>
       </c>
       <c r="H111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>36</v>
       </c>
       <c r="I111" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45661</v>
       </c>
       <c r="J111">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>571</v>
+        <v>626</v>
       </c>
       <c r="B112" t="s">
-        <v>572</v>
+        <v>627</v>
       </c>
       <c r="C112" t="s">
-        <v>416</v>
+        <v>628</v>
       </c>
       <c r="D112" t="s">
-        <v>573</v>
+        <v>629</v>
       </c>
       <c r="E112" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="F112" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>36</v>
       </c>
       <c r="I112" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45661</v>
       </c>
       <c r="J112">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>574</v>
+        <v>400</v>
       </c>
       <c r="B113" t="s">
-        <v>575</v>
+        <v>401</v>
       </c>
       <c r="C113" t="s">
-        <v>576</v>
+        <v>402</v>
       </c>
       <c r="D113" t="s">
-        <v>577</v>
-      </c>
-      <c r="E113" t="s">
-        <v>578</v>
+        <v>403</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>426</v>
       </c>
       <c r="F113" t="s">
-        <v>634</v>
+        <v>652</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="H113">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>37</v>
       </c>
       <c r="I113" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45662</v>
       </c>
       <c r="J113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="B114" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="C114" t="s">
-        <v>581</v>
+        <v>414</v>
       </c>
       <c r="D114" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="E114" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F114" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>37</v>
       </c>
       <c r="I114" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45662</v>
       </c>
       <c r="J114">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>272</v>
+        <v>571</v>
       </c>
       <c r="B115" t="s">
-        <v>273</v>
+        <v>572</v>
       </c>
       <c r="C115" t="s">
-        <v>274</v>
+        <v>573</v>
       </c>
       <c r="D115" t="s">
-        <v>275</v>
+        <v>574</v>
       </c>
       <c r="E115" t="s">
-        <v>276</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>8</v>
+        <v>575</v>
+      </c>
+      <c r="F115" t="s">
+        <v>631</v>
       </c>
       <c r="H115">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>37</v>
       </c>
       <c r="I115" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45662</v>
       </c>
       <c r="J115">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>238</v>
+        <v>576</v>
       </c>
       <c r="B116" t="s">
-        <v>239</v>
+        <v>577</v>
       </c>
       <c r="C116" t="s">
-        <v>240</v>
+        <v>578</v>
       </c>
       <c r="D116" t="s">
-        <v>241</v>
+        <v>579</v>
       </c>
       <c r="E116" t="s">
-        <v>242</v>
+        <v>644</v>
       </c>
       <c r="F116" t="s">
-        <v>252</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>8</v>
+        <v>631</v>
       </c>
       <c r="H116">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
       <c r="I116" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45663</v>
       </c>
       <c r="J116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="B117" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="C117" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="D117" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="E117" t="s">
-        <v>320</v>
-      </c>
-      <c r="F117" t="s">
-        <v>321</v>
+        <v>274</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="H117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
       <c r="I117" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45663</v>
       </c>
       <c r="J117">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>609</v>
+        <v>236</v>
       </c>
       <c r="B118" t="s">
-        <v>610</v>
+        <v>237</v>
       </c>
       <c r="C118" t="s">
-        <v>611</v>
+        <v>238</v>
       </c>
       <c r="D118" t="s">
-        <v>612</v>
+        <v>239</v>
       </c>
       <c r="E118" t="s">
-        <v>613</v>
+        <v>240</v>
       </c>
       <c r="F118" t="s">
-        <v>634</v>
+        <v>250</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
       <c r="I118" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45663</v>
       </c>
       <c r="J118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>614</v>
+        <v>306</v>
       </c>
       <c r="B119" t="s">
-        <v>615</v>
+        <v>307</v>
       </c>
       <c r="C119" t="s">
-        <v>616</v>
+        <v>308</v>
       </c>
       <c r="D119" t="s">
-        <v>617</v>
+        <v>309</v>
       </c>
       <c r="E119" t="s">
-        <v>618</v>
+        <v>318</v>
       </c>
       <c r="F119" t="s">
-        <v>634</v>
+        <v>319</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H119">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="H119:H137" si="18">INT(J119/3)</f>
         <v>39</v>
       </c>
       <c r="I119" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="I119:I137" si="19">$L$1+H119</f>
         <v>45664</v>
       </c>
       <c r="J119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>363</v>
+        <v>606</v>
       </c>
       <c r="B120" t="s">
-        <v>364</v>
+        <v>607</v>
       </c>
       <c r="C120" t="s">
-        <v>287</v>
+        <v>608</v>
       </c>
       <c r="D120" t="s">
-        <v>288</v>
+        <v>609</v>
       </c>
       <c r="E120" t="s">
-        <v>320</v>
+        <v>610</v>
       </c>
       <c r="F120" t="s">
-        <v>321</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>140</v>
+        <v>631</v>
       </c>
       <c r="H120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>39</v>
       </c>
       <c r="I120" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45664</v>
       </c>
       <c r="J120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>657</v>
+        <v>611</v>
       </c>
       <c r="B121" t="s">
-        <v>429</v>
+        <v>612</v>
       </c>
       <c r="C121" t="s">
-        <v>406</v>
+        <v>613</v>
       </c>
       <c r="D121" t="s">
-        <v>407</v>
+        <v>614</v>
       </c>
       <c r="E121" t="s">
-        <v>434</v>
+        <v>615</v>
       </c>
       <c r="F121" t="s">
-        <v>657</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>433</v>
+        <v>631</v>
       </c>
       <c r="H121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>39</v>
       </c>
       <c r="I121" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45664</v>
       </c>
       <c r="J121">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>263</v>
+        <v>361</v>
       </c>
       <c r="B122" t="s">
-        <v>264</v>
+        <v>362</v>
       </c>
       <c r="C122" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="D122" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="E122" t="s">
-        <v>266</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>87</v>
+        <v>318</v>
+      </c>
+      <c r="F122" t="s">
+        <v>319</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="I122" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45665</v>
       </c>
       <c r="J122">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>205</v>
+        <v>652</v>
       </c>
       <c r="B123" t="s">
-        <v>243</v>
+        <v>427</v>
       </c>
       <c r="C123" t="s">
-        <v>244</v>
+        <v>404</v>
       </c>
       <c r="D123" t="s">
-        <v>245</v>
+        <v>405</v>
       </c>
       <c r="E123" t="s">
-        <v>246</v>
+        <v>432</v>
       </c>
       <c r="F123" t="s">
-        <v>252</v>
+        <v>652</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>143</v>
+        <v>431</v>
       </c>
       <c r="H123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="I123" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45665</v>
       </c>
       <c r="J123">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>619</v>
+        <v>261</v>
       </c>
       <c r="B124" t="s">
-        <v>620</v>
+        <v>262</v>
       </c>
       <c r="C124" t="s">
-        <v>621</v>
+        <v>263</v>
       </c>
       <c r="D124" t="s">
-        <v>622</v>
+        <v>243</v>
       </c>
       <c r="E124" t="s">
-        <v>623</v>
-      </c>
-      <c r="F124" t="s">
-        <v>634</v>
+        <v>264</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="H124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="I124" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45665</v>
       </c>
       <c r="J124">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>289</v>
+        <v>203</v>
       </c>
       <c r="B125" t="s">
-        <v>365</v>
+        <v>241</v>
       </c>
       <c r="C125" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="D125" t="s">
-        <v>366</v>
+        <v>243</v>
       </c>
       <c r="E125" t="s">
-        <v>320</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>321</v>
+        <v>250</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H125">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>41</v>
       </c>
       <c r="I125" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45666</v>
       </c>
       <c r="J125">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>300</v>
+        <v>616</v>
       </c>
       <c r="B126" t="s">
-        <v>301</v>
+        <v>617</v>
       </c>
       <c r="C126" t="s">
-        <v>302</v>
+        <v>618</v>
       </c>
       <c r="D126" t="s">
-        <v>303</v>
+        <v>619</v>
       </c>
       <c r="E126" t="s">
-        <v>320</v>
+        <v>620</v>
       </c>
       <c r="F126" t="s">
-        <v>321</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>140</v>
+        <v>631</v>
       </c>
       <c r="H126">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>41</v>
       </c>
       <c r="I126" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45666</v>
       </c>
       <c r="J126">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>218</v>
+        <v>287</v>
       </c>
       <c r="B127" t="s">
-        <v>219</v>
+        <v>363</v>
       </c>
       <c r="C127" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="D127" t="s">
-        <v>221</v>
+        <v>364</v>
       </c>
       <c r="E127" t="s">
-        <v>222</v>
+        <v>318</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>319</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="H127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>41</v>
       </c>
       <c r="I127" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45666</v>
       </c>
       <c r="J127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>146</v>
+        <v>298</v>
       </c>
       <c r="B128" t="s">
-        <v>147</v>
+        <v>299</v>
       </c>
       <c r="C128" t="s">
-        <v>148</v>
+        <v>300</v>
       </c>
       <c r="D128" t="s">
-        <v>149</v>
+        <v>301</v>
       </c>
       <c r="E128" t="s">
-        <v>150</v>
+        <v>318</v>
       </c>
       <c r="F128" t="s">
-        <v>186</v>
+        <v>319</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="H128">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>42</v>
       </c>
       <c r="I128" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45667</v>
       </c>
       <c r="J128">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="B129" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C129" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="D129" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="E129" t="s">
-        <v>74</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>87</v>
+        <v>220</v>
+      </c>
+      <c r="F129" t="s">
+        <v>250</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="H129">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>42</v>
       </c>
       <c r="I129" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45667</v>
       </c>
       <c r="J129">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>438</v>
+        <v>144</v>
       </c>
       <c r="B130" t="s">
-        <v>439</v>
+        <v>145</v>
       </c>
       <c r="C130" t="s">
-        <v>440</v>
+        <v>146</v>
       </c>
       <c r="D130" t="s">
-        <v>441</v>
+        <v>147</v>
       </c>
       <c r="E130" t="s">
-        <v>442</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>443</v>
+        <v>148</v>
+      </c>
+      <c r="F130" t="s">
+        <v>184</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H130">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>42</v>
       </c>
       <c r="I130" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45667</v>
       </c>
       <c r="J130">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>200</v>
+        <v>68</v>
       </c>
       <c r="B131" t="s">
-        <v>444</v>
+        <v>69</v>
       </c>
       <c r="C131" t="s">
-        <v>445</v>
+        <v>70</v>
       </c>
       <c r="D131" t="s">
-        <v>446</v>
+        <v>71</v>
       </c>
       <c r="E131" t="s">
-        <v>447</v>
-      </c>
-      <c r="F131" t="s">
-        <v>448</v>
+        <v>72</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="H131">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>43</v>
       </c>
       <c r="I131" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45668</v>
       </c>
       <c r="J131">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="B132" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C132" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="D132" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="E132" t="s">
-        <v>453</v>
-      </c>
-      <c r="F132" t="s">
-        <v>448</v>
+        <v>440</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>433</v>
+        <v>186</v>
       </c>
       <c r="H132">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>43</v>
       </c>
       <c r="I132" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45668</v>
       </c>
       <c r="J132">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>454</v>
+        <v>198</v>
       </c>
       <c r="B133" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C133" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="D133" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="E133" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="F133" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>459</v>
+        <v>138</v>
       </c>
       <c r="H133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>43</v>
       </c>
       <c r="I133" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45668</v>
       </c>
       <c r="J133">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>637</v>
+        <v>447</v>
       </c>
       <c r="B134" t="s">
-        <v>234</v>
+        <v>448</v>
       </c>
       <c r="C134" t="s">
-        <v>638</v>
+        <v>449</v>
       </c>
       <c r="D134" t="s">
-        <v>233</v>
+        <v>450</v>
       </c>
       <c r="E134" t="s">
-        <v>639</v>
+        <v>451</v>
       </c>
       <c r="F134" t="s">
-        <v>634</v>
+        <v>446</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="H134">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>44</v>
       </c>
       <c r="I134" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45669</v>
       </c>
       <c r="J134">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>235</v>
+        <v>452</v>
       </c>
       <c r="B135" t="s">
-        <v>640</v>
+        <v>453</v>
       </c>
       <c r="C135" t="s">
-        <v>641</v>
+        <v>454</v>
       </c>
       <c r="D135" t="s">
-        <v>642</v>
+        <v>455</v>
       </c>
       <c r="E135" t="s">
-        <v>643</v>
+        <v>456</v>
       </c>
       <c r="F135" t="s">
+        <v>441</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="18"/>
+        <v>44</v>
+      </c>
+      <c r="I135" s="3">
+        <f t="shared" si="19"/>
+        <v>45669</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="17"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>634</v>
       </c>
-      <c r="H135">
-        <f t="shared" si="13"/>
+      <c r="B136" t="s">
+        <v>232</v>
+      </c>
+      <c r="C136" t="s">
+        <v>635</v>
+      </c>
+      <c r="D136" t="s">
+        <v>231</v>
+      </c>
+      <c r="E136" t="s">
+        <v>636</v>
+      </c>
+      <c r="F136" t="s">
+        <v>631</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="18"/>
         <v>44</v>
       </c>
-      <c r="I135" s="3">
-        <f t="shared" si="14"/>
+      <c r="I136" s="3">
+        <f t="shared" si="19"/>
         <v>45669</v>
       </c>
-      <c r="J135">
-        <f t="shared" si="15"/>
-        <v>133</v>
+      <c r="J136">
+        <f t="shared" si="17"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>31</v>
+      </c>
+      <c r="B137" t="s">
+        <v>32</v>
+      </c>
+      <c r="C137" t="s">
+        <v>64</v>
+      </c>
+      <c r="D137" t="s">
+        <v>43</v>
+      </c>
+      <c r="E137" t="s">
+        <v>669</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I137" s="3">
+        <f t="shared" si="19"/>
+        <v>45670</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="17"/>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H132">
-    <sortCondition ref="H8:H132"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H134">
+    <sortCondition ref="H8:H134"/>
   </sortState>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="expression" dxfId="1" priority="1">

--- a/code/shabdakala/resource/work/sbwords.xlsx
+++ b/code/shabdakala/resource/work/sbwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/github/shabdakala/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CC53C5-8045-6E45-B7C7-D2898CCAEA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5704D1-F50C-A24A-B48B-AEF9F127B2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="1047">
   <si>
     <t>word0</t>
   </si>
@@ -1439,18 +1439,12 @@
     <t>बुद्धिबळाच्या चाली</t>
   </si>
   <si>
-    <t>मोहरा</t>
-  </si>
-  <si>
     <t>राणी</t>
   </si>
   <si>
     <t>घर</t>
   </si>
   <si>
-    <t>बुद्धिबळाच्या पटावर सापडणाऱ्या गोष्टी</t>
-  </si>
-  <si>
     <t>बहर</t>
   </si>
   <si>
@@ -1463,21 +1457,9 @@
     <t>कळी</t>
   </si>
   <si>
-    <t>नाणी</t>
-  </si>
-  <si>
-    <t>सुटे</t>
-  </si>
-  <si>
     <t>चिल्लर</t>
   </si>
   <si>
-    <t>आणे</t>
-  </si>
-  <si>
-    <t>सुट्या पैशांचे प्रकार</t>
-  </si>
-  <si>
     <t>विकत</t>
   </si>
   <si>
@@ -1853,21 +1835,6 @@
     <t>न्यायालय</t>
   </si>
   <si>
-    <t>साहेब</t>
-  </si>
-  <si>
-    <t>जी</t>
-  </si>
-  <si>
-    <t>राव</t>
-  </si>
-  <si>
-    <t>पंत</t>
-  </si>
-  <si>
-    <t>नावाला आदरार्थी जोडलेले</t>
-  </si>
-  <si>
     <t>अंक</t>
   </si>
   <si>
@@ -2039,9 +2006,6 @@
     <t xml:space="preserve">पुराणातील काही नागांची नावे </t>
   </si>
   <si>
-    <t xml:space="preserve">वनस्पतींच्या जीवनातील आनंददायक घटना </t>
-  </si>
-  <si>
     <t xml:space="preserve">नेहेमी पांढरी वस्त्रे परिधान करणारे लोक </t>
   </si>
   <si>
@@ -2052,6 +2016,1164 @@
   </si>
   <si>
     <t>'साप' या विषयाचा शब्दबंध</t>
+  </si>
+  <si>
+    <t>वनस्पतीं वर येणार्‍या नव्या गोष्टी</t>
+  </si>
+  <si>
+    <t>छापा</t>
+  </si>
+  <si>
+    <t>टाकसाळ</t>
+  </si>
+  <si>
+    <t>पावली</t>
+  </si>
+  <si>
+    <t xml:space="preserve">चलनी नाणी या विषयावरील शब्दबंध </t>
+  </si>
+  <si>
+    <t>बाई</t>
+  </si>
+  <si>
+    <t>रियो</t>
+  </si>
+  <si>
+    <t>ॲमेझॉन</t>
+  </si>
+  <si>
+    <t>पोर्तुगिज</t>
+  </si>
+  <si>
+    <t>फुटबॉल</t>
+  </si>
+  <si>
+    <t>ब्राझील</t>
+  </si>
+  <si>
+    <t>पिझ्झा</t>
+  </si>
+  <si>
+    <t>गॅलेलियो</t>
+  </si>
+  <si>
+    <t>फेरारी</t>
+  </si>
+  <si>
+    <t>व्हेनीस</t>
+  </si>
+  <si>
+    <t>ईटली</t>
+  </si>
+  <si>
+    <t>सुशी</t>
+  </si>
+  <si>
+    <t>फ्युजी</t>
+  </si>
+  <si>
+    <t>टोयोटा</t>
+  </si>
+  <si>
+    <t>बुलेट ट्रेन</t>
+  </si>
+  <si>
+    <t>जपान</t>
+  </si>
+  <si>
+    <t>वामकुक्षी</t>
+  </si>
+  <si>
+    <t>पेन्शन</t>
+  </si>
+  <si>
+    <t>नातवंडं</t>
+  </si>
+  <si>
+    <t>निवृत्ती</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ज्येष्ठ नागरिक </t>
+  </si>
+  <si>
+    <t>काडेपेटी</t>
+  </si>
+  <si>
+    <t>भिंग</t>
+  </si>
+  <si>
+    <t>गारगोट्या</t>
+  </si>
+  <si>
+    <t>घर्षण</t>
+  </si>
+  <si>
+    <t>ज्या गोष्टींनी आग लावता येते</t>
+  </si>
+  <si>
+    <t>घोंगडं</t>
+  </si>
+  <si>
+    <t>माती</t>
+  </si>
+  <si>
+    <t>अग्नीरोधक</t>
+  </si>
+  <si>
+    <t>ज्या गोष्टींनी आग विजवता येते</t>
+  </si>
+  <si>
+    <t>स्वयंपाक</t>
+  </si>
+  <si>
+    <t>समयी</t>
+  </si>
+  <si>
+    <t>इंजीन</t>
+  </si>
+  <si>
+    <t>रॉकेट</t>
+  </si>
+  <si>
+    <t>अग्नीचे ऊपयोग</t>
+  </si>
+  <si>
+    <t>उद्घाटनाची रिबिन</t>
+  </si>
+  <si>
+    <t>कलिंगड</t>
+  </si>
+  <si>
+    <t>भाताचं पिक</t>
+  </si>
+  <si>
+    <t>केस</t>
+  </si>
+  <si>
+    <t>ज्या गोष्टी कापल्या जातात</t>
+  </si>
+  <si>
+    <t>चाकू</t>
+  </si>
+  <si>
+    <t>करवत</t>
+  </si>
+  <si>
+    <t>खुर्पं</t>
+  </si>
+  <si>
+    <t>ज्या गोष्टी कापतात</t>
+  </si>
+  <si>
+    <t>सर्जन</t>
+  </si>
+  <si>
+    <t>शिंपी</t>
+  </si>
+  <si>
+    <t>न्हावी</t>
+  </si>
+  <si>
+    <t>शेफ</t>
+  </si>
+  <si>
+    <t>ज्यांच्या व्यवसायांत कापावे लागते</t>
+  </si>
+  <si>
+    <t>तोरण</t>
+  </si>
+  <si>
+    <t>राखी</t>
+  </si>
+  <si>
+    <t>मुंडावळ्या</t>
+  </si>
+  <si>
+    <t>नाडी</t>
+  </si>
+  <si>
+    <t>गाठ घालून बांध्याच्या गोष्टी</t>
+  </si>
+  <si>
+    <t>हार</t>
+  </si>
+  <si>
+    <t>टायर</t>
+  </si>
+  <si>
+    <t>मेदूवडा</t>
+  </si>
+  <si>
+    <t>बांगडी</t>
+  </si>
+  <si>
+    <t>लुप</t>
+  </si>
+  <si>
+    <t>चष्मा</t>
+  </si>
+  <si>
+    <t>टक्कल</t>
+  </si>
+  <si>
+    <t>हातमाग</t>
+  </si>
+  <si>
+    <t>पांढरे धोतर</t>
+  </si>
+  <si>
+    <t>महात्मा गांधी</t>
+  </si>
+  <si>
+    <t>ध्रुव</t>
+  </si>
+  <si>
+    <t>गंगोत्री</t>
+  </si>
+  <si>
+    <t>दक्षिण</t>
+  </si>
+  <si>
+    <t>पेंगविन</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>व्याध</t>
+  </si>
+  <si>
+    <t>अभिजित</t>
+  </si>
+  <si>
+    <t>सूर्य</t>
+  </si>
+  <si>
+    <t>अरुंधती</t>
+  </si>
+  <si>
+    <t>सिंह</t>
+  </si>
+  <si>
+    <t>मासे</t>
+  </si>
+  <si>
+    <t>जोडपे</t>
+  </si>
+  <si>
+    <t>राशी चिन्हे</t>
+  </si>
+  <si>
+    <t>पार्टी</t>
+  </si>
+  <si>
+    <t>आतिषबाजी</t>
+  </si>
+  <si>
+    <t>लाईटींग</t>
+  </si>
+  <si>
+    <t>सोहळा</t>
+  </si>
+  <si>
+    <t>सेलिब्रेशन</t>
+  </si>
+  <si>
+    <t>स्पेशल</t>
+  </si>
+  <si>
+    <t>प्रजासत्ताक दिन</t>
+  </si>
+  <si>
+    <t>पुढले वर्ष</t>
+  </si>
+  <si>
+    <t>मॅराथॉन</t>
+  </si>
+  <si>
+    <t>26 (post this after Jan 1 !!)</t>
+  </si>
+  <si>
+    <t>ॲटलास</t>
+  </si>
+  <si>
+    <t>क्रेन</t>
+  </si>
+  <si>
+    <t>मल्लेश्वरी</t>
+  </si>
+  <si>
+    <t>जॅक</t>
+  </si>
+  <si>
+    <t>जड गोष्टी उचलणारे</t>
+  </si>
+  <si>
+    <t>नवीन</t>
+  </si>
+  <si>
+    <t>मलम</t>
+  </si>
+  <si>
+    <t>सरस</t>
+  </si>
+  <si>
+    <t>सामोसा</t>
+  </si>
+  <si>
+    <t>Palindromes, of course! (विलोमपदॆ)</t>
+  </si>
+  <si>
+    <t>नवजीवन</t>
+  </si>
+  <si>
+    <t>सकस</t>
+  </si>
+  <si>
+    <t>कडक</t>
+  </si>
+  <si>
+    <t>समास</t>
+  </si>
+  <si>
+    <t>बारामती</t>
+  </si>
+  <si>
+    <t>सुलक्षणी</t>
+  </si>
+  <si>
+    <t>पराकोटी</t>
+  </si>
+  <si>
+    <t>कासावीस</t>
+  </si>
+  <si>
+    <t>"संख्याशाली" शब्द!</t>
+  </si>
+  <si>
+    <t>टाचणी</t>
+  </si>
+  <si>
+    <t>नांगर</t>
+  </si>
+  <si>
+    <t>सरळ नाक</t>
+  </si>
+  <si>
+    <t>स्कृ</t>
+  </si>
+  <si>
+    <t>टोकदार गोष्टी</t>
+  </si>
+  <si>
+    <t>तिमिर</t>
+  </si>
+  <si>
+    <t>मॆत्र</t>
+  </si>
+  <si>
+    <t>सोयरे</t>
+  </si>
+  <si>
+    <t>चेतना</t>
+  </si>
+  <si>
+    <t>अजरामर "पसायदाना"तले शब्द</t>
+  </si>
+  <si>
+    <t>देव/हिम</t>
+  </si>
+  <si>
+    <t>कार्य</t>
+  </si>
+  <si>
+    <t>रुग्ण</t>
+  </si>
+  <si>
+    <t>यांची घरे (आलये) आहेत</t>
+  </si>
+  <si>
+    <t>रात्र</t>
+  </si>
+  <si>
+    <t>राजा</t>
+  </si>
+  <si>
+    <t>राग</t>
+  </si>
+  <si>
+    <t>राहू</t>
+  </si>
+  <si>
+    <t>रा' ने सुरू होणारे शब्द</t>
+  </si>
+  <si>
+    <t>पॆसा</t>
+  </si>
+  <si>
+    <t>तथ्य</t>
+  </si>
+  <si>
+    <t>हेतू</t>
+  </si>
+  <si>
+    <t>"अर्था"चे अनेक पर्यायी शब्द</t>
+  </si>
+  <si>
+    <t>बांधवगड</t>
+  </si>
+  <si>
+    <t>काॅर्बेट</t>
+  </si>
+  <si>
+    <t>पेरियार</t>
+  </si>
+  <si>
+    <t>काझिरंगा</t>
+  </si>
+  <si>
+    <t>नॅशनल पार्क</t>
+  </si>
+  <si>
+    <t>कांचीपुरम</t>
+  </si>
+  <si>
+    <t>रामेश्वर</t>
+  </si>
+  <si>
+    <t>मीनाक्षी</t>
+  </si>
+  <si>
+    <t>कावेरी</t>
+  </si>
+  <si>
+    <t>तामिळनाडू</t>
+  </si>
+  <si>
+    <t>सुरत</t>
+  </si>
+  <si>
+    <t>दांडी</t>
+  </si>
+  <si>
+    <t>मोरबी</t>
+  </si>
+  <si>
+    <t>गुजरात मधली गावे</t>
+  </si>
+  <si>
+    <t>संक्षिप्त</t>
+  </si>
+  <si>
+    <t>आकुंचन</t>
+  </si>
+  <si>
+    <t>शुष्क</t>
+  </si>
+  <si>
+    <t>केंद्रित</t>
+  </si>
+  <si>
+    <t>कमी होणे</t>
+  </si>
+  <si>
+    <t>शांती श्लोक</t>
+  </si>
+  <si>
+    <t>डेझर्ट खाणे</t>
+  </si>
+  <si>
+    <t>रात्रीची झोप</t>
+  </si>
+  <si>
+    <t>विसर्जन</t>
+  </si>
+  <si>
+    <t>एखाद्या गोष्टीच्या शेवटी करायच्या गोष्टी</t>
+  </si>
+  <si>
+    <t>हलवा</t>
+  </si>
+  <si>
+    <t>ससा</t>
+  </si>
+  <si>
+    <t>लाल</t>
+  </si>
+  <si>
+    <t>ईश्वर</t>
+  </si>
+  <si>
+    <t>आत्मा</t>
+  </si>
+  <si>
+    <t>वीर</t>
+  </si>
+  <si>
+    <t>अणू</t>
+  </si>
+  <si>
+    <t>ज्यांच्या आधी "परम" जोडलेले शब्द आहेत</t>
+  </si>
+  <si>
+    <t>अंडं</t>
+  </si>
+  <si>
+    <t>नारळ</t>
+  </si>
+  <si>
+    <t>फुगा</t>
+  </si>
+  <si>
+    <t>अमेरिकन फुटबॉल</t>
+  </si>
+  <si>
+    <t>अंडाकृती गोष्टी</t>
+  </si>
+  <si>
+    <t>दोरखंड</t>
+  </si>
+  <si>
+    <t>जॅकेट</t>
+  </si>
+  <si>
+    <t>काटेरी बूट</t>
+  </si>
+  <si>
+    <t>धाडसीपणा</t>
+  </si>
+  <si>
+    <t>ऐस माऊंटेनीयरींग ला लागणार्‍या गोष्टी</t>
+  </si>
+  <si>
+    <t>भुयार</t>
+  </si>
+  <si>
+    <t>तळघर</t>
+  </si>
+  <si>
+    <t>खाण</t>
+  </si>
+  <si>
+    <t>जमिनीत खोदून केलेल्या गोष्टी</t>
+  </si>
+  <si>
+    <t>वाईन</t>
+  </si>
+  <si>
+    <t>जंतुनाशक</t>
+  </si>
+  <si>
+    <t>विद्रावक</t>
+  </si>
+  <si>
+    <t>ज्वलंत</t>
+  </si>
+  <si>
+    <t>अल्कोहोल</t>
+  </si>
+  <si>
+    <t>मानस</t>
+  </si>
+  <si>
+    <t>दाल</t>
+  </si>
+  <si>
+    <t>पिचोला</t>
+  </si>
+  <si>
+    <t>वेण्णा</t>
+  </si>
+  <si>
+    <t>तलाव</t>
+  </si>
+  <si>
+    <t>ढोल</t>
+  </si>
+  <si>
+    <t>सायरन</t>
+  </si>
+  <si>
+    <t>फटका</t>
+  </si>
+  <si>
+    <t>मोठा आवाज करणार्‍या गोष्टी</t>
+  </si>
+  <si>
+    <t>काथ्या</t>
+  </si>
+  <si>
+    <t>खराटा</t>
+  </si>
+  <si>
+    <t>करवंटी</t>
+  </si>
+  <si>
+    <t>कोयर</t>
+  </si>
+  <si>
+    <t>नारळाच्या झाडापासून बनवलेल्या गोष्टी</t>
+  </si>
+  <si>
+    <t>लखोबा</t>
+  </si>
+  <si>
+    <t>राधेश्शाम</t>
+  </si>
+  <si>
+    <t>दिवाकर</t>
+  </si>
+  <si>
+    <t>अशोक</t>
+  </si>
+  <si>
+    <t>लोखंडे, महाराज, दातार, परांजपे -- छे, छे, तो मी नव्हेच!</t>
+  </si>
+  <si>
+    <t>प्रस्थ</t>
+  </si>
+  <si>
+    <t>स्वप्न</t>
+  </si>
+  <si>
+    <t>क्रुद्ध</t>
+  </si>
+  <si>
+    <t>व्रात्य</t>
+  </si>
+  <si>
+    <t>दोन जोडाक्षरांचे शब्द</t>
+  </si>
+  <si>
+    <t>ओतप्रोत</t>
+  </si>
+  <si>
+    <t>उदंड</t>
+  </si>
+  <si>
+    <t>ओसंडून</t>
+  </si>
+  <si>
+    <t>तुडुंब</t>
+  </si>
+  <si>
+    <t>अति</t>
+  </si>
+  <si>
+    <t>डॉन</t>
+  </si>
+  <si>
+    <t>राहीन</t>
+  </si>
+  <si>
+    <t>सीन</t>
+  </si>
+  <si>
+    <t>थेम्स</t>
+  </si>
+  <si>
+    <t>युरोपियन नद्या</t>
+  </si>
+  <si>
+    <t>महफिल</t>
+  </si>
+  <si>
+    <t>मेंदी</t>
+  </si>
+  <si>
+    <t>स्वप्नं</t>
+  </si>
+  <si>
+    <t>संध्याकाळचं आकाश</t>
+  </si>
+  <si>
+    <t>ज्या गोष्टी रंगतात</t>
+  </si>
+  <si>
+    <t>ततकार</t>
+  </si>
+  <si>
+    <t>तोडा</t>
+  </si>
+  <si>
+    <t>मुद्रा</t>
+  </si>
+  <si>
+    <t>चक्कर</t>
+  </si>
+  <si>
+    <t>कथ्थक</t>
+  </si>
+  <si>
+    <t>बुजगावणं</t>
+  </si>
+  <si>
+    <t>पीक</t>
+  </si>
+  <si>
+    <t>पाटाचं पाणी</t>
+  </si>
+  <si>
+    <t>ट्रॅक्टर</t>
+  </si>
+  <si>
+    <t>शेत</t>
+  </si>
+  <si>
+    <t>हिमालय</t>
+  </si>
+  <si>
+    <t>तप</t>
+  </si>
+  <si>
+    <t>विरक्ती</t>
+  </si>
+  <si>
+    <t>लांब दाढी</t>
+  </si>
+  <si>
+    <t>साधू</t>
+  </si>
+  <si>
+    <t>भाव</t>
+  </si>
+  <si>
+    <t>राष्ट्र</t>
+  </si>
+  <si>
+    <t>अंगाई</t>
+  </si>
+  <si>
+    <t>ज्यांना "गीत" जोडता येतं</t>
+  </si>
+  <si>
+    <t>नाणे</t>
+  </si>
+  <si>
+    <t>दिवे</t>
+  </si>
+  <si>
+    <t>कात्रज</t>
+  </si>
+  <si>
+    <t>खंडाळा</t>
+  </si>
+  <si>
+    <t>घाट</t>
+  </si>
+  <si>
+    <t>स्पंज</t>
+  </si>
+  <si>
+    <t>कापुस</t>
+  </si>
+  <si>
+    <t>ज्याच्यात पाणी मुरते</t>
+  </si>
+  <si>
+    <t>शारदा</t>
+  </si>
+  <si>
+    <t>आरंभ</t>
+  </si>
+  <si>
+    <t>चत्वार</t>
+  </si>
+  <si>
+    <t>आनंत</t>
+  </si>
+  <si>
+    <t>पहिल्या "मनाचे श्लोका"तील शब्द</t>
+  </si>
+  <si>
+    <t>सिम</t>
+  </si>
+  <si>
+    <t>रेशन</t>
+  </si>
+  <si>
+    <t>आधार</t>
+  </si>
+  <si>
+    <t>आय</t>
+  </si>
+  <si>
+    <t>कार्ड</t>
+  </si>
+  <si>
+    <t>नदीचा प्रवाह</t>
+  </si>
+  <si>
+    <t>साप</t>
+  </si>
+  <si>
+    <t>डबल्यु</t>
+  </si>
+  <si>
+    <t>नागमोडी गोष्टी</t>
+  </si>
+  <si>
+    <t>बंब</t>
+  </si>
+  <si>
+    <t>भस्म</t>
+  </si>
+  <si>
+    <t>तेल</t>
+  </si>
+  <si>
+    <t>लाकूड</t>
+  </si>
+  <si>
+    <t>यांचा आगीशी खेळ!</t>
+  </si>
+  <si>
+    <t>लक्ष्मण</t>
+  </si>
+  <si>
+    <t>फडणीस</t>
+  </si>
+  <si>
+    <t>मिरांडा</t>
+  </si>
+  <si>
+    <t>ठाकरे</t>
+  </si>
+  <si>
+    <t>व्यंगचित्रकार</t>
+  </si>
+  <si>
+    <t>कल्पना</t>
+  </si>
+  <si>
+    <t>भूत</t>
+  </si>
+  <si>
+    <t>सँताक्लॉज</t>
+  </si>
+  <si>
+    <t>वास्तवात नसलेल्या गोष्टी</t>
+  </si>
+  <si>
+    <t>बबल रॅप</t>
+  </si>
+  <si>
+    <t>ज्यात बहुतांशी पोकळी असते</t>
+  </si>
+  <si>
+    <t>कांत</t>
+  </si>
+  <si>
+    <t>संत</t>
+  </si>
+  <si>
+    <t>गोळे</t>
+  </si>
+  <si>
+    <t>सुर्वे</t>
+  </si>
+  <si>
+    <t>काही मराठी साहित्यिकांची आडनावे</t>
+  </si>
+  <si>
+    <t>ज्योतिर्लिंग</t>
+  </si>
+  <si>
+    <t>रास</t>
+  </si>
+  <si>
+    <t>महिना</t>
+  </si>
+  <si>
+    <t>इयत्ता</t>
+  </si>
+  <si>
+    <t>बाराच्या संखेने असलेल्या गोष्टी</t>
+  </si>
+  <si>
+    <t>रास्ता</t>
+  </si>
+  <si>
+    <t>नवी</t>
+  </si>
+  <si>
+    <t>कसबा</t>
+  </si>
+  <si>
+    <t>रविवार</t>
+  </si>
+  <si>
+    <t>पेठ</t>
+  </si>
+  <si>
+    <t>खाद्य</t>
+  </si>
+  <si>
+    <t>संगीत</t>
+  </si>
+  <si>
+    <t>मद्य</t>
+  </si>
+  <si>
+    <t>श्रमपरिहाराची साधने</t>
+  </si>
+  <si>
+    <t>मेधा</t>
+  </si>
+  <si>
+    <t>स्मृति</t>
+  </si>
+  <si>
+    <t>आठवण</t>
+  </si>
+  <si>
+    <t>स्मरण</t>
+  </si>
+  <si>
+    <t>मेमरी</t>
+  </si>
+  <si>
+    <t>दशा</t>
+  </si>
+  <si>
+    <t>व्यथा</t>
+  </si>
+  <si>
+    <t>परिस्थिती</t>
+  </si>
+  <si>
+    <t>अवस्था</t>
+  </si>
+  <si>
+    <t>सिच्युएशन</t>
+  </si>
+  <si>
+    <t>मोहरी</t>
+  </si>
+  <si>
+    <t>हिंग</t>
+  </si>
+  <si>
+    <t>हळद</t>
+  </si>
+  <si>
+    <t>फोडणी</t>
+  </si>
+  <si>
+    <t>कथा</t>
+  </si>
+  <si>
+    <t>नचिकेत</t>
+  </si>
+  <si>
+    <t>मोक्ष</t>
+  </si>
+  <si>
+    <t>कठोपनिषद्</t>
+  </si>
+  <si>
+    <t>अभ्यास</t>
+  </si>
+  <si>
+    <t>रियाज</t>
+  </si>
+  <si>
+    <t>सराव</t>
+  </si>
+  <si>
+    <t>मेहनत</t>
+  </si>
+  <si>
+    <t>शिकणे</t>
+  </si>
+  <si>
+    <t>लेझर</t>
+  </si>
+  <si>
+    <t>दीपस्तंभ</t>
+  </si>
+  <si>
+    <t>ट्यूबलाईट</t>
+  </si>
+  <si>
+    <t>प्रखर गोष्टी</t>
+  </si>
+  <si>
+    <t>निर्या</t>
+  </si>
+  <si>
+    <t>जर</t>
+  </si>
+  <si>
+    <t>घडी</t>
+  </si>
+  <si>
+    <t>साडी</t>
+  </si>
+  <si>
+    <t>सोनं</t>
+  </si>
+  <si>
+    <t>मणि</t>
+  </si>
+  <si>
+    <t>गोल</t>
+  </si>
+  <si>
+    <t>अंगठी</t>
+  </si>
+  <si>
+    <t>ढीग</t>
+  </si>
+  <si>
+    <t>मनोरा</t>
+  </si>
+  <si>
+    <t>लगोरी</t>
+  </si>
+  <si>
+    <t>ज्या गोष्टी रचता येतात</t>
+  </si>
+  <si>
+    <t>बाळ</t>
+  </si>
+  <si>
+    <t>प्रेक्षक</t>
+  </si>
+  <si>
+    <t>चांभार</t>
+  </si>
+  <si>
+    <t>पर्यटक</t>
+  </si>
+  <si>
+    <t>ज्यांना कुतूहल असते</t>
+  </si>
+  <si>
+    <t>घनिष्ठ</t>
+  </si>
+  <si>
+    <t>सांगत</t>
+  </si>
+  <si>
+    <t>यार</t>
+  </si>
+  <si>
+    <t>गट्टी</t>
+  </si>
+  <si>
+    <t>मैत्री</t>
+  </si>
+  <si>
+    <t>वेताळ</t>
+  </si>
+  <si>
+    <t>वाघुळ</t>
+  </si>
+  <si>
+    <t>टारझन</t>
+  </si>
+  <si>
+    <t>झाडाला लोंबकळणाऱे</t>
+  </si>
+  <si>
+    <t>गोबी</t>
+  </si>
+  <si>
+    <t>थार</t>
+  </si>
+  <si>
+    <t>कालाहरी</t>
+  </si>
+  <si>
+    <t>मोहावी</t>
+  </si>
+  <si>
+    <t>वाळवंटं</t>
+  </si>
+  <si>
+    <t>आरोह</t>
+  </si>
+  <si>
+    <t>गिर्यारोहक</t>
+  </si>
+  <si>
+    <t>ताप</t>
+  </si>
+  <si>
+    <t>चढणार्‍या गोष्टी</t>
+  </si>
+  <si>
+    <t>अमर्त्य</t>
+  </si>
+  <si>
+    <t>रवींद्र</t>
+  </si>
+  <si>
+    <t>कॆलाश</t>
+  </si>
+  <si>
+    <t>भारतीय नोबेल विजेत्यांची पहिली नावे</t>
+  </si>
+  <si>
+    <t>विदुर</t>
+  </si>
+  <si>
+    <t>विश्वेश्वर</t>
+  </si>
+  <si>
+    <t>"महात्मा" पदवी असलेले</t>
+  </si>
+  <si>
+    <t>सुदर्शन</t>
+  </si>
+  <si>
+    <t>परमवीर</t>
+  </si>
+  <si>
+    <t>मूलाधार</t>
+  </si>
+  <si>
+    <t>बिड</t>
+  </si>
+  <si>
+    <t>बिम</t>
+  </si>
+  <si>
+    <t>बित</t>
+  </si>
+  <si>
+    <t>बिर</t>
+  </si>
+  <si>
+    <t>अर्थहीन पहिले, पण अर्थपूर्ण दुसरे शब्द (हाड-, काम-, हात-, घर-)</t>
+  </si>
+  <si>
+    <t>माध्यस्त</t>
+  </si>
+  <si>
+    <t>पुल</t>
+  </si>
+  <si>
+    <t>लग्न</t>
+  </si>
+  <si>
+    <t>फोन कॉल</t>
+  </si>
+  <si>
+    <t>दोन घटकांना जोडणारे</t>
+  </si>
+  <si>
+    <t>कुंकू</t>
+  </si>
+  <si>
+    <t>जास्वंद</t>
+  </si>
+  <si>
+    <t>थांबा</t>
+  </si>
+  <si>
+    <t>बुद्धिबळाच्या पटावर</t>
   </si>
 </sst>
 </file>
@@ -2624,7 +3746,28 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2976,10 +4119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:L223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3067,7 +4210,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45642</v>
+        <v>45643</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3421,7 +4564,7 @@
         <v>45628</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J93" si="6">J11+1</f>
+        <f t="shared" ref="J12:J95" si="6">J11+1</f>
         <v>10</v>
       </c>
     </row>
@@ -3553,11 +4696,11 @@
         <v>86</v>
       </c>
       <c r="H16">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H16:H79" si="7">INT(J16/3)</f>
         <v>4</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I16:I79" si="8">$L$1+H16</f>
         <v>45629</v>
       </c>
       <c r="J16">
@@ -3588,11 +4731,11 @@
         <v>45</v>
       </c>
       <c r="H17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>45630</v>
       </c>
       <c r="J17">
@@ -3623,11 +4766,11 @@
         <v>138</v>
       </c>
       <c r="H18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>45630</v>
       </c>
       <c r="J18">
@@ -3658,11 +4801,11 @@
         <v>8</v>
       </c>
       <c r="H19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>45630</v>
       </c>
       <c r="J19">
@@ -3693,11 +4836,11 @@
         <v>142</v>
       </c>
       <c r="H20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>45631</v>
       </c>
       <c r="J20">
@@ -3728,11 +4871,11 @@
         <v>139</v>
       </c>
       <c r="H21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>45631</v>
       </c>
       <c r="J21">
@@ -3763,11 +4906,11 @@
         <v>143</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22" si="7">INT(J22/3)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" ref="I22" si="8">$L$1+H22</f>
+        <f t="shared" si="8"/>
         <v>45631</v>
       </c>
       <c r="J22">
@@ -3798,11 +4941,11 @@
         <v>8</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:H27" si="9">INT(J23/3)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" ref="I23:I27" si="10">$L$1+H23</f>
+        <f t="shared" si="8"/>
         <v>45632</v>
       </c>
       <c r="J23">
@@ -3833,11 +4976,11 @@
         <v>44</v>
       </c>
       <c r="H24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>45632</v>
       </c>
       <c r="J24">
@@ -3862,17 +5005,17 @@
         <v>372</v>
       </c>
       <c r="F25" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>185</v>
       </c>
       <c r="H25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>45632</v>
       </c>
       <c r="J25">
@@ -3903,11 +5046,11 @@
         <v>140</v>
       </c>
       <c r="H26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>45633</v>
       </c>
       <c r="J26">
@@ -3938,11 +5081,11 @@
         <v>8</v>
       </c>
       <c r="H27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>45633</v>
       </c>
       <c r="J27">
@@ -3967,17 +5110,17 @@
         <v>428</v>
       </c>
       <c r="F28" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>434</v>
       </c>
       <c r="H28">
-        <f t="shared" ref="H28:H52" si="11">INT(J28/3)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" ref="I28:I52" si="12">$L$1+H28</f>
+        <f t="shared" si="8"/>
         <v>45633</v>
       </c>
       <c r="J28">
@@ -4008,11 +5151,11 @@
         <v>46</v>
       </c>
       <c r="H29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45634</v>
       </c>
       <c r="J29">
@@ -4043,11 +5186,11 @@
         <v>139</v>
       </c>
       <c r="H30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45634</v>
       </c>
       <c r="J30">
@@ -4078,11 +5221,11 @@
         <v>8</v>
       </c>
       <c r="H31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45634</v>
       </c>
       <c r="J31">
@@ -4092,29 +5235,29 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B32" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C32" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D32" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E32" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F32" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45635</v>
       </c>
       <c r="J32">
@@ -4124,29 +5267,29 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B33" t="s">
         <v>373</v>
       </c>
       <c r="C33" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="D33" t="s">
         <v>228</v>
       </c>
       <c r="E33" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F33" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45635</v>
       </c>
       <c r="J33">
@@ -4156,29 +5299,29 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B34" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="C34" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F34" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45635</v>
       </c>
       <c r="J34">
@@ -4209,11 +5352,11 @@
         <v>46</v>
       </c>
       <c r="H35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45636</v>
       </c>
       <c r="J35">
@@ -4235,7 +5378,7 @@
         <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>341</v>
@@ -4244,11 +5387,11 @@
         <v>8</v>
       </c>
       <c r="H36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45636</v>
       </c>
       <c r="J36">
@@ -4270,7 +5413,7 @@
         <v>111</v>
       </c>
       <c r="E37" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>85</v>
@@ -4279,11 +5422,11 @@
         <v>141</v>
       </c>
       <c r="H37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45636</v>
       </c>
       <c r="J37">
@@ -4293,29 +5436,29 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="B38" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C38" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="D38" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E38" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F38" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45637</v>
       </c>
       <c r="J38">
@@ -4325,29 +5468,29 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B39" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E39" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="F39" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45637</v>
       </c>
       <c r="J39">
@@ -4378,11 +5521,11 @@
         <v>143</v>
       </c>
       <c r="H40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45637</v>
       </c>
       <c r="J40">
@@ -4413,11 +5556,11 @@
         <v>87</v>
       </c>
       <c r="H41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45638</v>
       </c>
       <c r="J41">
@@ -4427,29 +5570,29 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B42" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C42" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="D42" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E42" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F42" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45638</v>
       </c>
       <c r="J42">
@@ -4459,29 +5602,29 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B43" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C43" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="D43" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E43" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F43" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45638</v>
       </c>
       <c r="J43">
@@ -4506,17 +5649,17 @@
         <v>380</v>
       </c>
       <c r="F44" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>275</v>
       </c>
       <c r="H44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45639</v>
       </c>
       <c r="J44">
@@ -4547,11 +5690,11 @@
         <v>45</v>
       </c>
       <c r="H45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45639</v>
       </c>
       <c r="J45">
@@ -4561,29 +5704,29 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B46" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C46" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D46" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="E46" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F46" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45639</v>
       </c>
       <c r="J46">
@@ -4596,26 +5739,26 @@
         <v>228</v>
       </c>
       <c r="B47" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C47" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D47" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E47" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="F47" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45640</v>
       </c>
       <c r="J47">
@@ -4625,29 +5768,29 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B48" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C48" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D48" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E48" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F48" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45640</v>
       </c>
       <c r="J48">
@@ -4678,11 +5821,11 @@
         <v>87</v>
       </c>
       <c r="H49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45640</v>
       </c>
       <c r="J49">
@@ -4707,17 +5850,17 @@
         <v>418</v>
       </c>
       <c r="F50" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>275</v>
       </c>
       <c r="H50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45641</v>
       </c>
       <c r="J50">
@@ -4733,7 +5876,7 @@
         <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="D51" t="s">
         <v>121</v>
@@ -4748,11 +5891,11 @@
         <v>142</v>
       </c>
       <c r="H51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="I51" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45641</v>
       </c>
       <c r="J51">
@@ -4762,7 +5905,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="B52" t="s">
         <v>36</v>
@@ -4783,11 +5926,11 @@
         <v>8</v>
       </c>
       <c r="H52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45641</v>
       </c>
       <c r="J52">
@@ -4818,11 +5961,11 @@
         <v>187</v>
       </c>
       <c r="H53">
-        <f t="shared" ref="H53:H66" si="13">INT(J53/3)</f>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" ref="I53:I66" si="14">$L$1+H53</f>
+        <f t="shared" si="8"/>
         <v>45642</v>
       </c>
       <c r="J53">
@@ -4835,7 +5978,7 @@
         <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="C54" t="s">
         <v>213</v>
@@ -4853,11 +5996,11 @@
         <v>276</v>
       </c>
       <c r="H54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45642</v>
       </c>
       <c r="J54">
@@ -4882,17 +6025,17 @@
         <v>435</v>
       </c>
       <c r="F55" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>275</v>
       </c>
       <c r="H55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45642</v>
       </c>
       <c r="J55">
@@ -4905,26 +6048,26 @@
         <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="C56" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="D56" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="E56" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="F56" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="I56" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45643</v>
       </c>
       <c r="J56">
@@ -4940,7 +6083,7 @@
         <v>232</v>
       </c>
       <c r="C57" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="D57" t="s">
         <v>234</v>
@@ -4955,11 +6098,11 @@
         <v>139</v>
       </c>
       <c r="H57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45643</v>
       </c>
       <c r="J57">
@@ -4969,29 +6112,29 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="B58" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="C58" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="D58" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="E58" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="F58" t="s">
         <v>446</v>
       </c>
       <c r="H58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45643</v>
       </c>
       <c r="J58">
@@ -5001,30 +6144,29 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>470</v>
+      </c>
+      <c r="B59" t="s">
+        <v>471</v>
+      </c>
+      <c r="C59" t="s">
+        <v>472</v>
+      </c>
+      <c r="D59" t="s">
+        <v>473</v>
+      </c>
+      <c r="E59" t="s">
         <v>661</v>
       </c>
-      <c r="B59" t="s">
-        <v>658</v>
-      </c>
-      <c r="C59" t="s">
-        <v>659</v>
-      </c>
-      <c r="D59" t="s">
-        <v>660</v>
-      </c>
-      <c r="E59" t="s">
-        <v>662</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="G59" s="1"/>
+      <c r="F59" t="s">
+        <v>620</v>
+      </c>
       <c r="H59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="I59" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45644</v>
       </c>
       <c r="J59">
@@ -5034,29 +6176,29 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>472</v>
+        <v>662</v>
       </c>
       <c r="B60" t="s">
-        <v>473</v>
+        <v>663</v>
       </c>
       <c r="C60" t="s">
         <v>474</v>
       </c>
       <c r="D60" t="s">
-        <v>475</v>
+        <v>664</v>
       </c>
       <c r="E60" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F60" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45644</v>
       </c>
       <c r="J60">
@@ -5066,29 +6208,29 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>666</v>
+      </c>
+      <c r="B61" t="s">
         <v>476</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>477</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>478</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>479</v>
       </c>
-      <c r="E61" t="s">
-        <v>480</v>
-      </c>
       <c r="F61" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="I61" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45644</v>
       </c>
       <c r="J61">
@@ -5098,29 +6240,30 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>481</v>
+        <v>650</v>
       </c>
       <c r="B62" t="s">
-        <v>482</v>
+        <v>647</v>
       </c>
       <c r="C62" t="s">
-        <v>483</v>
+        <v>648</v>
       </c>
       <c r="D62" t="s">
-        <v>484</v>
+        <v>649</v>
       </c>
       <c r="E62" t="s">
-        <v>485</v>
-      </c>
-      <c r="F62" t="s">
-        <v>631</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G62" s="1"/>
       <c r="H62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45645</v>
       </c>
       <c r="J62">
@@ -5130,32 +6273,29 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>373</v>
+        <v>475</v>
       </c>
       <c r="B63" t="s">
-        <v>374</v>
+        <v>476</v>
       </c>
       <c r="C63" t="s">
-        <v>375</v>
+        <v>477</v>
       </c>
       <c r="D63" t="s">
-        <v>376</v>
+        <v>478</v>
       </c>
       <c r="E63" t="s">
-        <v>377</v>
+        <v>479</v>
       </c>
       <c r="F63" t="s">
-        <v>652</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>275</v>
+        <v>620</v>
       </c>
       <c r="H63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="I63" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45645</v>
       </c>
       <c r="J63">
@@ -5165,32 +6305,32 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>373</v>
       </c>
       <c r="B64" t="s">
-        <v>208</v>
+        <v>374</v>
       </c>
       <c r="C64" t="s">
-        <v>209</v>
+        <v>375</v>
       </c>
       <c r="D64" t="s">
-        <v>210</v>
+        <v>376</v>
       </c>
       <c r="E64" t="s">
-        <v>211</v>
+        <v>377</v>
       </c>
       <c r="F64" t="s">
-        <v>250</v>
+        <v>641</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>275</v>
       </c>
       <c r="H64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="I64" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45645</v>
       </c>
       <c r="J64">
@@ -5200,32 +6340,32 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>310</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>311</v>
+        <v>208</v>
       </c>
       <c r="C65" t="s">
-        <v>312</v>
+        <v>209</v>
       </c>
       <c r="D65" t="s">
-        <v>313</v>
+        <v>210</v>
       </c>
       <c r="E65" t="s">
-        <v>318</v>
+        <v>211</v>
       </c>
       <c r="F65" t="s">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>138</v>
+        <v>275</v>
       </c>
       <c r="H65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45646</v>
       </c>
       <c r="J65">
@@ -5235,32 +6375,32 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>149</v>
+        <v>310</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>311</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>312</v>
       </c>
       <c r="D66" t="s">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="E66" t="s">
-        <v>153</v>
+        <v>318</v>
       </c>
       <c r="F66" t="s">
-        <v>184</v>
+        <v>319</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="H66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45646</v>
       </c>
       <c r="J66">
@@ -5270,32 +6410,32 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>385</v>
+        <v>149</v>
       </c>
       <c r="B67" t="s">
-        <v>386</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
-        <v>387</v>
+        <v>151</v>
       </c>
       <c r="D67" t="s">
-        <v>388</v>
+        <v>152</v>
       </c>
       <c r="E67" t="s">
-        <v>423</v>
+        <v>153</v>
       </c>
       <c r="F67" t="s">
-        <v>652</v>
+        <v>184</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>275</v>
+        <v>186</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H55:H118" si="15">INT(J67/3)</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" ref="I55:I118" si="16">$L$1+H67</f>
+        <f t="shared" si="8"/>
         <v>45646</v>
       </c>
       <c r="J67">
@@ -5305,32 +6445,32 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="B68" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="C68" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="D68" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E68" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="F68" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>433</v>
+        <v>275</v>
       </c>
       <c r="H68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45647</v>
       </c>
       <c r="J68">
@@ -5340,29 +6480,32 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>468</v>
+        <v>406</v>
       </c>
       <c r="B69" t="s">
-        <v>469</v>
+        <v>407</v>
       </c>
       <c r="C69" t="s">
-        <v>210</v>
+        <v>408</v>
       </c>
       <c r="D69" t="s">
-        <v>470</v>
+        <v>409</v>
       </c>
       <c r="E69" t="s">
-        <v>471</v>
+        <v>410</v>
       </c>
       <c r="F69" t="s">
-        <v>631</v>
+        <v>641</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="H69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45647</v>
       </c>
       <c r="J69">
@@ -5372,32 +6515,29 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>245</v>
+        <v>463</v>
       </c>
       <c r="B70" t="s">
-        <v>246</v>
+        <v>468</v>
       </c>
       <c r="C70" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="D70" t="s">
-        <v>248</v>
+        <v>464</v>
       </c>
       <c r="E70" t="s">
-        <v>249</v>
+        <v>1046</v>
       </c>
       <c r="F70" t="s">
-        <v>250</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>141</v>
+        <v>620</v>
       </c>
       <c r="H70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="I70" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45647</v>
       </c>
       <c r="J70">
@@ -5407,29 +6547,32 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="B71" t="s">
-        <v>593</v>
+        <v>246</v>
       </c>
       <c r="C71" t="s">
-        <v>594</v>
+        <v>247</v>
       </c>
       <c r="D71" t="s">
-        <v>595</v>
+        <v>248</v>
       </c>
       <c r="E71" t="s">
-        <v>632</v>
+        <v>249</v>
       </c>
       <c r="F71" t="s">
-        <v>631</v>
+        <v>250</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="H71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="I71" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45648</v>
       </c>
       <c r="J71">
@@ -5439,29 +6582,29 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>596</v>
+        <v>213</v>
       </c>
       <c r="B72" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C72" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="D72" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="E72" t="s">
-        <v>600</v>
+        <v>621</v>
       </c>
       <c r="F72" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="I72" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45648</v>
       </c>
       <c r="J72">
@@ -5471,32 +6614,29 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>419</v>
+        <v>590</v>
       </c>
       <c r="B73" t="s">
-        <v>420</v>
+        <v>591</v>
       </c>
       <c r="C73" t="s">
-        <v>421</v>
+        <v>592</v>
       </c>
       <c r="D73" t="s">
-        <v>422</v>
+        <v>593</v>
       </c>
       <c r="E73" t="s">
-        <v>429</v>
+        <v>594</v>
       </c>
       <c r="F73" t="s">
-        <v>652</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>275</v>
+        <v>620</v>
       </c>
       <c r="H73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="I73" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45648</v>
       </c>
       <c r="J73">
@@ -5506,32 +6646,29 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>278</v>
+        <v>846</v>
       </c>
       <c r="B74" t="s">
-        <v>279</v>
+        <v>847</v>
       </c>
       <c r="C74" t="s">
-        <v>280</v>
+        <v>848</v>
       </c>
       <c r="D74" t="s">
-        <v>281</v>
+        <v>849</v>
       </c>
       <c r="E74" t="s">
-        <v>318</v>
+        <v>850</v>
       </c>
       <c r="F74" t="s">
-        <v>319</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>138</v>
+        <v>620</v>
       </c>
       <c r="H74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="I74" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45649</v>
       </c>
       <c r="J74">
@@ -5541,32 +6678,32 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>293</v>
+        <v>419</v>
       </c>
       <c r="B75" t="s">
-        <v>294</v>
+        <v>420</v>
       </c>
       <c r="C75" t="s">
-        <v>295</v>
+        <v>421</v>
       </c>
       <c r="D75" t="s">
-        <v>296</v>
+        <v>422</v>
       </c>
       <c r="E75" t="s">
-        <v>297</v>
+        <v>429</v>
       </c>
       <c r="F75" t="s">
-        <v>319</v>
+        <v>641</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="H75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="I75" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45649</v>
       </c>
       <c r="J75">
@@ -5576,16 +6713,16 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B76" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C76" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D76" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E76" t="s">
         <v>318</v>
@@ -5597,11 +6734,11 @@
         <v>138</v>
       </c>
       <c r="H76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="I76" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45649</v>
       </c>
       <c r="J76">
@@ -5611,29 +6748,32 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>496</v>
+        <v>293</v>
       </c>
       <c r="B77" t="s">
-        <v>497</v>
+        <v>294</v>
       </c>
       <c r="C77" t="s">
-        <v>639</v>
+        <v>295</v>
       </c>
       <c r="D77" t="s">
-        <v>640</v>
+        <v>296</v>
       </c>
       <c r="E77" t="s">
-        <v>641</v>
+        <v>297</v>
       </c>
       <c r="F77" t="s">
-        <v>631</v>
+        <v>319</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="I77" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45650</v>
       </c>
       <c r="J77">
@@ -5643,29 +6783,32 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>498</v>
+        <v>289</v>
       </c>
       <c r="B78" t="s">
-        <v>499</v>
+        <v>290</v>
       </c>
       <c r="C78" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="D78" t="s">
-        <v>642</v>
+        <v>292</v>
       </c>
       <c r="E78" t="s">
-        <v>500</v>
+        <v>318</v>
       </c>
       <c r="F78" t="s">
-        <v>631</v>
+        <v>319</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="I78" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45650</v>
       </c>
       <c r="J78">
@@ -5675,32 +6818,29 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>320</v>
+        <v>490</v>
       </c>
       <c r="B79" t="s">
-        <v>321</v>
+        <v>491</v>
       </c>
       <c r="C79" t="s">
-        <v>322</v>
+        <v>628</v>
       </c>
       <c r="D79" t="s">
-        <v>323</v>
+        <v>629</v>
       </c>
       <c r="E79" t="s">
-        <v>324</v>
+        <v>630</v>
       </c>
       <c r="F79" t="s">
-        <v>319</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>138</v>
+        <v>620</v>
       </c>
       <c r="H79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="I79" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45650</v>
       </c>
       <c r="J79">
@@ -5710,32 +6850,29 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>492</v>
       </c>
       <c r="B80" t="s">
-        <v>282</v>
+        <v>493</v>
       </c>
       <c r="C80" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="D80" t="s">
-        <v>284</v>
+        <v>631</v>
       </c>
       <c r="E80" t="s">
-        <v>318</v>
+        <v>494</v>
       </c>
       <c r="F80" t="s">
-        <v>319</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>138</v>
+        <v>620</v>
       </c>
       <c r="H80">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H80:H143" si="9">INT(J80/3)</f>
         <v>26</v>
       </c>
       <c r="I80" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="I80:I143" si="10">$L$1+H80</f>
         <v>45651</v>
       </c>
       <c r="J80">
@@ -5745,29 +6882,32 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>458</v>
+        <v>320</v>
       </c>
       <c r="B81" t="s">
-        <v>459</v>
+        <v>321</v>
       </c>
       <c r="C81" t="s">
-        <v>460</v>
+        <v>322</v>
       </c>
       <c r="D81" t="s">
-        <v>461</v>
+        <v>323</v>
       </c>
       <c r="E81" t="s">
-        <v>462</v>
+        <v>324</v>
       </c>
       <c r="F81" t="s">
-        <v>631</v>
+        <v>319</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="I81" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45651</v>
       </c>
       <c r="J81">
@@ -5777,29 +6917,32 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>463</v>
+        <v>48</v>
       </c>
       <c r="B82" t="s">
-        <v>464</v>
+        <v>282</v>
       </c>
       <c r="C82" t="s">
-        <v>465</v>
+        <v>283</v>
       </c>
       <c r="D82" t="s">
-        <v>466</v>
+        <v>284</v>
       </c>
       <c r="E82" t="s">
-        <v>467</v>
+        <v>318</v>
       </c>
       <c r="F82" t="s">
-        <v>631</v>
+        <v>319</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="I82" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45651</v>
       </c>
       <c r="J82">
@@ -5809,32 +6952,29 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="B83" t="s">
-        <v>390</v>
+        <v>459</v>
       </c>
       <c r="C83" t="s">
-        <v>391</v>
+        <v>460</v>
       </c>
       <c r="D83" t="s">
-        <v>392</v>
+        <v>461</v>
       </c>
       <c r="E83" t="s">
-        <v>393</v>
+        <v>462</v>
       </c>
       <c r="F83" t="s">
-        <v>652</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>430</v>
+        <v>620</v>
       </c>
       <c r="H83">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="I83" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45652</v>
       </c>
       <c r="J83">
@@ -5844,32 +6984,29 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>221</v>
+        <v>463</v>
       </c>
       <c r="B84" t="s">
-        <v>222</v>
+        <v>464</v>
       </c>
       <c r="C84" t="s">
-        <v>223</v>
+        <v>465</v>
       </c>
       <c r="D84" t="s">
-        <v>224</v>
+        <v>466</v>
       </c>
       <c r="E84" t="s">
-        <v>225</v>
+        <v>467</v>
       </c>
       <c r="F84" t="s">
-        <v>250</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>138</v>
+        <v>620</v>
       </c>
       <c r="H84">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="I84" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45652</v>
       </c>
       <c r="J84">
@@ -5879,29 +7016,32 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>486</v>
+        <v>389</v>
       </c>
       <c r="B85" t="s">
-        <v>487</v>
+        <v>390</v>
       </c>
       <c r="C85" t="s">
-        <v>488</v>
+        <v>391</v>
       </c>
       <c r="D85" t="s">
-        <v>489</v>
+        <v>392</v>
       </c>
       <c r="E85" t="s">
-        <v>490</v>
+        <v>393</v>
       </c>
       <c r="F85" t="s">
-        <v>631</v>
+        <v>641</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="H85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="I85" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45652</v>
       </c>
       <c r="J85">
@@ -5911,29 +7051,32 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>491</v>
+        <v>221</v>
       </c>
       <c r="B86" t="s">
-        <v>492</v>
+        <v>222</v>
       </c>
       <c r="C86" t="s">
-        <v>493</v>
+        <v>223</v>
       </c>
       <c r="D86" t="s">
-        <v>494</v>
+        <v>224</v>
       </c>
       <c r="E86" t="s">
-        <v>495</v>
+        <v>225</v>
       </c>
       <c r="F86" t="s">
-        <v>631</v>
+        <v>250</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45653</v>
       </c>
       <c r="J86">
@@ -5943,32 +7086,29 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>314</v>
+        <v>480</v>
       </c>
       <c r="B87" t="s">
-        <v>315</v>
+        <v>481</v>
       </c>
       <c r="C87" t="s">
-        <v>316</v>
+        <v>482</v>
       </c>
       <c r="D87" t="s">
-        <v>317</v>
+        <v>483</v>
       </c>
       <c r="E87" t="s">
-        <v>318</v>
+        <v>484</v>
       </c>
       <c r="F87" t="s">
-        <v>319</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>138</v>
+        <v>620</v>
       </c>
       <c r="H87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="I87" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45653</v>
       </c>
       <c r="J87">
@@ -5978,32 +7118,29 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>159</v>
+        <v>485</v>
       </c>
       <c r="B88" t="s">
-        <v>160</v>
+        <v>486</v>
       </c>
       <c r="C88" t="s">
-        <v>161</v>
+        <v>487</v>
       </c>
       <c r="D88" t="s">
-        <v>162</v>
+        <v>488</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>489</v>
       </c>
       <c r="F88" t="s">
-        <v>184</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>143</v>
+        <v>620</v>
       </c>
       <c r="H88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="I88" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45653</v>
       </c>
       <c r="J88">
@@ -6013,29 +7150,32 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>501</v>
+        <v>314</v>
       </c>
       <c r="B89" t="s">
-        <v>502</v>
+        <v>315</v>
       </c>
       <c r="C89" t="s">
-        <v>503</v>
+        <v>316</v>
       </c>
       <c r="D89" t="s">
-        <v>504</v>
+        <v>317</v>
       </c>
       <c r="E89" t="s">
-        <v>505</v>
+        <v>318</v>
       </c>
       <c r="F89" t="s">
-        <v>631</v>
+        <v>319</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="I89" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45654</v>
       </c>
       <c r="J89">
@@ -6045,29 +7185,32 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>506</v>
+        <v>159</v>
       </c>
       <c r="B90" t="s">
-        <v>507</v>
+        <v>160</v>
       </c>
       <c r="C90" t="s">
-        <v>508</v>
+        <v>161</v>
       </c>
       <c r="D90" t="s">
-        <v>509</v>
+        <v>162</v>
       </c>
       <c r="E90" t="s">
-        <v>510</v>
+        <v>163</v>
       </c>
       <c r="F90" t="s">
-        <v>631</v>
+        <v>184</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="H90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="I90" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45654</v>
       </c>
       <c r="J90">
@@ -6077,29 +7220,29 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="B91" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="C91" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="D91" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E91" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="F91" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="I91" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45654</v>
       </c>
       <c r="J91">
@@ -6109,32 +7252,29 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>169</v>
+        <v>500</v>
       </c>
       <c r="B92" t="s">
-        <v>170</v>
+        <v>501</v>
       </c>
       <c r="C92" t="s">
-        <v>171</v>
+        <v>502</v>
       </c>
       <c r="D92" t="s">
-        <v>172</v>
+        <v>503</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>504</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>138</v>
+        <v>620</v>
       </c>
       <c r="H92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="I92" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45655</v>
       </c>
       <c r="J92">
@@ -6144,32 +7284,29 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>198</v>
+        <v>505</v>
       </c>
       <c r="B93" t="s">
-        <v>199</v>
+        <v>506</v>
       </c>
       <c r="C93" t="s">
-        <v>200</v>
+        <v>507</v>
       </c>
       <c r="D93" t="s">
-        <v>201</v>
+        <v>508</v>
       </c>
       <c r="E93" t="s">
-        <v>202</v>
+        <v>509</v>
       </c>
       <c r="F93" t="s">
-        <v>250</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>138</v>
+        <v>620</v>
       </c>
       <c r="H93">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="I93" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45655</v>
       </c>
       <c r="J93">
@@ -6179,1155 +7316,1158 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>302</v>
+        <v>169</v>
       </c>
       <c r="B94" t="s">
-        <v>303</v>
+        <v>170</v>
       </c>
       <c r="C94" t="s">
-        <v>304</v>
+        <v>171</v>
       </c>
       <c r="D94" t="s">
-        <v>305</v>
+        <v>172</v>
       </c>
       <c r="E94" t="s">
-        <v>318</v>
+        <v>173</v>
       </c>
       <c r="F94" t="s">
-        <v>319</v>
+        <v>184</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>138</v>
       </c>
       <c r="H94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="I94" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45655</v>
       </c>
       <c r="J94">
-        <f t="shared" ref="J94:J137" si="17">J93+1</f>
+        <f t="shared" ref="J94:J157" si="11">J93+1</f>
         <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>580</v>
+        <v>198</v>
       </c>
       <c r="B95" t="s">
-        <v>581</v>
+        <v>199</v>
       </c>
       <c r="C95" t="s">
-        <v>555</v>
+        <v>200</v>
       </c>
       <c r="D95" t="s">
-        <v>536</v>
+        <v>201</v>
       </c>
       <c r="E95" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="F95" t="s">
-        <v>631</v>
+        <v>250</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="I95" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45656</v>
       </c>
       <c r="J95">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>162</v>
+        <v>302</v>
       </c>
       <c r="B96" t="s">
-        <v>536</v>
+        <v>303</v>
       </c>
       <c r="C96" t="s">
-        <v>582</v>
+        <v>304</v>
       </c>
       <c r="D96" t="s">
-        <v>583</v>
+        <v>305</v>
       </c>
       <c r="E96" t="s">
-        <v>584</v>
+        <v>318</v>
       </c>
       <c r="F96" t="s">
-        <v>631</v>
+        <v>319</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H96">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="I96" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45656</v>
       </c>
       <c r="J96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="B97" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="C97" t="s">
-        <v>587</v>
+        <v>549</v>
       </c>
       <c r="D97" t="s">
-        <v>151</v>
+        <v>530</v>
       </c>
       <c r="E97" t="s">
-        <v>588</v>
+        <v>162</v>
       </c>
       <c r="F97" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="I97" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45656</v>
       </c>
       <c r="J97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>395</v>
+        <v>162</v>
       </c>
       <c r="B98" t="s">
-        <v>396</v>
+        <v>530</v>
       </c>
       <c r="C98" t="s">
-        <v>397</v>
+        <v>576</v>
       </c>
       <c r="D98" t="s">
-        <v>398</v>
+        <v>577</v>
       </c>
       <c r="E98" t="s">
-        <v>399</v>
+        <v>578</v>
       </c>
       <c r="F98" t="s">
-        <v>652</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>275</v>
+        <v>620</v>
       </c>
       <c r="H98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="I98" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45657</v>
       </c>
       <c r="J98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>26</v>
+        <v>579</v>
       </c>
       <c r="B99" t="s">
-        <v>27</v>
+        <v>580</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>581</v>
       </c>
       <c r="D99" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="E99" t="s">
-        <v>30</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>46</v>
+        <v>582</v>
+      </c>
+      <c r="F99" t="s">
+        <v>620</v>
       </c>
       <c r="H99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="I99" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45657</v>
       </c>
       <c r="J99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>64</v>
+        <v>395</v>
       </c>
       <c r="B100" t="s">
-        <v>65</v>
+        <v>396</v>
       </c>
       <c r="C100" t="s">
-        <v>66</v>
+        <v>397</v>
       </c>
       <c r="D100" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="E100" t="s">
-        <v>67</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>85</v>
+        <v>399</v>
+      </c>
+      <c r="F100" t="s">
+        <v>641</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>46</v>
+        <v>275</v>
       </c>
       <c r="H100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="I100" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45657</v>
       </c>
       <c r="J100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>413</v>
+        <v>26</v>
       </c>
       <c r="B101" t="s">
-        <v>548</v>
+        <v>27</v>
       </c>
       <c r="C101" t="s">
-        <v>412</v>
+        <v>28</v>
       </c>
       <c r="D101" t="s">
-        <v>414</v>
+        <v>29</v>
       </c>
       <c r="E101" t="s">
-        <v>549</v>
-      </c>
-      <c r="F101" t="s">
-        <v>631</v>
+        <v>30</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="H101">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="I101" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45658</v>
       </c>
       <c r="J101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>550</v>
+        <v>64</v>
       </c>
       <c r="B102" t="s">
-        <v>551</v>
+        <v>65</v>
       </c>
       <c r="C102" t="s">
-        <v>552</v>
+        <v>66</v>
       </c>
       <c r="D102" t="s">
-        <v>553</v>
+        <v>367</v>
       </c>
       <c r="E102" t="s">
-        <v>554</v>
-      </c>
-      <c r="F102" t="s">
-        <v>631</v>
+        <v>67</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="H102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="I102" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45658</v>
       </c>
       <c r="J102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>486</v>
+        <v>413</v>
       </c>
       <c r="B103" t="s">
-        <v>394</v>
+        <v>542</v>
       </c>
       <c r="C103" t="s">
-        <v>555</v>
+        <v>412</v>
       </c>
       <c r="D103" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="E103" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="F103" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H103">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="I103" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45658</v>
       </c>
       <c r="J103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="B104" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="C104" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="D104" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="E104" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="F104" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="I104" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45659</v>
       </c>
       <c r="J104">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>563</v>
+        <v>480</v>
       </c>
       <c r="B105" t="s">
-        <v>564</v>
+        <v>394</v>
       </c>
       <c r="C105" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="D105" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="E105" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="F105" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="I105" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45659</v>
       </c>
       <c r="J105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>179</v>
+        <v>552</v>
       </c>
       <c r="B106" t="s">
-        <v>180</v>
+        <v>553</v>
       </c>
       <c r="C106" t="s">
-        <v>181</v>
+        <v>554</v>
       </c>
       <c r="D106" t="s">
-        <v>182</v>
+        <v>555</v>
       </c>
       <c r="E106" t="s">
-        <v>183</v>
+        <v>556</v>
       </c>
       <c r="F106" t="s">
-        <v>184</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>185</v>
+        <v>620</v>
       </c>
       <c r="H106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="I106" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45659</v>
       </c>
       <c r="J106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>557</v>
       </c>
       <c r="B107" t="s">
-        <v>49</v>
+        <v>558</v>
       </c>
       <c r="C107" t="s">
-        <v>50</v>
+        <v>559</v>
       </c>
       <c r="D107" t="s">
-        <v>51</v>
+        <v>560</v>
       </c>
       <c r="E107" t="s">
-        <v>52</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>86</v>
+        <v>561</v>
+      </c>
+      <c r="F107" t="s">
+        <v>620</v>
       </c>
       <c r="H107">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="I107" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45660</v>
       </c>
       <c r="J107">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="B108" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="C108" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="D108" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="E108" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="F108" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="H108">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="I108" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45660</v>
       </c>
       <c r="J108">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="B109" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="C109" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="D109" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="E109" t="s">
-        <v>178</v>
-      </c>
-      <c r="F109" t="s">
-        <v>184</v>
+        <v>52</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="H109">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="I109" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45660</v>
       </c>
       <c r="J109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>621</v>
+        <v>226</v>
       </c>
       <c r="B110" t="s">
-        <v>622</v>
+        <v>227</v>
       </c>
       <c r="C110" t="s">
-        <v>623</v>
+        <v>228</v>
       </c>
       <c r="D110" t="s">
-        <v>624</v>
+        <v>229</v>
       </c>
       <c r="E110" t="s">
-        <v>625</v>
+        <v>230</v>
       </c>
       <c r="F110" t="s">
-        <v>631</v>
+        <v>250</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="H110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="I110" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45661</v>
       </c>
       <c r="J110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>531</v>
+        <v>174</v>
       </c>
       <c r="B111" t="s">
-        <v>470</v>
+        <v>175</v>
       </c>
       <c r="C111" t="s">
-        <v>532</v>
+        <v>176</v>
       </c>
       <c r="D111" t="s">
-        <v>533</v>
+        <v>177</v>
       </c>
       <c r="E111" t="s">
-        <v>534</v>
+        <v>178</v>
       </c>
       <c r="F111" t="s">
-        <v>631</v>
+        <v>184</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="H111">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="I111" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45661</v>
       </c>
       <c r="J111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="B112" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="C112" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="D112" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="E112" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="F112" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H112">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="I112" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45661</v>
       </c>
       <c r="J112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="B113" t="s">
-        <v>401</v>
+        <v>469</v>
       </c>
       <c r="C113" t="s">
-        <v>402</v>
+        <v>526</v>
       </c>
       <c r="D113" t="s">
-        <v>403</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>426</v>
+        <v>527</v>
+      </c>
+      <c r="E113" t="s">
+        <v>528</v>
       </c>
       <c r="F113" t="s">
-        <v>652</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>87</v>
+        <v>620</v>
       </c>
       <c r="H113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="I113" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45662</v>
       </c>
       <c r="J113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>568</v>
+        <v>615</v>
       </c>
       <c r="B114" t="s">
-        <v>569</v>
+        <v>616</v>
       </c>
       <c r="C114" t="s">
-        <v>414</v>
+        <v>617</v>
       </c>
       <c r="D114" t="s">
-        <v>570</v>
+        <v>618</v>
       </c>
       <c r="E114" t="s">
-        <v>645</v>
+        <v>619</v>
       </c>
       <c r="F114" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H114">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="I114" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45662</v>
       </c>
       <c r="J114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>571</v>
+        <v>400</v>
       </c>
       <c r="B115" t="s">
-        <v>572</v>
+        <v>401</v>
       </c>
       <c r="C115" t="s">
-        <v>573</v>
+        <v>402</v>
       </c>
       <c r="D115" t="s">
-        <v>574</v>
-      </c>
-      <c r="E115" t="s">
-        <v>575</v>
+        <v>403</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>426</v>
       </c>
       <c r="F115" t="s">
-        <v>631</v>
+        <v>641</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="H115">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="I115" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45662</v>
       </c>
       <c r="J115">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="B116" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="C116" t="s">
-        <v>578</v>
+        <v>414</v>
       </c>
       <c r="D116" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="E116" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="F116" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="I116" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45663</v>
       </c>
       <c r="J116">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>270</v>
+        <v>565</v>
       </c>
       <c r="B117" t="s">
-        <v>271</v>
+        <v>566</v>
       </c>
       <c r="C117" t="s">
-        <v>272</v>
+        <v>567</v>
       </c>
       <c r="D117" t="s">
-        <v>273</v>
+        <v>568</v>
       </c>
       <c r="E117" t="s">
-        <v>274</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>8</v>
+        <v>569</v>
+      </c>
+      <c r="F117" t="s">
+        <v>620</v>
       </c>
       <c r="H117">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="I117" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45663</v>
       </c>
       <c r="J117">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>236</v>
+        <v>570</v>
       </c>
       <c r="B118" t="s">
-        <v>237</v>
+        <v>571</v>
       </c>
       <c r="C118" t="s">
-        <v>238</v>
+        <v>572</v>
       </c>
       <c r="D118" t="s">
-        <v>239</v>
+        <v>573</v>
       </c>
       <c r="E118" t="s">
-        <v>240</v>
+        <v>633</v>
       </c>
       <c r="F118" t="s">
-        <v>250</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>8</v>
+        <v>620</v>
       </c>
       <c r="H118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="I118" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45663</v>
       </c>
       <c r="J118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="B119" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="C119" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="D119" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="E119" t="s">
-        <v>318</v>
-      </c>
-      <c r="F119" t="s">
-        <v>319</v>
+        <v>274</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="H119">
-        <f t="shared" ref="H119:H137" si="18">INT(J119/3)</f>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="I119" s="3">
-        <f t="shared" ref="I119:I137" si="19">$L$1+H119</f>
+        <f t="shared" si="10"/>
         <v>45664</v>
       </c>
       <c r="J119">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>606</v>
+        <v>236</v>
       </c>
       <c r="B120" t="s">
-        <v>607</v>
+        <v>237</v>
       </c>
       <c r="C120" t="s">
-        <v>608</v>
+        <v>238</v>
       </c>
       <c r="D120" t="s">
-        <v>609</v>
+        <v>239</v>
       </c>
       <c r="E120" t="s">
-        <v>610</v>
+        <v>240</v>
       </c>
       <c r="F120" t="s">
-        <v>631</v>
+        <v>250</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H120">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="I120" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45664</v>
       </c>
       <c r="J120">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>611</v>
+        <v>306</v>
       </c>
       <c r="B121" t="s">
-        <v>612</v>
+        <v>307</v>
       </c>
       <c r="C121" t="s">
-        <v>613</v>
+        <v>308</v>
       </c>
       <c r="D121" t="s">
-        <v>614</v>
+        <v>309</v>
       </c>
       <c r="E121" t="s">
-        <v>615</v>
+        <v>318</v>
       </c>
       <c r="F121" t="s">
-        <v>631</v>
+        <v>319</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="I121" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45664</v>
       </c>
       <c r="J121">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>361</v>
+        <v>600</v>
       </c>
       <c r="B122" t="s">
-        <v>362</v>
+        <v>601</v>
       </c>
       <c r="C122" t="s">
-        <v>285</v>
+        <v>602</v>
       </c>
       <c r="D122" t="s">
-        <v>286</v>
+        <v>603</v>
       </c>
       <c r="E122" t="s">
-        <v>318</v>
+        <v>604</v>
       </c>
       <c r="F122" t="s">
-        <v>319</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>138</v>
+        <v>620</v>
       </c>
       <c r="H122">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="I122" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45665</v>
       </c>
       <c r="J122">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>652</v>
+        <v>361</v>
       </c>
       <c r="B123" t="s">
-        <v>427</v>
+        <v>362</v>
       </c>
       <c r="C123" t="s">
-        <v>404</v>
+        <v>285</v>
       </c>
       <c r="D123" t="s">
-        <v>405</v>
+        <v>286</v>
       </c>
       <c r="E123" t="s">
-        <v>432</v>
+        <v>318</v>
       </c>
       <c r="F123" t="s">
-        <v>652</v>
+        <v>319</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>431</v>
+        <v>138</v>
       </c>
       <c r="H123">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="I123" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45665</v>
       </c>
       <c r="J123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>261</v>
+        <v>641</v>
       </c>
       <c r="B124" t="s">
-        <v>262</v>
+        <v>427</v>
       </c>
       <c r="C124" t="s">
-        <v>263</v>
+        <v>404</v>
       </c>
       <c r="D124" t="s">
-        <v>243</v>
+        <v>405</v>
       </c>
       <c r="E124" t="s">
-        <v>264</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>85</v>
+        <v>432</v>
+      </c>
+      <c r="F124" t="s">
+        <v>641</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>143</v>
+        <v>431</v>
       </c>
       <c r="H124">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="I124" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45665</v>
       </c>
       <c r="J124">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="B125" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="C125" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="D125" t="s">
         <v>243</v>
       </c>
       <c r="E125" t="s">
-        <v>244</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
+        <v>264</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="I125" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45666</v>
       </c>
       <c r="J125">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>616</v>
+        <v>203</v>
       </c>
       <c r="B126" t="s">
-        <v>617</v>
+        <v>241</v>
       </c>
       <c r="C126" t="s">
-        <v>618</v>
+        <v>242</v>
       </c>
       <c r="D126" t="s">
-        <v>619</v>
+        <v>243</v>
       </c>
       <c r="E126" t="s">
-        <v>620</v>
+        <v>244</v>
       </c>
       <c r="F126" t="s">
-        <v>631</v>
+        <v>250</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="H126">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="I126" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45666</v>
       </c>
       <c r="J126">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>287</v>
+        <v>605</v>
       </c>
       <c r="B127" t="s">
-        <v>363</v>
+        <v>606</v>
       </c>
       <c r="C127" t="s">
-        <v>288</v>
+        <v>607</v>
       </c>
       <c r="D127" t="s">
-        <v>364</v>
+        <v>608</v>
       </c>
       <c r="E127" t="s">
-        <v>318</v>
+        <v>609</v>
       </c>
       <c r="F127" t="s">
-        <v>319</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>138</v>
+        <v>620</v>
       </c>
       <c r="H127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="I127" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45666</v>
       </c>
       <c r="J127">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B128" t="s">
-        <v>299</v>
+        <v>363</v>
       </c>
       <c r="C128" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D128" t="s">
-        <v>301</v>
+        <v>364</v>
       </c>
       <c r="E128" t="s">
         <v>318</v>
@@ -7339,333 +8479,3089 @@
         <v>138</v>
       </c>
       <c r="H128">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="I128" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45667</v>
       </c>
       <c r="J128">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="B129" t="s">
-        <v>217</v>
+        <v>299</v>
       </c>
       <c r="C129" t="s">
-        <v>218</v>
+        <v>300</v>
       </c>
       <c r="D129" t="s">
-        <v>219</v>
+        <v>301</v>
       </c>
       <c r="E129" t="s">
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>319</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="H129">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="I129" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45667</v>
       </c>
       <c r="J129">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="B130" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="C130" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="D130" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="E130" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="F130" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>185</v>
+        <v>8</v>
       </c>
       <c r="H130">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="I130" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45667</v>
       </c>
       <c r="J130">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="B131" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="C131" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="D131" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="E131" t="s">
-        <v>72</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>85</v>
+        <v>148</v>
+      </c>
+      <c r="F131" t="s">
+        <v>184</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="H131">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="I131" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45668</v>
       </c>
       <c r="J131">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>436</v>
+        <v>68</v>
       </c>
       <c r="B132" t="s">
-        <v>437</v>
+        <v>69</v>
       </c>
       <c r="C132" t="s">
-        <v>438</v>
+        <v>70</v>
       </c>
       <c r="D132" t="s">
-        <v>439</v>
+        <v>71</v>
       </c>
       <c r="E132" t="s">
-        <v>440</v>
+        <v>72</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>441</v>
+        <v>85</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="H132">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="I132" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45668</v>
       </c>
       <c r="J132">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>198</v>
+        <v>436</v>
       </c>
       <c r="B133" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C133" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D133" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E133" t="s">
-        <v>445</v>
-      </c>
-      <c r="F133" t="s">
-        <v>446</v>
+        <v>440</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="H133">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="I133" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45668</v>
       </c>
       <c r="J133">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>447</v>
+        <v>198</v>
       </c>
       <c r="B134" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C134" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D134" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E134" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F134" t="s">
         <v>446</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>431</v>
+        <v>138</v>
       </c>
       <c r="H134">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="I134" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45669</v>
       </c>
       <c r="J134">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B135" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C135" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D135" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E135" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F135" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="H135">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="I135" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45669</v>
       </c>
       <c r="J135">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>634</v>
+        <v>452</v>
       </c>
       <c r="B136" t="s">
-        <v>232</v>
+        <v>453</v>
       </c>
       <c r="C136" t="s">
-        <v>635</v>
+        <v>454</v>
       </c>
       <c r="D136" t="s">
-        <v>231</v>
+        <v>455</v>
       </c>
       <c r="E136" t="s">
-        <v>636</v>
+        <v>456</v>
       </c>
       <c r="F136" t="s">
-        <v>631</v>
+        <v>441</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="H136">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="I136" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45669</v>
       </c>
       <c r="J136">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>623</v>
+      </c>
+      <c r="B137" t="s">
+        <v>232</v>
+      </c>
+      <c r="C137" t="s">
+        <v>624</v>
+      </c>
+      <c r="D137" t="s">
+        <v>231</v>
+      </c>
+      <c r="E137" t="s">
+        <v>625</v>
+      </c>
+      <c r="F137" t="s">
+        <v>620</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="I137" s="3">
+        <f t="shared" si="10"/>
+        <v>45670</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="11"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>31</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>32</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C138" t="s">
         <v>64</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D138" t="s">
         <v>43</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E138" t="s">
+        <v>657</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="I138" s="3">
+        <f t="shared" si="10"/>
+        <v>45670</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="11"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>682</v>
+      </c>
+      <c r="B139" t="s">
+        <v>683</v>
+      </c>
+      <c r="C139" t="s">
+        <v>684</v>
+      </c>
+      <c r="D139" t="s">
+        <v>685</v>
+      </c>
+      <c r="E139" t="s">
+        <v>686</v>
+      </c>
+      <c r="F139" t="s">
+        <v>620</v>
+      </c>
+      <c r="G139" s="1"/>
+      <c r="H139">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="I139" s="3">
+        <f t="shared" si="10"/>
+        <v>45670</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="11"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>667</v>
+      </c>
+      <c r="B140" t="s">
+        <v>668</v>
+      </c>
+      <c r="C140" t="s">
         <v>669</v>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="G137" s="1" t="s">
+      <c r="D140" t="s">
+        <v>670</v>
+      </c>
+      <c r="E140" t="s">
+        <v>671</v>
+      </c>
+      <c r="F140" t="s">
+        <v>620</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="I140" s="3">
+        <f t="shared" si="10"/>
+        <v>45671</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="11"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>672</v>
+      </c>
+      <c r="B141" t="s">
+        <v>673</v>
+      </c>
+      <c r="C141" t="s">
+        <v>674</v>
+      </c>
+      <c r="D141" t="s">
+        <v>675</v>
+      </c>
+      <c r="E141" t="s">
+        <v>676</v>
+      </c>
+      <c r="F141" t="s">
+        <v>620</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="I141" s="3">
+        <f t="shared" si="10"/>
+        <v>45671</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="11"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>677</v>
+      </c>
+      <c r="B142" t="s">
+        <v>678</v>
+      </c>
+      <c r="C142" t="s">
+        <v>679</v>
+      </c>
+      <c r="D142" t="s">
+        <v>680</v>
+      </c>
+      <c r="E142" t="s">
+        <v>681</v>
+      </c>
+      <c r="F142" t="s">
+        <v>620</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="I142" s="3">
+        <f t="shared" si="10"/>
+        <v>45671</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="11"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>687</v>
+      </c>
+      <c r="B143" t="s">
+        <v>688</v>
+      </c>
+      <c r="C143" t="s">
+        <v>689</v>
+      </c>
+      <c r="D143" t="s">
+        <v>690</v>
+      </c>
+      <c r="E143" t="s">
+        <v>691</v>
+      </c>
+      <c r="F143" t="s">
+        <v>620</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
-      <c r="H137">
-        <f t="shared" si="18"/>
-        <v>45</v>
-      </c>
-      <c r="I137" s="3">
-        <f t="shared" si="19"/>
-        <v>45670</v>
-      </c>
-      <c r="J137">
+      <c r="I143" s="3">
+        <f t="shared" si="10"/>
+        <v>45672</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="11"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>692</v>
+      </c>
+      <c r="B144" t="s">
+        <v>228</v>
+      </c>
+      <c r="C144" t="s">
+        <v>693</v>
+      </c>
+      <c r="D144" t="s">
+        <v>694</v>
+      </c>
+      <c r="E144" t="s">
+        <v>695</v>
+      </c>
+      <c r="F144" t="s">
+        <v>620</v>
+      </c>
+      <c r="H144">
+        <f t="shared" ref="H144:H207" si="12">INT(J144/3)</f>
+        <v>47</v>
+      </c>
+      <c r="I144" s="3">
+        <f t="shared" ref="I144:I207" si="13">$L$1+H144</f>
+        <v>45672</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="11"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>696</v>
+      </c>
+      <c r="B145" t="s">
+        <v>697</v>
+      </c>
+      <c r="C145" t="s">
+        <v>698</v>
+      </c>
+      <c r="D145" t="s">
+        <v>699</v>
+      </c>
+      <c r="E145" t="s">
+        <v>700</v>
+      </c>
+      <c r="F145" t="s">
+        <v>620</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="12"/>
+        <v>47</v>
+      </c>
+      <c r="I145" s="3">
+        <f t="shared" si="13"/>
+        <v>45672</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="11"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>701</v>
+      </c>
+      <c r="B146" t="s">
+        <v>702</v>
+      </c>
+      <c r="C146" t="s">
+        <v>703</v>
+      </c>
+      <c r="D146" t="s">
+        <v>704</v>
+      </c>
+      <c r="E146" t="s">
+        <v>705</v>
+      </c>
+      <c r="F146" t="s">
+        <v>620</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="12"/>
+        <v>48</v>
+      </c>
+      <c r="I146" s="3">
+        <f t="shared" si="13"/>
+        <v>45673</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="11"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>706</v>
+      </c>
+      <c r="B147" t="s">
+        <v>640</v>
+      </c>
+      <c r="C147" t="s">
+        <v>707</v>
+      </c>
+      <c r="D147" t="s">
+        <v>708</v>
+      </c>
+      <c r="E147" t="s">
+        <v>709</v>
+      </c>
+      <c r="F147" t="s">
+        <v>620</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="12"/>
+        <v>48</v>
+      </c>
+      <c r="I147" s="3">
+        <f t="shared" si="13"/>
+        <v>45673</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="11"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>710</v>
+      </c>
+      <c r="B148" t="s">
+        <v>711</v>
+      </c>
+      <c r="C148" t="s">
+        <v>712</v>
+      </c>
+      <c r="D148" t="s">
+        <v>713</v>
+      </c>
+      <c r="E148" t="s">
+        <v>714</v>
+      </c>
+      <c r="F148" t="s">
+        <v>620</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="12"/>
+        <v>48</v>
+      </c>
+      <c r="I148" s="3">
+        <f t="shared" si="13"/>
+        <v>45673</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="11"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>715</v>
+      </c>
+      <c r="B149" t="s">
+        <v>716</v>
+      </c>
+      <c r="C149" t="s">
+        <v>717</v>
+      </c>
+      <c r="D149" t="s">
+        <v>718</v>
+      </c>
+      <c r="E149" t="s">
+        <v>719</v>
+      </c>
+      <c r="F149" t="s">
+        <v>620</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="12"/>
+        <v>49</v>
+      </c>
+      <c r="I149" s="3">
+        <f t="shared" si="13"/>
+        <v>45674</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="11"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>720</v>
+      </c>
+      <c r="B150" t="s">
+        <v>721</v>
+      </c>
+      <c r="C150" t="s">
+        <v>722</v>
+      </c>
+      <c r="D150" t="s">
+        <v>723</v>
+      </c>
+      <c r="E150" t="s">
+        <v>724</v>
+      </c>
+      <c r="F150" t="s">
+        <v>620</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="12"/>
+        <v>49</v>
+      </c>
+      <c r="I150" s="3">
+        <f t="shared" si="13"/>
+        <v>45674</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="11"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>725</v>
+      </c>
+      <c r="B151" t="s">
+        <v>726</v>
+      </c>
+      <c r="C151" t="s">
+        <v>727</v>
+      </c>
+      <c r="D151" t="s">
+        <v>728</v>
+      </c>
+      <c r="E151" t="s">
+        <v>729</v>
+      </c>
+      <c r="F151" t="s">
+        <v>620</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="12"/>
+        <v>49</v>
+      </c>
+      <c r="I151" s="3">
+        <f t="shared" si="13"/>
+        <v>45674</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="11"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>730</v>
+      </c>
+      <c r="B152" t="s">
+        <v>731</v>
+      </c>
+      <c r="C152" t="s">
+        <v>732</v>
+      </c>
+      <c r="D152" t="s">
+        <v>733</v>
+      </c>
+      <c r="E152" t="s">
+        <v>734</v>
+      </c>
+      <c r="F152" t="s">
+        <v>620</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="I152" s="3">
+        <f t="shared" si="13"/>
+        <v>45675</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>735</v>
+      </c>
+      <c r="B153" t="s">
+        <v>736</v>
+      </c>
+      <c r="C153" t="s">
+        <v>737</v>
+      </c>
+      <c r="D153" t="s">
+        <v>738</v>
+      </c>
+      <c r="E153" t="s">
+        <v>246</v>
+      </c>
+      <c r="F153" t="s">
+        <v>620</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="I153" s="3">
+        <f t="shared" si="13"/>
+        <v>45675</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="11"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>739</v>
+      </c>
+      <c r="B154" t="s">
+        <v>740</v>
+      </c>
+      <c r="C154" t="s">
+        <v>596</v>
+      </c>
+      <c r="D154" t="s">
+        <v>741</v>
+      </c>
+      <c r="E154" t="s">
+        <v>742</v>
+      </c>
+      <c r="F154" t="s">
+        <v>620</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="I154" s="3">
+        <f t="shared" si="13"/>
+        <v>45675</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="11"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>743</v>
+      </c>
+      <c r="B155" t="s">
+        <v>744</v>
+      </c>
+      <c r="C155" t="s">
+        <v>745</v>
+      </c>
+      <c r="D155" t="s">
+        <v>746</v>
+      </c>
+      <c r="E155" t="s">
+        <v>747</v>
+      </c>
+      <c r="F155" t="s">
+        <v>620</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="12"/>
+        <v>51</v>
+      </c>
+      <c r="I155" s="3">
+        <f t="shared" si="13"/>
+        <v>45676</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="11"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>748</v>
+      </c>
+      <c r="B156" t="s">
+        <v>749</v>
+      </c>
+      <c r="C156" t="s">
+        <v>750</v>
+      </c>
+      <c r="D156" t="s">
+        <v>751</v>
+      </c>
+      <c r="E156" t="s">
+        <v>752</v>
+      </c>
+      <c r="F156" t="s">
+        <v>620</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="12"/>
+        <v>51</v>
+      </c>
+      <c r="I156" s="3">
+        <f t="shared" si="13"/>
+        <v>45676</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="11"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>753</v>
+      </c>
+      <c r="B157" t="s">
+        <v>754</v>
+      </c>
+      <c r="C157" t="s">
+        <v>755</v>
+      </c>
+      <c r="D157" t="s">
+        <v>756</v>
+      </c>
+      <c r="E157" t="s">
+        <v>757</v>
+      </c>
+      <c r="F157" t="s">
+        <v>620</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="12"/>
+        <v>51</v>
+      </c>
+      <c r="I157" s="3">
+        <f t="shared" si="13"/>
+        <v>45676</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="11"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>758</v>
+      </c>
+      <c r="B158" t="s">
+        <v>759</v>
+      </c>
+      <c r="C158" t="s">
+        <v>760</v>
+      </c>
+      <c r="D158" t="s">
+        <v>761</v>
+      </c>
+      <c r="E158" t="s">
+        <v>762</v>
+      </c>
+      <c r="F158" t="s">
+        <v>641</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="12"/>
+        <v>52</v>
+      </c>
+      <c r="I158" s="3">
+        <f t="shared" si="13"/>
+        <v>45677</v>
+      </c>
+      <c r="J158">
+        <f t="shared" ref="J158:J221" si="14">J157+1</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>763</v>
+      </c>
+      <c r="B159" t="s">
+        <v>764</v>
+      </c>
+      <c r="C159" t="s">
+        <v>765</v>
+      </c>
+      <c r="D159" t="s">
+        <v>766</v>
+      </c>
+      <c r="E159" t="s">
+        <v>762</v>
+      </c>
+      <c r="F159" t="s">
+        <v>641</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="12"/>
+        <v>52</v>
+      </c>
+      <c r="I159" s="3">
+        <f t="shared" si="13"/>
+        <v>45677</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="14"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>767</v>
+      </c>
+      <c r="B160" t="s">
+        <v>768</v>
+      </c>
+      <c r="C160" t="s">
+        <v>769</v>
+      </c>
+      <c r="D160" t="s">
+        <v>770</v>
+      </c>
+      <c r="E160" t="s">
+        <v>771</v>
+      </c>
+      <c r="F160" t="s">
+        <v>641</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="12"/>
+        <v>52</v>
+      </c>
+      <c r="I160" s="3">
+        <f t="shared" si="13"/>
+        <v>45677</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="14"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>772</v>
+      </c>
+      <c r="B161" t="s">
+        <v>773</v>
+      </c>
+      <c r="C161" t="s">
+        <v>774</v>
+      </c>
+      <c r="D161" t="s">
+        <v>775</v>
+      </c>
+      <c r="E161" t="s">
+        <v>776</v>
+      </c>
+      <c r="F161" t="s">
+        <v>620</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="12"/>
+        <v>53</v>
+      </c>
+      <c r="I161" s="3">
+        <f t="shared" si="13"/>
+        <v>45678</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="14"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>777</v>
+      </c>
+      <c r="B162" t="s">
+        <v>778</v>
+      </c>
+      <c r="C162" t="s">
+        <v>779</v>
+      </c>
+      <c r="D162" t="s">
+        <v>780</v>
+      </c>
+      <c r="E162" t="s">
+        <v>781</v>
+      </c>
+      <c r="F162" t="s">
+        <v>641</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="12"/>
+        <v>53</v>
+      </c>
+      <c r="I162" s="3">
+        <f t="shared" si="13"/>
+        <v>45678</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="14"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>782</v>
+      </c>
+      <c r="B163" t="s">
+        <v>783</v>
+      </c>
+      <c r="C163" t="s">
+        <v>293</v>
+      </c>
+      <c r="D163" t="s">
+        <v>784</v>
+      </c>
+      <c r="E163" t="s">
+        <v>785</v>
+      </c>
+      <c r="F163" t="s">
+        <v>641</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="12"/>
+        <v>53</v>
+      </c>
+      <c r="I163" s="3">
+        <f t="shared" si="13"/>
+        <v>45678</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="14"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>767</v>
+      </c>
+      <c r="B164" t="s">
+        <v>768</v>
+      </c>
+      <c r="C164" t="s">
+        <v>769</v>
+      </c>
+      <c r="D164" t="s">
+        <v>770</v>
+      </c>
+      <c r="E164" t="s">
+        <v>771</v>
+      </c>
+      <c r="F164" t="s">
+        <v>641</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="12"/>
+        <v>54</v>
+      </c>
+      <c r="I164" s="3">
+        <f t="shared" si="13"/>
+        <v>45679</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="14"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>786</v>
+      </c>
+      <c r="B165" t="s">
+        <v>787</v>
+      </c>
+      <c r="C165" t="s">
+        <v>788</v>
+      </c>
+      <c r="D165" t="s">
+        <v>789</v>
+      </c>
+      <c r="E165" t="s">
+        <v>790</v>
+      </c>
+      <c r="F165" t="s">
+        <v>641</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="12"/>
+        <v>54</v>
+      </c>
+      <c r="I165" s="3">
+        <f t="shared" si="13"/>
+        <v>45679</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="14"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>550</v>
+      </c>
+      <c r="B166" t="s">
+        <v>791</v>
+      </c>
+      <c r="C166" t="s">
+        <v>792</v>
+      </c>
+      <c r="D166" t="s">
+        <v>793</v>
+      </c>
+      <c r="E166" t="s">
+        <v>794</v>
+      </c>
+      <c r="F166" t="s">
+        <v>641</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="12"/>
+        <v>54</v>
+      </c>
+      <c r="I166" s="3">
+        <f t="shared" si="13"/>
+        <v>45679</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="14"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>795</v>
+      </c>
+      <c r="B167" t="s">
+        <v>796</v>
+      </c>
+      <c r="C167" t="s">
+        <v>797</v>
+      </c>
+      <c r="D167" t="s">
+        <v>798</v>
+      </c>
+      <c r="E167" t="s">
+        <v>799</v>
+      </c>
+      <c r="F167" t="s">
+        <v>620</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="I167" s="3">
+        <f t="shared" si="13"/>
+        <v>45680</v>
+      </c>
+      <c r="J167">
+        <f t="shared" si="14"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>800</v>
+      </c>
+      <c r="B168" t="s">
+        <v>801</v>
+      </c>
+      <c r="C168" t="s">
+        <v>802</v>
+      </c>
+      <c r="D168" t="s">
+        <v>803</v>
+      </c>
+      <c r="E168" t="s">
+        <v>804</v>
+      </c>
+      <c r="F168" t="s">
+        <v>620</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="I168" s="3">
+        <f t="shared" si="13"/>
+        <v>45680</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="14"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>805</v>
+      </c>
+      <c r="B169" t="s">
+        <v>526</v>
+      </c>
+      <c r="C169" t="s">
+        <v>806</v>
+      </c>
+      <c r="D169" t="s">
+        <v>807</v>
+      </c>
+      <c r="E169" t="s">
+        <v>808</v>
+      </c>
+      <c r="F169" t="s">
+        <v>620</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="I169" s="3">
+        <f t="shared" si="13"/>
+        <v>45680</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="14"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>809</v>
+      </c>
+      <c r="B170" t="s">
+        <v>810</v>
+      </c>
+      <c r="C170" t="s">
+        <v>811</v>
+      </c>
+      <c r="D170" t="s">
+        <v>812</v>
+      </c>
+      <c r="E170" t="s">
+        <v>813</v>
+      </c>
+      <c r="F170" t="s">
+        <v>620</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="I170" s="3">
+        <f t="shared" si="13"/>
+        <v>45681</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="14"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>814</v>
+      </c>
+      <c r="B171" t="s">
+        <v>815</v>
+      </c>
+      <c r="C171" t="s">
+        <v>816</v>
+      </c>
+      <c r="D171" t="s">
+        <v>817</v>
+      </c>
+      <c r="E171" t="s">
+        <v>818</v>
+      </c>
+      <c r="F171" t="s">
+        <v>620</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="I171" s="3">
+        <f t="shared" si="13"/>
+        <v>45681</v>
+      </c>
+      <c r="J171">
+        <f t="shared" si="14"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>406</v>
+      </c>
+      <c r="B172" t="s">
+        <v>819</v>
+      </c>
+      <c r="C172" t="s">
+        <v>820</v>
+      </c>
+      <c r="D172" t="s">
+        <v>821</v>
+      </c>
+      <c r="E172" t="s">
+        <v>103</v>
+      </c>
+      <c r="F172" t="s">
+        <v>620</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="I172" s="3">
+        <f t="shared" si="13"/>
+        <v>45681</v>
+      </c>
+      <c r="J172">
+        <f t="shared" si="14"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>822</v>
+      </c>
+      <c r="B173" t="s">
+        <v>823</v>
+      </c>
+      <c r="C173" t="s">
+        <v>824</v>
+      </c>
+      <c r="D173" t="s">
+        <v>825</v>
+      </c>
+      <c r="E173" t="s">
+        <v>826</v>
+      </c>
+      <c r="F173" t="s">
+        <v>620</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="12"/>
+        <v>57</v>
+      </c>
+      <c r="I173" s="3">
+        <f t="shared" si="13"/>
+        <v>45682</v>
+      </c>
+      <c r="J173">
+        <f t="shared" si="14"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>827</v>
+      </c>
+      <c r="B174" t="s">
+        <v>828</v>
+      </c>
+      <c r="C174" t="s">
+        <v>829</v>
+      </c>
+      <c r="D174" t="s">
+        <v>830</v>
+      </c>
+      <c r="E174" t="s">
+        <v>831</v>
+      </c>
+      <c r="F174" t="s">
+        <v>620</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="12"/>
+        <v>57</v>
+      </c>
+      <c r="I174" s="3">
+        <f t="shared" si="13"/>
+        <v>45682</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="14"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>832</v>
+      </c>
+      <c r="B175" t="s">
+        <v>833</v>
+      </c>
+      <c r="C175" t="s">
+        <v>834</v>
+      </c>
+      <c r="D175" t="s">
+        <v>835</v>
+      </c>
+      <c r="E175" t="s">
+        <v>836</v>
+      </c>
+      <c r="F175" t="s">
+        <v>620</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="12"/>
+        <v>57</v>
+      </c>
+      <c r="I175" s="3">
+        <f t="shared" si="13"/>
+        <v>45682</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="14"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>837</v>
+      </c>
+      <c r="B176" t="s">
+        <v>301</v>
+      </c>
+      <c r="C176" t="s">
+        <v>838</v>
+      </c>
+      <c r="D176" t="s">
+        <v>839</v>
+      </c>
+      <c r="E176" t="s">
+        <v>840</v>
+      </c>
+      <c r="F176" t="s">
+        <v>620</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="12"/>
+        <v>58</v>
+      </c>
+      <c r="I176" s="3">
+        <f t="shared" si="13"/>
+        <v>45683</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="14"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>841</v>
+      </c>
+      <c r="B177" t="s">
+        <v>842</v>
+      </c>
+      <c r="C177" t="s">
+        <v>843</v>
+      </c>
+      <c r="D177" t="s">
+        <v>844</v>
+      </c>
+      <c r="E177" t="s">
+        <v>845</v>
+      </c>
+      <c r="F177" t="s">
+        <v>620</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="12"/>
+        <v>58</v>
+      </c>
+      <c r="I177" s="3">
+        <f t="shared" si="13"/>
+        <v>45683</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="14"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>851</v>
+      </c>
+      <c r="B178" t="s">
+        <v>530</v>
+      </c>
+      <c r="C178" t="s">
+        <v>852</v>
+      </c>
+      <c r="D178" t="s">
+        <v>853</v>
+      </c>
+      <c r="E178" t="s">
+        <v>854</v>
+      </c>
+      <c r="F178" t="s">
+        <v>620</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="12"/>
+        <v>58</v>
+      </c>
+      <c r="I178" s="3">
+        <f t="shared" si="13"/>
+        <v>45683</v>
+      </c>
+      <c r="J178">
+        <f t="shared" si="14"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>855</v>
+      </c>
+      <c r="B179" t="s">
+        <v>856</v>
+      </c>
+      <c r="C179" t="s">
+        <v>857</v>
+      </c>
+      <c r="D179" t="s">
+        <v>858</v>
+      </c>
+      <c r="E179" t="s">
+        <v>859</v>
+      </c>
+      <c r="F179" t="s">
+        <v>620</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="12"/>
+        <v>59</v>
+      </c>
+      <c r="I179" s="3">
+        <f t="shared" si="13"/>
+        <v>45684</v>
+      </c>
+      <c r="J179">
+        <f t="shared" si="14"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>860</v>
+      </c>
+      <c r="B180" t="s">
+        <v>861</v>
+      </c>
+      <c r="C180" t="s">
+        <v>862</v>
+      </c>
+      <c r="D180" t="s">
+        <v>863</v>
+      </c>
+      <c r="E180" t="s">
+        <v>864</v>
+      </c>
+      <c r="F180" t="s">
+        <v>641</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="12"/>
+        <v>59</v>
+      </c>
+      <c r="I180" s="3">
+        <f t="shared" si="13"/>
+        <v>45684</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="14"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>865</v>
+      </c>
+      <c r="B181" t="s">
+        <v>866</v>
+      </c>
+      <c r="C181" t="s">
+        <v>867</v>
+      </c>
+      <c r="D181" t="s">
+        <v>868</v>
+      </c>
+      <c r="E181" t="s">
+        <v>869</v>
+      </c>
+      <c r="F181" t="s">
+        <v>641</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="12"/>
+        <v>59</v>
+      </c>
+      <c r="I181" s="3">
+        <f t="shared" si="13"/>
+        <v>45684</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="14"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>763</v>
+      </c>
+      <c r="B182" t="s">
+        <v>764</v>
+      </c>
+      <c r="C182" t="s">
+        <v>765</v>
+      </c>
+      <c r="D182" t="s">
+        <v>766</v>
+      </c>
+      <c r="E182" t="s">
+        <v>762</v>
+      </c>
+      <c r="F182" t="s">
+        <v>641</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="I182" s="3">
+        <f t="shared" si="13"/>
+        <v>45685</v>
+      </c>
+      <c r="J182">
+        <f t="shared" si="14"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>870</v>
+      </c>
+      <c r="B183" t="s">
+        <v>871</v>
+      </c>
+      <c r="C183" t="s">
+        <v>872</v>
+      </c>
+      <c r="D183" t="s">
+        <v>873</v>
+      </c>
+      <c r="E183" t="s">
+        <v>874</v>
+      </c>
+      <c r="F183" t="s">
+        <v>620</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="I183" s="3">
+        <f t="shared" si="13"/>
+        <v>45685</v>
+      </c>
+      <c r="J183">
+        <f t="shared" si="14"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>875</v>
+      </c>
+      <c r="B184" t="s">
+        <v>876</v>
+      </c>
+      <c r="C184" t="s">
+        <v>877</v>
+      </c>
+      <c r="D184" t="s">
+        <v>878</v>
+      </c>
+      <c r="E184" t="s">
+        <v>879</v>
+      </c>
+      <c r="F184" t="s">
+        <v>620</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="I184" s="3">
+        <f t="shared" si="13"/>
+        <v>45685</v>
+      </c>
+      <c r="J184">
+        <f t="shared" si="14"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>880</v>
+      </c>
+      <c r="B185" t="s">
+        <v>881</v>
+      </c>
+      <c r="C185" t="s">
+        <v>882</v>
+      </c>
+      <c r="D185" t="s">
+        <v>883</v>
+      </c>
+      <c r="E185" t="s">
+        <v>884</v>
+      </c>
+      <c r="F185" t="s">
+        <v>620</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="12"/>
+        <v>61</v>
+      </c>
+      <c r="I185" s="3">
+        <f t="shared" si="13"/>
+        <v>45686</v>
+      </c>
+      <c r="J185">
+        <f t="shared" si="14"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>885</v>
+      </c>
+      <c r="B186" t="s">
+        <v>886</v>
+      </c>
+      <c r="C186" t="s">
+        <v>887</v>
+      </c>
+      <c r="D186" t="s">
+        <v>888</v>
+      </c>
+      <c r="E186" t="s">
+        <v>889</v>
+      </c>
+      <c r="F186" t="s">
+        <v>620</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="12"/>
+        <v>61</v>
+      </c>
+      <c r="I186" s="3">
+        <f t="shared" si="13"/>
+        <v>45686</v>
+      </c>
+      <c r="J186">
+        <f t="shared" si="14"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>890</v>
+      </c>
+      <c r="B187" t="s">
+        <v>891</v>
+      </c>
+      <c r="C187" t="s">
+        <v>892</v>
+      </c>
+      <c r="D187" t="s">
+        <v>893</v>
+      </c>
+      <c r="E187" t="s">
+        <v>894</v>
+      </c>
+      <c r="F187" t="s">
+        <v>620</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="12"/>
+        <v>61</v>
+      </c>
+      <c r="I187" s="3">
+        <f t="shared" si="13"/>
+        <v>45686</v>
+      </c>
+      <c r="J187">
+        <f t="shared" si="14"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>895</v>
+      </c>
+      <c r="B188" t="s">
+        <v>896</v>
+      </c>
+      <c r="C188" t="s">
+        <v>897</v>
+      </c>
+      <c r="D188" t="s">
+        <v>898</v>
+      </c>
+      <c r="E188" t="s">
+        <v>899</v>
+      </c>
+      <c r="F188" t="s">
+        <v>620</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="12"/>
+        <v>62</v>
+      </c>
+      <c r="I188" s="3">
+        <f t="shared" si="13"/>
+        <v>45687</v>
+      </c>
+      <c r="J188">
+        <f t="shared" si="14"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>900</v>
+      </c>
+      <c r="B189" t="s">
+        <v>169</v>
+      </c>
+      <c r="C189" t="s">
+        <v>901</v>
+      </c>
+      <c r="D189" t="s">
+        <v>902</v>
+      </c>
+      <c r="E189" t="s">
+        <v>903</v>
+      </c>
+      <c r="F189" t="s">
+        <v>620</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="12"/>
+        <v>62</v>
+      </c>
+      <c r="I189" s="3">
+        <f t="shared" si="13"/>
+        <v>45687</v>
+      </c>
+      <c r="J189">
+        <f t="shared" si="14"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>904</v>
+      </c>
+      <c r="B190" t="s">
+        <v>905</v>
+      </c>
+      <c r="C190" t="s">
+        <v>906</v>
+      </c>
+      <c r="D190" t="s">
+        <v>907</v>
+      </c>
+      <c r="E190" t="s">
+        <v>908</v>
+      </c>
+      <c r="F190" t="s">
+        <v>620</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="12"/>
+        <v>62</v>
+      </c>
+      <c r="I190" s="3">
+        <f t="shared" si="13"/>
+        <v>45687</v>
+      </c>
+      <c r="J190">
+        <f t="shared" si="14"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>693</v>
+      </c>
+      <c r="B191" t="s">
+        <v>909</v>
+      </c>
+      <c r="C191" t="s">
+        <v>557</v>
+      </c>
+      <c r="D191" t="s">
+        <v>910</v>
+      </c>
+      <c r="E191" t="s">
+        <v>911</v>
+      </c>
+      <c r="F191" t="s">
+        <v>620</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="12"/>
+        <v>63</v>
+      </c>
+      <c r="I191" s="3">
+        <f t="shared" si="13"/>
+        <v>45688</v>
+      </c>
+      <c r="J191">
+        <f t="shared" si="14"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>758</v>
+      </c>
+      <c r="B192" t="s">
+        <v>759</v>
+      </c>
+      <c r="C192" t="s">
+        <v>760</v>
+      </c>
+      <c r="D192" t="s">
+        <v>761</v>
+      </c>
+      <c r="E192" t="s">
+        <v>762</v>
+      </c>
+      <c r="F192" t="s">
+        <v>641</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="12"/>
+        <v>63</v>
+      </c>
+      <c r="I192" s="3">
+        <f t="shared" si="13"/>
+        <v>45688</v>
+      </c>
+      <c r="J192">
+        <f t="shared" si="14"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>912</v>
+      </c>
+      <c r="B193" t="s">
+        <v>913</v>
+      </c>
+      <c r="C193" t="s">
+        <v>914</v>
+      </c>
+      <c r="D193" t="s">
+        <v>915</v>
+      </c>
+      <c r="E193" t="s">
+        <v>916</v>
+      </c>
+      <c r="F193" t="s">
+        <v>641</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="12"/>
+        <v>63</v>
+      </c>
+      <c r="I193" s="3">
+        <f t="shared" si="13"/>
+        <v>45688</v>
+      </c>
+      <c r="J193">
+        <f t="shared" si="14"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>917</v>
+      </c>
+      <c r="B194" t="s">
+        <v>918</v>
+      </c>
+      <c r="C194" t="s">
+        <v>919</v>
+      </c>
+      <c r="D194" t="s">
+        <v>920</v>
+      </c>
+      <c r="E194" t="s">
+        <v>921</v>
+      </c>
+      <c r="F194" t="s">
+        <v>620</v>
+      </c>
+      <c r="H194">
+        <f t="shared" si="12"/>
+        <v>64</v>
+      </c>
+      <c r="I194" s="3">
+        <f t="shared" si="13"/>
+        <v>45689</v>
+      </c>
+      <c r="J194">
+        <f t="shared" si="14"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>922</v>
+      </c>
+      <c r="B195" t="s">
+        <v>908</v>
+      </c>
+      <c r="C195" t="s">
+        <v>923</v>
+      </c>
+      <c r="D195" t="s">
+        <v>924</v>
+      </c>
+      <c r="E195" t="s">
+        <v>925</v>
+      </c>
+      <c r="F195" t="s">
+        <v>620</v>
+      </c>
+      <c r="H195">
+        <f t="shared" si="12"/>
+        <v>64</v>
+      </c>
+      <c r="I195" s="3">
+        <f t="shared" si="13"/>
+        <v>45689</v>
+      </c>
+      <c r="J195">
+        <f t="shared" si="14"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>926</v>
+      </c>
+      <c r="B196" t="s">
+        <v>927</v>
+      </c>
+      <c r="C196" t="s">
+        <v>928</v>
+      </c>
+      <c r="D196" t="s">
+        <v>929</v>
+      </c>
+      <c r="E196" t="s">
+        <v>930</v>
+      </c>
+      <c r="F196" t="s">
+        <v>641</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="12"/>
+        <v>64</v>
+      </c>
+      <c r="I196" s="3">
+        <f t="shared" si="13"/>
+        <v>45689</v>
+      </c>
+      <c r="J196">
+        <f t="shared" si="14"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>931</v>
+      </c>
+      <c r="B197" t="s">
+        <v>932</v>
+      </c>
+      <c r="C197" t="s">
+        <v>933</v>
+      </c>
+      <c r="D197" t="s">
+        <v>934</v>
+      </c>
+      <c r="E197" t="s">
+        <v>935</v>
+      </c>
+      <c r="F197" t="s">
+        <v>620</v>
+      </c>
+      <c r="H197">
+        <f t="shared" si="12"/>
+        <v>65</v>
+      </c>
+      <c r="I197" s="3">
+        <f t="shared" si="13"/>
+        <v>45690</v>
+      </c>
+      <c r="J197">
+        <f t="shared" si="14"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>882</v>
+      </c>
+      <c r="B198" t="s">
+        <v>936</v>
+      </c>
+      <c r="C198" t="s">
+        <v>937</v>
+      </c>
+      <c r="D198" t="s">
+        <v>938</v>
+      </c>
+      <c r="E198" t="s">
+        <v>939</v>
+      </c>
+      <c r="F198" t="s">
+        <v>620</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="12"/>
+        <v>65</v>
+      </c>
+      <c r="I198" s="3">
+        <f t="shared" si="13"/>
+        <v>45690</v>
+      </c>
+      <c r="J198">
+        <f t="shared" si="14"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>825</v>
+      </c>
+      <c r="B199" t="s">
+        <v>492</v>
+      </c>
+      <c r="C199" t="s">
+        <v>501</v>
+      </c>
+      <c r="D199" t="s">
+        <v>940</v>
+      </c>
+      <c r="E199" t="s">
+        <v>941</v>
+      </c>
+      <c r="F199" t="s">
+        <v>620</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="12"/>
+        <v>65</v>
+      </c>
+      <c r="I199" s="3">
+        <f t="shared" si="13"/>
+        <v>45690</v>
+      </c>
+      <c r="J199">
+        <f t="shared" si="14"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>942</v>
+      </c>
+      <c r="B200" t="s">
+        <v>943</v>
+      </c>
+      <c r="C200" t="s">
+        <v>944</v>
+      </c>
+      <c r="D200" t="s">
+        <v>945</v>
+      </c>
+      <c r="E200" t="s">
+        <v>946</v>
+      </c>
+      <c r="F200" t="s">
+        <v>641</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="12"/>
+        <v>66</v>
+      </c>
+      <c r="I200" s="3">
+        <f t="shared" si="13"/>
+        <v>45691</v>
+      </c>
+      <c r="J200">
+        <f t="shared" si="14"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>947</v>
+      </c>
+      <c r="B201" t="s">
+        <v>948</v>
+      </c>
+      <c r="C201" t="s">
+        <v>949</v>
+      </c>
+      <c r="D201" t="s">
+        <v>950</v>
+      </c>
+      <c r="E201" t="s">
+        <v>951</v>
+      </c>
+      <c r="F201" t="s">
+        <v>620</v>
+      </c>
+      <c r="H201">
+        <f t="shared" si="12"/>
+        <v>66</v>
+      </c>
+      <c r="I201" s="3">
+        <f t="shared" si="13"/>
+        <v>45691</v>
+      </c>
+      <c r="J201">
+        <f t="shared" si="14"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>952</v>
+      </c>
+      <c r="B202" t="s">
+        <v>953</v>
+      </c>
+      <c r="C202" t="s">
+        <v>954</v>
+      </c>
+      <c r="D202" t="s">
+        <v>955</v>
+      </c>
+      <c r="E202" t="s">
+        <v>956</v>
+      </c>
+      <c r="F202" t="s">
+        <v>620</v>
+      </c>
+      <c r="H202">
+        <f t="shared" si="12"/>
+        <v>66</v>
+      </c>
+      <c r="I202" s="3">
+        <f t="shared" si="13"/>
+        <v>45691</v>
+      </c>
+      <c r="J202">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>373</v>
+      </c>
+      <c r="B203" t="s">
+        <v>957</v>
+      </c>
+      <c r="C203" t="s">
+        <v>958</v>
+      </c>
+      <c r="D203" t="s">
+        <v>959</v>
+      </c>
+      <c r="E203" t="s">
+        <v>960</v>
+      </c>
+      <c r="F203" t="s">
+        <v>641</v>
+      </c>
+      <c r="H203">
+        <f t="shared" si="12"/>
+        <v>67</v>
+      </c>
+      <c r="I203" s="3">
+        <f t="shared" si="13"/>
+        <v>45692</v>
+      </c>
+      <c r="J203">
+        <f t="shared" si="14"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>961</v>
+      </c>
+      <c r="B204" t="s">
+        <v>962</v>
+      </c>
+      <c r="C204" t="s">
+        <v>963</v>
+      </c>
+      <c r="D204" t="s">
+        <v>964</v>
+      </c>
+      <c r="E204" t="s">
+        <v>965</v>
+      </c>
+      <c r="F204" t="s">
+        <v>620</v>
+      </c>
+      <c r="H204">
+        <f t="shared" si="12"/>
+        <v>67</v>
+      </c>
+      <c r="I204" s="3">
+        <f t="shared" si="13"/>
+        <v>45692</v>
+      </c>
+      <c r="J204">
+        <f t="shared" si="14"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>966</v>
+      </c>
+      <c r="B205" t="s">
+        <v>967</v>
+      </c>
+      <c r="C205" t="s">
+        <v>968</v>
+      </c>
+      <c r="D205" t="s">
+        <v>969</v>
+      </c>
+      <c r="E205" t="s">
+        <v>970</v>
+      </c>
+      <c r="F205" t="s">
+        <v>620</v>
+      </c>
+      <c r="H205">
+        <f t="shared" si="12"/>
+        <v>67</v>
+      </c>
+      <c r="I205" s="3">
+        <f t="shared" si="13"/>
+        <v>45692</v>
+      </c>
+      <c r="J205">
+        <f t="shared" si="14"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>971</v>
+      </c>
+      <c r="B206" t="s">
+        <v>928</v>
+      </c>
+      <c r="C206" t="s">
+        <v>972</v>
+      </c>
+      <c r="D206" t="s">
+        <v>973</v>
+      </c>
+      <c r="E206" t="s">
+        <v>974</v>
+      </c>
+      <c r="F206" t="s">
+        <v>620</v>
+      </c>
+      <c r="H206">
+        <f t="shared" si="12"/>
+        <v>68</v>
+      </c>
+      <c r="I206" s="3">
+        <f t="shared" si="13"/>
+        <v>45693</v>
+      </c>
+      <c r="J206">
+        <f t="shared" si="14"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>975</v>
+      </c>
+      <c r="B207" t="s">
+        <v>976</v>
+      </c>
+      <c r="C207" t="s">
+        <v>394</v>
+      </c>
+      <c r="D207" t="s">
+        <v>977</v>
+      </c>
+      <c r="E207" t="s">
+        <v>978</v>
+      </c>
+      <c r="F207" t="s">
+        <v>620</v>
+      </c>
+      <c r="H207">
+        <f t="shared" si="12"/>
+        <v>68</v>
+      </c>
+      <c r="I207" s="3">
+        <f t="shared" si="13"/>
+        <v>45693</v>
+      </c>
+      <c r="J207">
+        <f t="shared" si="14"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>979</v>
+      </c>
+      <c r="B208" t="s">
+        <v>980</v>
+      </c>
+      <c r="C208" t="s">
+        <v>981</v>
+      </c>
+      <c r="D208" t="s">
+        <v>982</v>
+      </c>
+      <c r="E208" t="s">
+        <v>983</v>
+      </c>
+      <c r="F208" t="s">
+        <v>620</v>
+      </c>
+      <c r="H208">
+        <f t="shared" ref="H208:H223" si="15">INT(J208/3)</f>
+        <v>68</v>
+      </c>
+      <c r="I208" s="3">
+        <f t="shared" ref="I208:I223" si="16">$L$1+H208</f>
+        <v>45693</v>
+      </c>
+      <c r="J208">
+        <f t="shared" si="14"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>737</v>
+      </c>
+      <c r="B209" t="s">
+        <v>984</v>
+      </c>
+      <c r="C209" t="s">
+        <v>985</v>
+      </c>
+      <c r="D209" t="s">
+        <v>986</v>
+      </c>
+      <c r="E209" t="s">
+        <v>987</v>
+      </c>
+      <c r="F209" t="s">
+        <v>620</v>
+      </c>
+      <c r="H209">
+        <f t="shared" si="15"/>
+        <v>69</v>
+      </c>
+      <c r="I209" s="3">
+        <f t="shared" si="16"/>
+        <v>45694</v>
+      </c>
+      <c r="J209">
+        <f t="shared" si="14"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>988</v>
+      </c>
+      <c r="B210" t="s">
+        <v>989</v>
+      </c>
+      <c r="C210" t="s">
+        <v>990</v>
+      </c>
+      <c r="D210" t="s">
+        <v>800</v>
+      </c>
+      <c r="E210" t="s">
+        <v>991</v>
+      </c>
+      <c r="F210" t="s">
+        <v>620</v>
+      </c>
+      <c r="H210">
+        <f t="shared" si="15"/>
+        <v>69</v>
+      </c>
+      <c r="I210" s="3">
+        <f t="shared" si="16"/>
+        <v>45694</v>
+      </c>
+      <c r="J210">
+        <f t="shared" si="14"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>992</v>
+      </c>
+      <c r="B211" t="s">
+        <v>993</v>
+      </c>
+      <c r="C211" t="s">
+        <v>994</v>
+      </c>
+      <c r="D211" t="s">
+        <v>458</v>
+      </c>
+      <c r="E211" t="s">
+        <v>995</v>
+      </c>
+      <c r="F211" t="s">
+        <v>620</v>
+      </c>
+      <c r="H211">
+        <f t="shared" si="15"/>
+        <v>69</v>
+      </c>
+      <c r="I211" s="3">
+        <f t="shared" si="16"/>
+        <v>45694</v>
+      </c>
+      <c r="J211">
+        <f t="shared" si="14"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>996</v>
+      </c>
+      <c r="B212" t="s">
+        <v>78</v>
+      </c>
+      <c r="C212" t="s">
+        <v>997</v>
+      </c>
+      <c r="D212" t="s">
+        <v>998</v>
+      </c>
+      <c r="E212" t="s">
+        <v>999</v>
+      </c>
+      <c r="F212" t="s">
+        <v>620</v>
+      </c>
+      <c r="H212">
+        <f t="shared" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="I212" s="3">
+        <f t="shared" si="16"/>
+        <v>45695</v>
+      </c>
+      <c r="J212">
+        <f t="shared" si="14"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F213" t="s">
+        <v>620</v>
+      </c>
+      <c r="H213">
+        <f t="shared" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="I213" s="3">
+        <f t="shared" si="16"/>
+        <v>45695</v>
+      </c>
+      <c r="J213">
+        <f t="shared" si="14"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F214" t="s">
+        <v>620</v>
+      </c>
+      <c r="H214">
+        <f t="shared" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="I214" s="3">
+        <f t="shared" si="16"/>
+        <v>45695</v>
+      </c>
+      <c r="J214">
+        <f t="shared" si="14"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>562</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F215" t="s">
+        <v>620</v>
+      </c>
+      <c r="H215">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="I215" s="3">
+        <f t="shared" si="16"/>
+        <v>45696</v>
+      </c>
+      <c r="J215">
+        <f t="shared" si="14"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F216" t="s">
+        <v>620</v>
+      </c>
+      <c r="H216">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="I216" s="3">
+        <f t="shared" si="16"/>
+        <v>45696</v>
+      </c>
+      <c r="J216">
+        <f t="shared" si="14"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C217" t="s">
+        <v>959</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F217" t="s">
+        <v>620</v>
+      </c>
+      <c r="H217">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="I217" s="3">
+        <f t="shared" si="16"/>
+        <v>45696</v>
+      </c>
+      <c r="J217">
+        <f t="shared" si="14"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>736</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F218" t="s">
+        <v>641</v>
+      </c>
+      <c r="H218">
+        <f t="shared" si="15"/>
+        <v>72</v>
+      </c>
+      <c r="I218" s="3">
+        <f t="shared" si="16"/>
+        <v>45697</v>
+      </c>
+      <c r="J218">
+        <f t="shared" si="14"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>64</v>
+      </c>
+      <c r="B219" t="s">
+        <v>482</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F219" t="s">
+        <v>620</v>
+      </c>
+      <c r="H219">
+        <f t="shared" si="15"/>
+        <v>72</v>
+      </c>
+      <c r="I219" s="3">
+        <f t="shared" si="16"/>
+        <v>45697</v>
+      </c>
+      <c r="J219">
+        <f t="shared" si="14"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C220" t="s">
+        <v>863</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E220" t="s">
+        <v>511</v>
+      </c>
+      <c r="F220" t="s">
+        <v>620</v>
+      </c>
+      <c r="H220">
+        <f t="shared" si="15"/>
+        <v>72</v>
+      </c>
+      <c r="I220" s="3">
+        <f t="shared" si="16"/>
+        <v>45697</v>
+      </c>
+      <c r="J220">
+        <f t="shared" si="14"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F221" t="s">
+        <v>641</v>
+      </c>
+      <c r="H221">
+        <f t="shared" si="15"/>
+        <v>73</v>
+      </c>
+      <c r="I221" s="3">
+        <f t="shared" si="16"/>
+        <v>45698</v>
+      </c>
+      <c r="J221">
+        <f t="shared" si="14"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F222" t="s">
+        <v>620</v>
+      </c>
+      <c r="H222">
+        <f t="shared" si="15"/>
+        <v>73</v>
+      </c>
+      <c r="I222" s="3">
+        <f t="shared" si="16"/>
+        <v>45698</v>
+      </c>
+      <c r="J222">
+        <f t="shared" ref="J222:J223" si="17">J221+1</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>14</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E223" t="s">
+        <v>821</v>
+      </c>
+      <c r="F223" t="s">
+        <v>620</v>
+      </c>
+      <c r="H223">
+        <f t="shared" si="15"/>
+        <v>73</v>
+      </c>
+      <c r="I223" s="3">
+        <f t="shared" si="16"/>
+        <v>45698</v>
+      </c>
+      <c r="J223">
         <f t="shared" si="17"/>
-        <v>135</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H134">
-    <sortCondition ref="H8:H134"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H135">
+    <sortCondition ref="H8:H135"/>
   </sortState>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="expression" dxfId="1" priority="1">
